--- a/data-raw/compras-coronavirus.xlsx
+++ b/data-raw/compras-coronavirus.xlsx
@@ -1,14 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glauc\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2878D98-4C06-46AF-934E-E3945EEE1F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="contratacoes-emergenciais" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'contratacoes-emergenciais'!$A$1:$AF$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="486">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -1132,6 +1147,39 @@
     <t>Aquisição EMERGENCIAL de material médico-hospitalar MÁSCARA CIRÚRGICA TRÊS CAMADAS para o Hospital Governador Israel Pinheiro-HGIP.</t>
   </si>
   <si>
+    <t>2012015 000051/2020</t>
+  </si>
+  <si>
+    <t>Aquisição de materiais médico-hospitalares do tipo VENTILATÓRIOS para utilização no Hospital Governador Israel Pinheiro-HGIP, mediante contrato para fornecimento parcelado.</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163317</t>
+  </si>
+  <si>
+    <t>05.075.964/0001-12</t>
+  </si>
+  <si>
+    <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
+  </si>
+  <si>
+    <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: COM VIA DE IRRIGACAO;</t>
+  </si>
+  <si>
+    <t>FILTRO PARA SISTEMA RESPIRATORIO - APLICACAO: PARA RESPIRADORES; TIPO: HIDROFOBO;</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163341</t>
+  </si>
+  <si>
+    <t>23.836.281/0001-12</t>
+  </si>
+  <si>
+    <t>PROCIMED HOSPITALAR E CIENTIFICA LTDA - EPP</t>
+  </si>
+  <si>
+    <t>FILTRO PARA SISTEMA RESPIRATORIO - APLICACAO: ANESTESIA GERAL E VENTILACAO MECANICA; TIPO: ADULTO;</t>
+  </si>
+  <si>
     <t>2121022 000013/2020</t>
   </si>
   <si>
@@ -1330,12 +1378,6 @@
     <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=162686</t>
   </si>
   <si>
-    <t>05.075.964/0001-12</t>
-  </si>
-  <si>
-    <t>CINCO - CONFIANCA INDUSTRIA E COMERCIO LTDA.</t>
-  </si>
-  <si>
     <t>FILTRO ABSOLUTO - TIPO: HEPA 3, EFICIENCIA DE FILTRAGEM 99,7% D.O.P; CLASSE: PENETRACAO DE BACTERIAS: MEDIA MENOR QUE 0,00069%; MOLDURA: SEM MOLDURA; DIMENSOES: 48" X 11" X 24"; VAZAO: ELEMENTO FILTRANTE:FIBRA VIDRO C/AG.ANTIMICROBIANO; RESISTENCIA TERMICA: 100ºC; CONFIGURACAO: -;</t>
   </si>
   <si>
@@ -1345,12 +1387,6 @@
     <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: ADULTO;</t>
   </si>
   <si>
-    <t>FILTRO PARA SISTEMA RESPIRATORIO - APLICACAO: ANESTESIA GERAL E VENTILACAO MECANICA; TIPO: ADULTO;</t>
-  </si>
-  <si>
-    <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: COM VIA DE IRRIGACAO;</t>
-  </si>
-  <si>
     <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: NEONATAL, CALIBRE 6 FRENCH;</t>
   </si>
   <si>
@@ -1363,7 +1399,7 @@
     <t>2320310 000127/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Material de limpeza 
+    <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
   </si>
   <si>
@@ -1451,16 +1487,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="172" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="173" formatCode="0"/>
-    <numFmt numFmtId="174" formatCode="d\/m\/yyyy"/>
-    <numFmt numFmtId="175" formatCode="###,###,##0.0000"/>
-    <numFmt numFmtId="176" formatCode="##,###,###,###,###,##0.0000"/>
-    <numFmt numFmtId="177" formatCode="##,###,###,###,###,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="d\/m\/yyyy"/>
+    <numFmt numFmtId="165" formatCode="###,###,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="##,###,###,###,###,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="##,###,###,###,###,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1468,18 +1502,18 @@
     </font>
     <font>
       <sz val="6"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1488,10 +1522,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="00000000"/>
-        <bgColor rgb="00000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1522,31 +1553,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00CACAD9"/>
+        <color rgb="FFCACAD9"/>
       </left>
       <right style="thin">
-        <color rgb="00CACAD9"/>
+        <color rgb="FFCACAD9"/>
       </right>
       <top style="thin">
-        <color rgb="00CACAD9"/>
+        <color rgb="FFCACAD9"/>
       </top>
       <bottom style="thin">
-        <color rgb="00CACAD9"/>
+        <color rgb="FFCACAD9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="00CAC9D9"/>
+        <color rgb="FFCAC9D9"/>
       </left>
       <right style="thin">
-        <color rgb="00CAC9D9"/>
+        <color rgb="FFCAC9D9"/>
       </right>
       <top style="thin">
-        <color rgb="00CAC9D9"/>
+        <color rgb="FFCAC9D9"/>
       </top>
       <bottom style="thin">
-        <color rgb="00CAC9D9"/>
+        <color rgb="FFCAC9D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1555,125 +1586,439 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF183"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.8093" customWidth="1"/>
-    <col min="2" max="2" width="23.8165" customWidth="1"/>
-    <col min="3" max="3" width="20.5842333333333" customWidth="1"/>
-    <col min="4" max="5" width="34.6541" customWidth="1"/>
-    <col min="6" max="6" width="23.8165" customWidth="1"/>
-    <col min="7" max="7" width="14.9753" customWidth="1"/>
-    <col min="8" max="8" width="23.8165" customWidth="1"/>
-    <col min="9" max="11" width="17.5421" customWidth="1"/>
-    <col min="12" max="12" width="18.5383986666667" customWidth="1"/>
-    <col min="13" max="13" width="31.0871986666667" customWidth="1"/>
-    <col min="14" max="14" width="23.0559666666667" customWidth="1"/>
-    <col min="15" max="15" width="31.0871986666667" customWidth="1"/>
-    <col min="16" max="16" width="26.6685" customWidth="1"/>
-    <col min="17" max="17" width="28.3797" customWidth="1"/>
-    <col min="18" max="18" width="31.2317" customWidth="1"/>
-    <col min="19" max="19" width="39.7877" customWidth="1"/>
-    <col min="20" max="20" width="14.2603986666667" customWidth="1"/>
-    <col min="21" max="21" width="39.7877" customWidth="1"/>
-    <col min="22" max="22" width="8.7009" customWidth="1"/>
-    <col min="23" max="24" width="10.7163133333333" customWidth="1"/>
-    <col min="25" max="25" width="83.8986333333333" customWidth="1"/>
-    <col min="26" max="26" width="54.1883986666667" customWidth="1"/>
-    <col min="27" max="27" width="26.4783666666667" customWidth="1"/>
-    <col min="28" max="28" width="22.2954333333333" customWidth="1"/>
-    <col min="29" max="29" width="35.4146333333333" customWidth="1"/>
-    <col min="30" max="30" width="37.1258333333333" customWidth="1"/>
-    <col min="31" max="31" width="32.9429" customWidth="1"/>
-    <col min="32" max="32" width="21.9151666666667" customWidth="1"/>
-    <col min="33" max="33" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="5" width="34.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" customWidth="1"/>
+    <col min="16" max="16" width="26.7109375" customWidth="1"/>
+    <col min="17" max="17" width="28.42578125" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" customWidth="1"/>
+    <col min="19" max="19" width="39.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="39.7109375" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="83.85546875" customWidth="1"/>
+    <col min="26" max="26" width="54.140625" customWidth="1"/>
+    <col min="27" max="27" width="26.42578125" customWidth="1"/>
+    <col min="28" max="28" width="22.28515625" customWidth="1"/>
+    <col min="29" max="29" width="35.42578125" customWidth="1"/>
+    <col min="30" max="30" width="37.140625" customWidth="1"/>
+    <col min="31" max="31" width="33" customWidth="1"/>
+    <col min="32" max="32" width="21.85546875" customWidth="1"/>
+    <col min="33" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.3325" customHeight="1">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +2116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="2" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -1800,7 +2145,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="7">
-        <v>9.245761e6</v>
+        <v>9245761</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>38</v>
@@ -1867,7 +2212,7 @@
         <v>780098.1</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>45</v>
       </c>
@@ -1896,7 +2241,7 @@
         <v>37</v>
       </c>
       <c r="J3" s="17">
-        <v>9.245765e6</v>
+        <v>9245765</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>47</v>
@@ -1932,7 +2277,7 @@
         <v>33</v>
       </c>
       <c r="V3" s="17">
-        <v>1.083678e6</v>
+        <v>1083678</v>
       </c>
       <c r="W3" s="20" t="s">
         <v>48</v>
@@ -1965,7 +2310,7 @@
         <v>159840</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="4" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -1994,7 +2339,7 @@
         <v>37</v>
       </c>
       <c r="J4" s="7">
-        <v>9.245765e6</v>
+        <v>9245765</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>47</v>
@@ -2030,7 +2375,7 @@
         <v>33</v>
       </c>
       <c r="V4" s="7">
-        <v>1.23568e6</v>
+        <v>1235680</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>50</v>
@@ -2063,7 +2408,7 @@
         <v>67680</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="5" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
@@ -2147,7 +2492,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="6" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -2231,7 +2576,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>57</v>
       </c>
@@ -2260,7 +2605,7 @@
         <v>37</v>
       </c>
       <c r="J7" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>59</v>
@@ -2315,10 +2660,10 @@
         <v>40</v>
       </c>
       <c r="AC7" s="22">
-        <v>450000e-6</v>
+        <v>0.45</v>
       </c>
       <c r="AD7" s="22">
-        <v>450000e-6</v>
+        <v>0.45</v>
       </c>
       <c r="AE7" s="23">
         <v>18</v>
@@ -2327,7 +2672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="8" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
@@ -2356,7 +2701,7 @@
         <v>37</v>
       </c>
       <c r="J8" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>59</v>
@@ -2411,19 +2756,19 @@
         <v>1</v>
       </c>
       <c r="AC8" s="11">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AD8" s="11">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE8" s="12">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AF8" s="12">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="9" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>57</v>
       </c>
@@ -2452,7 +2797,7 @@
         <v>37</v>
       </c>
       <c r="J9" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>59</v>
@@ -2519,7 +2864,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="10" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
@@ -2548,7 +2893,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>59</v>
@@ -2615,7 +2960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="11" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -2644,7 +2989,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>59</v>
@@ -2699,19 +3044,19 @@
         <v>1</v>
       </c>
       <c r="AC11" s="22">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AD11" s="22">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE11" s="23">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AF11" s="23">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="12" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
@@ -2740,7 +3085,7 @@
         <v>37</v>
       </c>
       <c r="J12" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>59</v>
@@ -2807,7 +3152,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="13" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>57</v>
       </c>
@@ -2836,7 +3181,7 @@
         <v>37</v>
       </c>
       <c r="J13" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>59</v>
@@ -2891,10 +3236,10 @@
         <v>50</v>
       </c>
       <c r="AC13" s="22">
-        <v>180000e-6</v>
+        <v>0.18</v>
       </c>
       <c r="AD13" s="22">
-        <v>180000e-6</v>
+        <v>0.18</v>
       </c>
       <c r="AE13" s="23">
         <v>9</v>
@@ -2903,7 +3248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="14" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
@@ -2932,7 +3277,7 @@
         <v>37</v>
       </c>
       <c r="J14" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>59</v>
@@ -2999,7 +3344,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="15" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>57</v>
       </c>
@@ -3028,7 +3373,7 @@
         <v>37</v>
       </c>
       <c r="J15" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>59</v>
@@ -3095,7 +3440,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="16" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
@@ -3124,7 +3469,7 @@
         <v>37</v>
       </c>
       <c r="J16" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>59</v>
@@ -3191,7 +3536,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="17" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>57</v>
       </c>
@@ -3220,7 +3565,7 @@
         <v>37</v>
       </c>
       <c r="J17" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>59</v>
@@ -3287,7 +3632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="18" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
@@ -3316,7 +3661,7 @@
         <v>37</v>
       </c>
       <c r="J18" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>59</v>
@@ -3371,10 +3716,10 @@
         <v>3</v>
       </c>
       <c r="AC18" s="11">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="AD18" s="11">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="AE18" s="12">
         <v>2.4</v>
@@ -3383,7 +3728,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="19" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>57</v>
       </c>
@@ -3412,7 +3757,7 @@
         <v>37</v>
       </c>
       <c r="J19" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>59</v>
@@ -3479,7 +3824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="20" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -3508,7 +3853,7 @@
         <v>37</v>
       </c>
       <c r="J20" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>59</v>
@@ -3563,10 +3908,10 @@
         <v>30</v>
       </c>
       <c r="AC20" s="11">
-        <v>880000e-6</v>
+        <v>0.88</v>
       </c>
       <c r="AD20" s="11">
-        <v>880000e-6</v>
+        <v>0.88</v>
       </c>
       <c r="AE20" s="12">
         <v>26.4</v>
@@ -3575,7 +3920,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="21" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>57</v>
       </c>
@@ -3604,7 +3949,7 @@
         <v>37</v>
       </c>
       <c r="J21" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>59</v>
@@ -3671,7 +4016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="22" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -3700,7 +4045,7 @@
         <v>37</v>
       </c>
       <c r="J22" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>59</v>
@@ -3755,10 +4100,10 @@
         <v>30</v>
       </c>
       <c r="AC22" s="11">
-        <v>990000e-6</v>
+        <v>0.99</v>
       </c>
       <c r="AD22" s="11">
-        <v>990000e-6</v>
+        <v>0.99</v>
       </c>
       <c r="AE22" s="12">
         <v>29.7</v>
@@ -3767,7 +4112,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="23" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>57</v>
       </c>
@@ -3796,7 +4141,7 @@
         <v>37</v>
       </c>
       <c r="J23" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>59</v>
@@ -3863,7 +4208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="24" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
@@ -3892,7 +4237,7 @@
         <v>37</v>
       </c>
       <c r="J24" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>59</v>
@@ -3959,7 +4304,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="25" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>57</v>
       </c>
@@ -3988,7 +4333,7 @@
         <v>37</v>
       </c>
       <c r="J25" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>59</v>
@@ -4055,7 +4400,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="26" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -4084,7 +4429,7 @@
         <v>37</v>
       </c>
       <c r="J26" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>59</v>
@@ -4151,7 +4496,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="27" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>57</v>
       </c>
@@ -4180,7 +4525,7 @@
         <v>37</v>
       </c>
       <c r="J27" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>59</v>
@@ -4214,7 +4559,7 @@
         <v>33</v>
       </c>
       <c r="V27" s="17">
-        <v>1.035142e6</v>
+        <v>1035142</v>
       </c>
       <c r="W27" s="15" t="s">
         <v>86</v>
@@ -4247,7 +4592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="28" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -4276,7 +4621,7 @@
         <v>37</v>
       </c>
       <c r="J28" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>59</v>
@@ -4310,7 +4655,7 @@
         <v>33</v>
       </c>
       <c r="V28" s="7">
-        <v>1.04639e6</v>
+        <v>1046390</v>
       </c>
       <c r="W28" s="5" t="s">
         <v>87</v>
@@ -4343,7 +4688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="29" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>57</v>
       </c>
@@ -4372,7 +4717,7 @@
         <v>37</v>
       </c>
       <c r="J29" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>59</v>
@@ -4406,7 +4751,7 @@
         <v>33</v>
       </c>
       <c r="V29" s="17">
-        <v>1.151371e6</v>
+        <v>1151371</v>
       </c>
       <c r="W29" s="15" t="s">
         <v>88</v>
@@ -4433,13 +4778,13 @@
         <v>1.89</v>
       </c>
       <c r="AE29" s="23">
-        <v>75.6</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="AF29" s="23">
-        <v>75.6</v>
+        <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="30" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
@@ -4468,7 +4813,7 @@
         <v>37</v>
       </c>
       <c r="J30" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>59</v>
@@ -4502,7 +4847,7 @@
         <v>33</v>
       </c>
       <c r="V30" s="7">
-        <v>1.252305e6</v>
+        <v>1252305</v>
       </c>
       <c r="W30" s="5" t="s">
         <v>89</v>
@@ -4523,10 +4868,10 @@
         <v>40</v>
       </c>
       <c r="AC30" s="11">
-        <v>580000e-6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AD30" s="11">
-        <v>580000e-6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AE30" s="12">
         <v>23.2</v>
@@ -4535,7 +4880,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="31" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>57</v>
       </c>
@@ -4564,7 +4909,7 @@
         <v>37</v>
       </c>
       <c r="J31" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>59</v>
@@ -4598,7 +4943,7 @@
         <v>33</v>
       </c>
       <c r="V31" s="17">
-        <v>1.27586e6</v>
+        <v>1275860</v>
       </c>
       <c r="W31" s="15" t="s">
         <v>90</v>
@@ -4631,7 +4976,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="32" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
@@ -4660,7 +5005,7 @@
         <v>37</v>
       </c>
       <c r="J32" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>59</v>
@@ -4694,7 +5039,7 @@
         <v>33</v>
       </c>
       <c r="V32" s="7">
-        <v>1.396595e6</v>
+        <v>1396595</v>
       </c>
       <c r="W32" s="5" t="s">
         <v>91</v>
@@ -4715,10 +5060,10 @@
         <v>30</v>
       </c>
       <c r="AC32" s="11">
-        <v>330000e-6</v>
+        <v>0.33</v>
       </c>
       <c r="AD32" s="11">
-        <v>330000e-6</v>
+        <v>0.33</v>
       </c>
       <c r="AE32" s="12">
         <v>9.9</v>
@@ -4727,7 +5072,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="33" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>57</v>
       </c>
@@ -4756,7 +5101,7 @@
         <v>37</v>
       </c>
       <c r="J33" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>59</v>
@@ -4790,7 +5135,7 @@
         <v>33</v>
       </c>
       <c r="V33" s="17">
-        <v>1.532073e6</v>
+        <v>1532073</v>
       </c>
       <c r="W33" s="15" t="s">
         <v>92</v>
@@ -4811,10 +5156,10 @@
         <v>30</v>
       </c>
       <c r="AC33" s="22">
-        <v>360000e-6</v>
+        <v>0.36</v>
       </c>
       <c r="AD33" s="22">
-        <v>360000e-6</v>
+        <v>0.36</v>
       </c>
       <c r="AE33" s="23">
         <v>10.8</v>
@@ -4823,7 +5168,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="34" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>57</v>
       </c>
@@ -4852,7 +5197,7 @@
         <v>37</v>
       </c>
       <c r="J34" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>59</v>
@@ -4886,7 +5231,7 @@
         <v>33</v>
       </c>
       <c r="V34" s="7">
-        <v>1.555782e6</v>
+        <v>1555782</v>
       </c>
       <c r="W34" s="5" t="s">
         <v>93</v>
@@ -4919,7 +5264,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="35" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>57</v>
       </c>
@@ -4948,7 +5293,7 @@
         <v>37</v>
       </c>
       <c r="J35" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>59</v>
@@ -4982,7 +5327,7 @@
         <v>33</v>
       </c>
       <c r="V35" s="17">
-        <v>1.59325e6</v>
+        <v>1593250</v>
       </c>
       <c r="W35" s="15" t="s">
         <v>94</v>
@@ -5015,7 +5360,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="36" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
@@ -5044,7 +5389,7 @@
         <v>37</v>
       </c>
       <c r="J36" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>59</v>
@@ -5078,7 +5423,7 @@
         <v>33</v>
       </c>
       <c r="V36" s="7">
-        <v>1.603329e6</v>
+        <v>1603329</v>
       </c>
       <c r="W36" s="5" t="s">
         <v>95</v>
@@ -5099,19 +5444,19 @@
         <v>1</v>
       </c>
       <c r="AC36" s="11">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AD36" s="11">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE36" s="12">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AF36" s="12">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="37" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>57</v>
       </c>
@@ -5140,7 +5485,7 @@
         <v>37</v>
       </c>
       <c r="J37" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>59</v>
@@ -5174,7 +5519,7 @@
         <v>33</v>
       </c>
       <c r="V37" s="17">
-        <v>1.689274e6</v>
+        <v>1689274</v>
       </c>
       <c r="W37" s="20" t="s">
         <v>97</v>
@@ -5207,7 +5552,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="38" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -5236,7 +5581,7 @@
         <v>37</v>
       </c>
       <c r="J38" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>59</v>
@@ -5270,7 +5615,7 @@
         <v>33</v>
       </c>
       <c r="V38" s="7">
-        <v>1.734989e6</v>
+        <v>1734989</v>
       </c>
       <c r="W38" s="5" t="s">
         <v>99</v>
@@ -5303,7 +5648,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="39" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>57</v>
       </c>
@@ -5332,7 +5677,7 @@
         <v>37</v>
       </c>
       <c r="J39" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>59</v>
@@ -5366,7 +5711,7 @@
         <v>33</v>
       </c>
       <c r="V39" s="17">
-        <v>1.754416e6</v>
+        <v>1754416</v>
       </c>
       <c r="W39" s="15" t="s">
         <v>100</v>
@@ -5399,7 +5744,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="40" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
@@ -5428,7 +5773,7 @@
         <v>37</v>
       </c>
       <c r="J40" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>59</v>
@@ -5462,7 +5807,7 @@
         <v>33</v>
       </c>
       <c r="V40" s="7">
-        <v>1.754831e6</v>
+        <v>1754831</v>
       </c>
       <c r="W40" s="5" t="s">
         <v>101</v>
@@ -5483,19 +5828,19 @@
         <v>1</v>
       </c>
       <c r="AC40" s="11">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="AD40" s="11">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="AE40" s="12">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="AF40" s="12">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="41" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>57</v>
       </c>
@@ -5524,7 +5869,7 @@
         <v>37</v>
       </c>
       <c r="J41" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K41" s="15" t="s">
         <v>59</v>
@@ -5558,7 +5903,7 @@
         <v>33</v>
       </c>
       <c r="V41" s="17">
-        <v>1.75484e6</v>
+        <v>1754840</v>
       </c>
       <c r="W41" s="15" t="s">
         <v>102</v>
@@ -5591,7 +5936,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="42" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>103</v>
       </c>
@@ -5675,7 +6020,7 @@
         <v>155057.31</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="43" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>109</v>
       </c>
@@ -5704,7 +6049,7 @@
         <v>37</v>
       </c>
       <c r="J43" s="17">
-        <v>9.247068e6</v>
+        <v>9247068</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>111</v>
@@ -5761,10 +6106,10 @@
         <v>264850</v>
       </c>
       <c r="AC43" s="22">
-        <v>570000e-6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AD43" s="22">
-        <v>380000e-6</v>
+        <v>0.38</v>
       </c>
       <c r="AE43" s="23">
         <v>150964.5</v>
@@ -5773,7 +6118,7 @@
         <v>100643</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="44" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>116</v>
       </c>
@@ -5824,7 +6169,7 @@
         <v>33</v>
       </c>
       <c r="V44" s="7">
-        <v>1.746723e6</v>
+        <v>1746723</v>
       </c>
       <c r="W44" s="5" t="s">
         <v>121</v>
@@ -5857,7 +6202,7 @@
         <v>55120</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="45" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>124</v>
       </c>
@@ -5908,7 +6253,7 @@
         <v>33</v>
       </c>
       <c r="V45" s="17">
-        <v>1.487353e6</v>
+        <v>1487353</v>
       </c>
       <c r="W45" s="15" t="s">
         <v>128</v>
@@ -5941,7 +6286,7 @@
         <v>264000</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="46" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>130</v>
       </c>
@@ -5992,7 +6337,7 @@
         <v>33</v>
       </c>
       <c r="V46" s="7">
-        <v>1.758136e6</v>
+        <v>1758136</v>
       </c>
       <c r="W46" s="5" t="s">
         <v>135</v>
@@ -6013,7 +6358,7 @@
         <v>6</v>
       </c>
       <c r="AC46" s="11">
-        <v>259.415</v>
+        <v>259.41500000000002</v>
       </c>
       <c r="AD46" s="11">
         <v>200</v>
@@ -6025,7 +6370,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="47" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>136</v>
       </c>
@@ -6076,7 +6421,7 @@
         <v>33</v>
       </c>
       <c r="V47" s="17">
-        <v>1.759833e6</v>
+        <v>1759833</v>
       </c>
       <c r="W47" s="15" t="s">
         <v>140</v>
@@ -6109,7 +6454,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="48" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>136</v>
       </c>
@@ -6160,7 +6505,7 @@
         <v>33</v>
       </c>
       <c r="V48" s="7">
-        <v>1.759841e6</v>
+        <v>1759841</v>
       </c>
       <c r="W48" s="5" t="s">
         <v>141</v>
@@ -6193,7 +6538,7 @@
         <v>839.7</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="49" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>142</v>
       </c>
@@ -6277,7 +6622,7 @@
         <v>13110</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="50" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>142</v>
       </c>
@@ -6349,19 +6694,19 @@
         <v>1</v>
       </c>
       <c r="AC50" s="11">
-        <v>8929.8</v>
+        <v>8929.7999999999993</v>
       </c>
       <c r="AD50" s="11">
-        <v>8929.8</v>
+        <v>8929.7999999999993</v>
       </c>
       <c r="AE50" s="12">
-        <v>8929.8</v>
+        <v>8929.7999999999993</v>
       </c>
       <c r="AF50" s="12">
-        <v>8929.8</v>
+        <v>8929.7999999999993</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="51" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>142</v>
       </c>
@@ -6445,7 +6790,7 @@
         <v>15006</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="52" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>142</v>
       </c>
@@ -6496,7 +6841,7 @@
         <v>33</v>
       </c>
       <c r="V52" s="7">
-        <v>1.139886e6</v>
+        <v>1139886</v>
       </c>
       <c r="W52" s="5" t="s">
         <v>150</v>
@@ -6523,13 +6868,13 @@
         <v>1631.8</v>
       </c>
       <c r="AE52" s="12">
-        <v>4895.4</v>
+        <v>4895.3999999999996</v>
       </c>
       <c r="AF52" s="12">
-        <v>4895.4</v>
+        <v>4895.3999999999996</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="53" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>142</v>
       </c>
@@ -6580,7 +6925,7 @@
         <v>33</v>
       </c>
       <c r="V53" s="17">
-        <v>1.1458e6</v>
+        <v>1145800</v>
       </c>
       <c r="W53" s="15" t="s">
         <v>151</v>
@@ -6601,19 +6946,19 @@
         <v>4</v>
       </c>
       <c r="AC53" s="22">
-        <v>4198.4</v>
+        <v>4198.3999999999996</v>
       </c>
       <c r="AD53" s="22">
-        <v>4198.4</v>
+        <v>4198.3999999999996</v>
       </c>
       <c r="AE53" s="23">
-        <v>16793.6</v>
+        <v>16793.599999999999</v>
       </c>
       <c r="AF53" s="23">
-        <v>16793.6</v>
+        <v>16793.599999999999</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="54" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>142</v>
       </c>
@@ -6664,7 +7009,7 @@
         <v>33</v>
       </c>
       <c r="V54" s="7">
-        <v>1.14586e6</v>
+        <v>1145860</v>
       </c>
       <c r="W54" s="5" t="s">
         <v>152</v>
@@ -6697,7 +7042,7 @@
         <v>12570.6</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="55" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>142</v>
       </c>
@@ -6748,7 +7093,7 @@
         <v>33</v>
       </c>
       <c r="V55" s="17">
-        <v>1.145908e6</v>
+        <v>1145908</v>
       </c>
       <c r="W55" s="15" t="s">
         <v>153</v>
@@ -6781,7 +7126,7 @@
         <v>2517.4</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="56" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>142</v>
       </c>
@@ -6832,7 +7177,7 @@
         <v>33</v>
       </c>
       <c r="V56" s="7">
-        <v>1.176641e6</v>
+        <v>1176641</v>
       </c>
       <c r="W56" s="5" t="s">
         <v>154</v>
@@ -6865,7 +7210,7 @@
         <v>31955.4</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="57" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>142</v>
       </c>
@@ -6916,7 +7261,7 @@
         <v>33</v>
       </c>
       <c r="V57" s="17">
-        <v>1.207334e6</v>
+        <v>1207334</v>
       </c>
       <c r="W57" s="15" t="s">
         <v>155</v>
@@ -6949,7 +7294,7 @@
         <v>762.6</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="58" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>142</v>
       </c>
@@ -7000,7 +7345,7 @@
         <v>33</v>
       </c>
       <c r="V58" s="7">
-        <v>1.266446e6</v>
+        <v>1266446</v>
       </c>
       <c r="W58" s="5" t="s">
         <v>156</v>
@@ -7033,7 +7378,7 @@
         <v>639.6</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="59" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>142</v>
       </c>
@@ -7084,7 +7429,7 @@
         <v>33</v>
       </c>
       <c r="V59" s="17">
-        <v>1.337009e6</v>
+        <v>1337009</v>
       </c>
       <c r="W59" s="15" t="s">
         <v>157</v>
@@ -7117,7 +7462,7 @@
         <v>3230.8</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="60" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>142</v>
       </c>
@@ -7168,7 +7513,7 @@
         <v>33</v>
       </c>
       <c r="V60" s="7">
-        <v>1.344072e6</v>
+        <v>1344072</v>
       </c>
       <c r="W60" s="5" t="s">
         <v>158</v>
@@ -7189,19 +7534,19 @@
         <v>1</v>
       </c>
       <c r="AC60" s="11">
-        <v>4370.6</v>
+        <v>4370.6000000000004</v>
       </c>
       <c r="AD60" s="11">
-        <v>4370.6</v>
+        <v>4370.6000000000004</v>
       </c>
       <c r="AE60" s="12">
-        <v>4370.6</v>
+        <v>4370.6000000000004</v>
       </c>
       <c r="AF60" s="12">
-        <v>4370.6</v>
+        <v>4370.6000000000004</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="61" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>142</v>
       </c>
@@ -7252,7 +7597,7 @@
         <v>33</v>
       </c>
       <c r="V61" s="17">
-        <v>1.559222e6</v>
+        <v>1559222</v>
       </c>
       <c r="W61" s="15" t="s">
         <v>159</v>
@@ -7285,7 +7630,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="62" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>160</v>
       </c>
@@ -7336,7 +7681,7 @@
         <v>33</v>
       </c>
       <c r="V62" s="7">
-        <v>1.456741e6</v>
+        <v>1456741</v>
       </c>
       <c r="W62" s="5" t="s">
         <v>164</v>
@@ -7369,7 +7714,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="63" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>160</v>
       </c>
@@ -7420,7 +7765,7 @@
         <v>33</v>
       </c>
       <c r="V63" s="17">
-        <v>1.45675e6</v>
+        <v>1456750</v>
       </c>
       <c r="W63" s="20" t="s">
         <v>165</v>
@@ -7453,7 +7798,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="64" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>160</v>
       </c>
@@ -7535,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="65" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>169</v>
       </c>
@@ -7607,7 +7952,7 @@
         <v>5</v>
       </c>
       <c r="AC65" s="22">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="AD65" s="22">
         <v>37.6</v>
@@ -7619,7 +7964,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="66" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>176</v>
       </c>
@@ -7648,7 +7993,7 @@
         <v>37</v>
       </c>
       <c r="J66" s="7">
-        <v>9.245786e6</v>
+        <v>9245786</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>178</v>
@@ -7684,7 +8029,7 @@
         <v>33</v>
       </c>
       <c r="V66" s="7">
-        <v>1.754467e6</v>
+        <v>1754467</v>
       </c>
       <c r="W66" s="5" t="s">
         <v>181</v>
@@ -7717,7 +8062,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="67" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>183</v>
       </c>
@@ -7768,7 +8113,7 @@
         <v>33</v>
       </c>
       <c r="V67" s="17">
-        <v>1.66937e6</v>
+        <v>1669370</v>
       </c>
       <c r="W67" s="15" t="s">
         <v>187</v>
@@ -7801,7 +8146,7 @@
         <v>421545.6</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="68" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>189</v>
       </c>
@@ -7852,7 +8197,7 @@
         <v>33</v>
       </c>
       <c r="V68" s="7">
-        <v>1.114174e6</v>
+        <v>1114174</v>
       </c>
       <c r="W68" s="5" t="s">
         <v>193</v>
@@ -7885,7 +8230,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="69" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>195</v>
       </c>
@@ -7936,7 +8281,7 @@
         <v>33</v>
       </c>
       <c r="V69" s="17">
-        <v>1.66937e6</v>
+        <v>1669370</v>
       </c>
       <c r="W69" s="15" t="s">
         <v>187</v>
@@ -7969,7 +8314,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="70" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>202</v>
       </c>
@@ -8053,7 +8398,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="71" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>202</v>
       </c>
@@ -8104,7 +8449,7 @@
         <v>33</v>
       </c>
       <c r="V71" s="17">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W71" s="15" t="s">
         <v>209</v>
@@ -8125,10 +8470,10 @@
         <v>1000</v>
       </c>
       <c r="AC71" s="22">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AD71" s="22">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AE71" s="23">
         <v>19900</v>
@@ -8137,7 +8482,7 @@
         <v>19900</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="72" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>202</v>
       </c>
@@ -8221,7 +8566,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="73" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>202</v>
       </c>
@@ -8272,7 +8617,7 @@
         <v>33</v>
       </c>
       <c r="V73" s="17">
-        <v>1.57669e6</v>
+        <v>1576690</v>
       </c>
       <c r="W73" s="20" t="s">
         <v>213</v>
@@ -8305,7 +8650,7 @@
         <v>117600</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="74" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>202</v>
       </c>
@@ -8356,7 +8701,7 @@
         <v>33</v>
       </c>
       <c r="V74" s="7">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W74" s="5" t="s">
         <v>209</v>
@@ -8389,7 +8734,7 @@
         <v>217500</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="75" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>202</v>
       </c>
@@ -8473,7 +8818,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="76" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>202</v>
       </c>
@@ -8524,7 +8869,7 @@
         <v>33</v>
       </c>
       <c r="V76" s="7">
-        <v>1.672711e6</v>
+        <v>1672711</v>
       </c>
       <c r="W76" s="5" t="s">
         <v>218</v>
@@ -8545,19 +8890,19 @@
         <v>70</v>
       </c>
       <c r="AC76" s="11">
-        <v>37.41</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="AD76" s="11">
         <v>37.14</v>
       </c>
       <c r="AE76" s="12">
-        <v>2618.7</v>
+        <v>2618.6999999999998</v>
       </c>
       <c r="AF76" s="12">
-        <v>2599.8</v>
+        <v>2599.8000000000002</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="77" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>202</v>
       </c>
@@ -8608,7 +8953,7 @@
         <v>33</v>
       </c>
       <c r="V77" s="17">
-        <v>1.67272e6</v>
+        <v>1672720</v>
       </c>
       <c r="W77" s="15" t="s">
         <v>219</v>
@@ -8629,7 +8974,7 @@
         <v>360</v>
       </c>
       <c r="AC77" s="22">
-        <v>37.41</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="AD77" s="22">
         <v>37.14</v>
@@ -8641,7 +8986,7 @@
         <v>13370.4</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="78" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>202</v>
       </c>
@@ -8692,7 +9037,7 @@
         <v>33</v>
       </c>
       <c r="V78" s="7">
-        <v>1.672738e6</v>
+        <v>1672738</v>
       </c>
       <c r="W78" s="5" t="s">
         <v>220</v>
@@ -8713,7 +9058,7 @@
         <v>570</v>
       </c>
       <c r="AC78" s="11">
-        <v>37.41</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="AD78" s="11">
         <v>37.14</v>
@@ -8725,7 +9070,7 @@
         <v>21169.8</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="79" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>202</v>
       </c>
@@ -8776,7 +9121,7 @@
         <v>33</v>
       </c>
       <c r="V79" s="17">
-        <v>1.470957e6</v>
+        <v>1470957</v>
       </c>
       <c r="W79" s="15" t="s">
         <v>223</v>
@@ -8809,7 +9154,7 @@
         <v>10890</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="80" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>202</v>
       </c>
@@ -8893,7 +9238,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="81" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>227</v>
       </c>
@@ -8922,7 +9267,7 @@
         <v>37</v>
       </c>
       <c r="J81" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K81" s="15" t="s">
         <v>230</v>
@@ -8989,7 +9334,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="82" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>227</v>
       </c>
@@ -9018,7 +9363,7 @@
         <v>37</v>
       </c>
       <c r="J82" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>230</v>
@@ -9070,13 +9415,13 @@
         <v>44</v>
       </c>
       <c r="AB82" s="10">
-        <v>5.587405e6</v>
+        <v>5587405</v>
       </c>
       <c r="AC82" s="11">
-        <v>80000e-6</v>
+        <v>0.08</v>
       </c>
       <c r="AD82" s="11">
-        <v>75000e-6</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE82" s="12">
         <v>446992.4</v>
@@ -9085,7 +9430,7 @@
         <v>419055.37</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="83" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>227</v>
       </c>
@@ -9114,7 +9459,7 @@
         <v>37</v>
       </c>
       <c r="J83" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K83" s="15" t="s">
         <v>230</v>
@@ -9181,7 +9526,7 @@
         <v>106640</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="84" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>227</v>
       </c>
@@ -9210,7 +9555,7 @@
         <v>37</v>
       </c>
       <c r="J84" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>230</v>
@@ -9244,7 +9589,7 @@
         <v>33</v>
       </c>
       <c r="V84" s="7">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W84" s="5" t="s">
         <v>209</v>
@@ -9265,10 +9610,10 @@
         <v>5000</v>
       </c>
       <c r="AC84" s="11">
-        <v>18.17</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="AD84" s="11">
-        <v>18.17</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="AE84" s="12">
         <v>90850</v>
@@ -9277,7 +9622,7 @@
         <v>90850</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="85" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>227</v>
       </c>
@@ -9306,7 +9651,7 @@
         <v>37</v>
       </c>
       <c r="J85" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K85" s="15" t="s">
         <v>230</v>
@@ -9340,7 +9685,7 @@
         <v>33</v>
       </c>
       <c r="V85" s="17">
-        <v>1.672525e6</v>
+        <v>1672525</v>
       </c>
       <c r="W85" s="15" t="s">
         <v>234</v>
@@ -9373,7 +9718,7 @@
         <v>262080</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="86" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>227</v>
       </c>
@@ -9402,7 +9747,7 @@
         <v>37</v>
       </c>
       <c r="J86" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>230</v>
@@ -9436,7 +9781,7 @@
         <v>33</v>
       </c>
       <c r="V86" s="7">
-        <v>1.672533e6</v>
+        <v>1672533</v>
       </c>
       <c r="W86" s="5" t="s">
         <v>236</v>
@@ -9469,7 +9814,7 @@
         <v>356460</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="87" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>227</v>
       </c>
@@ -9498,7 +9843,7 @@
         <v>37</v>
       </c>
       <c r="J87" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K87" s="15" t="s">
         <v>230</v>
@@ -9532,7 +9877,7 @@
         <v>33</v>
       </c>
       <c r="V87" s="17">
-        <v>1.672541e6</v>
+        <v>1672541</v>
       </c>
       <c r="W87" s="15" t="s">
         <v>237</v>
@@ -9565,7 +9910,7 @@
         <v>24710</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="88" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>227</v>
       </c>
@@ -9594,7 +9939,7 @@
         <v>37</v>
       </c>
       <c r="J88" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K88" s="5" t="s">
         <v>230</v>
@@ -9628,7 +9973,7 @@
         <v>33</v>
       </c>
       <c r="V88" s="7">
-        <v>1.672584e6</v>
+        <v>1672584</v>
       </c>
       <c r="W88" s="5" t="s">
         <v>238</v>
@@ -9655,13 +10000,13 @@
         <v>28.47</v>
       </c>
       <c r="AE88" s="12">
-        <v>1.05020136e6</v>
+        <v>1050201.3600000001</v>
       </c>
       <c r="AF88" s="12">
-        <v>1.05020136e6</v>
+        <v>1050201.3600000001</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="89" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>227</v>
       </c>
@@ -9690,7 +10035,7 @@
         <v>37</v>
       </c>
       <c r="J89" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K89" s="15" t="s">
         <v>230</v>
@@ -9724,7 +10069,7 @@
         <v>33</v>
       </c>
       <c r="V89" s="17">
-        <v>1.672592e6</v>
+        <v>1672592</v>
       </c>
       <c r="W89" s="15" t="s">
         <v>239</v>
@@ -9751,13 +10096,13 @@
         <v>28.47</v>
       </c>
       <c r="AE89" s="23">
-        <v>1.94057214e6</v>
+        <v>1940572.14</v>
       </c>
       <c r="AF89" s="23">
-        <v>1.94057214e6</v>
+        <v>1940572.14</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="90" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>227</v>
       </c>
@@ -9786,7 +10131,7 @@
         <v>37</v>
       </c>
       <c r="J90" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>230</v>
@@ -9820,7 +10165,7 @@
         <v>33</v>
       </c>
       <c r="V90" s="7">
-        <v>1.672606e6</v>
+        <v>1672606</v>
       </c>
       <c r="W90" s="5" t="s">
         <v>240</v>
@@ -9853,7 +10198,7 @@
         <v>993261.36</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="91" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>227</v>
       </c>
@@ -9882,7 +10227,7 @@
         <v>37</v>
       </c>
       <c r="J91" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K91" s="15" t="s">
         <v>230</v>
@@ -9916,7 +10261,7 @@
         <v>33</v>
       </c>
       <c r="V91" s="17">
-        <v>1.672738e6</v>
+        <v>1672738</v>
       </c>
       <c r="W91" s="15" t="s">
         <v>220</v>
@@ -9949,7 +10294,7 @@
         <v>60450</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="92" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>227</v>
       </c>
@@ -9978,7 +10323,7 @@
         <v>37</v>
       </c>
       <c r="J92" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K92" s="5" t="s">
         <v>230</v>
@@ -10012,7 +10357,7 @@
         <v>33</v>
       </c>
       <c r="V92" s="7">
-        <v>1.672762e6</v>
+        <v>1672762</v>
       </c>
       <c r="W92" s="5" t="s">
         <v>241</v>
@@ -10045,7 +10390,7 @@
         <v>72540</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="93" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>227</v>
       </c>
@@ -10074,7 +10419,7 @@
         <v>37</v>
       </c>
       <c r="J93" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K93" s="15" t="s">
         <v>230</v>
@@ -10108,7 +10453,7 @@
         <v>33</v>
       </c>
       <c r="V93" s="17">
-        <v>1.67277e6</v>
+        <v>1672770</v>
       </c>
       <c r="W93" s="15" t="s">
         <v>242</v>
@@ -10141,7 +10486,7 @@
         <v>145080</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="94" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>227</v>
       </c>
@@ -10170,7 +10515,7 @@
         <v>37</v>
       </c>
       <c r="J94" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>230</v>
@@ -10204,7 +10549,7 @@
         <v>33</v>
       </c>
       <c r="V94" s="7">
-        <v>1.710273e6</v>
+        <v>1710273</v>
       </c>
       <c r="W94" s="5" t="s">
         <v>243</v>
@@ -10222,7 +10567,7 @@
         <v>44</v>
       </c>
       <c r="AB94" s="10">
-        <v>5.746855e6</v>
+        <v>5746855</v>
       </c>
       <c r="AC94" s="11">
         <v>3.84</v>
@@ -10231,13 +10576,13 @@
         <v>3.8245</v>
       </c>
       <c r="AE94" s="12">
-        <v>22.0679232e6</v>
+        <v>22067923.199999999</v>
       </c>
       <c r="AF94" s="12">
-        <v>21.97884694e6</v>
+        <v>21978846.940000001</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="95" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>244</v>
       </c>
@@ -10266,7 +10611,7 @@
         <v>37</v>
       </c>
       <c r="J95" s="17">
-        <v>9.245606e6</v>
+        <v>9245606</v>
       </c>
       <c r="K95" s="15" t="s">
         <v>246</v>
@@ -10300,7 +10645,7 @@
         <v>33</v>
       </c>
       <c r="V95" s="17">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W95" s="15" t="s">
         <v>209</v>
@@ -10327,13 +10672,13 @@
         <v>9.98</v>
       </c>
       <c r="AE95" s="23">
-        <v>1.497e6</v>
+        <v>1497000</v>
       </c>
       <c r="AF95" s="23">
-        <v>1.497e6</v>
+        <v>1497000</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="96" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>250</v>
       </c>
@@ -10362,7 +10707,7 @@
         <v>37</v>
       </c>
       <c r="J96" s="7">
-        <v>9.245644e6</v>
+        <v>9245644</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>252</v>
@@ -10429,7 +10774,7 @@
         <v>99800</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="97" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>254</v>
       </c>
@@ -10458,7 +10803,7 @@
         <v>37</v>
       </c>
       <c r="J97" s="17">
-        <v>9.245631e6</v>
+        <v>9245631</v>
       </c>
       <c r="K97" s="15" t="s">
         <v>257</v>
@@ -10492,7 +10837,7 @@
         <v>33</v>
       </c>
       <c r="V97" s="17">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W97" s="15" t="s">
         <v>209</v>
@@ -10525,7 +10870,7 @@
         <v>648700</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="98" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>259</v>
       </c>
@@ -10576,7 +10921,7 @@
         <v>33</v>
       </c>
       <c r="V98" s="7">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W98" s="5" t="s">
         <v>263</v>
@@ -10609,7 +10954,7 @@
         <v>252500</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="99" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>265</v>
       </c>
@@ -10660,7 +11005,7 @@
         <v>33</v>
       </c>
       <c r="V99" s="17">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W99" s="15" t="s">
         <v>263</v>
@@ -10693,7 +11038,7 @@
         <v>80800</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="100" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>268</v>
       </c>
@@ -10744,7 +11089,7 @@
         <v>33</v>
       </c>
       <c r="V100" s="7">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W100" s="5" t="s">
         <v>263</v>
@@ -10771,13 +11116,13 @@
         <v>2.02</v>
       </c>
       <c r="AE100" s="12">
-        <v>286167.34</v>
+        <v>286167.34000000003</v>
       </c>
       <c r="AF100" s="12">
-        <v>286167.34</v>
+        <v>286167.34000000003</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="101" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>270</v>
       </c>
@@ -10828,7 +11173,7 @@
         <v>33</v>
       </c>
       <c r="V101" s="17">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W101" s="15" t="s">
         <v>263</v>
@@ -10861,7 +11206,7 @@
         <v>202000</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="102" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>270</v>
       </c>
@@ -10912,7 +11257,7 @@
         <v>33</v>
       </c>
       <c r="V102" s="7">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W102" s="5" t="s">
         <v>263</v>
@@ -10945,7 +11290,7 @@
         <v>50500</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="103" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>272</v>
       </c>
@@ -10974,7 +11319,7 @@
         <v>37</v>
       </c>
       <c r="J103" s="17">
-        <v>9.24571e6</v>
+        <v>9245710</v>
       </c>
       <c r="K103" s="15" t="s">
         <v>274</v>
@@ -11008,7 +11353,7 @@
         <v>33</v>
       </c>
       <c r="V103" s="17">
-        <v>1.734423e6</v>
+        <v>1734423</v>
       </c>
       <c r="W103" s="15" t="s">
         <v>277</v>
@@ -11041,7 +11386,7 @@
         <v>175680</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="104" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>279</v>
       </c>
@@ -11070,7 +11415,7 @@
         <v>37</v>
       </c>
       <c r="J104" s="7">
-        <v>9.245712e6</v>
+        <v>9245712</v>
       </c>
       <c r="K104" s="5" t="s">
         <v>281</v>
@@ -11131,13 +11476,13 @@
         <v>15.01</v>
       </c>
       <c r="AE104" s="12">
-        <v>11.2575e6</v>
+        <v>11257500</v>
       </c>
       <c r="AF104" s="12">
-        <v>11.2575e6</v>
+        <v>11257500</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="105" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>283</v>
       </c>
@@ -11166,7 +11511,7 @@
         <v>37</v>
       </c>
       <c r="J105" s="17">
-        <v>9.245714e6</v>
+        <v>9245714</v>
       </c>
       <c r="K105" s="15" t="s">
         <v>285</v>
@@ -11200,7 +11545,7 @@
         <v>33</v>
       </c>
       <c r="V105" s="17">
-        <v>1.734423e6</v>
+        <v>1734423</v>
       </c>
       <c r="W105" s="15" t="s">
         <v>277</v>
@@ -11233,7 +11578,7 @@
         <v>472395</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="106" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>288</v>
       </c>
@@ -11284,7 +11629,7 @@
         <v>33</v>
       </c>
       <c r="V106" s="7">
-        <v>1.672584e6</v>
+        <v>1672584</v>
       </c>
       <c r="W106" s="5" t="s">
         <v>238</v>
@@ -11317,7 +11662,7 @@
         <v>230300</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="107" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>288</v>
       </c>
@@ -11368,7 +11713,7 @@
         <v>33</v>
       </c>
       <c r="V107" s="17">
-        <v>1.672592e6</v>
+        <v>1672592</v>
       </c>
       <c r="W107" s="15" t="s">
         <v>239</v>
@@ -11401,7 +11746,7 @@
         <v>822500</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="108" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>290</v>
       </c>
@@ -11430,7 +11775,7 @@
         <v>37</v>
       </c>
       <c r="J108" s="7">
-        <v>9.24576e6</v>
+        <v>9245760</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>292</v>
@@ -11464,7 +11809,7 @@
         <v>33</v>
       </c>
       <c r="V108" s="7">
-        <v>1.649256e6</v>
+        <v>1649256</v>
       </c>
       <c r="W108" s="5" t="s">
         <v>295</v>
@@ -11491,13 +11836,13 @@
         <v>23610</v>
       </c>
       <c r="AE108" s="12">
-        <v>1.4166e6</v>
+        <v>1416600</v>
       </c>
       <c r="AF108" s="12">
-        <v>1.4166e6</v>
+        <v>1416600</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="109" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>296</v>
       </c>
@@ -11526,7 +11871,7 @@
         <v>37</v>
       </c>
       <c r="J109" s="17">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K109" s="15" t="s">
         <v>298</v>
@@ -11587,13 +11932,13 @@
         <v>3.8245</v>
       </c>
       <c r="AE109" s="23">
-        <v>2.4285575e6</v>
+        <v>2428557.5</v>
       </c>
       <c r="AF109" s="23">
-        <v>2.4285575e6</v>
+        <v>2428557.5</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="110" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>296</v>
       </c>
@@ -11622,7 +11967,7 @@
         <v>37</v>
       </c>
       <c r="J110" s="7">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>298</v>
@@ -11689,7 +12034,7 @@
         <v>750500</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="111" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>296</v>
       </c>
@@ -11718,7 +12063,7 @@
         <v>37</v>
       </c>
       <c r="J111" s="17">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K111" s="15" t="s">
         <v>298</v>
@@ -11770,13 +12115,13 @@
         <v>44</v>
       </c>
       <c r="AB111" s="21">
-        <v>1e6</v>
+        <v>1000000</v>
       </c>
       <c r="AC111" s="22">
-        <v>224500e-6</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="AD111" s="22">
-        <v>224500e-6</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="AE111" s="23">
         <v>224500</v>
@@ -11785,7 +12130,7 @@
         <v>224500</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="112" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>296</v>
       </c>
@@ -11814,7 +12159,7 @@
         <v>37</v>
       </c>
       <c r="J112" s="7">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>298</v>
@@ -11881,7 +12226,7 @@
         <v>793500</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="113" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>296</v>
       </c>
@@ -11910,7 +12255,7 @@
         <v>37</v>
       </c>
       <c r="J113" s="17">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K113" s="15" t="s">
         <v>298</v>
@@ -11944,7 +12289,7 @@
         <v>33</v>
       </c>
       <c r="V113" s="17">
-        <v>1.672584e6</v>
+        <v>1672584</v>
       </c>
       <c r="W113" s="15" t="s">
         <v>238</v>
@@ -11977,7 +12322,7 @@
         <v>317500</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="114" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>296</v>
       </c>
@@ -12006,7 +12351,7 @@
         <v>37</v>
       </c>
       <c r="J114" s="7">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>298</v>
@@ -12040,7 +12385,7 @@
         <v>33</v>
       </c>
       <c r="V114" s="7">
-        <v>1.672592e6</v>
+        <v>1672592</v>
       </c>
       <c r="W114" s="5" t="s">
         <v>239</v>
@@ -12073,7 +12418,7 @@
         <v>317500</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="115" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>296</v>
       </c>
@@ -12102,7 +12447,7 @@
         <v>37</v>
       </c>
       <c r="J115" s="17">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K115" s="15" t="s">
         <v>298</v>
@@ -12136,7 +12481,7 @@
         <v>33</v>
       </c>
       <c r="V115" s="17">
-        <v>1.672606e6</v>
+        <v>1672606</v>
       </c>
       <c r="W115" s="15" t="s">
         <v>240</v>
@@ -12169,7 +12514,7 @@
         <v>317500</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="116" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>301</v>
       </c>
@@ -12198,7 +12543,7 @@
         <v>37</v>
       </c>
       <c r="J116" s="7">
-        <v>9.245766e6</v>
+        <v>9245766</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>303</v>
@@ -12232,7 +12577,7 @@
         <v>33</v>
       </c>
       <c r="V116" s="7">
-        <v>1.649256e6</v>
+        <v>1649256</v>
       </c>
       <c r="W116" s="5" t="s">
         <v>295</v>
@@ -12259,13 +12604,13 @@
         <v>21274</v>
       </c>
       <c r="AE116" s="12">
-        <v>2.1274e6</v>
+        <v>2127400</v>
       </c>
       <c r="AF116" s="12">
-        <v>2.1274e6</v>
+        <v>2127400</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="117" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>306</v>
       </c>
@@ -12294,7 +12639,7 @@
         <v>37</v>
       </c>
       <c r="J117" s="17">
-        <v>9.245781e6</v>
+        <v>9245781</v>
       </c>
       <c r="K117" s="15" t="s">
         <v>308</v>
@@ -12328,7 +12673,7 @@
         <v>33</v>
       </c>
       <c r="V117" s="17">
-        <v>1.734423e6</v>
+        <v>1734423</v>
       </c>
       <c r="W117" s="15" t="s">
         <v>277</v>
@@ -12355,13 +12700,13 @@
         <v>20406.25</v>
       </c>
       <c r="AE117" s="23">
-        <v>3.265e6</v>
+        <v>3265000</v>
       </c>
       <c r="AF117" s="23">
-        <v>3.265e6</v>
+        <v>3265000</v>
       </c>
     </row>
-    <row r="118" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="118" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>311</v>
       </c>
@@ -12439,13 +12784,13 @@
         <v>14.9</v>
       </c>
       <c r="AE118" s="12">
-        <v>6.3109397e6</v>
+        <v>6310939.7000000002</v>
       </c>
       <c r="AF118" s="12">
-        <v>6.3109397e6</v>
+        <v>6310939.7000000002</v>
       </c>
     </row>
-    <row r="119" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="119" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>315</v>
       </c>
@@ -12496,7 +12841,7 @@
         <v>33</v>
       </c>
       <c r="V119" s="17">
-        <v>1.672584e6</v>
+        <v>1672584</v>
       </c>
       <c r="W119" s="15" t="s">
         <v>238</v>
@@ -12517,10 +12862,10 @@
         <v>4500</v>
       </c>
       <c r="AC119" s="22">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AD119" s="22">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AE119" s="23">
         <v>156150</v>
@@ -12529,7 +12874,7 @@
         <v>156150</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="120" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>315</v>
       </c>
@@ -12580,7 +12925,7 @@
         <v>33</v>
       </c>
       <c r="V120" s="7">
-        <v>1.672592e6</v>
+        <v>1672592</v>
       </c>
       <c r="W120" s="5" t="s">
         <v>239</v>
@@ -12601,10 +12946,10 @@
         <v>10000</v>
       </c>
       <c r="AC120" s="11">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AD120" s="11">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AE120" s="12">
         <v>347000</v>
@@ -12613,7 +12958,7 @@
         <v>347000</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="121" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>315</v>
       </c>
@@ -12664,7 +13009,7 @@
         <v>33</v>
       </c>
       <c r="V121" s="17">
-        <v>1.672606e6</v>
+        <v>1672606</v>
       </c>
       <c r="W121" s="15" t="s">
         <v>240</v>
@@ -12685,10 +13030,10 @@
         <v>2000</v>
       </c>
       <c r="AC121" s="22">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AD121" s="22">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AE121" s="23">
         <v>69400</v>
@@ -12697,7 +13042,7 @@
         <v>69400</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="122" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>317</v>
       </c>
@@ -12726,7 +13071,7 @@
         <v>37</v>
       </c>
       <c r="J122" s="7">
-        <v>9.246004e6</v>
+        <v>9246004</v>
       </c>
       <c r="K122" s="5" t="s">
         <v>319</v>
@@ -12787,13 +13132,13 @@
         <v>14.7</v>
       </c>
       <c r="AE122" s="12">
-        <v>7.35e6</v>
+        <v>7350000</v>
       </c>
       <c r="AF122" s="12">
-        <v>7.35e6</v>
+        <v>7350000</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="123" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>320</v>
       </c>
@@ -12822,7 +13167,7 @@
         <v>37</v>
       </c>
       <c r="J123" s="17">
-        <v>9.246005e6</v>
+        <v>9246005</v>
       </c>
       <c r="K123" s="15" t="s">
         <v>322</v>
@@ -12874,7 +13219,7 @@
         <v>44</v>
       </c>
       <c r="AB123" s="21">
-        <v>3e6</v>
+        <v>3000000</v>
       </c>
       <c r="AC123" s="22">
         <v>2.74</v>
@@ -12883,13 +13228,13 @@
         <v>2.74</v>
       </c>
       <c r="AE123" s="23">
-        <v>8.22e6</v>
+        <v>8220000</v>
       </c>
       <c r="AF123" s="23">
-        <v>8.22e6</v>
+        <v>8220000</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="124" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>320</v>
       </c>
@@ -12918,7 +13263,7 @@
         <v>37</v>
       </c>
       <c r="J124" s="7">
-        <v>9.246005e6</v>
+        <v>9246005</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>322</v>
@@ -12985,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="125" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>324</v>
       </c>
@@ -13063,13 +13408,13 @@
         <v>2.74</v>
       </c>
       <c r="AE125" s="23">
-        <v>2.33451288e6</v>
+        <v>2334512.88</v>
       </c>
       <c r="AF125" s="23">
-        <v>2.33451288e6</v>
+        <v>2334512.88</v>
       </c>
     </row>
-    <row r="126" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="126" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>326</v>
       </c>
@@ -13098,7 +13443,7 @@
         <v>37</v>
       </c>
       <c r="J126" s="7">
-        <v>9.247074e6</v>
+        <v>9247074</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>328</v>
@@ -13132,7 +13477,7 @@
         <v>33</v>
       </c>
       <c r="V126" s="7">
-        <v>1.753681e6</v>
+        <v>1753681</v>
       </c>
       <c r="W126" s="5" t="s">
         <v>331</v>
@@ -13159,13 +13504,13 @@
         <v>70000</v>
       </c>
       <c r="AE126" s="12">
-        <v>39.34e6</v>
+        <v>39340000</v>
       </c>
       <c r="AF126" s="12">
-        <v>39.34e6</v>
+        <v>39340000</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="127" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>326</v>
       </c>
@@ -13194,7 +13539,7 @@
         <v>37</v>
       </c>
       <c r="J127" s="17">
-        <v>9.247074e6</v>
+        <v>9247074</v>
       </c>
       <c r="K127" s="15" t="s">
         <v>328</v>
@@ -13228,7 +13573,7 @@
         <v>33</v>
       </c>
       <c r="V127" s="17">
-        <v>1.756877e6</v>
+        <v>1756877</v>
       </c>
       <c r="W127" s="15" t="s">
         <v>332</v>
@@ -13255,13 +13600,13 @@
         <v>25000</v>
       </c>
       <c r="AE127" s="23">
-        <v>4.625e6</v>
+        <v>4625000</v>
       </c>
       <c r="AF127" s="23">
-        <v>4.625e6</v>
+        <v>4625000</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="128" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>333</v>
       </c>
@@ -13290,7 +13635,7 @@
         <v>37</v>
       </c>
       <c r="J128" s="7">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>335</v>
@@ -13324,7 +13669,7 @@
         <v>33</v>
       </c>
       <c r="V128" s="7">
-        <v>1.747983e6</v>
+        <v>1747983</v>
       </c>
       <c r="W128" s="5" t="s">
         <v>338</v>
@@ -13357,7 +13702,7 @@
         <v>939658</v>
       </c>
     </row>
-    <row r="129" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="129" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>333</v>
       </c>
@@ -13386,7 +13731,7 @@
         <v>37</v>
       </c>
       <c r="J129" s="17">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K129" s="15" t="s">
         <v>335</v>
@@ -13420,7 +13765,7 @@
         <v>33</v>
       </c>
       <c r="V129" s="17">
-        <v>1.75307e6</v>
+        <v>1753070</v>
       </c>
       <c r="W129" s="15" t="s">
         <v>340</v>
@@ -13441,19 +13786,19 @@
         <v>900</v>
       </c>
       <c r="AC129" s="22">
-        <v>3995.6207</v>
+        <v>3995.6206999999999</v>
       </c>
       <c r="AD129" s="22">
-        <v>3995.6207</v>
+        <v>3995.6206999999999</v>
       </c>
       <c r="AE129" s="23">
-        <v>3.59605863e6</v>
+        <v>3596058.63</v>
       </c>
       <c r="AF129" s="23">
-        <v>3.59605863e6</v>
+        <v>3596058.63</v>
       </c>
     </row>
-    <row r="130" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="130" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>333</v>
       </c>
@@ -13482,7 +13827,7 @@
         <v>37</v>
       </c>
       <c r="J130" s="7">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K130" s="5" t="s">
         <v>335</v>
@@ -13516,7 +13861,7 @@
         <v>33</v>
       </c>
       <c r="V130" s="7">
-        <v>1.753088e6</v>
+        <v>1753088</v>
       </c>
       <c r="W130" s="5" t="s">
         <v>341</v>
@@ -13549,7 +13894,7 @@
         <v>599400</v>
       </c>
     </row>
-    <row r="131" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="131" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>333</v>
       </c>
@@ -13578,7 +13923,7 @@
         <v>37</v>
       </c>
       <c r="J131" s="17">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K131" s="15" t="s">
         <v>335</v>
@@ -13612,7 +13957,7 @@
         <v>33</v>
       </c>
       <c r="V131" s="17">
-        <v>1.753924e6</v>
+        <v>1753924</v>
       </c>
       <c r="W131" s="15" t="s">
         <v>342</v>
@@ -13645,7 +13990,7 @@
         <v>11682</v>
       </c>
     </row>
-    <row r="132" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="132" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>333</v>
       </c>
@@ -13674,7 +14019,7 @@
         <v>37</v>
       </c>
       <c r="J132" s="7">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K132" s="5" t="s">
         <v>335</v>
@@ -13708,7 +14053,7 @@
         <v>33</v>
       </c>
       <c r="V132" s="7">
-        <v>1.75663e6</v>
+        <v>1756630</v>
       </c>
       <c r="W132" s="5" t="s">
         <v>343</v>
@@ -13741,7 +14086,7 @@
         <v>8982</v>
       </c>
     </row>
-    <row r="133" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="133" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>344</v>
       </c>
@@ -13770,7 +14115,7 @@
         <v>37</v>
       </c>
       <c r="J133" s="17">
-        <v>9.247154e6</v>
+        <v>9247154</v>
       </c>
       <c r="K133" s="15" t="s">
         <v>346</v>
@@ -13804,7 +14149,7 @@
         <v>33</v>
       </c>
       <c r="V133" s="17">
-        <v>1.755366e6</v>
+        <v>1755366</v>
       </c>
       <c r="W133" s="15" t="s">
         <v>349</v>
@@ -13831,13 +14176,13 @@
         <v>12.29</v>
       </c>
       <c r="AE133" s="23">
-        <v>6.145e6</v>
+        <v>6145000</v>
       </c>
       <c r="AF133" s="23">
-        <v>6.145e6</v>
+        <v>6145000</v>
       </c>
     </row>
-    <row r="134" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="134" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>350</v>
       </c>
@@ -13866,7 +14211,7 @@
         <v>37</v>
       </c>
       <c r="J134" s="7">
-        <v>9.247151e6</v>
+        <v>9247151</v>
       </c>
       <c r="K134" s="5" t="s">
         <v>352</v>
@@ -13900,7 +14245,7 @@
         <v>33</v>
       </c>
       <c r="V134" s="7">
-        <v>1.758063e6</v>
+        <v>1758063</v>
       </c>
       <c r="W134" s="5" t="s">
         <v>355</v>
@@ -13927,13 +14272,13 @@
         <v>24359.2562</v>
       </c>
       <c r="AE134" s="12">
-        <v>7.30777686e6</v>
+        <v>7307776.8600000003</v>
       </c>
       <c r="AF134" s="12">
-        <v>7.30777686e6</v>
+        <v>7307776.8600000003</v>
       </c>
     </row>
-    <row r="135" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="135" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>356</v>
       </c>
@@ -13962,7 +14307,7 @@
         <v>37</v>
       </c>
       <c r="J135" s="17">
-        <v>9.247179e6</v>
+        <v>9247179</v>
       </c>
       <c r="K135" s="15" t="s">
         <v>358</v>
@@ -13996,7 +14341,7 @@
         <v>33</v>
       </c>
       <c r="V135" s="17">
-        <v>1.755366e6</v>
+        <v>1755366</v>
       </c>
       <c r="W135" s="15" t="s">
         <v>349</v>
@@ -14023,13 +14368,13 @@
         <v>12.29</v>
       </c>
       <c r="AE135" s="23">
-        <v>6.145e6</v>
+        <v>6145000</v>
       </c>
       <c r="AF135" s="23">
-        <v>6.145e6</v>
+        <v>6145000</v>
       </c>
     </row>
-    <row r="136" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="136" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>359</v>
       </c>
@@ -14113,7 +14458,7 @@
         <v>77400</v>
       </c>
     </row>
-    <row r="137" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="137" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>365</v>
       </c>
@@ -14142,7 +14487,7 @@
         <v>37</v>
       </c>
       <c r="J137" s="17">
-        <v>9.247172e6</v>
+        <v>9247172</v>
       </c>
       <c r="K137" s="15" t="s">
         <v>367</v>
@@ -14209,7 +14554,7 @@
         <v>27653.11</v>
       </c>
     </row>
-    <row r="138" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="138" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>372</v>
       </c>
@@ -14293,7 +14638,7 @@
         <v>453600</v>
       </c>
     </row>
-    <row r="139" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="139" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>374</v>
       </c>
@@ -14301,7 +14646,7 @@
         <v>33</v>
       </c>
       <c r="C139" s="14">
-        <v>43907</v>
+        <v>43963</v>
       </c>
       <c r="D139" s="15" t="s">
         <v>375</v>
@@ -14310,32 +14655,44 @@
         <v>33</v>
       </c>
       <c r="F139" s="16">
-        <v>2120</v>
+        <v>2010</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="H139" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I139" s="13" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="J139" s="17">
-        <v>0</v>
-      </c>
-      <c r="K139" s="15"/>
-      <c r="L139" s="17"/>
-      <c r="M139" s="15"/>
-      <c r="N139" s="18"/>
-      <c r="O139" s="18"/>
+        <v>9250254</v>
+      </c>
+      <c r="K139" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="L139" s="17">
+        <v>2010</v>
+      </c>
+      <c r="M139" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="N139" s="18">
+        <v>43999</v>
+      </c>
+      <c r="O139" s="18">
+        <v>43999</v>
+      </c>
       <c r="P139" s="19"/>
-      <c r="Q139" s="18"/>
+      <c r="Q139" s="18">
+        <v>44181</v>
+      </c>
       <c r="R139" s="15" t="s">
-        <v>221</v>
+        <v>377</v>
       </c>
       <c r="S139" s="15" t="s">
-        <v>222</v>
+        <v>378</v>
       </c>
       <c r="T139" s="13" t="s">
         <v>33</v>
@@ -14344,40 +14701,40 @@
         <v>33</v>
       </c>
       <c r="V139" s="17">
-        <v>1.669486e6</v>
+        <v>804495</v>
       </c>
       <c r="W139" s="15" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="X139" s="17">
-        <v>2121</v>
+        <v>2011</v>
       </c>
       <c r="Y139" s="15" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="Z139" s="15" t="s">
-        <v>379</v>
+        <v>122</v>
       </c>
       <c r="AA139" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB139" s="21">
-        <v>300</v>
+        <v>5250</v>
       </c>
       <c r="AC139" s="22">
-        <v>7.5</v>
+        <v>45</v>
       </c>
       <c r="AD139" s="22">
-        <v>7.5</v>
+        <v>45</v>
       </c>
       <c r="AE139" s="23">
-        <v>2250</v>
+        <v>236250</v>
       </c>
       <c r="AF139" s="23">
-        <v>2250</v>
+        <v>236250</v>
       </c>
     </row>
-    <row r="140" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="140" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>374</v>
       </c>
@@ -14385,7 +14742,7 @@
         <v>33</v>
       </c>
       <c r="C140" s="4">
-        <v>43907</v>
+        <v>43963</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>375</v>
@@ -14394,32 +14751,44 @@
         <v>33</v>
       </c>
       <c r="F140" s="6">
-        <v>2120</v>
+        <v>2010</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="J140" s="7">
-        <v>0</v>
-      </c>
-      <c r="K140" s="5"/>
-      <c r="L140" s="7"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="8"/>
-      <c r="O140" s="8"/>
+        <v>9250254</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="L140" s="7">
+        <v>2010</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="N140" s="8">
+        <v>43999</v>
+      </c>
+      <c r="O140" s="8">
+        <v>43999</v>
+      </c>
       <c r="P140" s="9"/>
-      <c r="Q140" s="8"/>
+      <c r="Q140" s="8">
+        <v>44181</v>
+      </c>
       <c r="R140" s="5" t="s">
-        <v>221</v>
+        <v>377</v>
       </c>
       <c r="S140" s="5" t="s">
-        <v>222</v>
+        <v>378</v>
       </c>
       <c r="T140" s="3" t="s">
         <v>33</v>
@@ -14428,82 +14797,94 @@
         <v>33</v>
       </c>
       <c r="V140" s="7">
-        <v>1.696041e6</v>
+        <v>1271890</v>
       </c>
       <c r="W140" s="5" t="s">
         <v>380</v>
       </c>
       <c r="X140" s="7">
-        <v>2121</v>
+        <v>2011</v>
       </c>
       <c r="Y140" s="5" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="Z140" s="5" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="AA140" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB140" s="10">
-        <v>100</v>
+        <v>11700</v>
       </c>
       <c r="AC140" s="11">
-        <v>144</v>
+        <v>31.24</v>
       </c>
       <c r="AD140" s="11">
-        <v>80</v>
+        <v>31.24</v>
       </c>
       <c r="AE140" s="12">
-        <v>14400</v>
+        <v>365508</v>
       </c>
       <c r="AF140" s="12">
-        <v>8000</v>
+        <v>365508</v>
       </c>
     </row>
-    <row r="141" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="141" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B141" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C141" s="14">
-        <v>43909</v>
+        <v>43963</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E141" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F141" s="16">
-        <v>2120</v>
+        <v>2010</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="H141" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I141" s="13" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="J141" s="17">
-        <v>0</v>
-      </c>
-      <c r="K141" s="15"/>
-      <c r="L141" s="17"/>
-      <c r="M141" s="15"/>
-      <c r="N141" s="18"/>
-      <c r="O141" s="18"/>
+        <v>9250315</v>
+      </c>
+      <c r="K141" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="L141" s="17">
+        <v>2010</v>
+      </c>
+      <c r="M141" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="N141" s="18">
+        <v>43999</v>
+      </c>
+      <c r="O141" s="18">
+        <v>43999</v>
+      </c>
       <c r="P141" s="19"/>
-      <c r="Q141" s="18"/>
+      <c r="Q141" s="18">
+        <v>44181</v>
+      </c>
       <c r="R141" s="15" t="s">
-        <v>221</v>
+        <v>382</v>
       </c>
       <c r="S141" s="15" t="s">
-        <v>222</v>
+        <v>383</v>
       </c>
       <c r="T141" s="13" t="s">
         <v>33</v>
@@ -14512,40 +14893,40 @@
         <v>33</v>
       </c>
       <c r="V141" s="17">
-        <v>513830</v>
+        <v>461920</v>
       </c>
       <c r="W141" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="X141" s="17">
-        <v>2121</v>
+        <v>2011</v>
       </c>
       <c r="Y141" s="15" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="Z141" s="15" t="s">
-        <v>384</v>
+        <v>122</v>
       </c>
       <c r="AA141" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB141" s="21">
-        <v>210</v>
+        <v>31200</v>
       </c>
       <c r="AC141" s="22">
-        <v>5</v>
+        <v>9.68</v>
       </c>
       <c r="AD141" s="22">
-        <v>5</v>
+        <v>9.68</v>
       </c>
       <c r="AE141" s="23">
-        <v>1050</v>
+        <v>302016</v>
       </c>
       <c r="AF141" s="23">
-        <v>1050</v>
+        <v>302016</v>
       </c>
     </row>
-    <row r="142" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="142" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>385</v>
       </c>
@@ -14553,7 +14934,7 @@
         <v>33</v>
       </c>
       <c r="C142" s="4">
-        <v>43915</v>
+        <v>43907</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>386</v>
@@ -14565,7 +14946,7 @@
         <v>2120</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>36</v>
@@ -14596,66 +14977,66 @@
         <v>33</v>
       </c>
       <c r="V142" s="7">
-        <v>1.69216e6</v>
+        <v>1669486</v>
       </c>
       <c r="W142" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="X142" s="7">
         <v>2121</v>
       </c>
       <c r="Y142" s="5" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="Z142" s="5" t="s">
-        <v>188</v>
+        <v>390</v>
       </c>
       <c r="AA142" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB142" s="10">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="AC142" s="11">
-        <v>40</v>
+        <v>7.5</v>
       </c>
       <c r="AD142" s="11">
-        <v>40</v>
+        <v>7.5</v>
       </c>
       <c r="AE142" s="12">
-        <v>1600</v>
+        <v>2250</v>
       </c>
       <c r="AF142" s="12">
-        <v>1600</v>
+        <v>2250</v>
       </c>
     </row>
-    <row r="143" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="143" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C143" s="14">
-        <v>43920</v>
+        <v>43907</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E143" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F143" s="16">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H143" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="J143" s="17">
         <v>0</v>
@@ -14668,78 +15049,78 @@
       <c r="P143" s="19"/>
       <c r="Q143" s="18"/>
       <c r="R143" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="S143" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="T143" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U143" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V143" s="17">
+        <v>1696041</v>
+      </c>
+      <c r="W143" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="S143" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="T143" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U143" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V143" s="17">
-        <v>82414</v>
-      </c>
-      <c r="W143" s="15" t="s">
-        <v>393</v>
-      </c>
       <c r="X143" s="17">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y143" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z143" s="15" t="s">
-        <v>339</v>
+        <v>188</v>
       </c>
       <c r="AA143" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB143" s="21">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AC143" s="22">
-        <v>676000e-6</v>
+        <v>144</v>
       </c>
       <c r="AD143" s="22">
-        <v>676000e-6</v>
+        <v>80</v>
       </c>
       <c r="AE143" s="23">
-        <v>6760</v>
+        <v>14400</v>
       </c>
       <c r="AF143" s="23">
-        <v>6760</v>
+        <v>8000</v>
       </c>
     </row>
-    <row r="144" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="144" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C144" s="4">
-        <v>43920</v>
+        <v>43909</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F144" s="6">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="J144" s="7">
         <v>0</v>
@@ -14752,10 +15133,10 @@
       <c r="P144" s="9"/>
       <c r="Q144" s="8"/>
       <c r="R144" s="5" t="s">
-        <v>391</v>
+        <v>221</v>
       </c>
       <c r="S144" s="5" t="s">
-        <v>392</v>
+        <v>222</v>
       </c>
       <c r="T144" s="3" t="s">
         <v>33</v>
@@ -14764,66 +15145,66 @@
         <v>33</v>
       </c>
       <c r="V144" s="7">
-        <v>1.670891e6</v>
+        <v>513830</v>
       </c>
       <c r="W144" s="5" t="s">
         <v>394</v>
       </c>
       <c r="X144" s="7">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y144" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z144" s="5" t="s">
-        <v>122</v>
+        <v>395</v>
       </c>
       <c r="AA144" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB144" s="10">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="AC144" s="11">
-        <v>34.9</v>
+        <v>5</v>
       </c>
       <c r="AD144" s="11">
-        <v>34.9</v>
+        <v>5</v>
       </c>
       <c r="AE144" s="12">
-        <v>698</v>
+        <v>1050</v>
       </c>
       <c r="AF144" s="12">
-        <v>698</v>
+        <v>1050</v>
       </c>
     </row>
-    <row r="145" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="145" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C145" s="14">
-        <v>43920</v>
+        <v>43915</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E145" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F145" s="16">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H145" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I145" s="13" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="J145" s="17">
         <v>0</v>
@@ -14836,10 +15217,10 @@
       <c r="P145" s="19"/>
       <c r="Q145" s="18"/>
       <c r="R145" s="15" t="s">
-        <v>395</v>
+        <v>221</v>
       </c>
       <c r="S145" s="15" t="s">
-        <v>396</v>
+        <v>222</v>
       </c>
       <c r="T145" s="13" t="s">
         <v>33</v>
@@ -14848,42 +15229,42 @@
         <v>33</v>
       </c>
       <c r="V145" s="17">
-        <v>1.69773e6</v>
+        <v>1692160</v>
       </c>
       <c r="W145" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="X145" s="17">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y145" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z145" s="15" t="s">
-        <v>339</v>
+        <v>188</v>
       </c>
       <c r="AA145" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB145" s="21">
-        <v>20000</v>
+        <v>40</v>
       </c>
       <c r="AC145" s="22">
-        <v>12.43</v>
+        <v>40</v>
       </c>
       <c r="AD145" s="22">
-        <v>12.43</v>
+        <v>40</v>
       </c>
       <c r="AE145" s="23">
-        <v>248600</v>
+        <v>1600</v>
       </c>
       <c r="AF145" s="23">
-        <v>248600</v>
+        <v>1600</v>
       </c>
     </row>
-    <row r="146" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="146" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>33</v>
@@ -14892,7 +15273,7 @@
         <v>43920</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>33</v>
@@ -14901,7 +15282,7 @@
         <v>2260</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>36</v>
@@ -14920,10 +15301,10 @@
       <c r="P146" s="9"/>
       <c r="Q146" s="8"/>
       <c r="R146" s="5" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="T146" s="3" t="s">
         <v>33</v>
@@ -14932,16 +15313,16 @@
         <v>33</v>
       </c>
       <c r="V146" s="7">
-        <v>394890</v>
+        <v>82414</v>
       </c>
       <c r="W146" s="5" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="X146" s="7">
         <v>2261</v>
       </c>
       <c r="Y146" s="5" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Z146" s="5" t="s">
         <v>339</v>
@@ -14950,24 +15331,24 @@
         <v>44</v>
       </c>
       <c r="AB146" s="10">
-        <v>450</v>
+        <v>10000</v>
       </c>
       <c r="AC146" s="11">
-        <v>7.98</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="AD146" s="11">
-        <v>7.98</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="AE146" s="12">
-        <v>3591</v>
+        <v>6760</v>
       </c>
       <c r="AF146" s="12">
-        <v>3591</v>
+        <v>6760</v>
       </c>
     </row>
-    <row r="147" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="147" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B147" s="13" t="s">
         <v>33</v>
@@ -14976,7 +15357,7 @@
         <v>43920</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="E147" s="15" t="s">
         <v>33</v>
@@ -14985,7 +15366,7 @@
         <v>2260</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H147" s="13" t="s">
         <v>36</v>
@@ -15004,10 +15385,10 @@
       <c r="P147" s="19"/>
       <c r="Q147" s="18"/>
       <c r="R147" s="15" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="S147" s="15" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="T147" s="13" t="s">
         <v>33</v>
@@ -15016,42 +15397,42 @@
         <v>33</v>
       </c>
       <c r="V147" s="17">
-        <v>1.368818e6</v>
+        <v>1670891</v>
       </c>
       <c r="W147" s="15" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="X147" s="17">
         <v>2261</v>
       </c>
       <c r="Y147" s="15" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Z147" s="15" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
       <c r="AA147" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB147" s="21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AC147" s="22">
-        <v>293.6</v>
+        <v>34.9</v>
       </c>
       <c r="AD147" s="22">
-        <v>293.6</v>
+        <v>34.9</v>
       </c>
       <c r="AE147" s="23">
-        <v>2936</v>
+        <v>698</v>
       </c>
       <c r="AF147" s="23">
-        <v>2936</v>
+        <v>698</v>
       </c>
     </row>
-    <row r="148" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="148" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>33</v>
@@ -15060,7 +15441,7 @@
         <v>43920</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>33</v>
@@ -15069,7 +15450,7 @@
         <v>2260</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>36</v>
@@ -15088,10 +15469,10 @@
       <c r="P148" s="9"/>
       <c r="Q148" s="8"/>
       <c r="R148" s="5" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="T148" s="3" t="s">
         <v>33</v>
@@ -15100,16 +15481,16 @@
         <v>33</v>
       </c>
       <c r="V148" s="7">
-        <v>1.497391e6</v>
+        <v>1697730</v>
       </c>
       <c r="W148" s="5" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="X148" s="7">
         <v>2261</v>
       </c>
       <c r="Y148" s="5" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Z148" s="5" t="s">
         <v>339</v>
@@ -15118,24 +15499,24 @@
         <v>44</v>
       </c>
       <c r="AB148" s="10">
-        <v>15</v>
+        <v>20000</v>
       </c>
       <c r="AC148" s="11">
-        <v>3420</v>
+        <v>12.43</v>
       </c>
       <c r="AD148" s="11">
-        <v>3420</v>
+        <v>12.43</v>
       </c>
       <c r="AE148" s="12">
-        <v>51300</v>
+        <v>248600</v>
       </c>
       <c r="AF148" s="12">
-        <v>51300</v>
+        <v>248600</v>
       </c>
     </row>
-    <row r="149" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="149" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B149" s="13" t="s">
         <v>33</v>
@@ -15144,7 +15525,7 @@
         <v>43920</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="E149" s="15" t="s">
         <v>33</v>
@@ -15153,7 +15534,7 @@
         <v>2260</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H149" s="13" t="s">
         <v>36</v>
@@ -15172,10 +15553,10 @@
       <c r="P149" s="19"/>
       <c r="Q149" s="18"/>
       <c r="R149" s="15" t="s">
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="S149" s="15" t="s">
-        <v>402</v>
+        <v>337</v>
       </c>
       <c r="T149" s="13" t="s">
         <v>33</v>
@@ -15184,16 +15565,16 @@
         <v>33</v>
       </c>
       <c r="V149" s="17">
-        <v>1.669613e6</v>
+        <v>394890</v>
       </c>
       <c r="W149" s="15" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="X149" s="17">
         <v>2261</v>
       </c>
       <c r="Y149" s="15" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Z149" s="15" t="s">
         <v>339</v>
@@ -15202,24 +15583,24 @@
         <v>44</v>
       </c>
       <c r="AB149" s="21">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="AC149" s="22">
-        <v>31.96</v>
+        <v>7.98</v>
       </c>
       <c r="AD149" s="22">
-        <v>31.96</v>
+        <v>7.98</v>
       </c>
       <c r="AE149" s="23">
-        <v>319.6</v>
+        <v>3591</v>
       </c>
       <c r="AF149" s="23">
-        <v>319.6</v>
+        <v>3591</v>
       </c>
     </row>
-    <row r="150" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="150" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>33</v>
@@ -15228,7 +15609,7 @@
         <v>43920</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>33</v>
@@ -15237,7 +15618,7 @@
         <v>2260</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>36</v>
@@ -15256,10 +15637,10 @@
       <c r="P150" s="9"/>
       <c r="Q150" s="8"/>
       <c r="R150" s="5" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
       <c r="S150" s="5" t="s">
-        <v>405</v>
+        <v>337</v>
       </c>
       <c r="T150" s="3" t="s">
         <v>33</v>
@@ -15268,16 +15649,16 @@
         <v>33</v>
       </c>
       <c r="V150" s="7">
-        <v>857025</v>
+        <v>1368818</v>
       </c>
       <c r="W150" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="X150" s="7">
         <v>2261</v>
       </c>
       <c r="Y150" s="5" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Z150" s="5" t="s">
         <v>339</v>
@@ -15286,24 +15667,24 @@
         <v>44</v>
       </c>
       <c r="AB150" s="10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AC150" s="11">
-        <v>16.756</v>
+        <v>293.60000000000002</v>
       </c>
       <c r="AD150" s="11">
-        <v>16.756</v>
+        <v>293.60000000000002</v>
       </c>
       <c r="AE150" s="12">
-        <v>1675.6</v>
+        <v>2936</v>
       </c>
       <c r="AF150" s="12">
-        <v>1675.6</v>
+        <v>2936</v>
       </c>
     </row>
-    <row r="151" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="151" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B151" s="13" t="s">
         <v>33</v>
@@ -15312,7 +15693,7 @@
         <v>43920</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="E151" s="15" t="s">
         <v>33</v>
@@ -15321,7 +15702,7 @@
         <v>2260</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H151" s="13" t="s">
         <v>36</v>
@@ -15340,10 +15721,10 @@
       <c r="P151" s="19"/>
       <c r="Q151" s="18"/>
       <c r="R151" s="15" t="s">
-        <v>407</v>
+        <v>336</v>
       </c>
       <c r="S151" s="15" t="s">
-        <v>408</v>
+        <v>337</v>
       </c>
       <c r="T151" s="13" t="s">
         <v>33</v>
@@ -15352,16 +15733,16 @@
         <v>33</v>
       </c>
       <c r="V151" s="17">
-        <v>1.151746e6</v>
+        <v>1497391</v>
       </c>
       <c r="W151" s="15" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="X151" s="17">
         <v>2261</v>
       </c>
       <c r="Y151" s="15" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Z151" s="15" t="s">
         <v>339</v>
@@ -15370,24 +15751,24 @@
         <v>44</v>
       </c>
       <c r="AB151" s="21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AC151" s="22">
-        <v>117</v>
+        <v>3420</v>
       </c>
       <c r="AD151" s="22">
-        <v>117</v>
+        <v>3420</v>
       </c>
       <c r="AE151" s="23">
-        <v>2340</v>
+        <v>51300</v>
       </c>
       <c r="AF151" s="23">
-        <v>2340</v>
+        <v>51300</v>
       </c>
     </row>
-    <row r="152" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="152" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>33</v>
@@ -15396,7 +15777,7 @@
         <v>43920</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>33</v>
@@ -15405,7 +15786,7 @@
         <v>2260</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>36</v>
@@ -15414,32 +15795,20 @@
         <v>37</v>
       </c>
       <c r="J152" s="7">
-        <v>9.245762e6</v>
-      </c>
-      <c r="K152" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="L152" s="7">
-        <v>2260</v>
-      </c>
-      <c r="M152" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="N152" s="8">
-        <v>43936</v>
-      </c>
-      <c r="O152" s="8">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K152" s="5"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="8"/>
       <c r="P152" s="9"/>
-      <c r="Q152" s="8">
-        <v>44115</v>
-      </c>
+      <c r="Q152" s="8"/>
       <c r="R152" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S152" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="T152" s="3" t="s">
         <v>33</v>
@@ -15448,42 +15817,42 @@
         <v>33</v>
       </c>
       <c r="V152" s="7">
-        <v>781673</v>
+        <v>1669613</v>
       </c>
       <c r="W152" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="X152" s="7">
         <v>2261</v>
       </c>
       <c r="Y152" s="5" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Z152" s="5" t="s">
-        <v>115</v>
+        <v>339</v>
       </c>
       <c r="AA152" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB152" s="10">
-        <v>30000</v>
+        <v>10</v>
       </c>
       <c r="AC152" s="11">
-        <v>900000e-6</v>
+        <v>31.96</v>
       </c>
       <c r="AD152" s="11">
-        <v>900000e-6</v>
+        <v>31.96</v>
       </c>
       <c r="AE152" s="12">
-        <v>27000</v>
+        <v>319.60000000000002</v>
       </c>
       <c r="AF152" s="12">
-        <v>27000</v>
+        <v>319.60000000000002</v>
       </c>
     </row>
-    <row r="153" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="153" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>33</v>
@@ -15492,7 +15861,7 @@
         <v>43920</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="E153" s="15" t="s">
         <v>33</v>
@@ -15501,7 +15870,7 @@
         <v>2260</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H153" s="13" t="s">
         <v>36</v>
@@ -15510,27 +15879,15 @@
         <v>37</v>
       </c>
       <c r="J153" s="17">
-        <v>9.245763e6</v>
-      </c>
-      <c r="K153" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="L153" s="17">
-        <v>2260</v>
-      </c>
-      <c r="M153" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="N153" s="18">
-        <v>43936</v>
-      </c>
-      <c r="O153" s="18">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K153" s="15"/>
+      <c r="L153" s="17"/>
+      <c r="M153" s="15"/>
+      <c r="N153" s="18"/>
+      <c r="O153" s="18"/>
       <c r="P153" s="19"/>
-      <c r="Q153" s="18">
-        <v>44115</v>
-      </c>
+      <c r="Q153" s="18"/>
       <c r="R153" s="15" t="s">
         <v>415</v>
       </c>
@@ -15544,7 +15901,7 @@
         <v>33</v>
       </c>
       <c r="V153" s="17">
-        <v>538957</v>
+        <v>857025</v>
       </c>
       <c r="W153" s="15" t="s">
         <v>417</v>
@@ -15553,33 +15910,33 @@
         <v>2261</v>
       </c>
       <c r="Y153" s="15" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Z153" s="15" t="s">
-        <v>115</v>
+        <v>339</v>
       </c>
       <c r="AA153" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB153" s="21">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AC153" s="22">
-        <v>550000e-6</v>
+        <v>16.756</v>
       </c>
       <c r="AD153" s="22">
-        <v>550000e-6</v>
+        <v>16.756</v>
       </c>
       <c r="AE153" s="23">
-        <v>16500</v>
+        <v>1675.6</v>
       </c>
       <c r="AF153" s="23">
-        <v>16500</v>
+        <v>1675.6</v>
       </c>
     </row>
-    <row r="154" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="154" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>33</v>
@@ -15588,7 +15945,7 @@
         <v>43920</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>33</v>
@@ -15597,7 +15954,7 @@
         <v>2260</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>36</v>
@@ -15606,32 +15963,20 @@
         <v>37</v>
       </c>
       <c r="J154" s="7">
-        <v>9.245763e6</v>
-      </c>
-      <c r="K154" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="L154" s="7">
-        <v>2260</v>
-      </c>
-      <c r="M154" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="N154" s="8">
-        <v>43936</v>
-      </c>
-      <c r="O154" s="8">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K154" s="5"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="8"/>
+      <c r="O154" s="8"/>
       <c r="P154" s="9"/>
-      <c r="Q154" s="8">
-        <v>44115</v>
-      </c>
+      <c r="Q154" s="8"/>
       <c r="R154" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="T154" s="3" t="s">
         <v>33</v>
@@ -15640,60 +15985,60 @@
         <v>33</v>
       </c>
       <c r="V154" s="7">
-        <v>1.651595e6</v>
+        <v>1151746</v>
       </c>
       <c r="W154" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="X154" s="7">
         <v>2261</v>
       </c>
       <c r="Y154" s="5" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Z154" s="5" t="s">
-        <v>115</v>
+        <v>339</v>
       </c>
       <c r="AA154" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB154" s="10">
-        <v>30000</v>
+        <v>20</v>
       </c>
       <c r="AC154" s="11">
-        <v>1.08</v>
+        <v>117</v>
       </c>
       <c r="AD154" s="11">
-        <v>1.08</v>
+        <v>117</v>
       </c>
       <c r="AE154" s="12">
-        <v>32400</v>
+        <v>2340</v>
       </c>
       <c r="AF154" s="12">
-        <v>32400</v>
+        <v>2340</v>
       </c>
     </row>
-    <row r="155" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="155" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C155" s="14">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="E155" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F155" s="16">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="H155" s="13" t="s">
         <v>36</v>
@@ -15702,96 +16047,94 @@
         <v>37</v>
       </c>
       <c r="J155" s="17">
-        <v>9.245674e6</v>
+        <v>9245762</v>
       </c>
       <c r="K155" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="L155" s="17">
+        <v>2260</v>
+      </c>
+      <c r="M155" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="N155" s="18">
+        <v>43936</v>
+      </c>
+      <c r="O155" s="18">
+        <v>43936</v>
+      </c>
+      <c r="P155" s="19"/>
+      <c r="Q155" s="18">
+        <v>44115</v>
+      </c>
+      <c r="R155" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="L155" s="17">
-        <v>2300</v>
-      </c>
-      <c r="M155" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="N155" s="18">
-        <v>43922</v>
-      </c>
-      <c r="O155" s="18">
-        <v>43922</v>
-      </c>
-      <c r="P155" s="19">
-        <v>44105</v>
-      </c>
-      <c r="Q155" s="18">
-        <v>44131</v>
-      </c>
-      <c r="R155" s="15" t="s">
+      <c r="S155" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="S155" s="15" t="s">
+      <c r="T155" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U155" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V155" s="17">
+        <v>781673</v>
+      </c>
+      <c r="W155" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="T155" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U155" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V155" s="17">
-        <v>1155</v>
-      </c>
-      <c r="W155" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="X155" s="17">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y155" s="15" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="Z155" s="15" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AA155" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB155" s="21">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AC155" s="22">
-        <v>4.35942886e6</v>
+        <v>0.9</v>
       </c>
       <c r="AD155" s="22">
-        <v>4.35942886e6</v>
+        <v>0.9</v>
       </c>
       <c r="AE155" s="23">
-        <v>4.35942886e6</v>
+        <v>27000</v>
       </c>
       <c r="AF155" s="23">
-        <v>4.35942886e6</v>
+        <v>27000</v>
       </c>
     </row>
-    <row r="156" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="156" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C156" s="4">
-        <v>43935</v>
+        <v>43920</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F156" s="6">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>36</v>
@@ -15800,16 +16143,16 @@
         <v>37</v>
       </c>
       <c r="J156" s="7">
-        <v>9.24595e6</v>
+        <v>9245763</v>
       </c>
       <c r="K156" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L156" s="7">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="N156" s="8">
         <v>43936</v>
@@ -15817,17 +16160,15 @@
       <c r="O156" s="8">
         <v>43936</v>
       </c>
-      <c r="P156" s="9">
-        <v>44119</v>
-      </c>
+      <c r="P156" s="9"/>
       <c r="Q156" s="8">
-        <v>44119</v>
+        <v>44115</v>
       </c>
       <c r="R156" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="T156" s="3" t="s">
         <v>33</v>
@@ -15836,60 +16177,60 @@
         <v>33</v>
       </c>
       <c r="V156" s="7">
-        <v>1155</v>
+        <v>538957</v>
       </c>
       <c r="W156" s="5" t="s">
-        <v>107</v>
+        <v>428</v>
       </c>
       <c r="X156" s="7">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y156" s="5" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="Z156" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AA156" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB156" s="10">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AC156" s="11">
-        <v>1.04162557e6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD156" s="11">
-        <v>1.04162557e6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AE156" s="12">
-        <v>1.04162557e6</v>
+        <v>16500</v>
       </c>
       <c r="AF156" s="12">
-        <v>1.04162557e6</v>
+        <v>16500</v>
       </c>
     </row>
-    <row r="157" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="157" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="B157" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C157" s="14">
-        <v>43963</v>
+        <v>43920</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="E157" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F157" s="16">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="H157" s="13" t="s">
         <v>36</v>
@@ -15898,34 +16239,32 @@
         <v>37</v>
       </c>
       <c r="J157" s="17">
-        <v>9.247198e6</v>
+        <v>9245763</v>
       </c>
       <c r="K157" s="15" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="L157" s="17">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="M157" s="15" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="N157" s="18">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="O157" s="18">
-        <v>43963</v>
-      </c>
-      <c r="P157" s="19">
-        <v>44195</v>
-      </c>
+        <v>43936</v>
+      </c>
+      <c r="P157" s="19"/>
       <c r="Q157" s="18">
-        <v>44195</v>
+        <v>44115</v>
       </c>
       <c r="R157" s="15" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="S157" s="15" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="T157" s="13" t="s">
         <v>33</v>
@@ -15934,60 +16273,60 @@
         <v>33</v>
       </c>
       <c r="V157" s="17">
-        <v>1155</v>
+        <v>1651595</v>
       </c>
       <c r="W157" s="15" t="s">
-        <v>107</v>
+        <v>429</v>
       </c>
       <c r="X157" s="17">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y157" s="15" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="Z157" s="15" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AA157" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB157" s="21">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AC157" s="22">
-        <v>7.11634326e6</v>
+        <v>1.08</v>
       </c>
       <c r="AD157" s="22">
-        <v>7.11634326e6</v>
+        <v>1.08</v>
       </c>
       <c r="AE157" s="23">
-        <v>7.11634326e6</v>
+        <v>32400</v>
       </c>
       <c r="AF157" s="23">
-        <v>7.11634326e6</v>
+        <v>32400</v>
       </c>
     </row>
-    <row r="158" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="158" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C158" s="4">
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F158" s="6">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>36</v>
@@ -15996,96 +16335,96 @@
         <v>37</v>
       </c>
       <c r="J158" s="7">
-        <v>9.245982e6</v>
+        <v>9245674</v>
       </c>
       <c r="K158" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L158" s="7">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M158" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="N158" s="8">
+        <v>43922</v>
+      </c>
+      <c r="O158" s="8">
+        <v>43922</v>
+      </c>
+      <c r="P158" s="9">
+        <v>44105</v>
+      </c>
+      <c r="Q158" s="8">
+        <v>44131</v>
+      </c>
+      <c r="R158" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="S158" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="T158" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U158" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V158" s="7">
+        <v>1155</v>
+      </c>
+      <c r="W158" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="X158" s="7">
+        <v>2301</v>
+      </c>
+      <c r="Y158" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z158" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA158" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB158" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC158" s="11">
+        <v>4359428.8600000003</v>
+      </c>
+      <c r="AD158" s="11">
+        <v>4359428.8600000003</v>
+      </c>
+      <c r="AE158" s="12">
+        <v>4359428.8600000003</v>
+      </c>
+      <c r="AF158" s="12">
+        <v>4359428.8600000003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" s="14">
+        <v>43935</v>
+      </c>
+      <c r="D159" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="N158" s="8">
-        <v>43943</v>
-      </c>
-      <c r="O158" s="8">
-        <v>43939</v>
-      </c>
-      <c r="P158" s="9">
-        <v>44304</v>
-      </c>
-      <c r="Q158" s="8">
-        <v>44121</v>
-      </c>
-      <c r="R158" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="S158" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="T158" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U158" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V158" s="7">
-        <v>18228</v>
-      </c>
-      <c r="W158" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="X158" s="7">
-        <v>2311</v>
-      </c>
-      <c r="Y158" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="Z158" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA158" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="AB158" s="10">
-        <v>200</v>
-      </c>
-      <c r="AC158" s="11">
-        <v>36</v>
-      </c>
-      <c r="AD158" s="11">
-        <v>36</v>
-      </c>
-      <c r="AE158" s="12">
-        <v>7200</v>
-      </c>
-      <c r="AF158" s="12">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="159" s="1" customFormat="1" ht="18.1322" customHeight="1">
-      <c r="A159" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="B159" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C159" s="14">
-        <v>43928</v>
-      </c>
-      <c r="D159" s="15" t="s">
-        <v>437</v>
-      </c>
       <c r="E159" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F159" s="16">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H159" s="13" t="s">
         <v>36</v>
@@ -16094,28 +16433,28 @@
         <v>37</v>
       </c>
       <c r="J159" s="17">
-        <v>9.245982e6</v>
+        <v>9245950</v>
       </c>
       <c r="K159" s="15" t="s">
         <v>439</v>
       </c>
       <c r="L159" s="17">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M159" s="15" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="N159" s="18">
-        <v>43943</v>
+        <v>43936</v>
       </c>
       <c r="O159" s="18">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="P159" s="19">
-        <v>44304</v>
+        <v>44119</v>
       </c>
       <c r="Q159" s="18">
-        <v>44121</v>
+        <v>44119</v>
       </c>
       <c r="R159" s="15" t="s">
         <v>440</v>
@@ -16130,60 +16469,60 @@
         <v>33</v>
       </c>
       <c r="V159" s="17">
-        <v>236268</v>
+        <v>1155</v>
       </c>
       <c r="W159" s="15" t="s">
-        <v>444</v>
+        <v>107</v>
       </c>
       <c r="X159" s="17">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y159" s="15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Z159" s="15" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="AA159" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB159" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC159" s="22">
+        <v>1041625.57</v>
+      </c>
+      <c r="AD159" s="22">
+        <v>1041625.57</v>
+      </c>
+      <c r="AE159" s="23">
+        <v>1041625.57</v>
+      </c>
+      <c r="AF159" s="23">
+        <v>1041625.57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" s="4">
+        <v>43963</v>
+      </c>
+      <c r="D160" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="AB159" s="21">
-        <v>50</v>
-      </c>
-      <c r="AC159" s="22">
-        <v>45</v>
-      </c>
-      <c r="AD159" s="22">
-        <v>45</v>
-      </c>
-      <c r="AE159" s="23">
-        <v>2250</v>
-      </c>
-      <c r="AF159" s="23">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="160" s="1" customFormat="1" ht="18.1322" customHeight="1">
-      <c r="A160" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C160" s="4">
-        <v>43928</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>437</v>
-      </c>
       <c r="E160" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F160" s="6">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>36</v>
@@ -16192,34 +16531,34 @@
         <v>37</v>
       </c>
       <c r="J160" s="7">
-        <v>9.245982e6</v>
+        <v>9247198</v>
       </c>
       <c r="K160" s="5" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L160" s="7">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M160" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="N160" s="8">
-        <v>43943</v>
+        <v>43963</v>
       </c>
       <c r="O160" s="8">
-        <v>43939</v>
+        <v>43963</v>
       </c>
       <c r="P160" s="9">
-        <v>44304</v>
+        <v>44195</v>
       </c>
       <c r="Q160" s="8">
-        <v>44121</v>
+        <v>44195</v>
       </c>
       <c r="R160" s="5" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="S160" s="5" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="T160" s="3" t="s">
         <v>33</v>
@@ -16228,42 +16567,42 @@
         <v>33</v>
       </c>
       <c r="V160" s="7">
-        <v>461920</v>
+        <v>1155</v>
       </c>
       <c r="W160" s="5" t="s">
-        <v>445</v>
+        <v>107</v>
       </c>
       <c r="X160" s="7">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y160" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Z160" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="AA160" s="3" t="s">
-        <v>443</v>
+        <v>44</v>
       </c>
       <c r="AB160" s="10">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AC160" s="11">
-        <v>8</v>
+        <v>7116343.2599999998</v>
       </c>
       <c r="AD160" s="11">
-        <v>8</v>
+        <v>7116343.2599999998</v>
       </c>
       <c r="AE160" s="12">
-        <v>4800</v>
+        <v>7116343.2599999998</v>
       </c>
       <c r="AF160" s="12">
-        <v>4800</v>
+        <v>7116343.2599999998</v>
       </c>
     </row>
-    <row r="161" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="161" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B161" s="13" t="s">
         <v>33</v>
@@ -16272,7 +16611,7 @@
         <v>43928</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="E161" s="15" t="s">
         <v>33</v>
@@ -16281,7 +16620,7 @@
         <v>2310</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="H161" s="13" t="s">
         <v>36</v>
@@ -16290,16 +16629,16 @@
         <v>37</v>
       </c>
       <c r="J161" s="17">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K161" s="15" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="L161" s="17">
         <v>2310</v>
       </c>
       <c r="M161" s="15" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="N161" s="18">
         <v>43943</v>
@@ -16314,10 +16653,10 @@
         <v>44121</v>
       </c>
       <c r="R161" s="15" t="s">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="S161" s="15" t="s">
-        <v>441</v>
+        <v>378</v>
       </c>
       <c r="T161" s="13" t="s">
         <v>33</v>
@@ -16326,42 +16665,42 @@
         <v>33</v>
       </c>
       <c r="V161" s="17">
-        <v>804495</v>
-      </c>
-      <c r="W161" s="15" t="s">
-        <v>446</v>
+        <v>18228</v>
+      </c>
+      <c r="W161" s="20" t="s">
+        <v>451</v>
       </c>
       <c r="X161" s="17">
         <v>2311</v>
       </c>
       <c r="Y161" s="15" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="Z161" s="15" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="AA161" s="13" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="AB161" s="21">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AC161" s="22">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AD161" s="22">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AE161" s="23">
-        <v>7650</v>
+        <v>7200</v>
       </c>
       <c r="AF161" s="23">
-        <v>7650</v>
+        <v>7200</v>
       </c>
     </row>
-    <row r="162" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="162" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>33</v>
@@ -16370,7 +16709,7 @@
         <v>43928</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>33</v>
@@ -16379,7 +16718,7 @@
         <v>2310</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>36</v>
@@ -16388,16 +16727,16 @@
         <v>37</v>
       </c>
       <c r="J162" s="7">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="L162" s="7">
         <v>2310</v>
       </c>
       <c r="M162" s="5" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="N162" s="8">
         <v>43943</v>
@@ -16412,10 +16751,10 @@
         <v>44121</v>
       </c>
       <c r="R162" s="5" t="s">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="S162" s="5" t="s">
-        <v>441</v>
+        <v>378</v>
       </c>
       <c r="T162" s="3" t="s">
         <v>33</v>
@@ -16424,25 +16763,25 @@
         <v>33</v>
       </c>
       <c r="V162" s="7">
-        <v>1.129139e6</v>
+        <v>236268</v>
       </c>
       <c r="W162" s="5" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="X162" s="7">
         <v>2311</v>
       </c>
       <c r="Y162" s="5" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="Z162" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AA162" s="3" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="AB162" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AC162" s="11">
         <v>45</v>
@@ -16451,15 +16790,15 @@
         <v>45</v>
       </c>
       <c r="AE162" s="12">
-        <v>1350</v>
+        <v>2250</v>
       </c>
       <c r="AF162" s="12">
-        <v>1350</v>
+        <v>2250</v>
       </c>
     </row>
-    <row r="163" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="163" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B163" s="13" t="s">
         <v>33</v>
@@ -16468,7 +16807,7 @@
         <v>43928</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="E163" s="15" t="s">
         <v>33</v>
@@ -16477,7 +16816,7 @@
         <v>2310</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="H163" s="13" t="s">
         <v>36</v>
@@ -16486,16 +16825,16 @@
         <v>37</v>
       </c>
       <c r="J163" s="17">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K163" s="15" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="L163" s="17">
         <v>2310</v>
       </c>
       <c r="M163" s="15" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="N163" s="18">
         <v>43943</v>
@@ -16510,10 +16849,10 @@
         <v>44121</v>
       </c>
       <c r="R163" s="15" t="s">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="S163" s="15" t="s">
-        <v>441</v>
+        <v>378</v>
       </c>
       <c r="T163" s="13" t="s">
         <v>33</v>
@@ -16522,42 +16861,42 @@
         <v>33</v>
       </c>
       <c r="V163" s="17">
-        <v>1.152823e6</v>
+        <v>461920</v>
       </c>
       <c r="W163" s="15" t="s">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="X163" s="17">
         <v>2311</v>
       </c>
       <c r="Y163" s="15" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="Z163" s="15" t="s">
         <v>122</v>
       </c>
       <c r="AA163" s="13" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="AB163" s="21">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="AC163" s="22">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AD163" s="22">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AE163" s="23">
-        <v>1350</v>
+        <v>4800</v>
       </c>
       <c r="AF163" s="23">
-        <v>1350</v>
+        <v>4800</v>
       </c>
     </row>
-    <row r="164" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="164" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>33</v>
@@ -16566,7 +16905,7 @@
         <v>43928</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>33</v>
@@ -16575,7 +16914,7 @@
         <v>2310</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>36</v>
@@ -16584,16 +16923,16 @@
         <v>37</v>
       </c>
       <c r="J164" s="7">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="L164" s="7">
         <v>2310</v>
       </c>
       <c r="M164" s="5" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="N164" s="8">
         <v>43943</v>
@@ -16608,10 +16947,10 @@
         <v>44121</v>
       </c>
       <c r="R164" s="5" t="s">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="S164" s="5" t="s">
-        <v>441</v>
+        <v>378</v>
       </c>
       <c r="T164" s="3" t="s">
         <v>33</v>
@@ -16620,25 +16959,25 @@
         <v>33</v>
       </c>
       <c r="V164" s="7">
-        <v>1.152831e6</v>
+        <v>804495</v>
       </c>
       <c r="W164" s="5" t="s">
-        <v>449</v>
+        <v>379</v>
       </c>
       <c r="X164" s="7">
         <v>2311</v>
       </c>
       <c r="Y164" s="5" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="Z164" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AA164" s="3" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="AB164" s="10">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AC164" s="11">
         <v>45</v>
@@ -16647,33 +16986,33 @@
         <v>45</v>
       </c>
       <c r="AE164" s="12">
-        <v>1350</v>
+        <v>7650</v>
       </c>
       <c r="AF164" s="12">
-        <v>1350</v>
+        <v>7650</v>
       </c>
     </row>
-    <row r="165" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="165" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B165" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C165" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D165" s="25" t="s">
-        <v>451</v>
+        <v>43928</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>448</v>
       </c>
       <c r="E165" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F165" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H165" s="13" t="s">
         <v>36</v>
@@ -16682,82 +17021,96 @@
         <v>37</v>
       </c>
       <c r="J165" s="17">
-        <v>0</v>
-      </c>
-      <c r="K165" s="15"/>
-      <c r="L165" s="17"/>
-      <c r="M165" s="15"/>
-      <c r="N165" s="18"/>
-      <c r="O165" s="18"/>
-      <c r="P165" s="19"/>
-      <c r="Q165" s="18"/>
+        <v>9245982</v>
+      </c>
+      <c r="K165" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="L165" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M165" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="N165" s="18">
+        <v>43943</v>
+      </c>
+      <c r="O165" s="18">
+        <v>43939</v>
+      </c>
+      <c r="P165" s="19">
+        <v>44304</v>
+      </c>
+      <c r="Q165" s="18">
+        <v>44121</v>
+      </c>
       <c r="R165" s="15" t="s">
-        <v>453</v>
+        <v>377</v>
       </c>
       <c r="S165" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="T165" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U165" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V165" s="17">
+        <v>1129139</v>
+      </c>
+      <c r="W165" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="T165" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U165" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V165" s="17">
-        <v>1.692143e6</v>
-      </c>
-      <c r="W165" s="15" t="s">
-        <v>455</v>
-      </c>
       <c r="X165" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y165" s="15" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="Z165" s="15" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="AA165" s="13" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="AB165" s="21">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="AC165" s="22">
-        <v>8.2</v>
+        <v>45</v>
       </c>
       <c r="AD165" s="22">
-        <v>8.2</v>
+        <v>45</v>
       </c>
       <c r="AE165" s="23">
-        <v>24600</v>
+        <v>1350</v>
       </c>
       <c r="AF165" s="23">
-        <v>24600</v>
+        <v>1350</v>
       </c>
     </row>
-    <row r="166" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="166" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C166" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D166" s="26" t="s">
-        <v>451</v>
+        <v>43928</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F166" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>36</v>
@@ -16766,20 +17119,34 @@
         <v>37</v>
       </c>
       <c r="J166" s="7">
-        <v>0</v>
-      </c>
-      <c r="K166" s="5"/>
-      <c r="L166" s="7"/>
-      <c r="M166" s="5"/>
-      <c r="N166" s="8"/>
-      <c r="O166" s="8"/>
-      <c r="P166" s="9"/>
-      <c r="Q166" s="8"/>
+        <v>9245982</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="L166" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M166" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="N166" s="8">
+        <v>43943</v>
+      </c>
+      <c r="O166" s="8">
+        <v>43939</v>
+      </c>
+      <c r="P166" s="9">
+        <v>44304</v>
+      </c>
+      <c r="Q166" s="8">
+        <v>44121</v>
+      </c>
       <c r="R166" s="5" t="s">
-        <v>457</v>
+        <v>377</v>
       </c>
       <c r="S166" s="5" t="s">
-        <v>458</v>
+        <v>378</v>
       </c>
       <c r="T166" s="3" t="s">
         <v>33</v>
@@ -16788,60 +17155,60 @@
         <v>33</v>
       </c>
       <c r="V166" s="7">
-        <v>1.143883e6</v>
+        <v>1152823</v>
       </c>
       <c r="W166" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="X166" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y166" s="5" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="Z166" s="5" t="s">
-        <v>379</v>
+        <v>122</v>
       </c>
       <c r="AA166" s="3" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="AB166" s="10">
-        <v>200000</v>
+        <v>30</v>
       </c>
       <c r="AC166" s="11">
-        <v>600000e-6</v>
+        <v>45</v>
       </c>
       <c r="AD166" s="11">
-        <v>600000e-6</v>
+        <v>45</v>
       </c>
       <c r="AE166" s="12">
-        <v>120000</v>
+        <v>1350</v>
       </c>
       <c r="AF166" s="12">
-        <v>120000</v>
+        <v>1350</v>
       </c>
     </row>
-    <row r="167" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="167" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B167" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C167" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D167" s="25" t="s">
-        <v>451</v>
+        <v>43928</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>448</v>
       </c>
       <c r="E167" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F167" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H167" s="13" t="s">
         <v>36</v>
@@ -16850,20 +17217,34 @@
         <v>37</v>
       </c>
       <c r="J167" s="17">
-        <v>0</v>
-      </c>
-      <c r="K167" s="15"/>
-      <c r="L167" s="17"/>
-      <c r="M167" s="15"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="18"/>
-      <c r="P167" s="19"/>
-      <c r="Q167" s="18"/>
+        <v>9245982</v>
+      </c>
+      <c r="K167" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="L167" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M167" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="N167" s="18">
+        <v>43943</v>
+      </c>
+      <c r="O167" s="18">
+        <v>43939</v>
+      </c>
+      <c r="P167" s="19">
+        <v>44304</v>
+      </c>
+      <c r="Q167" s="18">
+        <v>44121</v>
+      </c>
       <c r="R167" s="15" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="S167" s="15" t="s">
-        <v>461</v>
+        <v>378</v>
       </c>
       <c r="T167" s="13" t="s">
         <v>33</v>
@@ -16872,42 +17253,42 @@
         <v>33</v>
       </c>
       <c r="V167" s="17">
-        <v>1.244515e6</v>
+        <v>1152831</v>
       </c>
       <c r="W167" s="15" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="X167" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y167" s="15" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="Z167" s="15" t="s">
-        <v>379</v>
+        <v>122</v>
       </c>
       <c r="AA167" s="13" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="AB167" s="21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AC167" s="22">
-        <v>20.1</v>
+        <v>45</v>
       </c>
       <c r="AD167" s="22">
-        <v>20.1</v>
+        <v>45</v>
       </c>
       <c r="AE167" s="23">
-        <v>1005</v>
+        <v>1350</v>
       </c>
       <c r="AF167" s="23">
-        <v>1005</v>
+        <v>1350</v>
       </c>
     </row>
-    <row r="168" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="168" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>33</v>
@@ -16915,8 +17296,8 @@
       <c r="C168" s="4">
         <v>43944</v>
       </c>
-      <c r="D168" s="26" t="s">
-        <v>451</v>
+      <c r="D168" s="24" t="s">
+        <v>458</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>33</v>
@@ -16925,7 +17306,7 @@
         <v>2320</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>36</v>
@@ -16944,10 +17325,10 @@
       <c r="P168" s="9"/>
       <c r="Q168" s="8"/>
       <c r="R168" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="S168" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="T168" s="3" t="s">
         <v>33</v>
@@ -16956,42 +17337,42 @@
         <v>33</v>
       </c>
       <c r="V168" s="7">
-        <v>1.244108e6</v>
+        <v>1692143</v>
       </c>
       <c r="W168" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="X168" s="7">
         <v>2321</v>
       </c>
       <c r="Y168" s="5" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Z168" s="5" t="s">
-        <v>379</v>
+        <v>188</v>
       </c>
       <c r="AA168" s="3" t="s">
         <v>278</v>
       </c>
       <c r="AB168" s="10">
-        <v>90</v>
+        <v>3000</v>
       </c>
       <c r="AC168" s="11">
-        <v>358.24</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD168" s="11">
-        <v>358.24</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AE168" s="12">
-        <v>32241.6</v>
+        <v>24600</v>
       </c>
       <c r="AF168" s="12">
-        <v>32241.6</v>
+        <v>24600</v>
       </c>
     </row>
-    <row r="169" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="169" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B169" s="13" t="s">
         <v>33</v>
@@ -17000,7 +17381,7 @@
         <v>43944</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E169" s="15" t="s">
         <v>33</v>
@@ -17009,7 +17390,7 @@
         <v>2320</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H169" s="13" t="s">
         <v>36</v>
@@ -17028,10 +17409,10 @@
       <c r="P169" s="19"/>
       <c r="Q169" s="18"/>
       <c r="R169" s="15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S169" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="T169" s="13" t="s">
         <v>33</v>
@@ -17040,7 +17421,7 @@
         <v>33</v>
       </c>
       <c r="V169" s="17">
-        <v>1.244507e6</v>
+        <v>1143883</v>
       </c>
       <c r="W169" s="15" t="s">
         <v>466</v>
@@ -17049,33 +17430,33 @@
         <v>2321</v>
       </c>
       <c r="Y169" s="15" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Z169" s="15" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="AA169" s="13" t="s">
         <v>278</v>
       </c>
       <c r="AB169" s="21">
-        <v>50</v>
+        <v>200000</v>
       </c>
       <c r="AC169" s="22">
-        <v>34.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD169" s="22">
-        <v>34.9</v>
+        <v>0.6</v>
       </c>
       <c r="AE169" s="23">
-        <v>1745</v>
+        <v>120000</v>
       </c>
       <c r="AF169" s="23">
-        <v>1745</v>
+        <v>120000</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="170" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>33</v>
@@ -17083,8 +17464,8 @@
       <c r="C170" s="4">
         <v>43944</v>
       </c>
-      <c r="D170" s="26" t="s">
-        <v>451</v>
+      <c r="D170" s="24" t="s">
+        <v>458</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>33</v>
@@ -17093,7 +17474,7 @@
         <v>2320</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>36</v>
@@ -17112,10 +17493,10 @@
       <c r="P170" s="9"/>
       <c r="Q170" s="8"/>
       <c r="R170" s="5" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="S170" s="5" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="T170" s="3" t="s">
         <v>33</v>
@@ -17124,42 +17505,42 @@
         <v>33</v>
       </c>
       <c r="V170" s="7">
-        <v>1.257587e6</v>
+        <v>1244515</v>
       </c>
       <c r="W170" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="X170" s="7">
         <v>2321</v>
       </c>
       <c r="Y170" s="5" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Z170" s="5" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="AA170" s="3" t="s">
         <v>278</v>
       </c>
       <c r="AB170" s="10">
-        <v>80000</v>
+        <v>50</v>
       </c>
       <c r="AC170" s="11">
-        <v>390000e-6</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="AD170" s="11">
-        <v>390000e-6</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="AE170" s="12">
-        <v>31200</v>
+        <v>1005</v>
       </c>
       <c r="AF170" s="12">
-        <v>31200</v>
+        <v>1005</v>
       </c>
     </row>
-    <row r="171" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="171" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B171" s="13" t="s">
         <v>33</v>
@@ -17168,7 +17549,7 @@
         <v>43944</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E171" s="15" t="s">
         <v>33</v>
@@ -17177,7 +17558,7 @@
         <v>2320</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H171" s="13" t="s">
         <v>36</v>
@@ -17196,10 +17577,10 @@
       <c r="P171" s="19"/>
       <c r="Q171" s="18"/>
       <c r="R171" s="15" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="S171" s="15" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="T171" s="13" t="s">
         <v>33</v>
@@ -17208,19 +17589,19 @@
         <v>33</v>
       </c>
       <c r="V171" s="17">
-        <v>1.257625e6</v>
+        <v>1244108</v>
       </c>
       <c r="W171" s="15" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="X171" s="17">
         <v>2321</v>
       </c>
       <c r="Y171" s="15" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Z171" s="15" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="AA171" s="13" t="s">
         <v>278</v>
@@ -17229,21 +17610,21 @@
         <v>90</v>
       </c>
       <c r="AC171" s="22">
-        <v>351</v>
+        <v>358.24</v>
       </c>
       <c r="AD171" s="22">
-        <v>351</v>
+        <v>358.24</v>
       </c>
       <c r="AE171" s="23">
-        <v>31590</v>
+        <v>32241.599999999999</v>
       </c>
       <c r="AF171" s="23">
-        <v>31590</v>
+        <v>32241.599999999999</v>
       </c>
     </row>
-    <row r="172" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="172" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>33</v>
@@ -17251,8 +17632,8 @@
       <c r="C172" s="4">
         <v>43944</v>
       </c>
-      <c r="D172" s="26" t="s">
-        <v>451</v>
+      <c r="D172" s="24" t="s">
+        <v>458</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>33</v>
@@ -17261,7 +17642,7 @@
         <v>2320</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>36</v>
@@ -17280,10 +17661,10 @@
       <c r="P172" s="9"/>
       <c r="Q172" s="8"/>
       <c r="R172" s="5" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="S172" s="5" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="T172" s="3" t="s">
         <v>33</v>
@@ -17292,42 +17673,42 @@
         <v>33</v>
       </c>
       <c r="V172" s="7">
-        <v>1.258699e6</v>
+        <v>1244507</v>
       </c>
       <c r="W172" s="5" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="X172" s="7">
         <v>2321</v>
       </c>
       <c r="Y172" s="5" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Z172" s="5" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="AA172" s="3" t="s">
         <v>278</v>
       </c>
       <c r="AB172" s="10">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="AC172" s="11">
-        <v>1.39</v>
+        <v>34.9</v>
       </c>
       <c r="AD172" s="11">
-        <v>1.39</v>
+        <v>34.9</v>
       </c>
       <c r="AE172" s="12">
-        <v>2780</v>
+        <v>1745</v>
       </c>
       <c r="AF172" s="12">
-        <v>2780</v>
+        <v>1745</v>
       </c>
     </row>
-    <row r="173" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="173" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B173" s="13" t="s">
         <v>33</v>
@@ -17336,7 +17717,7 @@
         <v>43944</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E173" s="15" t="s">
         <v>33</v>
@@ -17345,7 +17726,7 @@
         <v>2320</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H173" s="13" t="s">
         <v>36</v>
@@ -17364,10 +17745,10 @@
       <c r="P173" s="19"/>
       <c r="Q173" s="18"/>
       <c r="R173" s="15" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="S173" s="15" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="T173" s="13" t="s">
         <v>33</v>
@@ -17376,42 +17757,42 @@
         <v>33</v>
       </c>
       <c r="V173" s="17">
-        <v>1.259784e6</v>
+        <v>1257587</v>
       </c>
       <c r="W173" s="15" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="X173" s="17">
         <v>2321</v>
       </c>
       <c r="Y173" s="15" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Z173" s="15" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="AA173" s="13" t="s">
         <v>278</v>
       </c>
       <c r="AB173" s="21">
-        <v>3000</v>
+        <v>80000</v>
       </c>
       <c r="AC173" s="22">
-        <v>600000e-6</v>
+        <v>0.39</v>
       </c>
       <c r="AD173" s="22">
-        <v>600000e-6</v>
+        <v>0.39</v>
       </c>
       <c r="AE173" s="23">
-        <v>1800</v>
+        <v>31200</v>
       </c>
       <c r="AF173" s="23">
-        <v>1800</v>
+        <v>31200</v>
       </c>
     </row>
-    <row r="174" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="174" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>33</v>
@@ -17419,8 +17800,8 @@
       <c r="C174" s="4">
         <v>43944</v>
       </c>
-      <c r="D174" s="26" t="s">
-        <v>451</v>
+      <c r="D174" s="24" t="s">
+        <v>458</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>33</v>
@@ -17429,7 +17810,7 @@
         <v>2320</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H174" s="3" t="s">
         <v>36</v>
@@ -17448,10 +17829,10 @@
       <c r="P174" s="9"/>
       <c r="Q174" s="8"/>
       <c r="R174" s="5" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="S174" s="5" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="T174" s="3" t="s">
         <v>33</v>
@@ -17460,42 +17841,42 @@
         <v>33</v>
       </c>
       <c r="V174" s="7">
-        <v>1.259792e6</v>
+        <v>1257625</v>
       </c>
       <c r="W174" s="5" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="X174" s="7">
         <v>2321</v>
       </c>
       <c r="Y174" s="5" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Z174" s="5" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="AA174" s="3" t="s">
         <v>278</v>
       </c>
       <c r="AB174" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AC174" s="11">
-        <v>15.35</v>
+        <v>351</v>
       </c>
       <c r="AD174" s="11">
-        <v>15.35</v>
+        <v>351</v>
       </c>
       <c r="AE174" s="12">
-        <v>1228</v>
+        <v>31590</v>
       </c>
       <c r="AF174" s="12">
-        <v>1228</v>
+        <v>31590</v>
       </c>
     </row>
-    <row r="175" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="175" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B175" s="13" t="s">
         <v>33</v>
@@ -17504,7 +17885,7 @@
         <v>43944</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E175" s="15" t="s">
         <v>33</v>
@@ -17513,7 +17894,7 @@
         <v>2320</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H175" s="13" t="s">
         <v>36</v>
@@ -17532,10 +17913,10 @@
       <c r="P175" s="19"/>
       <c r="Q175" s="18"/>
       <c r="R175" s="15" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="S175" s="15" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="T175" s="13" t="s">
         <v>33</v>
@@ -17544,42 +17925,42 @@
         <v>33</v>
       </c>
       <c r="V175" s="17">
-        <v>1.260669e6</v>
+        <v>1258699</v>
       </c>
       <c r="W175" s="15" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="X175" s="17">
         <v>2321</v>
       </c>
       <c r="Y175" s="15" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Z175" s="15" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="AA175" s="13" t="s">
         <v>278</v>
       </c>
       <c r="AB175" s="21">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="AC175" s="22">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="AD175" s="22">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="AE175" s="23">
-        <v>1490</v>
+        <v>2780</v>
       </c>
       <c r="AF175" s="23">
-        <v>1490</v>
+        <v>2780</v>
       </c>
     </row>
-    <row r="176" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="176" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>33</v>
@@ -17587,8 +17968,8 @@
       <c r="C176" s="4">
         <v>43944</v>
       </c>
-      <c r="D176" s="26" t="s">
-        <v>451</v>
+      <c r="D176" s="24" t="s">
+        <v>458</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>33</v>
@@ -17597,7 +17978,7 @@
         <v>2320</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H176" s="3" t="s">
         <v>36</v>
@@ -17616,10 +17997,10 @@
       <c r="P176" s="9"/>
       <c r="Q176" s="8"/>
       <c r="R176" s="5" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="S176" s="5" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="T176" s="3" t="s">
         <v>33</v>
@@ -17628,19 +18009,19 @@
         <v>33</v>
       </c>
       <c r="V176" s="7">
-        <v>1.260677e6</v>
+        <v>1259784</v>
       </c>
       <c r="W176" s="5" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="X176" s="7">
         <v>2321</v>
       </c>
       <c r="Y176" s="5" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Z176" s="5" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="AA176" s="3" t="s">
         <v>278</v>
@@ -17649,21 +18030,21 @@
         <v>3000</v>
       </c>
       <c r="AC176" s="11">
-        <v>1.59</v>
+        <v>0.6</v>
       </c>
       <c r="AD176" s="11">
-        <v>1.59</v>
+        <v>0.6</v>
       </c>
       <c r="AE176" s="12">
-        <v>4770</v>
+        <v>1800</v>
       </c>
       <c r="AF176" s="12">
-        <v>4770</v>
+        <v>1800</v>
       </c>
     </row>
-    <row r="177" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="177" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B177" s="13" t="s">
         <v>33</v>
@@ -17672,7 +18053,7 @@
         <v>43944</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E177" s="15" t="s">
         <v>33</v>
@@ -17681,7 +18062,7 @@
         <v>2320</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H177" s="13" t="s">
         <v>36</v>
@@ -17700,10 +18081,10 @@
       <c r="P177" s="19"/>
       <c r="Q177" s="18"/>
       <c r="R177" s="15" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="S177" s="15" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="T177" s="13" t="s">
         <v>33</v>
@@ -17712,42 +18093,42 @@
         <v>33</v>
       </c>
       <c r="V177" s="17">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W177" s="20" t="s">
-        <v>474</v>
+        <v>1259792</v>
+      </c>
+      <c r="W177" s="15" t="s">
+        <v>478</v>
       </c>
       <c r="X177" s="17">
         <v>2321</v>
       </c>
       <c r="Y177" s="15" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Z177" s="15" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="AA177" s="13" t="s">
         <v>278</v>
       </c>
       <c r="AB177" s="21">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AC177" s="22">
-        <v>271.97</v>
+        <v>15.35</v>
       </c>
       <c r="AD177" s="22">
-        <v>271.97</v>
+        <v>15.35</v>
       </c>
       <c r="AE177" s="23">
-        <v>16318.2</v>
+        <v>1228</v>
       </c>
       <c r="AF177" s="23">
-        <v>16318.2</v>
+        <v>1228</v>
       </c>
     </row>
-    <row r="178" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="178" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>33</v>
@@ -17755,8 +18136,8 @@
       <c r="C178" s="4">
         <v>43944</v>
       </c>
-      <c r="D178" s="26" t="s">
-        <v>451</v>
+      <c r="D178" s="24" t="s">
+        <v>458</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>33</v>
@@ -17765,7 +18146,7 @@
         <v>2320</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>36</v>
@@ -17784,10 +18165,10 @@
       <c r="P178" s="9"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="5" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="S178" s="5" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="T178" s="3" t="s">
         <v>33</v>
@@ -17796,42 +18177,42 @@
         <v>33</v>
       </c>
       <c r="V178" s="7">
-        <v>1.687115e6</v>
+        <v>1260669</v>
       </c>
       <c r="W178" s="5" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="X178" s="7">
         <v>2321</v>
       </c>
       <c r="Y178" s="5" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Z178" s="5" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="AA178" s="3" t="s">
         <v>278</v>
       </c>
       <c r="AB178" s="10">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AC178" s="11">
-        <v>16.65</v>
+        <v>1.49</v>
       </c>
       <c r="AD178" s="11">
-        <v>16.65</v>
+        <v>1.49</v>
       </c>
       <c r="AE178" s="12">
-        <v>999</v>
+        <v>1490</v>
       </c>
       <c r="AF178" s="12">
-        <v>999</v>
+        <v>1490</v>
       </c>
     </row>
-    <row r="179" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="179" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>33</v>
@@ -17840,7 +18221,7 @@
         <v>43944</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E179" s="15" t="s">
         <v>33</v>
@@ -17849,7 +18230,7 @@
         <v>2320</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H179" s="13" t="s">
         <v>36</v>
@@ -17868,10 +18249,10 @@
       <c r="P179" s="19"/>
       <c r="Q179" s="18"/>
       <c r="R179" s="15" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="S179" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="T179" s="13" t="s">
         <v>33</v>
@@ -17880,42 +18261,296 @@
         <v>33</v>
       </c>
       <c r="V179" s="17">
-        <v>1.257463e6</v>
+        <v>1260677</v>
       </c>
       <c r="W179" s="15" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="X179" s="17">
         <v>2321</v>
       </c>
       <c r="Y179" s="15" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Z179" s="15" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="AA179" s="13" t="s">
         <v>278</v>
       </c>
       <c r="AB179" s="21">
+        <v>3000</v>
+      </c>
+      <c r="AC179" s="22">
+        <v>1.59</v>
+      </c>
+      <c r="AD179" s="22">
+        <v>1.59</v>
+      </c>
+      <c r="AE179" s="23">
+        <v>4770</v>
+      </c>
+      <c r="AF179" s="23">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="180" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C180" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F180" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J180" s="7">
+        <v>0</v>
+      </c>
+      <c r="K180" s="5"/>
+      <c r="L180" s="7"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="8"/>
+      <c r="O180" s="8"/>
+      <c r="P180" s="9"/>
+      <c r="Q180" s="8"/>
+      <c r="R180" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="S180" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="T180" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U180" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V180" s="7">
+        <v>1260731</v>
+      </c>
+      <c r="W180" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="X180" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y180" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z180" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA180" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB180" s="10">
+        <v>60</v>
+      </c>
+      <c r="AC180" s="11">
+        <v>271.97000000000003</v>
+      </c>
+      <c r="AD180" s="11">
+        <v>271.97000000000003</v>
+      </c>
+      <c r="AE180" s="12">
+        <v>16318.2</v>
+      </c>
+      <c r="AF180" s="12">
+        <v>16318.2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C181" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D181" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="E181" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F181" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G181" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="H181" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I181" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J181" s="17">
+        <v>0</v>
+      </c>
+      <c r="K181" s="15"/>
+      <c r="L181" s="17"/>
+      <c r="M181" s="15"/>
+      <c r="N181" s="18"/>
+      <c r="O181" s="18"/>
+      <c r="P181" s="19"/>
+      <c r="Q181" s="18"/>
+      <c r="R181" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="S181" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="T181" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U181" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V181" s="17">
+        <v>1687115</v>
+      </c>
+      <c r="W181" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="X181" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y181" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z181" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA181" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB181" s="21">
+        <v>60</v>
+      </c>
+      <c r="AC181" s="22">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="AD181" s="22">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="AE181" s="23">
+        <v>999</v>
+      </c>
+      <c r="AF181" s="23">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:32" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D182" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F182" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J182" s="7">
+        <v>0</v>
+      </c>
+      <c r="K182" s="5"/>
+      <c r="L182" s="7"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="8"/>
+      <c r="O182" s="8"/>
+      <c r="P182" s="9"/>
+      <c r="Q182" s="8"/>
+      <c r="R182" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="S182" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="T182" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U182" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V182" s="7">
+        <v>1257463</v>
+      </c>
+      <c r="W182" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="X182" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y182" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z182" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA182" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB182" s="10">
         <v>200</v>
       </c>
-      <c r="AC179" s="22">
-        <v>34.2</v>
-      </c>
-      <c r="AD179" s="22">
-        <v>34.2</v>
-      </c>
-      <c r="AE179" s="23">
+      <c r="AC182" s="11">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AD182" s="11">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AE182" s="12">
         <v>6840</v>
       </c>
-      <c r="AF179" s="23">
+      <c r="AF182" s="12">
         <v>6840</v>
       </c>
     </row>
-    <row r="180" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="183" spans="1:32" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <autoFilter ref="A1:AF1" xr:uid="{C8DE09EC-0789-4F89-AFEE-C1997E634919}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/data-raw/compras-coronavirus.xlsx
+++ b/data-raw/compras-coronavirus.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="559">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -1308,6 +1308,24 @@
   </si>
   <si>
     <t>FILTRO PARA SISTEMA RESPIRATORIO - APLICACAO: ANESTESIA GERAL E VENTILACAO MECANICA; TIPO: ADULTO;</t>
+  </si>
+  <si>
+    <t>2012015 000071/2020</t>
+  </si>
+  <si>
+    <t>Reagentes, Calibradores e Controles para realização de determinação qualitativa de anticorpos tipo IgG para SARS-COV-2 (coronavírus)</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163567</t>
+  </si>
+  <si>
+    <t>56.998.701/0032-12</t>
+  </si>
+  <si>
+    <t>ABBOTT LABORATORIOS DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>TESTE PARA IMUNODIAGNOSTICO SARS-COV-2 - APLICACAO: DETECCAO QUALITATIVA ANTICORPOS IGG P/ SARS-COV-2; METODO: QUIMIOLUMINESCENCIA; AMOSTRAS: SORO E PLASMA HUMANO;</t>
   </si>
   <si>
     <t>2121022 000013/2020</t>
@@ -1863,7 +1881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF212"/>
+  <dimension ref="A1:AF213"/>
   <cols>
     <col min="1" max="1" width="27.8093" customWidth="1"/>
     <col min="2" max="2" width="23.8165" customWidth="1"/>
@@ -16830,7 +16848,7 @@
         <v>33</v>
       </c>
       <c r="C165" s="14">
-        <v>43907</v>
+        <v>43987</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>434</v>
@@ -16839,32 +16857,44 @@
         <v>33</v>
       </c>
       <c r="F165" s="16">
-        <v>2120</v>
+        <v>2010</v>
       </c>
       <c r="G165" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="H165" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I165" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J165" s="17">
+        <v>9.251266e6</v>
+      </c>
+      <c r="K165" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="H165" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I165" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="J165" s="17">
-        <v>0</v>
-      </c>
-      <c r="K165" s="15"/>
-      <c r="L165" s="17"/>
-      <c r="M165" s="15"/>
-      <c r="N165" s="18"/>
-      <c r="O165" s="18"/>
+      <c r="L165" s="17">
+        <v>2010</v>
+      </c>
+      <c r="M165" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="N165" s="18">
+        <v>44013</v>
+      </c>
+      <c r="O165" s="18">
+        <v>44013</v>
+      </c>
       <c r="P165" s="19"/>
-      <c r="Q165" s="18"/>
+      <c r="Q165" s="18">
+        <v>44192</v>
+      </c>
       <c r="R165" s="15" t="s">
-        <v>226</v>
+        <v>436</v>
       </c>
       <c r="S165" s="15" t="s">
-        <v>227</v>
+        <v>437</v>
       </c>
       <c r="T165" s="13" t="s">
         <v>33</v>
@@ -16873,42 +16903,42 @@
         <v>33</v>
       </c>
       <c r="V165" s="17">
-        <v>1.669486e6</v>
+        <v>1.758276e6</v>
       </c>
       <c r="W165" s="15" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="X165" s="17">
-        <v>2121</v>
+        <v>2011</v>
       </c>
       <c r="Y165" s="15" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="Z165" s="15" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="AA165" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB165" s="21">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="AC165" s="22">
-        <v>7.5</v>
+        <v>40.27</v>
       </c>
       <c r="AD165" s="22">
-        <v>7.5</v>
+        <v>40.27</v>
       </c>
       <c r="AE165" s="23">
-        <v>2250</v>
+        <v>120810</v>
       </c>
       <c r="AF165" s="23">
-        <v>2250</v>
+        <v>120810</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>33</v>
@@ -16917,7 +16947,7 @@
         <v>43907</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>33</v>
@@ -16926,7 +16956,7 @@
         <v>2120</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>36</v>
@@ -16957,51 +16987,51 @@
         <v>33</v>
       </c>
       <c r="V166" s="7">
-        <v>1.696041e6</v>
+        <v>1.669486e6</v>
       </c>
       <c r="W166" s="5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="X166" s="7">
         <v>2121</v>
       </c>
       <c r="Y166" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z166" s="5" t="s">
-        <v>135</v>
+        <v>444</v>
       </c>
       <c r="AA166" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB166" s="10">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AC166" s="11">
-        <v>144</v>
+        <v>7.5</v>
       </c>
       <c r="AD166" s="11">
-        <v>80</v>
+        <v>7.5</v>
       </c>
       <c r="AE166" s="12">
-        <v>14400</v>
+        <v>2250</v>
       </c>
       <c r="AF166" s="12">
-        <v>8000</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A167" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" s="14">
+        <v>43907</v>
+      </c>
+      <c r="D167" s="15" t="s">
         <v>440</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C167" s="14">
-        <v>43908</v>
-      </c>
-      <c r="D167" s="15" t="s">
-        <v>441</v>
       </c>
       <c r="E167" s="15" t="s">
         <v>33</v>
@@ -17010,85 +17040,73 @@
         <v>2120</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H167" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>442</v>
+        <v>138</v>
       </c>
       <c r="J167" s="17">
-        <v>9.246044e6</v>
-      </c>
-      <c r="K167" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="L167" s="17">
-        <v>2120</v>
-      </c>
-      <c r="M167" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="N167" s="18">
-        <v>43976</v>
-      </c>
-      <c r="O167" s="18">
-        <v>43946</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K167" s="15"/>
+      <c r="L167" s="17"/>
+      <c r="M167" s="15"/>
+      <c r="N167" s="18"/>
+      <c r="O167" s="18"/>
       <c r="P167" s="19"/>
-      <c r="Q167" s="18">
-        <v>44196</v>
-      </c>
+      <c r="Q167" s="18"/>
       <c r="R167" s="15" t="s">
-        <v>444</v>
+        <v>226</v>
       </c>
       <c r="S167" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="T167" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U167" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V167" s="17">
+        <v>1.696041e6</v>
+      </c>
+      <c r="W167" s="15" t="s">
         <v>445</v>
-      </c>
-      <c r="T167" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U167" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V167" s="17">
-        <v>1.66937e6</v>
-      </c>
-      <c r="W167" s="15" t="s">
-        <v>193</v>
       </c>
       <c r="X167" s="17">
         <v>2121</v>
       </c>
       <c r="Y167" s="15" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z167" s="15" t="s">
         <v>135</v>
       </c>
       <c r="AA167" s="13" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="AB167" s="21">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="AC167" s="22">
-        <v>6.58</v>
+        <v>144</v>
       </c>
       <c r="AD167" s="22">
-        <v>6.58</v>
+        <v>80</v>
       </c>
       <c r="AE167" s="23">
-        <v>4606</v>
+        <v>14400</v>
       </c>
       <c r="AF167" s="23">
-        <v>4606</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>33</v>
@@ -17097,7 +17115,7 @@
         <v>43908</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>33</v>
@@ -17106,25 +17124,25 @@
         <v>2120</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="J168" s="7">
         <v>9.246044e6</v>
       </c>
       <c r="K168" s="5" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L168" s="7">
         <v>2120</v>
       </c>
       <c r="M168" s="5" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N168" s="8">
         <v>43976</v>
@@ -17137,10 +17155,10 @@
         <v>44196</v>
       </c>
       <c r="R168" s="5" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="S168" s="5" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="T168" s="3" t="s">
         <v>33</v>
@@ -17149,16 +17167,16 @@
         <v>33</v>
       </c>
       <c r="V168" s="7">
-        <v>1.669397e6</v>
+        <v>1.66937e6</v>
       </c>
       <c r="W168" s="5" t="s">
-        <v>446</v>
+        <v>193</v>
       </c>
       <c r="X168" s="7">
         <v>2121</v>
       </c>
       <c r="Y168" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z168" s="5" t="s">
         <v>135</v>
@@ -17167,24 +17185,24 @@
         <v>123</v>
       </c>
       <c r="AB168" s="10">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="AC168" s="11">
-        <v>6.8</v>
+        <v>6.58</v>
       </c>
       <c r="AD168" s="11">
-        <v>6.8</v>
+        <v>6.58</v>
       </c>
       <c r="AE168" s="12">
-        <v>1360</v>
+        <v>4606</v>
       </c>
       <c r="AF168" s="12">
-        <v>1360</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A169" s="13" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B169" s="13" t="s">
         <v>33</v>
@@ -17193,7 +17211,7 @@
         <v>43908</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E169" s="15" t="s">
         <v>33</v>
@@ -17202,25 +17220,25 @@
         <v>2120</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H169" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="J169" s="17">
         <v>9.246044e6</v>
       </c>
       <c r="K169" s="15" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L169" s="17">
         <v>2120</v>
       </c>
       <c r="M169" s="15" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N169" s="18">
         <v>43976</v>
@@ -17233,10 +17251,10 @@
         <v>44196</v>
       </c>
       <c r="R169" s="15" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="S169" s="15" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="T169" s="13" t="s">
         <v>33</v>
@@ -17245,51 +17263,51 @@
         <v>33</v>
       </c>
       <c r="V169" s="17">
-        <v>1.669486e6</v>
+        <v>1.669397e6</v>
       </c>
       <c r="W169" s="15" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="X169" s="17">
         <v>2121</v>
       </c>
       <c r="Y169" s="15" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z169" s="15" t="s">
-        <v>438</v>
+        <v>135</v>
       </c>
       <c r="AA169" s="13" t="s">
         <v>123</v>
       </c>
       <c r="AB169" s="21">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC169" s="22">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="AD169" s="22">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="AE169" s="23">
-        <v>400</v>
+        <v>1360</v>
       </c>
       <c r="AF169" s="23">
-        <v>400</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A170" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" s="4">
+        <v>43908</v>
+      </c>
+      <c r="D170" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C170" s="4">
-        <v>43909</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>33</v>
@@ -17298,29 +17316,41 @@
         <v>2120</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>138</v>
+        <v>448</v>
       </c>
       <c r="J170" s="7">
-        <v>0</v>
-      </c>
-      <c r="K170" s="5"/>
-      <c r="L170" s="7"/>
-      <c r="M170" s="5"/>
-      <c r="N170" s="8"/>
-      <c r="O170" s="8"/>
+        <v>9.246044e6</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="L170" s="7">
+        <v>2120</v>
+      </c>
+      <c r="M170" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="N170" s="8">
+        <v>43976</v>
+      </c>
+      <c r="O170" s="8">
+        <v>43946</v>
+      </c>
       <c r="P170" s="9"/>
-      <c r="Q170" s="8"/>
+      <c r="Q170" s="8">
+        <v>44196</v>
+      </c>
       <c r="R170" s="5" t="s">
-        <v>226</v>
+        <v>450</v>
       </c>
       <c r="S170" s="5" t="s">
-        <v>227</v>
+        <v>451</v>
       </c>
       <c r="T170" s="3" t="s">
         <v>33</v>
@@ -17329,51 +17359,51 @@
         <v>33</v>
       </c>
       <c r="V170" s="7">
-        <v>513830</v>
+        <v>1.669486e6</v>
       </c>
       <c r="W170" s="5" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="X170" s="7">
         <v>2121</v>
       </c>
       <c r="Y170" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z170" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AA170" s="3" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="AB170" s="10">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="AC170" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD170" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE170" s="12">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="AF170" s="12">
-        <v>1050</v>
+        <v>400</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A171" s="13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B171" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C171" s="14">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E171" s="15" t="s">
         <v>33</v>
@@ -17382,7 +17412,7 @@
         <v>2120</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H171" s="13" t="s">
         <v>36</v>
@@ -17413,51 +17443,51 @@
         <v>33</v>
       </c>
       <c r="V171" s="17">
-        <v>1.69216e6</v>
+        <v>513830</v>
       </c>
       <c r="W171" s="15" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="X171" s="17">
         <v>2121</v>
       </c>
       <c r="Y171" s="15" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z171" s="15" t="s">
-        <v>135</v>
+        <v>456</v>
       </c>
       <c r="AA171" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB171" s="21">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AC171" s="22">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="AD171" s="22">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="AE171" s="23">
-        <v>1600</v>
+        <v>1050</v>
       </c>
       <c r="AF171" s="23">
-        <v>1600</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C172" s="4">
-        <v>43938</v>
+        <v>43915</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>33</v>
@@ -17466,41 +17496,29 @@
         <v>2120</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="J172" s="7">
-        <v>9.246007e6</v>
-      </c>
-      <c r="K172" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="L172" s="7">
-        <v>2120</v>
-      </c>
-      <c r="M172" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="N172" s="8">
-        <v>43944</v>
-      </c>
-      <c r="O172" s="8">
-        <v>43944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K172" s="5"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="8"/>
+      <c r="O172" s="8"/>
       <c r="P172" s="9"/>
-      <c r="Q172" s="8">
-        <v>44126</v>
-      </c>
+      <c r="Q172" s="8"/>
       <c r="R172" s="5" t="s">
-        <v>457</v>
+        <v>226</v>
       </c>
       <c r="S172" s="5" t="s">
-        <v>458</v>
+        <v>227</v>
       </c>
       <c r="T172" s="3" t="s">
         <v>33</v>
@@ -17509,7 +17527,7 @@
         <v>33</v>
       </c>
       <c r="V172" s="7">
-        <v>1.71894e6</v>
+        <v>1.69216e6</v>
       </c>
       <c r="W172" s="5" t="s">
         <v>459</v>
@@ -17518,28 +17536,28 @@
         <v>2121</v>
       </c>
       <c r="Y172" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z172" s="5" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="AA172" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB172" s="10">
-        <v>84000</v>
+        <v>40</v>
       </c>
       <c r="AC172" s="11">
-        <v>2.2</v>
+        <v>40</v>
       </c>
       <c r="AD172" s="11">
-        <v>1.71</v>
+        <v>40</v>
       </c>
       <c r="AE172" s="12">
-        <v>184800</v>
+        <v>1600</v>
       </c>
       <c r="AF172" s="12">
-        <v>143640</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -17550,7 +17568,7 @@
         <v>33</v>
       </c>
       <c r="C173" s="14">
-        <v>43986</v>
+        <v>43938</v>
       </c>
       <c r="D173" s="15" t="s">
         <v>461</v>
@@ -17562,29 +17580,41 @@
         <v>2120</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H173" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="J173" s="17">
-        <v>0</v>
-      </c>
-      <c r="K173" s="15"/>
-      <c r="L173" s="17"/>
-      <c r="M173" s="15"/>
-      <c r="N173" s="18"/>
-      <c r="O173" s="18"/>
+        <v>9.246007e6</v>
+      </c>
+      <c r="K173" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="L173" s="17">
+        <v>2120</v>
+      </c>
+      <c r="M173" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="N173" s="18">
+        <v>43944</v>
+      </c>
+      <c r="O173" s="18">
+        <v>43944</v>
+      </c>
       <c r="P173" s="19"/>
-      <c r="Q173" s="18"/>
+      <c r="Q173" s="18">
+        <v>44126</v>
+      </c>
       <c r="R173" s="15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S173" s="15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="T173" s="13" t="s">
         <v>33</v>
@@ -17593,42 +17623,42 @@
         <v>33</v>
       </c>
       <c r="V173" s="17">
-        <v>50245</v>
+        <v>1.71894e6</v>
       </c>
       <c r="W173" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="X173" s="17">
         <v>2121</v>
       </c>
       <c r="Y173" s="15" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z173" s="15" t="s">
-        <v>438</v>
+        <v>122</v>
       </c>
       <c r="AA173" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB173" s="21">
-        <v>200</v>
+        <v>84000</v>
       </c>
       <c r="AC173" s="22">
-        <v>1.9131</v>
+        <v>2.2</v>
       </c>
       <c r="AD173" s="22">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="AE173" s="23">
-        <v>382.62</v>
+        <v>184800</v>
       </c>
       <c r="AF173" s="23">
-        <v>368</v>
+        <v>143640</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>33</v>
@@ -17637,7 +17667,7 @@
         <v>43986</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>33</v>
@@ -17646,7 +17676,7 @@
         <v>2120</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H174" s="3" t="s">
         <v>36</v>
@@ -17665,10 +17695,10 @@
       <c r="P174" s="9"/>
       <c r="Q174" s="8"/>
       <c r="R174" s="5" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="S174" s="5" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="T174" s="3" t="s">
         <v>33</v>
@@ -17677,37 +17707,37 @@
         <v>33</v>
       </c>
       <c r="V174" s="7">
-        <v>835889</v>
+        <v>50245</v>
       </c>
       <c r="W174" s="5" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="X174" s="7">
         <v>2121</v>
       </c>
       <c r="Y174" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Z174" s="5" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA174" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB174" s="10">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AC174" s="11">
-        <v>24</v>
+        <v>1.9131</v>
       </c>
       <c r="AD174" s="11">
-        <v>32.87</v>
+        <v>1.84</v>
       </c>
       <c r="AE174" s="12">
-        <v>720</v>
+        <v>382.62</v>
       </c>
       <c r="AF174" s="12">
-        <v>986.1</v>
+        <v>368</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -17718,7 +17748,7 @@
         <v>33</v>
       </c>
       <c r="C175" s="14">
-        <v>43920</v>
+        <v>43986</v>
       </c>
       <c r="D175" s="15" t="s">
         <v>467</v>
@@ -17727,16 +17757,16 @@
         <v>33</v>
       </c>
       <c r="F175" s="16">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="H175" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="J175" s="17">
         <v>0</v>
@@ -17749,11 +17779,11 @@
       <c r="P175" s="19"/>
       <c r="Q175" s="18"/>
       <c r="R175" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="S175" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="S175" s="15" t="s">
-        <v>470</v>
-      </c>
       <c r="T175" s="13" t="s">
         <v>33</v>
       </c>
@@ -17761,42 +17791,42 @@
         <v>33</v>
       </c>
       <c r="V175" s="17">
-        <v>82414</v>
+        <v>835889</v>
       </c>
       <c r="W175" s="15" t="s">
         <v>471</v>
       </c>
       <c r="X175" s="17">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y175" s="15" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="Z175" s="15" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="AA175" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB175" s="21">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="AC175" s="22">
-        <v>676000e-6</v>
+        <v>24</v>
       </c>
       <c r="AD175" s="22">
-        <v>676000e-6</v>
+        <v>32.87</v>
       </c>
       <c r="AE175" s="23">
-        <v>6760</v>
+        <v>720</v>
       </c>
       <c r="AF175" s="23">
-        <v>6760</v>
+        <v>986.1</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>33</v>
@@ -17805,7 +17835,7 @@
         <v>43920</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>33</v>
@@ -17814,7 +17844,7 @@
         <v>2260</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H176" s="3" t="s">
         <v>36</v>
@@ -17833,10 +17863,10 @@
       <c r="P176" s="9"/>
       <c r="Q176" s="8"/>
       <c r="R176" s="5" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="S176" s="5" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="T176" s="3" t="s">
         <v>33</v>
@@ -17845,42 +17875,42 @@
         <v>33</v>
       </c>
       <c r="V176" s="7">
-        <v>1.670891e6</v>
+        <v>82414</v>
       </c>
       <c r="W176" s="5" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="X176" s="7">
         <v>2261</v>
       </c>
       <c r="Y176" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z176" s="5" t="s">
-        <v>122</v>
+        <v>387</v>
       </c>
       <c r="AA176" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB176" s="10">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="AC176" s="11">
-        <v>34.9</v>
+        <v>676000e-6</v>
       </c>
       <c r="AD176" s="11">
-        <v>34.9</v>
+        <v>676000e-6</v>
       </c>
       <c r="AE176" s="12">
-        <v>698</v>
+        <v>6760</v>
       </c>
       <c r="AF176" s="12">
-        <v>698</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A177" s="13" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B177" s="13" t="s">
         <v>33</v>
@@ -17889,7 +17919,7 @@
         <v>43920</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E177" s="15" t="s">
         <v>33</v>
@@ -17898,7 +17928,7 @@
         <v>2260</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H177" s="13" t="s">
         <v>36</v>
@@ -17917,10 +17947,10 @@
       <c r="P177" s="19"/>
       <c r="Q177" s="18"/>
       <c r="R177" s="15" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="S177" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="T177" s="13" t="s">
         <v>33</v>
@@ -17929,42 +17959,42 @@
         <v>33</v>
       </c>
       <c r="V177" s="17">
-        <v>1.69773e6</v>
+        <v>1.670891e6</v>
       </c>
       <c r="W177" s="15" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="X177" s="17">
         <v>2261</v>
       </c>
       <c r="Y177" s="15" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z177" s="15" t="s">
-        <v>387</v>
+        <v>122</v>
       </c>
       <c r="AA177" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB177" s="21">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="AC177" s="22">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AD177" s="22">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AE177" s="23">
-        <v>248600</v>
+        <v>698</v>
       </c>
       <c r="AF177" s="23">
-        <v>248600</v>
+        <v>698</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>33</v>
@@ -17973,7 +18003,7 @@
         <v>43920</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>33</v>
@@ -17982,7 +18012,7 @@
         <v>2260</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>36</v>
@@ -18001,10 +18031,10 @@
       <c r="P178" s="9"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="5" t="s">
-        <v>384</v>
+        <v>479</v>
       </c>
       <c r="S178" s="5" t="s">
-        <v>385</v>
+        <v>480</v>
       </c>
       <c r="T178" s="3" t="s">
         <v>33</v>
@@ -18013,16 +18043,16 @@
         <v>33</v>
       </c>
       <c r="V178" s="7">
-        <v>394890</v>
+        <v>1.69773e6</v>
       </c>
       <c r="W178" s="5" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="X178" s="7">
         <v>2261</v>
       </c>
       <c r="Y178" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z178" s="5" t="s">
         <v>387</v>
@@ -18031,24 +18061,24 @@
         <v>44</v>
       </c>
       <c r="AB178" s="10">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="AC178" s="11">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AD178" s="11">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AE178" s="12">
-        <v>3591</v>
+        <v>248600</v>
       </c>
       <c r="AF178" s="12">
-        <v>3591</v>
+        <v>248600</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A179" s="13" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>33</v>
@@ -18057,7 +18087,7 @@
         <v>43920</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E179" s="15" t="s">
         <v>33</v>
@@ -18066,7 +18096,7 @@
         <v>2260</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H179" s="13" t="s">
         <v>36</v>
@@ -18097,16 +18127,16 @@
         <v>33</v>
       </c>
       <c r="V179" s="17">
-        <v>1.368818e6</v>
+        <v>394890</v>
       </c>
       <c r="W179" s="15" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="X179" s="17">
         <v>2261</v>
       </c>
       <c r="Y179" s="15" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z179" s="15" t="s">
         <v>387</v>
@@ -18115,24 +18145,24 @@
         <v>44</v>
       </c>
       <c r="AB179" s="21">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="AC179" s="22">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AD179" s="22">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AE179" s="23">
-        <v>2936</v>
+        <v>3591</v>
       </c>
       <c r="AF179" s="23">
-        <v>2936</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>33</v>
@@ -18141,7 +18171,7 @@
         <v>43920</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>33</v>
@@ -18150,7 +18180,7 @@
         <v>2260</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>36</v>
@@ -18181,16 +18211,16 @@
         <v>33</v>
       </c>
       <c r="V180" s="7">
-        <v>1.497391e6</v>
+        <v>1.368818e6</v>
       </c>
       <c r="W180" s="5" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="X180" s="7">
         <v>2261</v>
       </c>
       <c r="Y180" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z180" s="5" t="s">
         <v>387</v>
@@ -18199,24 +18229,24 @@
         <v>44</v>
       </c>
       <c r="AB180" s="10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AC180" s="11">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AD180" s="11">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AE180" s="12">
-        <v>51300</v>
+        <v>2936</v>
       </c>
       <c r="AF180" s="12">
-        <v>51300</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A181" s="13" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B181" s="13" t="s">
         <v>33</v>
@@ -18225,7 +18255,7 @@
         <v>43920</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E181" s="15" t="s">
         <v>33</v>
@@ -18234,7 +18264,7 @@
         <v>2260</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H181" s="13" t="s">
         <v>36</v>
@@ -18253,10 +18283,10 @@
       <c r="P181" s="19"/>
       <c r="Q181" s="18"/>
       <c r="R181" s="15" t="s">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="S181" s="15" t="s">
-        <v>480</v>
+        <v>385</v>
       </c>
       <c r="T181" s="13" t="s">
         <v>33</v>
@@ -18265,16 +18295,16 @@
         <v>33</v>
       </c>
       <c r="V181" s="17">
-        <v>1.669613e6</v>
+        <v>1.497391e6</v>
       </c>
       <c r="W181" s="15" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="X181" s="17">
         <v>2261</v>
       </c>
       <c r="Y181" s="15" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z181" s="15" t="s">
         <v>387</v>
@@ -18283,24 +18313,24 @@
         <v>44</v>
       </c>
       <c r="AB181" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC181" s="22">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AD181" s="22">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AE181" s="23">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
       <c r="AF181" s="23">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>33</v>
@@ -18309,7 +18339,7 @@
         <v>43920</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>33</v>
@@ -18318,7 +18348,7 @@
         <v>2260</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>36</v>
@@ -18337,10 +18367,10 @@
       <c r="P182" s="9"/>
       <c r="Q182" s="8"/>
       <c r="R182" s="5" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="S182" s="5" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="T182" s="3" t="s">
         <v>33</v>
@@ -18349,16 +18379,16 @@
         <v>33</v>
       </c>
       <c r="V182" s="7">
-        <v>857025</v>
+        <v>1.669613e6</v>
       </c>
       <c r="W182" s="5" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="X182" s="7">
         <v>2261</v>
       </c>
       <c r="Y182" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z182" s="5" t="s">
         <v>387</v>
@@ -18367,24 +18397,24 @@
         <v>44</v>
       </c>
       <c r="AB182" s="10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AC182" s="11">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AD182" s="11">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AE182" s="12">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
       <c r="AF182" s="12">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A183" s="13" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B183" s="13" t="s">
         <v>33</v>
@@ -18393,7 +18423,7 @@
         <v>43920</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E183" s="15" t="s">
         <v>33</v>
@@ -18402,7 +18432,7 @@
         <v>2260</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H183" s="13" t="s">
         <v>36</v>
@@ -18421,10 +18451,10 @@
       <c r="P183" s="19"/>
       <c r="Q183" s="18"/>
       <c r="R183" s="15" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="S183" s="15" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="T183" s="13" t="s">
         <v>33</v>
@@ -18433,16 +18463,16 @@
         <v>33</v>
       </c>
       <c r="V183" s="17">
-        <v>1.151746e6</v>
+        <v>857025</v>
       </c>
       <c r="W183" s="15" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="X183" s="17">
         <v>2261</v>
       </c>
       <c r="Y183" s="15" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z183" s="15" t="s">
         <v>387</v>
@@ -18451,24 +18481,24 @@
         <v>44</v>
       </c>
       <c r="AB183" s="21">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AC183" s="22">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AD183" s="22">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AE183" s="23">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
       <c r="AF183" s="23">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>33</v>
@@ -18477,7 +18507,7 @@
         <v>43920</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>33</v>
@@ -18486,7 +18516,7 @@
         <v>2260</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>36</v>
@@ -18495,32 +18525,20 @@
         <v>37</v>
       </c>
       <c r="J184" s="7">
-        <v>9.245762e6</v>
-      </c>
-      <c r="K184" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="L184" s="7">
-        <v>2260</v>
-      </c>
-      <c r="M184" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="N184" s="8">
-        <v>43936</v>
-      </c>
-      <c r="O184" s="8">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K184" s="5"/>
+      <c r="L184" s="7"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="8"/>
+      <c r="O184" s="8"/>
       <c r="P184" s="9"/>
-      <c r="Q184" s="8">
-        <v>44115</v>
-      </c>
+      <c r="Q184" s="8"/>
       <c r="R184" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="S184" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="T184" s="3" t="s">
         <v>33</v>
@@ -18529,42 +18547,42 @@
         <v>33</v>
       </c>
       <c r="V184" s="7">
-        <v>781673</v>
+        <v>1.151746e6</v>
       </c>
       <c r="W184" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="X184" s="7">
         <v>2261</v>
       </c>
       <c r="Y184" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z184" s="5" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
       <c r="AA184" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB184" s="10">
-        <v>30000</v>
+        <v>20</v>
       </c>
       <c r="AC184" s="11">
-        <v>900000e-6</v>
+        <v>117</v>
       </c>
       <c r="AD184" s="11">
-        <v>900000e-6</v>
+        <v>117</v>
       </c>
       <c r="AE184" s="12">
-        <v>27000</v>
+        <v>2340</v>
       </c>
       <c r="AF184" s="12">
-        <v>27000</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A185" s="13" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B185" s="13" t="s">
         <v>33</v>
@@ -18573,7 +18591,7 @@
         <v>43920</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E185" s="15" t="s">
         <v>33</v>
@@ -18582,7 +18600,7 @@
         <v>2260</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H185" s="13" t="s">
         <v>36</v>
@@ -18591,16 +18609,16 @@
         <v>37</v>
       </c>
       <c r="J185" s="17">
-        <v>9.245763e6</v>
+        <v>9.245762e6</v>
       </c>
       <c r="K185" s="15" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L185" s="17">
         <v>2260</v>
       </c>
       <c r="M185" s="15" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="N185" s="18">
         <v>43936</v>
@@ -18613,10 +18631,10 @@
         <v>44115</v>
       </c>
       <c r="R185" s="15" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="S185" s="15" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="T185" s="13" t="s">
         <v>33</v>
@@ -18625,16 +18643,16 @@
         <v>33</v>
       </c>
       <c r="V185" s="17">
-        <v>538957</v>
+        <v>781673</v>
       </c>
       <c r="W185" s="15" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="X185" s="17">
         <v>2261</v>
       </c>
       <c r="Y185" s="15" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z185" s="15" t="s">
         <v>115</v>
@@ -18646,21 +18664,21 @@
         <v>30000</v>
       </c>
       <c r="AC185" s="22">
-        <v>550000e-6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AD185" s="22">
-        <v>550000e-6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AE185" s="23">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="AF185" s="23">
-        <v>16500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>33</v>
@@ -18669,7 +18687,7 @@
         <v>43920</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>33</v>
@@ -18678,7 +18696,7 @@
         <v>2260</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>36</v>
@@ -18690,13 +18708,13 @@
         <v>9.245763e6</v>
       </c>
       <c r="K186" s="5" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="L186" s="7">
         <v>2260</v>
       </c>
       <c r="M186" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="N186" s="8">
         <v>43936</v>
@@ -18709,10 +18727,10 @@
         <v>44115</v>
       </c>
       <c r="R186" s="5" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="T186" s="3" t="s">
         <v>33</v>
@@ -18721,16 +18739,16 @@
         <v>33</v>
       </c>
       <c r="V186" s="7">
-        <v>1.651595e6</v>
+        <v>538957</v>
       </c>
       <c r="W186" s="5" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="X186" s="7">
         <v>2261</v>
       </c>
       <c r="Y186" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Z186" s="5" t="s">
         <v>115</v>
@@ -18742,39 +18760,39 @@
         <v>30000</v>
       </c>
       <c r="AC186" s="11">
-        <v>1.08</v>
+        <v>550000e-6</v>
       </c>
       <c r="AD186" s="11">
-        <v>1.08</v>
+        <v>550000e-6</v>
       </c>
       <c r="AE186" s="12">
-        <v>32400</v>
+        <v>16500</v>
       </c>
       <c r="AF186" s="12">
-        <v>32400</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A187" s="13" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="B187" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C187" s="14">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="E187" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F187" s="16">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="H187" s="13" t="s">
         <v>36</v>
@@ -18783,87 +18801,85 @@
         <v>37</v>
       </c>
       <c r="J187" s="17">
-        <v>9.245674e6</v>
+        <v>9.245763e6</v>
       </c>
       <c r="K187" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="L187" s="17">
+        <v>2260</v>
+      </c>
+      <c r="M187" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="N187" s="18">
+        <v>43936</v>
+      </c>
+      <c r="O187" s="18">
+        <v>43936</v>
+      </c>
+      <c r="P187" s="19"/>
+      <c r="Q187" s="18">
+        <v>44115</v>
+      </c>
+      <c r="R187" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="S187" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="L187" s="17">
-        <v>2300</v>
-      </c>
-      <c r="M187" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="N187" s="18">
-        <v>43922</v>
-      </c>
-      <c r="O187" s="18">
-        <v>43922</v>
-      </c>
-      <c r="P187" s="19">
-        <v>44105</v>
-      </c>
-      <c r="Q187" s="18">
-        <v>44131</v>
-      </c>
-      <c r="R187" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="S187" s="15" t="s">
+      <c r="T187" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U187" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V187" s="17">
+        <v>1.651595e6</v>
+      </c>
+      <c r="W187" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="T187" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U187" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V187" s="17">
-        <v>1155</v>
-      </c>
-      <c r="W187" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="X187" s="17">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y187" s="15" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="Z187" s="15" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AA187" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB187" s="21">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AC187" s="22">
-        <v>4.35942886e6</v>
+        <v>1.08</v>
       </c>
       <c r="AD187" s="22">
-        <v>4.35942886e6</v>
+        <v>1.08</v>
       </c>
       <c r="AE187" s="23">
-        <v>4.35942886e6</v>
+        <v>32400</v>
       </c>
       <c r="AF187" s="23">
-        <v>4.35942886e6</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A188" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="4">
+        <v>43921</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C188" s="4">
-        <v>43935</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>33</v>
@@ -18872,7 +18888,7 @@
         <v>2300</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>36</v>
@@ -18881,7 +18897,7 @@
         <v>37</v>
       </c>
       <c r="J188" s="7">
-        <v>9.24595e6</v>
+        <v>9.245674e6</v>
       </c>
       <c r="K188" s="5" t="s">
         <v>506</v>
@@ -18890,19 +18906,19 @@
         <v>2300</v>
       </c>
       <c r="M188" s="5" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="N188" s="8">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="O188" s="8">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="P188" s="9">
-        <v>44119</v>
+        <v>44105</v>
       </c>
       <c r="Q188" s="8">
-        <v>44119</v>
+        <v>44131</v>
       </c>
       <c r="R188" s="5" t="s">
         <v>507</v>
@@ -18926,7 +18942,7 @@
         <v>2301</v>
       </c>
       <c r="Y188" s="5" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="Z188" s="5" t="s">
         <v>108</v>
@@ -18938,30 +18954,30 @@
         <v>0</v>
       </c>
       <c r="AC188" s="11">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AD188" s="11">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AE188" s="12">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AF188" s="12">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A189" s="13" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B189" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C189" s="14">
-        <v>43963</v>
+        <v>43935</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E189" s="15" t="s">
         <v>33</v>
@@ -18970,7 +18986,7 @@
         <v>2300</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H189" s="13" t="s">
         <v>36</v>
@@ -18979,34 +18995,34 @@
         <v>37</v>
       </c>
       <c r="J189" s="17">
-        <v>9.247198e6</v>
+        <v>9.24595e6</v>
       </c>
       <c r="K189" s="15" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L189" s="17">
         <v>2300</v>
       </c>
       <c r="M189" s="15" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="N189" s="18">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="O189" s="18">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="P189" s="19">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="Q189" s="18">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="R189" s="15" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="S189" s="15" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T189" s="13" t="s">
         <v>33</v>
@@ -19024,7 +19040,7 @@
         <v>2301</v>
       </c>
       <c r="Y189" s="15" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="Z189" s="15" t="s">
         <v>108</v>
@@ -19036,39 +19052,39 @@
         <v>0</v>
       </c>
       <c r="AC189" s="22">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AD189" s="22">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AE189" s="23">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AF189" s="23">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C190" s="4">
-        <v>43928</v>
+        <v>43963</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F190" s="6">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>36</v>
@@ -19077,34 +19093,34 @@
         <v>37</v>
       </c>
       <c r="J190" s="7">
-        <v>9.245982e6</v>
+        <v>9.247198e6</v>
       </c>
       <c r="K190" s="5" t="s">
         <v>517</v>
       </c>
       <c r="L190" s="7">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M190" s="5" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="N190" s="8">
-        <v>43943</v>
+        <v>43963</v>
       </c>
       <c r="O190" s="8">
-        <v>43939</v>
+        <v>43963</v>
       </c>
       <c r="P190" s="9">
-        <v>44304</v>
+        <v>44195</v>
       </c>
       <c r="Q190" s="8">
-        <v>44121</v>
+        <v>44195</v>
       </c>
       <c r="R190" s="5" t="s">
-        <v>425</v>
+        <v>518</v>
       </c>
       <c r="S190" s="5" t="s">
-        <v>426</v>
+        <v>519</v>
       </c>
       <c r="T190" s="3" t="s">
         <v>33</v>
@@ -19113,42 +19129,42 @@
         <v>33</v>
       </c>
       <c r="V190" s="7">
-        <v>18228</v>
-      </c>
-      <c r="W190" s="24" t="s">
-        <v>518</v>
+        <v>1155</v>
+      </c>
+      <c r="W190" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="X190" s="7">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y190" s="5" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="Z190" s="5" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="AA190" s="3" t="s">
-        <v>519</v>
+        <v>44</v>
       </c>
       <c r="AB190" s="10">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC190" s="11">
-        <v>36</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AD190" s="11">
-        <v>36</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AE190" s="12">
-        <v>7200</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AF190" s="12">
-        <v>7200</v>
+        <v>7.11634326e6</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A191" s="13" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B191" s="13" t="s">
         <v>33</v>
@@ -19157,7 +19173,7 @@
         <v>43928</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E191" s="15" t="s">
         <v>33</v>
@@ -19166,7 +19182,7 @@
         <v>2310</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H191" s="13" t="s">
         <v>36</v>
@@ -19178,13 +19194,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K191" s="15" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L191" s="17">
         <v>2310</v>
       </c>
       <c r="M191" s="15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N191" s="18">
         <v>43943</v>
@@ -19211,42 +19227,42 @@
         <v>33</v>
       </c>
       <c r="V191" s="17">
-        <v>236268</v>
-      </c>
-      <c r="W191" s="15" t="s">
-        <v>520</v>
+        <v>18228</v>
+      </c>
+      <c r="W191" s="20" t="s">
+        <v>524</v>
       </c>
       <c r="X191" s="17">
         <v>2311</v>
       </c>
       <c r="Y191" s="15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Z191" s="15" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="AA191" s="13" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AB191" s="21">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AC191" s="22">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AD191" s="22">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AE191" s="23">
-        <v>2250</v>
+        <v>7200</v>
       </c>
       <c r="AF191" s="23">
-        <v>2250</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>33</v>
@@ -19255,7 +19271,7 @@
         <v>43928</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>33</v>
@@ -19264,7 +19280,7 @@
         <v>2310</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>36</v>
@@ -19276,13 +19292,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K192" s="5" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L192" s="7">
         <v>2310</v>
       </c>
       <c r="M192" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N192" s="8">
         <v>43943</v>
@@ -19309,42 +19325,42 @@
         <v>33</v>
       </c>
       <c r="V192" s="7">
-        <v>461920</v>
+        <v>236268</v>
       </c>
       <c r="W192" s="5" t="s">
-        <v>432</v>
+        <v>526</v>
       </c>
       <c r="X192" s="7">
         <v>2311</v>
       </c>
       <c r="Y192" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Z192" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AA192" s="3" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AB192" s="10">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="AC192" s="11">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AD192" s="11">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AE192" s="12">
-        <v>4800</v>
+        <v>2250</v>
       </c>
       <c r="AF192" s="12">
-        <v>4800</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A193" s="13" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B193" s="13" t="s">
         <v>33</v>
@@ -19353,7 +19369,7 @@
         <v>43928</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E193" s="15" t="s">
         <v>33</v>
@@ -19362,7 +19378,7 @@
         <v>2310</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H193" s="13" t="s">
         <v>36</v>
@@ -19374,13 +19390,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K193" s="15" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L193" s="17">
         <v>2310</v>
       </c>
       <c r="M193" s="15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N193" s="18">
         <v>43943</v>
@@ -19407,42 +19423,42 @@
         <v>33</v>
       </c>
       <c r="V193" s="17">
-        <v>804495</v>
+        <v>461920</v>
       </c>
       <c r="W193" s="15" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="X193" s="17">
         <v>2311</v>
       </c>
       <c r="Y193" s="15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Z193" s="15" t="s">
         <v>122</v>
       </c>
       <c r="AA193" s="13" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AB193" s="21">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="AC193" s="22">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AD193" s="22">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AE193" s="23">
-        <v>7650</v>
+        <v>4800</v>
       </c>
       <c r="AF193" s="23">
-        <v>7650</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A194" s="3" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>33</v>
@@ -19451,7 +19467,7 @@
         <v>43928</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>33</v>
@@ -19460,7 +19476,7 @@
         <v>2310</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>36</v>
@@ -19472,13 +19488,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K194" s="5" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L194" s="7">
         <v>2310</v>
       </c>
       <c r="M194" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N194" s="8">
         <v>43943</v>
@@ -19505,25 +19521,25 @@
         <v>33</v>
       </c>
       <c r="V194" s="7">
-        <v>1.129139e6</v>
+        <v>804495</v>
       </c>
       <c r="W194" s="5" t="s">
-        <v>521</v>
+        <v>427</v>
       </c>
       <c r="X194" s="7">
         <v>2311</v>
       </c>
       <c r="Y194" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Z194" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AA194" s="3" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AB194" s="10">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AC194" s="11">
         <v>45</v>
@@ -19532,15 +19548,15 @@
         <v>45</v>
       </c>
       <c r="AE194" s="12">
-        <v>1350</v>
+        <v>7650</v>
       </c>
       <c r="AF194" s="12">
-        <v>1350</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A195" s="13" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B195" s="13" t="s">
         <v>33</v>
@@ -19549,7 +19565,7 @@
         <v>43928</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E195" s="15" t="s">
         <v>33</v>
@@ -19558,7 +19574,7 @@
         <v>2310</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H195" s="13" t="s">
         <v>36</v>
@@ -19570,13 +19586,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K195" s="15" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L195" s="17">
         <v>2310</v>
       </c>
       <c r="M195" s="15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N195" s="18">
         <v>43943</v>
@@ -19603,22 +19619,22 @@
         <v>33</v>
       </c>
       <c r="V195" s="17">
-        <v>1.152823e6</v>
+        <v>1.129139e6</v>
       </c>
       <c r="W195" s="15" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="X195" s="17">
         <v>2311</v>
       </c>
       <c r="Y195" s="15" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Z195" s="15" t="s">
         <v>122</v>
       </c>
       <c r="AA195" s="13" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AB195" s="21">
         <v>30</v>
@@ -19638,7 +19654,7 @@
     </row>
     <row r="196" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>33</v>
@@ -19647,7 +19663,7 @@
         <v>43928</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>33</v>
@@ -19656,7 +19672,7 @@
         <v>2310</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H196" s="3" t="s">
         <v>36</v>
@@ -19668,13 +19684,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K196" s="5" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L196" s="7">
         <v>2310</v>
       </c>
       <c r="M196" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N196" s="8">
         <v>43943</v>
@@ -19701,22 +19717,22 @@
         <v>33</v>
       </c>
       <c r="V196" s="7">
-        <v>1.152831e6</v>
+        <v>1.152823e6</v>
       </c>
       <c r="W196" s="5" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="X196" s="7">
         <v>2311</v>
       </c>
       <c r="Y196" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Z196" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AA196" s="3" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AB196" s="10">
         <v>30</v>
@@ -19736,25 +19752,25 @@
     </row>
     <row r="197" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A197" s="13" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B197" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C197" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D197" s="25" t="s">
-        <v>525</v>
+        <v>43928</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>521</v>
       </c>
       <c r="E197" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F197" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H197" s="13" t="s">
         <v>36</v>
@@ -19763,20 +19779,34 @@
         <v>37</v>
       </c>
       <c r="J197" s="17">
-        <v>0</v>
-      </c>
-      <c r="K197" s="15"/>
-      <c r="L197" s="17"/>
-      <c r="M197" s="15"/>
-      <c r="N197" s="18"/>
-      <c r="O197" s="18"/>
-      <c r="P197" s="19"/>
-      <c r="Q197" s="18"/>
+        <v>9.245982e6</v>
+      </c>
+      <c r="K197" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="L197" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M197" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="N197" s="18">
+        <v>43943</v>
+      </c>
+      <c r="O197" s="18">
+        <v>43939</v>
+      </c>
+      <c r="P197" s="19">
+        <v>44304</v>
+      </c>
+      <c r="Q197" s="18">
+        <v>44121</v>
+      </c>
       <c r="R197" s="15" t="s">
-        <v>527</v>
+        <v>425</v>
       </c>
       <c r="S197" s="15" t="s">
-        <v>528</v>
+        <v>426</v>
       </c>
       <c r="T197" s="13" t="s">
         <v>33</v>
@@ -19785,42 +19815,42 @@
         <v>33</v>
       </c>
       <c r="V197" s="17">
-        <v>1.692143e6</v>
+        <v>1.152831e6</v>
       </c>
       <c r="W197" s="15" t="s">
         <v>529</v>
       </c>
       <c r="X197" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y197" s="15" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="Z197" s="15" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AA197" s="13" t="s">
-        <v>327</v>
+        <v>525</v>
       </c>
       <c r="AB197" s="21">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="AC197" s="22">
-        <v>8.2</v>
+        <v>45</v>
       </c>
       <c r="AD197" s="22">
-        <v>8.2</v>
+        <v>45</v>
       </c>
       <c r="AE197" s="23">
-        <v>24600</v>
+        <v>1350</v>
       </c>
       <c r="AF197" s="23">
-        <v>24600</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>33</v>
@@ -19829,7 +19859,7 @@
         <v>43944</v>
       </c>
       <c r="D198" s="26" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>33</v>
@@ -19838,7 +19868,7 @@
         <v>2320</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>36</v>
@@ -19857,10 +19887,10 @@
       <c r="P198" s="9"/>
       <c r="Q198" s="8"/>
       <c r="R198" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="S198" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="T198" s="3" t="s">
         <v>33</v>
@@ -19869,42 +19899,42 @@
         <v>33</v>
       </c>
       <c r="V198" s="7">
-        <v>1.143883e6</v>
+        <v>1.692143e6</v>
       </c>
       <c r="W198" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="X198" s="7">
         <v>2321</v>
       </c>
       <c r="Y198" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z198" s="5" t="s">
-        <v>438</v>
+        <v>135</v>
       </c>
       <c r="AA198" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AB198" s="10">
-        <v>200000</v>
+        <v>3000</v>
       </c>
       <c r="AC198" s="11">
-        <v>600000e-6</v>
+        <v>8.2</v>
       </c>
       <c r="AD198" s="11">
-        <v>600000e-6</v>
+        <v>8.2</v>
       </c>
       <c r="AE198" s="12">
-        <v>120000</v>
+        <v>24600</v>
       </c>
       <c r="AF198" s="12">
-        <v>120000</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A199" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B199" s="13" t="s">
         <v>33</v>
@@ -19913,7 +19943,7 @@
         <v>43944</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E199" s="15" t="s">
         <v>33</v>
@@ -19922,7 +19952,7 @@
         <v>2320</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H199" s="13" t="s">
         <v>36</v>
@@ -19941,10 +19971,10 @@
       <c r="P199" s="19"/>
       <c r="Q199" s="18"/>
       <c r="R199" s="15" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="S199" s="15" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="T199" s="13" t="s">
         <v>33</v>
@@ -19953,42 +19983,42 @@
         <v>33</v>
       </c>
       <c r="V199" s="17">
-        <v>1.244515e6</v>
+        <v>1.143883e6</v>
       </c>
       <c r="W199" s="15" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="X199" s="17">
         <v>2321</v>
       </c>
       <c r="Y199" s="15" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z199" s="15" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA199" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB199" s="21">
-        <v>50</v>
+        <v>200000</v>
       </c>
       <c r="AC199" s="22">
-        <v>20.1</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD199" s="22">
-        <v>20.1</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE199" s="23">
-        <v>1005</v>
+        <v>120000</v>
       </c>
       <c r="AF199" s="23">
-        <v>1005</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>33</v>
@@ -19997,7 +20027,7 @@
         <v>43944</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>33</v>
@@ -20006,7 +20036,7 @@
         <v>2320</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>36</v>
@@ -20025,10 +20055,10 @@
       <c r="P200" s="9"/>
       <c r="Q200" s="8"/>
       <c r="R200" s="5" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="S200" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="T200" s="3" t="s">
         <v>33</v>
@@ -20037,42 +20067,42 @@
         <v>33</v>
       </c>
       <c r="V200" s="7">
-        <v>1.244108e6</v>
+        <v>1.244515e6</v>
       </c>
       <c r="W200" s="5" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="X200" s="7">
         <v>2321</v>
       </c>
       <c r="Y200" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z200" s="5" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA200" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AB200" s="10">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AC200" s="11">
-        <v>358.24</v>
+        <v>20.1</v>
       </c>
       <c r="AD200" s="11">
-        <v>358.24</v>
+        <v>20.1</v>
       </c>
       <c r="AE200" s="12">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
       <c r="AF200" s="12">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A201" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B201" s="13" t="s">
         <v>33</v>
@@ -20081,7 +20111,7 @@
         <v>43944</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E201" s="15" t="s">
         <v>33</v>
@@ -20090,7 +20120,7 @@
         <v>2320</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H201" s="13" t="s">
         <v>36</v>
@@ -20109,10 +20139,10 @@
       <c r="P201" s="19"/>
       <c r="Q201" s="18"/>
       <c r="R201" s="15" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S201" s="15" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T201" s="13" t="s">
         <v>33</v>
@@ -20121,42 +20151,42 @@
         <v>33</v>
       </c>
       <c r="V201" s="17">
-        <v>1.244507e6</v>
+        <v>1.244108e6</v>
       </c>
       <c r="W201" s="15" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="X201" s="17">
         <v>2321</v>
       </c>
       <c r="Y201" s="15" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z201" s="15" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA201" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB201" s="21">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AC201" s="22">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AD201" s="22">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AE201" s="23">
-        <v>1745</v>
+        <v>32241.6</v>
       </c>
       <c r="AF201" s="23">
-        <v>1745</v>
+        <v>32241.6</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A202" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>33</v>
@@ -20165,7 +20195,7 @@
         <v>43944</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>33</v>
@@ -20174,7 +20204,7 @@
         <v>2320</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>36</v>
@@ -20193,10 +20223,10 @@
       <c r="P202" s="9"/>
       <c r="Q202" s="8"/>
       <c r="R202" s="5" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S202" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T202" s="3" t="s">
         <v>33</v>
@@ -20205,42 +20235,42 @@
         <v>33</v>
       </c>
       <c r="V202" s="7">
-        <v>1.257587e6</v>
+        <v>1.244507e6</v>
       </c>
       <c r="W202" s="5" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="X202" s="7">
         <v>2321</v>
       </c>
       <c r="Y202" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z202" s="5" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA202" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AB202" s="10">
-        <v>80000</v>
+        <v>50</v>
       </c>
       <c r="AC202" s="11">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AD202" s="11">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AE202" s="12">
-        <v>31200</v>
+        <v>1745</v>
       </c>
       <c r="AF202" s="12">
-        <v>31200</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A203" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B203" s="13" t="s">
         <v>33</v>
@@ -20249,7 +20279,7 @@
         <v>43944</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E203" s="15" t="s">
         <v>33</v>
@@ -20258,7 +20288,7 @@
         <v>2320</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H203" s="13" t="s">
         <v>36</v>
@@ -20277,10 +20307,10 @@
       <c r="P203" s="19"/>
       <c r="Q203" s="18"/>
       <c r="R203" s="15" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S203" s="15" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T203" s="13" t="s">
         <v>33</v>
@@ -20289,42 +20319,42 @@
         <v>33</v>
       </c>
       <c r="V203" s="17">
-        <v>1.257625e6</v>
+        <v>1.257587e6</v>
       </c>
       <c r="W203" s="15" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="X203" s="17">
         <v>2321</v>
       </c>
       <c r="Y203" s="15" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z203" s="15" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="AA203" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB203" s="21">
-        <v>90</v>
+        <v>80000</v>
       </c>
       <c r="AC203" s="22">
-        <v>351</v>
+        <v>390000e-6</v>
       </c>
       <c r="AD203" s="22">
-        <v>351</v>
+        <v>390000e-6</v>
       </c>
       <c r="AE203" s="23">
-        <v>31590</v>
+        <v>31200</v>
       </c>
       <c r="AF203" s="23">
-        <v>31590</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="204" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>33</v>
@@ -20333,7 +20363,7 @@
         <v>43944</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>33</v>
@@ -20342,7 +20372,7 @@
         <v>2320</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>36</v>
@@ -20361,10 +20391,10 @@
       <c r="P204" s="9"/>
       <c r="Q204" s="8"/>
       <c r="R204" s="5" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S204" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T204" s="3" t="s">
         <v>33</v>
@@ -20373,42 +20403,42 @@
         <v>33</v>
       </c>
       <c r="V204" s="7">
-        <v>1.258699e6</v>
+        <v>1.257625e6</v>
       </c>
       <c r="W204" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="X204" s="7">
         <v>2321</v>
       </c>
       <c r="Y204" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z204" s="5" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="AA204" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AB204" s="10">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="AC204" s="11">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AD204" s="11">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AE204" s="12">
-        <v>2780</v>
+        <v>31590</v>
       </c>
       <c r="AF204" s="12">
-        <v>2780</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="205" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A205" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B205" s="13" t="s">
         <v>33</v>
@@ -20417,7 +20447,7 @@
         <v>43944</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E205" s="15" t="s">
         <v>33</v>
@@ -20426,7 +20456,7 @@
         <v>2320</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H205" s="13" t="s">
         <v>36</v>
@@ -20445,10 +20475,10 @@
       <c r="P205" s="19"/>
       <c r="Q205" s="18"/>
       <c r="R205" s="15" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S205" s="15" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T205" s="13" t="s">
         <v>33</v>
@@ -20457,42 +20487,42 @@
         <v>33</v>
       </c>
       <c r="V205" s="17">
-        <v>1.259784e6</v>
+        <v>1.258699e6</v>
       </c>
       <c r="W205" s="15" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="X205" s="17">
         <v>2321</v>
       </c>
       <c r="Y205" s="15" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z205" s="15" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA205" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB205" s="21">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AC205" s="22">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AD205" s="22">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AE205" s="23">
-        <v>1800</v>
+        <v>2780</v>
       </c>
       <c r="AF205" s="23">
-        <v>1800</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A206" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>33</v>
@@ -20501,7 +20531,7 @@
         <v>43944</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>33</v>
@@ -20510,7 +20540,7 @@
         <v>2320</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>36</v>
@@ -20529,10 +20559,10 @@
       <c r="P206" s="9"/>
       <c r="Q206" s="8"/>
       <c r="R206" s="5" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S206" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T206" s="3" t="s">
         <v>33</v>
@@ -20541,42 +20571,42 @@
         <v>33</v>
       </c>
       <c r="V206" s="7">
-        <v>1.259792e6</v>
+        <v>1.259784e6</v>
       </c>
       <c r="W206" s="5" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="X206" s="7">
         <v>2321</v>
       </c>
       <c r="Y206" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z206" s="5" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA206" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AB206" s="10">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="AC206" s="11">
-        <v>15.35</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD206" s="11">
-        <v>15.35</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE206" s="12">
-        <v>1228</v>
+        <v>1800</v>
       </c>
       <c r="AF206" s="12">
-        <v>1228</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A207" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B207" s="13" t="s">
         <v>33</v>
@@ -20585,7 +20615,7 @@
         <v>43944</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E207" s="15" t="s">
         <v>33</v>
@@ -20594,7 +20624,7 @@
         <v>2320</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H207" s="13" t="s">
         <v>36</v>
@@ -20613,10 +20643,10 @@
       <c r="P207" s="19"/>
       <c r="Q207" s="18"/>
       <c r="R207" s="15" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S207" s="15" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T207" s="13" t="s">
         <v>33</v>
@@ -20625,42 +20655,42 @@
         <v>33</v>
       </c>
       <c r="V207" s="17">
-        <v>1.260669e6</v>
+        <v>1.259792e6</v>
       </c>
       <c r="W207" s="15" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="X207" s="17">
         <v>2321</v>
       </c>
       <c r="Y207" s="15" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z207" s="15" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA207" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB207" s="21">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC207" s="22">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AD207" s="22">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AE207" s="23">
-        <v>1490</v>
+        <v>1228</v>
       </c>
       <c r="AF207" s="23">
-        <v>1490</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="208" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>33</v>
@@ -20669,7 +20699,7 @@
         <v>43944</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>33</v>
@@ -20678,7 +20708,7 @@
         <v>2320</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>36</v>
@@ -20697,10 +20727,10 @@
       <c r="P208" s="9"/>
       <c r="Q208" s="8"/>
       <c r="R208" s="5" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S208" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T208" s="3" t="s">
         <v>33</v>
@@ -20709,42 +20739,42 @@
         <v>33</v>
       </c>
       <c r="V208" s="7">
-        <v>1.260677e6</v>
+        <v>1.260669e6</v>
       </c>
       <c r="W208" s="5" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="X208" s="7">
         <v>2321</v>
       </c>
       <c r="Y208" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z208" s="5" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA208" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AB208" s="10">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AC208" s="11">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AD208" s="11">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AE208" s="12">
-        <v>4770</v>
+        <v>1490</v>
       </c>
       <c r="AF208" s="12">
-        <v>4770</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="209" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A209" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B209" s="13" t="s">
         <v>33</v>
@@ -20753,7 +20783,7 @@
         <v>43944</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E209" s="15" t="s">
         <v>33</v>
@@ -20762,7 +20792,7 @@
         <v>2320</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H209" s="13" t="s">
         <v>36</v>
@@ -20781,10 +20811,10 @@
       <c r="P209" s="19"/>
       <c r="Q209" s="18"/>
       <c r="R209" s="15" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S209" s="15" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T209" s="13" t="s">
         <v>33</v>
@@ -20793,42 +20823,42 @@
         <v>33</v>
       </c>
       <c r="V209" s="17">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W209" s="20" t="s">
-        <v>548</v>
+        <v>1.260677e6</v>
+      </c>
+      <c r="W209" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="X209" s="17">
         <v>2321</v>
       </c>
       <c r="Y209" s="15" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z209" s="15" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA209" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB209" s="21">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="AC209" s="22">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AD209" s="22">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AE209" s="23">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
       <c r="AF209" s="23">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="210" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>33</v>
@@ -20837,7 +20867,7 @@
         <v>43944</v>
       </c>
       <c r="D210" s="26" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>33</v>
@@ -20846,7 +20876,7 @@
         <v>2320</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>36</v>
@@ -20865,10 +20895,10 @@
       <c r="P210" s="9"/>
       <c r="Q210" s="8"/>
       <c r="R210" s="5" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="S210" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="T210" s="3" t="s">
         <v>33</v>
@@ -20877,19 +20907,19 @@
         <v>33</v>
       </c>
       <c r="V210" s="7">
-        <v>1.687115e6</v>
-      </c>
-      <c r="W210" s="5" t="s">
-        <v>549</v>
+        <v>1.260731e6</v>
+      </c>
+      <c r="W210" s="24" t="s">
+        <v>554</v>
       </c>
       <c r="X210" s="7">
         <v>2321</v>
       </c>
       <c r="Y210" s="5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z210" s="5" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA210" s="3" t="s">
         <v>327</v>
@@ -20898,21 +20928,21 @@
         <v>60</v>
       </c>
       <c r="AC210" s="11">
-        <v>16.65</v>
+        <v>271.97</v>
       </c>
       <c r="AD210" s="11">
-        <v>16.65</v>
+        <v>271.97</v>
       </c>
       <c r="AE210" s="12">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
       <c r="AF210" s="12">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
     </row>
     <row r="211" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A211" s="13" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B211" s="13" t="s">
         <v>33</v>
@@ -20921,7 +20951,7 @@
         <v>43944</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E211" s="15" t="s">
         <v>33</v>
@@ -20930,7 +20960,7 @@
         <v>2320</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H211" s="13" t="s">
         <v>36</v>
@@ -20949,10 +20979,10 @@
       <c r="P211" s="19"/>
       <c r="Q211" s="18"/>
       <c r="R211" s="15" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="S211" s="15" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="T211" s="13" t="s">
         <v>33</v>
@@ -20961,40 +20991,124 @@
         <v>33</v>
       </c>
       <c r="V211" s="17">
-        <v>1.257463e6</v>
+        <v>1.687115e6</v>
       </c>
       <c r="W211" s="15" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="X211" s="17">
         <v>2321</v>
       </c>
       <c r="Y211" s="15" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="Z211" s="15" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AA211" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB211" s="21">
+        <v>60</v>
+      </c>
+      <c r="AC211" s="22">
+        <v>16.65</v>
+      </c>
+      <c r="AD211" s="22">
+        <v>16.65</v>
+      </c>
+      <c r="AE211" s="23">
+        <v>999</v>
+      </c>
+      <c r="AF211" s="23">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A212" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C212" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D212" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F212" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J212" s="7">
+        <v>0</v>
+      </c>
+      <c r="K212" s="5"/>
+      <c r="L212" s="7"/>
+      <c r="M212" s="5"/>
+      <c r="N212" s="8"/>
+      <c r="O212" s="8"/>
+      <c r="P212" s="9"/>
+      <c r="Q212" s="8"/>
+      <c r="R212" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="S212" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="T212" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U212" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V212" s="7">
+        <v>1.257463e6</v>
+      </c>
+      <c r="W212" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="X212" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y212" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z212" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA212" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB212" s="10">
         <v>200</v>
       </c>
-      <c r="AC211" s="22">
+      <c r="AC212" s="11">
         <v>34.2</v>
       </c>
-      <c r="AD211" s="22">
+      <c r="AD212" s="11">
         <v>34.2</v>
       </c>
-      <c r="AE211" s="23">
+      <c r="AE212" s="12">
         <v>6840</v>
       </c>
-      <c r="AF211" s="23">
+      <c r="AF212" s="12">
         <v>6840</v>
       </c>
     </row>
-    <row r="212" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="213" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/data-raw/compras-coronavirus.xlsx
+++ b/data-raw/compras-coronavirus.xlsx
@@ -1,14 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glauc\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79E0A2B3-B5F2-4916-AA53-E664AA96C7C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-20610" yWindow="0" windowWidth="20730" windowHeight="11160"/>
+  </bookViews>
   <sheets>
     <sheet name="contratacoes-emergenciais" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="80000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="564">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -781,7 +793,7 @@
     <t>1401608 000009/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança
+    <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D_
 contra Pânico e Incêndio e material para orientações de segurança.</t>
   </si>
   <si>
@@ -1601,10 +1613,25 @@
     <t>SISTEMA FECHADO DE ASPIRACAO TRAQUEAL - TIPO: PEDIATRICO, CALIBRE 10 FRENCH;</t>
   </si>
   <si>
+    <t>2311076 000200/2020</t>
+  </si>
+  <si>
+    <t>MEDICAMENTO</t>
+  </si>
+  <si>
+    <t>75.014.167/0001-00</t>
+  </si>
+  <si>
+    <t>NUNESFARMA DISTRIBUIDORA DE PRODUTOS FARMACEUTICOS LTDA</t>
+  </si>
+  <si>
+    <t>SULFATO DE ZINCO - PRINCIPIO ATIVO: SULFATO DE ZINCO; CONCENTRACAO/DOSAGEM: 20 MG; FORMA FARMACEUTICA: COMPRIMIDO MASTIGAVEL; APRESENTACAO: .; COMPONENTE: .;</t>
+  </si>
+  <si>
     <t>2320310 000127/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Material de limpeza 
+    <t>Material de limpeza _x000D_
 SEI 2320.01.0004287/2020-78</t>
   </si>
   <si>
@@ -1692,35 +1719,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="172" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="173" formatCode="0"/>
-    <numFmt numFmtId="174" formatCode="d\/m\/yyyy"/>
-    <numFmt numFmtId="175" formatCode="###,###,##0.0000"/>
-    <numFmt numFmtId="176" formatCode="##,###,###,###,###,##0.0000"/>
-    <numFmt numFmtId="177" formatCode="##,###,###,###,###,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
+    <numFmt numFmtId="172" formatCode="d\/m\/yyyy"/>
+    <numFmt numFmtId="173" formatCode="###,###,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="##,###,###,###,###,##0.0000"/>
+    <numFmt numFmtId="175" formatCode="##,###,###,###,###,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="6"/>
-      <color rgb="00000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="00FFFFFF"/>
+      <color indexed="9"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="00000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1729,31 +1753,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="00000000"/>
-        <bgColor rgb="00000000"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="54"/>
+        <bgColor indexed="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5175B9"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0F4"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="33"/>
+        <bgColor indexed="9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1763,31 +1784,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00CACAD9"/>
+        <color indexed="31"/>
       </left>
       <right style="thin">
-        <color rgb="00CACAD9"/>
+        <color indexed="31"/>
       </right>
       <top style="thin">
-        <color rgb="00CACAD9"/>
+        <color indexed="31"/>
       </top>
       <bottom style="thin">
-        <color rgb="00CACAD9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00CAC9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="00CAC9D9"/>
-      </right>
-      <top style="thin">
-        <color rgb="00CAC9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00CAC9D9"/>
+        <color indexed="31"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1796,125 +1802,589 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="172" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="173" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="174" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="175" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="172" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="173" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="174" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="175" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="00F8FBFC"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF213"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.8093" customWidth="1"/>
-    <col min="2" max="2" width="23.8165" customWidth="1"/>
-    <col min="3" max="3" width="20.5842333333333" customWidth="1"/>
-    <col min="4" max="5" width="34.6541" customWidth="1"/>
-    <col min="6" max="6" width="23.8165" customWidth="1"/>
-    <col min="7" max="7" width="14.9753" customWidth="1"/>
-    <col min="8" max="8" width="23.8165" customWidth="1"/>
-    <col min="9" max="11" width="17.5421" customWidth="1"/>
-    <col min="12" max="12" width="18.5383986666667" customWidth="1"/>
-    <col min="13" max="13" width="31.0871986666667" customWidth="1"/>
-    <col min="14" max="14" width="23.0559666666667" customWidth="1"/>
-    <col min="15" max="15" width="31.0871986666667" customWidth="1"/>
-    <col min="16" max="16" width="26.6685" customWidth="1"/>
-    <col min="17" max="17" width="28.3797" customWidth="1"/>
-    <col min="18" max="18" width="31.2317" customWidth="1"/>
-    <col min="19" max="19" width="39.7877" customWidth="1"/>
-    <col min="20" max="20" width="14.2603986666667" customWidth="1"/>
-    <col min="21" max="21" width="39.7877" customWidth="1"/>
-    <col min="22" max="22" width="8.7009" customWidth="1"/>
-    <col min="23" max="24" width="10.7163133333333" customWidth="1"/>
-    <col min="25" max="25" width="83.8986333333333" customWidth="1"/>
-    <col min="26" max="26" width="54.1883986666667" customWidth="1"/>
-    <col min="27" max="27" width="26.4783666666667" customWidth="1"/>
-    <col min="28" max="28" width="22.2954333333333" customWidth="1"/>
-    <col min="29" max="29" width="35.4146333333333" customWidth="1"/>
-    <col min="30" max="30" width="37.1258333333333" customWidth="1"/>
-    <col min="31" max="31" width="32.9429" customWidth="1"/>
-    <col min="32" max="32" width="21.9151666666667" customWidth="1"/>
-    <col min="33" max="33" width="4.67767866666667" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="5" width="34.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" customWidth="1"/>
+    <col min="16" max="16" width="26.7109375" customWidth="1"/>
+    <col min="17" max="17" width="28.42578125" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" customWidth="1"/>
+    <col min="19" max="19" width="39.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="39.7109375" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="83.85546875" customWidth="1"/>
+    <col min="26" max="26" width="54.140625" customWidth="1"/>
+    <col min="27" max="27" width="26.42578125" customWidth="1"/>
+    <col min="28" max="28" width="22.28515625" customWidth="1"/>
+    <col min="29" max="29" width="35.42578125" customWidth="1"/>
+    <col min="30" max="30" width="37.140625" customWidth="1"/>
+    <col min="31" max="31" width="33" customWidth="1"/>
+    <col min="32" max="32" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.3325" customHeight="1">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2012,7 +2482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="2" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2041,7 +2511,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="7">
-        <v>9.245761e6</v>
+        <v>9245761</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>38</v>
@@ -2108,7 +2578,7 @@
         <v>780098.1</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>45</v>
       </c>
@@ -2137,7 +2607,7 @@
         <v>37</v>
       </c>
       <c r="J3" s="17">
-        <v>9.245765e6</v>
+        <v>9245765</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>47</v>
@@ -2173,7 +2643,7 @@
         <v>33</v>
       </c>
       <c r="V3" s="17">
-        <v>1.083678e6</v>
+        <v>1083678</v>
       </c>
       <c r="W3" s="20" t="s">
         <v>48</v>
@@ -2206,7 +2676,7 @@
         <v>159840</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="4" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -2235,7 +2705,7 @@
         <v>37</v>
       </c>
       <c r="J4" s="7">
-        <v>9.245765e6</v>
+        <v>9245765</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>47</v>
@@ -2271,7 +2741,7 @@
         <v>33</v>
       </c>
       <c r="V4" s="7">
-        <v>1.23568e6</v>
+        <v>1235680</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>50</v>
@@ -2304,7 +2774,7 @@
         <v>67680</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="5" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
@@ -2388,7 +2858,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="6" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -2472,7 +2942,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>57</v>
       </c>
@@ -2501,7 +2971,7 @@
         <v>37</v>
       </c>
       <c r="J7" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>59</v>
@@ -2556,10 +3026,10 @@
         <v>40</v>
       </c>
       <c r="AC7" s="22">
-        <v>450000e-6</v>
+        <v>0.45</v>
       </c>
       <c r="AD7" s="22">
-        <v>450000e-6</v>
+        <v>0.45</v>
       </c>
       <c r="AE7" s="23">
         <v>18</v>
@@ -2568,7 +3038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="8" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
@@ -2597,7 +3067,7 @@
         <v>37</v>
       </c>
       <c r="J8" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>59</v>
@@ -2652,19 +3122,19 @@
         <v>1</v>
       </c>
       <c r="AC8" s="11">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AD8" s="11">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE8" s="12">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AF8" s="12">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="9" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>57</v>
       </c>
@@ -2693,7 +3163,7 @@
         <v>37</v>
       </c>
       <c r="J9" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>59</v>
@@ -2760,7 +3230,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="10" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
@@ -2789,7 +3259,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>59</v>
@@ -2856,7 +3326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="11" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -2885,7 +3355,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>59</v>
@@ -2940,19 +3410,19 @@
         <v>1</v>
       </c>
       <c r="AC11" s="22">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AD11" s="22">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE11" s="23">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AF11" s="23">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="12" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
@@ -2981,7 +3451,7 @@
         <v>37</v>
       </c>
       <c r="J12" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>59</v>
@@ -3048,7 +3518,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="13" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>57</v>
       </c>
@@ -3077,7 +3547,7 @@
         <v>37</v>
       </c>
       <c r="J13" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>59</v>
@@ -3132,10 +3602,10 @@
         <v>50</v>
       </c>
       <c r="AC13" s="22">
-        <v>180000e-6</v>
+        <v>0.18</v>
       </c>
       <c r="AD13" s="22">
-        <v>180000e-6</v>
+        <v>0.18</v>
       </c>
       <c r="AE13" s="23">
         <v>9</v>
@@ -3144,7 +3614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="14" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
@@ -3173,7 +3643,7 @@
         <v>37</v>
       </c>
       <c r="J14" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>59</v>
@@ -3240,7 +3710,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="15" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>57</v>
       </c>
@@ -3269,7 +3739,7 @@
         <v>37</v>
       </c>
       <c r="J15" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>59</v>
@@ -3336,7 +3806,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="16" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
@@ -3365,7 +3835,7 @@
         <v>37</v>
       </c>
       <c r="J16" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>59</v>
@@ -3432,7 +3902,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="17" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>57</v>
       </c>
@@ -3461,7 +3931,7 @@
         <v>37</v>
       </c>
       <c r="J17" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>59</v>
@@ -3528,7 +3998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="18" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
@@ -3557,7 +4027,7 @@
         <v>37</v>
       </c>
       <c r="J18" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>59</v>
@@ -3612,10 +4082,10 @@
         <v>3</v>
       </c>
       <c r="AC18" s="11">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="AD18" s="11">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="AE18" s="12">
         <v>2.4</v>
@@ -3624,7 +4094,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="19" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>57</v>
       </c>
@@ -3653,7 +4123,7 @@
         <v>37</v>
       </c>
       <c r="J19" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>59</v>
@@ -3720,7 +4190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="20" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -3749,7 +4219,7 @@
         <v>37</v>
       </c>
       <c r="J20" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>59</v>
@@ -3804,10 +4274,10 @@
         <v>30</v>
       </c>
       <c r="AC20" s="11">
-        <v>880000e-6</v>
+        <v>0.88</v>
       </c>
       <c r="AD20" s="11">
-        <v>880000e-6</v>
+        <v>0.88</v>
       </c>
       <c r="AE20" s="12">
         <v>26.4</v>
@@ -3816,7 +4286,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="21" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>57</v>
       </c>
@@ -3845,7 +4315,7 @@
         <v>37</v>
       </c>
       <c r="J21" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>59</v>
@@ -3912,7 +4382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="22" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -3941,7 +4411,7 @@
         <v>37</v>
       </c>
       <c r="J22" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>59</v>
@@ -3996,10 +4466,10 @@
         <v>30</v>
       </c>
       <c r="AC22" s="11">
-        <v>990000e-6</v>
+        <v>0.99</v>
       </c>
       <c r="AD22" s="11">
-        <v>990000e-6</v>
+        <v>0.99</v>
       </c>
       <c r="AE22" s="12">
         <v>29.7</v>
@@ -4008,7 +4478,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="23" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>57</v>
       </c>
@@ -4037,7 +4507,7 @@
         <v>37</v>
       </c>
       <c r="J23" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>59</v>
@@ -4104,7 +4574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="24" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
@@ -4133,7 +4603,7 @@
         <v>37</v>
       </c>
       <c r="J24" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>59</v>
@@ -4200,7 +4670,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="25" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>57</v>
       </c>
@@ -4229,7 +4699,7 @@
         <v>37</v>
       </c>
       <c r="J25" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>59</v>
@@ -4296,7 +4766,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="26" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -4325,7 +4795,7 @@
         <v>37</v>
       </c>
       <c r="J26" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>59</v>
@@ -4392,7 +4862,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="27" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>57</v>
       </c>
@@ -4421,7 +4891,7 @@
         <v>37</v>
       </c>
       <c r="J27" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>59</v>
@@ -4455,7 +4925,7 @@
         <v>33</v>
       </c>
       <c r="V27" s="17">
-        <v>1.035142e6</v>
+        <v>1035142</v>
       </c>
       <c r="W27" s="15" t="s">
         <v>86</v>
@@ -4488,7 +4958,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="28" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -4517,7 +4987,7 @@
         <v>37</v>
       </c>
       <c r="J28" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>59</v>
@@ -4551,7 +5021,7 @@
         <v>33</v>
       </c>
       <c r="V28" s="7">
-        <v>1.04639e6</v>
+        <v>1046390</v>
       </c>
       <c r="W28" s="5" t="s">
         <v>87</v>
@@ -4584,7 +5054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="29" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>57</v>
       </c>
@@ -4613,7 +5083,7 @@
         <v>37</v>
       </c>
       <c r="J29" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>59</v>
@@ -4647,7 +5117,7 @@
         <v>33</v>
       </c>
       <c r="V29" s="17">
-        <v>1.151371e6</v>
+        <v>1151371</v>
       </c>
       <c r="W29" s="15" t="s">
         <v>88</v>
@@ -4674,13 +5144,13 @@
         <v>1.89</v>
       </c>
       <c r="AE29" s="23">
-        <v>75.6</v>
+        <v>75.600000000000009</v>
       </c>
       <c r="AF29" s="23">
-        <v>75.6</v>
+        <v>75.600000000000009</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="30" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
@@ -4709,7 +5179,7 @@
         <v>37</v>
       </c>
       <c r="J30" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>59</v>
@@ -4743,7 +5213,7 @@
         <v>33</v>
       </c>
       <c r="V30" s="7">
-        <v>1.252305e6</v>
+        <v>1252305</v>
       </c>
       <c r="W30" s="5" t="s">
         <v>89</v>
@@ -4764,10 +5234,10 @@
         <v>40</v>
       </c>
       <c r="AC30" s="11">
-        <v>580000e-6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AD30" s="11">
-        <v>580000e-6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AE30" s="12">
         <v>23.2</v>
@@ -4776,7 +5246,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="31" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>57</v>
       </c>
@@ -4805,7 +5275,7 @@
         <v>37</v>
       </c>
       <c r="J31" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>59</v>
@@ -4839,7 +5309,7 @@
         <v>33</v>
       </c>
       <c r="V31" s="17">
-        <v>1.27586e6</v>
+        <v>1275860</v>
       </c>
       <c r="W31" s="15" t="s">
         <v>90</v>
@@ -4872,7 +5342,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="32" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
@@ -4901,7 +5371,7 @@
         <v>37</v>
       </c>
       <c r="J32" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>59</v>
@@ -4935,7 +5405,7 @@
         <v>33</v>
       </c>
       <c r="V32" s="7">
-        <v>1.396595e6</v>
+        <v>1396595</v>
       </c>
       <c r="W32" s="5" t="s">
         <v>91</v>
@@ -4956,10 +5426,10 @@
         <v>30</v>
       </c>
       <c r="AC32" s="11">
-        <v>330000e-6</v>
+        <v>0.33</v>
       </c>
       <c r="AD32" s="11">
-        <v>330000e-6</v>
+        <v>0.33</v>
       </c>
       <c r="AE32" s="12">
         <v>9.9</v>
@@ -4968,7 +5438,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="33" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>57</v>
       </c>
@@ -4997,7 +5467,7 @@
         <v>37</v>
       </c>
       <c r="J33" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>59</v>
@@ -5031,7 +5501,7 @@
         <v>33</v>
       </c>
       <c r="V33" s="17">
-        <v>1.532073e6</v>
+        <v>1532073</v>
       </c>
       <c r="W33" s="15" t="s">
         <v>92</v>
@@ -5052,10 +5522,10 @@
         <v>30</v>
       </c>
       <c r="AC33" s="22">
-        <v>360000e-6</v>
+        <v>0.36</v>
       </c>
       <c r="AD33" s="22">
-        <v>360000e-6</v>
+        <v>0.36</v>
       </c>
       <c r="AE33" s="23">
         <v>10.8</v>
@@ -5064,7 +5534,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="34" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>57</v>
       </c>
@@ -5093,7 +5563,7 @@
         <v>37</v>
       </c>
       <c r="J34" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>59</v>
@@ -5127,7 +5597,7 @@
         <v>33</v>
       </c>
       <c r="V34" s="7">
-        <v>1.555782e6</v>
+        <v>1555782</v>
       </c>
       <c r="W34" s="5" t="s">
         <v>93</v>
@@ -5160,7 +5630,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="35" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>57</v>
       </c>
@@ -5189,7 +5659,7 @@
         <v>37</v>
       </c>
       <c r="J35" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>59</v>
@@ -5223,7 +5693,7 @@
         <v>33</v>
       </c>
       <c r="V35" s="17">
-        <v>1.59325e6</v>
+        <v>1593250</v>
       </c>
       <c r="W35" s="15" t="s">
         <v>94</v>
@@ -5256,7 +5726,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="36" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
@@ -5285,7 +5755,7 @@
         <v>37</v>
       </c>
       <c r="J36" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>59</v>
@@ -5319,7 +5789,7 @@
         <v>33</v>
       </c>
       <c r="V36" s="7">
-        <v>1.603329e6</v>
+        <v>1603329</v>
       </c>
       <c r="W36" s="5" t="s">
         <v>95</v>
@@ -5340,19 +5810,19 @@
         <v>1</v>
       </c>
       <c r="AC36" s="11">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AD36" s="11">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE36" s="12">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AF36" s="12">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="37" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>57</v>
       </c>
@@ -5381,7 +5851,7 @@
         <v>37</v>
       </c>
       <c r="J37" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>59</v>
@@ -5415,7 +5885,7 @@
         <v>33</v>
       </c>
       <c r="V37" s="17">
-        <v>1.689274e6</v>
+        <v>1689274</v>
       </c>
       <c r="W37" s="20" t="s">
         <v>97</v>
@@ -5448,7 +5918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="38" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -5477,7 +5947,7 @@
         <v>37</v>
       </c>
       <c r="J38" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>59</v>
@@ -5511,7 +5981,7 @@
         <v>33</v>
       </c>
       <c r="V38" s="7">
-        <v>1.734989e6</v>
+        <v>1734989</v>
       </c>
       <c r="W38" s="5" t="s">
         <v>99</v>
@@ -5544,7 +6014,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="39" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>57</v>
       </c>
@@ -5573,7 +6043,7 @@
         <v>37</v>
       </c>
       <c r="J39" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>59</v>
@@ -5607,7 +6077,7 @@
         <v>33</v>
       </c>
       <c r="V39" s="17">
-        <v>1.754416e6</v>
+        <v>1754416</v>
       </c>
       <c r="W39" s="15" t="s">
         <v>100</v>
@@ -5640,7 +6110,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="40" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
@@ -5669,7 +6139,7 @@
         <v>37</v>
       </c>
       <c r="J40" s="7">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>59</v>
@@ -5703,7 +6173,7 @@
         <v>33</v>
       </c>
       <c r="V40" s="7">
-        <v>1.754831e6</v>
+        <v>1754831</v>
       </c>
       <c r="W40" s="5" t="s">
         <v>101</v>
@@ -5724,19 +6194,19 @@
         <v>1</v>
       </c>
       <c r="AC40" s="11">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="AD40" s="11">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="AE40" s="12">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="AF40" s="12">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="41" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>57</v>
       </c>
@@ -5765,7 +6235,7 @@
         <v>37</v>
       </c>
       <c r="J41" s="17">
-        <v>9.246002e6</v>
+        <v>9246002</v>
       </c>
       <c r="K41" s="15" t="s">
         <v>59</v>
@@ -5799,7 +6269,7 @@
         <v>33</v>
       </c>
       <c r="V41" s="17">
-        <v>1.75484e6</v>
+        <v>1754840</v>
       </c>
       <c r="W41" s="15" t="s">
         <v>102</v>
@@ -5832,7 +6302,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="42" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>103</v>
       </c>
@@ -5916,7 +6386,7 @@
         <v>155057.31</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="43" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>109</v>
       </c>
@@ -5945,7 +6415,7 @@
         <v>37</v>
       </c>
       <c r="J43" s="17">
-        <v>9.247068e6</v>
+        <v>9247068</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>111</v>
@@ -6002,10 +6472,10 @@
         <v>264850</v>
       </c>
       <c r="AC43" s="22">
-        <v>570000e-6</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="AD43" s="22">
-        <v>380000e-6</v>
+        <v>0.38</v>
       </c>
       <c r="AE43" s="23">
         <v>150964.5</v>
@@ -6014,7 +6484,7 @@
         <v>100643</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="44" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>116</v>
       </c>
@@ -6065,7 +6535,7 @@
         <v>33</v>
       </c>
       <c r="V44" s="7">
-        <v>1.746723e6</v>
+        <v>1746723</v>
       </c>
       <c r="W44" s="5" t="s">
         <v>121</v>
@@ -6098,7 +6568,7 @@
         <v>55120</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="45" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>124</v>
       </c>
@@ -6149,7 +6619,7 @@
         <v>33</v>
       </c>
       <c r="V45" s="17">
-        <v>1.487353e6</v>
+        <v>1487353</v>
       </c>
       <c r="W45" s="15" t="s">
         <v>128</v>
@@ -6182,7 +6652,7 @@
         <v>264000</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="46" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>130</v>
       </c>
@@ -6233,7 +6703,7 @@
         <v>33</v>
       </c>
       <c r="V46" s="7">
-        <v>1.686372e6</v>
+        <v>1686372</v>
       </c>
       <c r="W46" s="5" t="s">
         <v>134</v>
@@ -6266,7 +6736,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="47" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>136</v>
       </c>
@@ -6317,7 +6787,7 @@
         <v>33</v>
       </c>
       <c r="V47" s="17">
-        <v>1.758136e6</v>
+        <v>1758136</v>
       </c>
       <c r="W47" s="15" t="s">
         <v>141</v>
@@ -6338,7 +6808,7 @@
         <v>6</v>
       </c>
       <c r="AC47" s="22">
-        <v>259.415</v>
+        <v>259.41500000000002</v>
       </c>
       <c r="AD47" s="22">
         <v>200</v>
@@ -6350,7 +6820,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="48" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>142</v>
       </c>
@@ -6401,7 +6871,7 @@
         <v>33</v>
       </c>
       <c r="V48" s="7">
-        <v>1.759833e6</v>
+        <v>1759833</v>
       </c>
       <c r="W48" s="5" t="s">
         <v>146</v>
@@ -6434,7 +6904,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="49" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>142</v>
       </c>
@@ -6485,7 +6955,7 @@
         <v>33</v>
       </c>
       <c r="V49" s="17">
-        <v>1.759841e6</v>
+        <v>1759841</v>
       </c>
       <c r="W49" s="15" t="s">
         <v>147</v>
@@ -6518,7 +6988,7 @@
         <v>839.7</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="50" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>148</v>
       </c>
@@ -6602,7 +7072,7 @@
         <v>13110</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="51" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>148</v>
       </c>
@@ -6674,19 +7144,19 @@
         <v>1</v>
       </c>
       <c r="AC51" s="22">
-        <v>8929.8</v>
+        <v>8929.8000000000011</v>
       </c>
       <c r="AD51" s="22">
-        <v>8929.8</v>
+        <v>8929.8000000000011</v>
       </c>
       <c r="AE51" s="23">
-        <v>8929.8</v>
+        <v>8929.8000000000011</v>
       </c>
       <c r="AF51" s="23">
-        <v>8929.8</v>
+        <v>8929.8000000000011</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="52" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>148</v>
       </c>
@@ -6770,7 +7240,7 @@
         <v>15006</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="53" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>148</v>
       </c>
@@ -6821,7 +7291,7 @@
         <v>33</v>
       </c>
       <c r="V53" s="17">
-        <v>1.139886e6</v>
+        <v>1139886</v>
       </c>
       <c r="W53" s="15" t="s">
         <v>156</v>
@@ -6848,13 +7318,13 @@
         <v>1631.8</v>
       </c>
       <c r="AE53" s="23">
-        <v>4895.4</v>
+        <v>4895.4000000000005</v>
       </c>
       <c r="AF53" s="23">
-        <v>4895.4</v>
+        <v>4895.4000000000005</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="54" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>148</v>
       </c>
@@ -6905,7 +7375,7 @@
         <v>33</v>
       </c>
       <c r="V54" s="7">
-        <v>1.1458e6</v>
+        <v>1145800</v>
       </c>
       <c r="W54" s="5" t="s">
         <v>157</v>
@@ -6926,19 +7396,19 @@
         <v>4</v>
       </c>
       <c r="AC54" s="11">
-        <v>4198.4</v>
+        <v>4198.3999999999996</v>
       </c>
       <c r="AD54" s="11">
-        <v>4198.4</v>
+        <v>4198.3999999999996</v>
       </c>
       <c r="AE54" s="12">
-        <v>16793.6</v>
+        <v>16793.599999999999</v>
       </c>
       <c r="AF54" s="12">
-        <v>16793.6</v>
+        <v>16793.599999999999</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="55" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>148</v>
       </c>
@@ -6989,7 +7459,7 @@
         <v>33</v>
       </c>
       <c r="V55" s="17">
-        <v>1.14586e6</v>
+        <v>1145860</v>
       </c>
       <c r="W55" s="15" t="s">
         <v>158</v>
@@ -7022,7 +7492,7 @@
         <v>12570.6</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="56" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>148</v>
       </c>
@@ -7073,7 +7543,7 @@
         <v>33</v>
       </c>
       <c r="V56" s="7">
-        <v>1.145908e6</v>
+        <v>1145908</v>
       </c>
       <c r="W56" s="5" t="s">
         <v>159</v>
@@ -7106,7 +7576,7 @@
         <v>2517.4</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="57" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>148</v>
       </c>
@@ -7157,7 +7627,7 @@
         <v>33</v>
       </c>
       <c r="V57" s="17">
-        <v>1.176641e6</v>
+        <v>1176641</v>
       </c>
       <c r="W57" s="15" t="s">
         <v>160</v>
@@ -7190,7 +7660,7 @@
         <v>31955.4</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="58" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>148</v>
       </c>
@@ -7241,7 +7711,7 @@
         <v>33</v>
       </c>
       <c r="V58" s="7">
-        <v>1.207334e6</v>
+        <v>1207334</v>
       </c>
       <c r="W58" s="5" t="s">
         <v>161</v>
@@ -7274,7 +7744,7 @@
         <v>762.6</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="59" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>148</v>
       </c>
@@ -7325,7 +7795,7 @@
         <v>33</v>
       </c>
       <c r="V59" s="17">
-        <v>1.266446e6</v>
+        <v>1266446</v>
       </c>
       <c r="W59" s="15" t="s">
         <v>162</v>
@@ -7358,7 +7828,7 @@
         <v>639.6</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="60" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>148</v>
       </c>
@@ -7409,7 +7879,7 @@
         <v>33</v>
       </c>
       <c r="V60" s="7">
-        <v>1.337009e6</v>
+        <v>1337009</v>
       </c>
       <c r="W60" s="5" t="s">
         <v>163</v>
@@ -7442,7 +7912,7 @@
         <v>3230.8</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="61" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>148</v>
       </c>
@@ -7493,7 +7963,7 @@
         <v>33</v>
       </c>
       <c r="V61" s="17">
-        <v>1.344072e6</v>
+        <v>1344072</v>
       </c>
       <c r="W61" s="15" t="s">
         <v>164</v>
@@ -7514,19 +7984,19 @@
         <v>1</v>
       </c>
       <c r="AC61" s="22">
-        <v>4370.6</v>
+        <v>4370.6000000000004</v>
       </c>
       <c r="AD61" s="22">
-        <v>4370.6</v>
+        <v>4370.6000000000004</v>
       </c>
       <c r="AE61" s="23">
-        <v>4370.6</v>
+        <v>4370.6000000000004</v>
       </c>
       <c r="AF61" s="23">
-        <v>4370.6</v>
+        <v>4370.6000000000004</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="62" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>148</v>
       </c>
@@ -7577,7 +8047,7 @@
         <v>33</v>
       </c>
       <c r="V62" s="7">
-        <v>1.559222e6</v>
+        <v>1559222</v>
       </c>
       <c r="W62" s="5" t="s">
         <v>165</v>
@@ -7610,7 +8080,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="63" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>166</v>
       </c>
@@ -7661,7 +8131,7 @@
         <v>33</v>
       </c>
       <c r="V63" s="17">
-        <v>1.456741e6</v>
+        <v>1456741</v>
       </c>
       <c r="W63" s="15" t="s">
         <v>170</v>
@@ -7694,7 +8164,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="64" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>166</v>
       </c>
@@ -7745,7 +8215,7 @@
         <v>33</v>
       </c>
       <c r="V64" s="7">
-        <v>1.45675e6</v>
+        <v>1456750</v>
       </c>
       <c r="W64" s="24" t="s">
         <v>171</v>
@@ -7778,7 +8248,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="65" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>166</v>
       </c>
@@ -7860,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="66" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>175</v>
       </c>
@@ -7932,7 +8402,7 @@
         <v>5</v>
       </c>
       <c r="AC66" s="11">
-        <v>38.8</v>
+        <v>38.800000000000004</v>
       </c>
       <c r="AD66" s="11">
         <v>37.6</v>
@@ -7944,7 +8414,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="67" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>182</v>
       </c>
@@ -7973,7 +8443,7 @@
         <v>37</v>
       </c>
       <c r="J67" s="17">
-        <v>9.245786e6</v>
+        <v>9245786</v>
       </c>
       <c r="K67" s="15" t="s">
         <v>184</v>
@@ -8009,7 +8479,7 @@
         <v>33</v>
       </c>
       <c r="V67" s="17">
-        <v>1.754467e6</v>
+        <v>1754467</v>
       </c>
       <c r="W67" s="15" t="s">
         <v>187</v>
@@ -8042,7 +8512,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="68" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>189</v>
       </c>
@@ -8093,7 +8563,7 @@
         <v>33</v>
       </c>
       <c r="V68" s="7">
-        <v>1.66937e6</v>
+        <v>1669370</v>
       </c>
       <c r="W68" s="5" t="s">
         <v>193</v>
@@ -8126,7 +8596,7 @@
         <v>421545.6</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="69" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>194</v>
       </c>
@@ -8177,7 +8647,7 @@
         <v>33</v>
       </c>
       <c r="V69" s="17">
-        <v>1.114174e6</v>
+        <v>1114174</v>
       </c>
       <c r="W69" s="15" t="s">
         <v>198</v>
@@ -8210,7 +8680,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="70" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>200</v>
       </c>
@@ -8261,7 +8731,7 @@
         <v>33</v>
       </c>
       <c r="V70" s="7">
-        <v>1.66937e6</v>
+        <v>1669370</v>
       </c>
       <c r="W70" s="5" t="s">
         <v>193</v>
@@ -8294,7 +8764,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="71" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>207</v>
       </c>
@@ -8378,7 +8848,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="72" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>207</v>
       </c>
@@ -8429,7 +8899,7 @@
         <v>33</v>
       </c>
       <c r="V72" s="7">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W72" s="5" t="s">
         <v>214</v>
@@ -8450,10 +8920,10 @@
         <v>1000</v>
       </c>
       <c r="AC72" s="11">
-        <v>19.9</v>
+        <v>19.900000000000002</v>
       </c>
       <c r="AD72" s="11">
-        <v>19.9</v>
+        <v>19.900000000000002</v>
       </c>
       <c r="AE72" s="12">
         <v>19900</v>
@@ -8462,7 +8932,7 @@
         <v>19900</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="73" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>207</v>
       </c>
@@ -8546,7 +9016,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="74" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>207</v>
       </c>
@@ -8597,7 +9067,7 @@
         <v>33</v>
       </c>
       <c r="V74" s="7">
-        <v>1.57669e6</v>
+        <v>1576690</v>
       </c>
       <c r="W74" s="24" t="s">
         <v>218</v>
@@ -8630,7 +9100,7 @@
         <v>117600</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="75" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>207</v>
       </c>
@@ -8681,7 +9151,7 @@
         <v>33</v>
       </c>
       <c r="V75" s="17">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W75" s="15" t="s">
         <v>214</v>
@@ -8714,7 +9184,7 @@
         <v>217500</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="76" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>207</v>
       </c>
@@ -8798,7 +9268,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="77" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>207</v>
       </c>
@@ -8849,7 +9319,7 @@
         <v>33</v>
       </c>
       <c r="V77" s="17">
-        <v>1.672711e6</v>
+        <v>1672711</v>
       </c>
       <c r="W77" s="15" t="s">
         <v>223</v>
@@ -8870,19 +9340,19 @@
         <v>70</v>
       </c>
       <c r="AC77" s="22">
-        <v>37.41</v>
+        <v>37.410000000000004</v>
       </c>
       <c r="AD77" s="22">
         <v>37.14</v>
       </c>
       <c r="AE77" s="23">
-        <v>2618.7</v>
+        <v>2618.7000000000003</v>
       </c>
       <c r="AF77" s="23">
-        <v>2599.8</v>
+        <v>2599.8000000000002</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="78" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>207</v>
       </c>
@@ -8933,7 +9403,7 @@
         <v>33</v>
       </c>
       <c r="V78" s="7">
-        <v>1.67272e6</v>
+        <v>1672720</v>
       </c>
       <c r="W78" s="5" t="s">
         <v>224</v>
@@ -8954,7 +9424,7 @@
         <v>360</v>
       </c>
       <c r="AC78" s="11">
-        <v>37.41</v>
+        <v>37.410000000000004</v>
       </c>
       <c r="AD78" s="11">
         <v>37.14</v>
@@ -8966,7 +9436,7 @@
         <v>13370.4</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="79" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>207</v>
       </c>
@@ -9017,7 +9487,7 @@
         <v>33</v>
       </c>
       <c r="V79" s="17">
-        <v>1.672738e6</v>
+        <v>1672738</v>
       </c>
       <c r="W79" s="15" t="s">
         <v>225</v>
@@ -9038,7 +9508,7 @@
         <v>570</v>
       </c>
       <c r="AC79" s="22">
-        <v>37.41</v>
+        <v>37.410000000000004</v>
       </c>
       <c r="AD79" s="22">
         <v>37.14</v>
@@ -9050,7 +9520,7 @@
         <v>21169.8</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="80" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>207</v>
       </c>
@@ -9101,7 +9571,7 @@
         <v>33</v>
       </c>
       <c r="V80" s="7">
-        <v>1.470957e6</v>
+        <v>1470957</v>
       </c>
       <c r="W80" s="5" t="s">
         <v>228</v>
@@ -9134,7 +9604,7 @@
         <v>10890</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="81" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>207</v>
       </c>
@@ -9218,7 +9688,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="82" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>232</v>
       </c>
@@ -9269,7 +9739,7 @@
         <v>33</v>
       </c>
       <c r="V82" s="7">
-        <v>1.149741e6</v>
+        <v>1149741</v>
       </c>
       <c r="W82" s="5" t="s">
         <v>236</v>
@@ -9302,7 +9772,7 @@
         <v>8670</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="83" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>232</v>
       </c>
@@ -9353,7 +9823,7 @@
         <v>33</v>
       </c>
       <c r="V83" s="17">
-        <v>1.57669e6</v>
+        <v>1576690</v>
       </c>
       <c r="W83" s="20" t="s">
         <v>218</v>
@@ -9386,7 +9856,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="84" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>232</v>
       </c>
@@ -9437,7 +9907,7 @@
         <v>33</v>
       </c>
       <c r="V84" s="7">
-        <v>1.698745e6</v>
+        <v>1698745</v>
       </c>
       <c r="W84" s="24" t="s">
         <v>237</v>
@@ -9458,19 +9928,19 @@
         <v>60</v>
       </c>
       <c r="AC84" s="11">
-        <v>20.44</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="AD84" s="11">
-        <v>20.44</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="AE84" s="12">
-        <v>1226.4</v>
+        <v>1226.4000000000001</v>
       </c>
       <c r="AF84" s="12">
-        <v>1226.4</v>
+        <v>1226.4000000000001</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="85" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>232</v>
       </c>
@@ -9554,7 +10024,7 @@
         <v>502500</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="86" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>232</v>
       </c>
@@ -9626,10 +10096,10 @@
         <v>1000</v>
       </c>
       <c r="AC86" s="11">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AD86" s="11">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AE86" s="12">
         <v>19600</v>
@@ -9638,7 +10108,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="87" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>232</v>
       </c>
@@ -9710,10 +10180,10 @@
         <v>1000</v>
       </c>
       <c r="AC87" s="22">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AD87" s="22">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AE87" s="23">
         <v>19600</v>
@@ -9722,7 +10192,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="88" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>232</v>
       </c>
@@ -9806,7 +10276,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="89" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>232</v>
       </c>
@@ -9857,7 +10327,7 @@
         <v>33</v>
       </c>
       <c r="V89" s="17">
-        <v>1.04275e6</v>
+        <v>1042750</v>
       </c>
       <c r="W89" s="15" t="s">
         <v>241</v>
@@ -9890,7 +10360,7 @@
         <v>870000</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="90" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>232</v>
       </c>
@@ -9941,7 +10411,7 @@
         <v>33</v>
       </c>
       <c r="V90" s="7">
-        <v>1.213598e6</v>
+        <v>1213598</v>
       </c>
       <c r="W90" s="5" t="s">
         <v>242</v>
@@ -9968,13 +10438,13 @@
         <v>3550</v>
       </c>
       <c r="AE90" s="12">
-        <v>2.059e6</v>
+        <v>2059000</v>
       </c>
       <c r="AF90" s="12">
-        <v>2.059e6</v>
+        <v>2059000</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="91" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>232</v>
       </c>
@@ -10025,7 +10495,7 @@
         <v>33</v>
       </c>
       <c r="V91" s="17">
-        <v>1.313533e6</v>
+        <v>1313533</v>
       </c>
       <c r="W91" s="15" t="s">
         <v>243</v>
@@ -10058,7 +10528,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="92" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>232</v>
       </c>
@@ -10142,7 +10612,7 @@
         <v>50600</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="93" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>232</v>
       </c>
@@ -10226,7 +10696,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="94" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>232</v>
       </c>
@@ -10310,7 +10780,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="95" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>232</v>
       </c>
@@ -10394,7 +10864,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="96" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>232</v>
       </c>
@@ -10445,7 +10915,7 @@
         <v>33</v>
       </c>
       <c r="V96" s="7">
-        <v>1.604821e6</v>
+        <v>1604821</v>
       </c>
       <c r="W96" s="5" t="s">
         <v>254</v>
@@ -10478,7 +10948,7 @@
         <v>41544</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="97" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>256</v>
       </c>
@@ -10507,7 +10977,7 @@
         <v>37</v>
       </c>
       <c r="J97" s="17">
-        <v>9.250224e6</v>
+        <v>9250224</v>
       </c>
       <c r="K97" s="15" t="s">
         <v>258</v>
@@ -10574,7 +11044,7 @@
         <v>6357</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="98" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>256</v>
       </c>
@@ -10603,7 +11073,7 @@
         <v>37</v>
       </c>
       <c r="J98" s="7">
-        <v>9.250224e6</v>
+        <v>9250224</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>258</v>
@@ -10637,7 +11107,7 @@
         <v>33</v>
       </c>
       <c r="V98" s="7">
-        <v>1.391542e6</v>
+        <v>1391542</v>
       </c>
       <c r="W98" s="5" t="s">
         <v>263</v>
@@ -10670,7 +11140,7 @@
         <v>386.1</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="99" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>256</v>
       </c>
@@ -10699,7 +11169,7 @@
         <v>37</v>
       </c>
       <c r="J99" s="17">
-        <v>9.250224e6</v>
+        <v>9250224</v>
       </c>
       <c r="K99" s="15" t="s">
         <v>258</v>
@@ -10733,7 +11203,7 @@
         <v>33</v>
       </c>
       <c r="V99" s="17">
-        <v>1.41416e6</v>
+        <v>1414160</v>
       </c>
       <c r="W99" s="15" t="s">
         <v>264</v>
@@ -10760,13 +11230,13 @@
         <v>4.95</v>
       </c>
       <c r="AE99" s="23">
-        <v>516.8</v>
+        <v>516.79999999999995</v>
       </c>
       <c r="AF99" s="23">
         <v>376.2</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="100" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>256</v>
       </c>
@@ -10795,7 +11265,7 @@
         <v>37</v>
       </c>
       <c r="J100" s="7">
-        <v>9.250224e6</v>
+        <v>9250224</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>258</v>
@@ -10829,7 +11299,7 @@
         <v>33</v>
       </c>
       <c r="V100" s="7">
-        <v>1.451006e6</v>
+        <v>1451006</v>
       </c>
       <c r="W100" s="5" t="s">
         <v>265</v>
@@ -10862,7 +11332,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="101" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>256</v>
       </c>
@@ -10891,7 +11361,7 @@
         <v>37</v>
       </c>
       <c r="J101" s="17">
-        <v>9.250224e6</v>
+        <v>9250224</v>
       </c>
       <c r="K101" s="15" t="s">
         <v>258</v>
@@ -10925,7 +11395,7 @@
         <v>33</v>
       </c>
       <c r="V101" s="17">
-        <v>1.600125e6</v>
+        <v>1600125</v>
       </c>
       <c r="W101" s="15" t="s">
         <v>266</v>
@@ -10958,7 +11428,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="102" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>256</v>
       </c>
@@ -10987,7 +11457,7 @@
         <v>37</v>
       </c>
       <c r="J102" s="7">
-        <v>9.250233e6</v>
+        <v>9250233</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>267</v>
@@ -11054,7 +11524,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="103" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>272</v>
       </c>
@@ -11083,7 +11553,7 @@
         <v>37</v>
       </c>
       <c r="J103" s="17">
-        <v>9.251225e6</v>
+        <v>9251225</v>
       </c>
       <c r="K103" s="15" t="s">
         <v>274</v>
@@ -11152,7 +11622,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="104" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>276</v>
       </c>
@@ -11181,7 +11651,7 @@
         <v>37</v>
       </c>
       <c r="J104" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K104" s="5" t="s">
         <v>279</v>
@@ -11248,7 +11718,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="105" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>276</v>
       </c>
@@ -11277,7 +11747,7 @@
         <v>37</v>
       </c>
       <c r="J105" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K105" s="15" t="s">
         <v>279</v>
@@ -11329,13 +11799,13 @@
         <v>44</v>
       </c>
       <c r="AB105" s="21">
-        <v>5.587405e6</v>
+        <v>5587405</v>
       </c>
       <c r="AC105" s="22">
-        <v>80000e-6</v>
+        <v>0.08</v>
       </c>
       <c r="AD105" s="22">
-        <v>75000e-6</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE105" s="23">
         <v>446992.4</v>
@@ -11344,7 +11814,7 @@
         <v>419055.37</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="106" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>276</v>
       </c>
@@ -11373,7 +11843,7 @@
         <v>37</v>
       </c>
       <c r="J106" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K106" s="5" t="s">
         <v>279</v>
@@ -11440,7 +11910,7 @@
         <v>106640</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="107" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>276</v>
       </c>
@@ -11469,7 +11939,7 @@
         <v>37</v>
       </c>
       <c r="J107" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K107" s="15" t="s">
         <v>279</v>
@@ -11503,7 +11973,7 @@
         <v>33</v>
       </c>
       <c r="V107" s="17">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W107" s="15" t="s">
         <v>214</v>
@@ -11524,10 +11994,10 @@
         <v>5000</v>
       </c>
       <c r="AC107" s="22">
-        <v>18.17</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="AD107" s="22">
-        <v>18.17</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="AE107" s="23">
         <v>90850</v>
@@ -11536,7 +12006,7 @@
         <v>90850</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="108" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>276</v>
       </c>
@@ -11565,7 +12035,7 @@
         <v>37</v>
       </c>
       <c r="J108" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>279</v>
@@ -11599,7 +12069,7 @@
         <v>33</v>
       </c>
       <c r="V108" s="7">
-        <v>1.672525e6</v>
+        <v>1672525</v>
       </c>
       <c r="W108" s="5" t="s">
         <v>283</v>
@@ -11632,7 +12102,7 @@
         <v>262080</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="109" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>276</v>
       </c>
@@ -11661,7 +12131,7 @@
         <v>37</v>
       </c>
       <c r="J109" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K109" s="15" t="s">
         <v>279</v>
@@ -11695,7 +12165,7 @@
         <v>33</v>
       </c>
       <c r="V109" s="17">
-        <v>1.672533e6</v>
+        <v>1672533</v>
       </c>
       <c r="W109" s="15" t="s">
         <v>285</v>
@@ -11728,7 +12198,7 @@
         <v>356460</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="110" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>276</v>
       </c>
@@ -11757,7 +12227,7 @@
         <v>37</v>
       </c>
       <c r="J110" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>279</v>
@@ -11791,7 +12261,7 @@
         <v>33</v>
       </c>
       <c r="V110" s="7">
-        <v>1.672541e6</v>
+        <v>1672541</v>
       </c>
       <c r="W110" s="5" t="s">
         <v>286</v>
@@ -11824,7 +12294,7 @@
         <v>24710</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="111" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>276</v>
       </c>
@@ -11853,7 +12323,7 @@
         <v>37</v>
       </c>
       <c r="J111" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K111" s="15" t="s">
         <v>279</v>
@@ -11887,7 +12357,7 @@
         <v>33</v>
       </c>
       <c r="V111" s="17">
-        <v>1.672584e6</v>
+        <v>1672584</v>
       </c>
       <c r="W111" s="15" t="s">
         <v>287</v>
@@ -11914,13 +12384,13 @@
         <v>28.47</v>
       </c>
       <c r="AE111" s="23">
-        <v>1.05020136e6</v>
+        <v>1050201.3600000001</v>
       </c>
       <c r="AF111" s="23">
-        <v>1.05020136e6</v>
+        <v>1050201.3600000001</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="112" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>276</v>
       </c>
@@ -11949,7 +12419,7 @@
         <v>37</v>
       </c>
       <c r="J112" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>279</v>
@@ -11983,7 +12453,7 @@
         <v>33</v>
       </c>
       <c r="V112" s="7">
-        <v>1.672592e6</v>
+        <v>1672592</v>
       </c>
       <c r="W112" s="5" t="s">
         <v>288</v>
@@ -12010,13 +12480,13 @@
         <v>28.47</v>
       </c>
       <c r="AE112" s="12">
-        <v>1.94057214e6</v>
+        <v>1940572.14</v>
       </c>
       <c r="AF112" s="12">
-        <v>1.94057214e6</v>
+        <v>1940572.14</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="113" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>276</v>
       </c>
@@ -12045,7 +12515,7 @@
         <v>37</v>
       </c>
       <c r="J113" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K113" s="15" t="s">
         <v>279</v>
@@ -12079,7 +12549,7 @@
         <v>33</v>
       </c>
       <c r="V113" s="17">
-        <v>1.672606e6</v>
+        <v>1672606</v>
       </c>
       <c r="W113" s="15" t="s">
         <v>289</v>
@@ -12112,7 +12582,7 @@
         <v>993261.36</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="114" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>276</v>
       </c>
@@ -12141,7 +12611,7 @@
         <v>37</v>
       </c>
       <c r="J114" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>279</v>
@@ -12175,7 +12645,7 @@
         <v>33</v>
       </c>
       <c r="V114" s="7">
-        <v>1.672738e6</v>
+        <v>1672738</v>
       </c>
       <c r="W114" s="5" t="s">
         <v>225</v>
@@ -12208,7 +12678,7 @@
         <v>60450</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="115" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>276</v>
       </c>
@@ -12237,7 +12707,7 @@
         <v>37</v>
       </c>
       <c r="J115" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K115" s="15" t="s">
         <v>279</v>
@@ -12271,7 +12741,7 @@
         <v>33</v>
       </c>
       <c r="V115" s="17">
-        <v>1.672762e6</v>
+        <v>1672762</v>
       </c>
       <c r="W115" s="15" t="s">
         <v>290</v>
@@ -12304,7 +12774,7 @@
         <v>72540</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="116" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>276</v>
       </c>
@@ -12333,7 +12803,7 @@
         <v>37</v>
       </c>
       <c r="J116" s="7">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>279</v>
@@ -12367,7 +12837,7 @@
         <v>33</v>
       </c>
       <c r="V116" s="7">
-        <v>1.67277e6</v>
+        <v>1672770</v>
       </c>
       <c r="W116" s="5" t="s">
         <v>291</v>
@@ -12400,7 +12870,7 @@
         <v>145080</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="117" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>276</v>
       </c>
@@ -12429,7 +12899,7 @@
         <v>37</v>
       </c>
       <c r="J117" s="17">
-        <v>9.245572e6</v>
+        <v>9245572</v>
       </c>
       <c r="K117" s="15" t="s">
         <v>279</v>
@@ -12463,7 +12933,7 @@
         <v>33</v>
       </c>
       <c r="V117" s="17">
-        <v>1.710273e6</v>
+        <v>1710273</v>
       </c>
       <c r="W117" s="15" t="s">
         <v>292</v>
@@ -12481,7 +12951,7 @@
         <v>44</v>
       </c>
       <c r="AB117" s="21">
-        <v>5.746855e6</v>
+        <v>5746855</v>
       </c>
       <c r="AC117" s="22">
         <v>3.84</v>
@@ -12490,13 +12960,13 @@
         <v>3.8245</v>
       </c>
       <c r="AE117" s="23">
-        <v>22.0679232e6</v>
+        <v>22067923.199999999</v>
       </c>
       <c r="AF117" s="23">
-        <v>21.97884694e6</v>
+        <v>21978846.940000001</v>
       </c>
     </row>
-    <row r="118" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="118" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>293</v>
       </c>
@@ -12525,7 +12995,7 @@
         <v>37</v>
       </c>
       <c r="J118" s="7">
-        <v>9.245606e6</v>
+        <v>9245606</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>295</v>
@@ -12559,7 +13029,7 @@
         <v>33</v>
       </c>
       <c r="V118" s="7">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W118" s="5" t="s">
         <v>214</v>
@@ -12586,13 +13056,13 @@
         <v>9.98</v>
       </c>
       <c r="AE118" s="12">
-        <v>1.497e6</v>
+        <v>1497000</v>
       </c>
       <c r="AF118" s="12">
-        <v>1.497e6</v>
+        <v>1497000</v>
       </c>
     </row>
-    <row r="119" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="119" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>299</v>
       </c>
@@ -12621,7 +13091,7 @@
         <v>37</v>
       </c>
       <c r="J119" s="17">
-        <v>9.245644e6</v>
+        <v>9245644</v>
       </c>
       <c r="K119" s="15" t="s">
         <v>301</v>
@@ -12688,7 +13158,7 @@
         <v>99800</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="120" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>303</v>
       </c>
@@ -12717,7 +13187,7 @@
         <v>37</v>
       </c>
       <c r="J120" s="7">
-        <v>9.245631e6</v>
+        <v>9245631</v>
       </c>
       <c r="K120" s="5" t="s">
         <v>306</v>
@@ -12751,7 +13221,7 @@
         <v>33</v>
       </c>
       <c r="V120" s="7">
-        <v>1.647385e6</v>
+        <v>1647385</v>
       </c>
       <c r="W120" s="5" t="s">
         <v>214</v>
@@ -12784,7 +13254,7 @@
         <v>648700</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="121" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>308</v>
       </c>
@@ -12835,7 +13305,7 @@
         <v>33</v>
       </c>
       <c r="V121" s="17">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W121" s="15" t="s">
         <v>312</v>
@@ -12868,7 +13338,7 @@
         <v>252500</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="122" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>314</v>
       </c>
@@ -12919,7 +13389,7 @@
         <v>33</v>
       </c>
       <c r="V122" s="7">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W122" s="5" t="s">
         <v>312</v>
@@ -12952,7 +13422,7 @@
         <v>80800</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="123" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>317</v>
       </c>
@@ -13003,7 +13473,7 @@
         <v>33</v>
       </c>
       <c r="V123" s="17">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W123" s="15" t="s">
         <v>312</v>
@@ -13030,13 +13500,13 @@
         <v>2.02</v>
       </c>
       <c r="AE123" s="23">
-        <v>286167.34</v>
+        <v>286167.34000000003</v>
       </c>
       <c r="AF123" s="23">
-        <v>286167.34</v>
+        <v>286167.34000000003</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="124" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>319</v>
       </c>
@@ -13087,7 +13557,7 @@
         <v>33</v>
       </c>
       <c r="V124" s="7">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W124" s="5" t="s">
         <v>312</v>
@@ -13120,7 +13590,7 @@
         <v>202000</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="125" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>319</v>
       </c>
@@ -13171,7 +13641,7 @@
         <v>33</v>
       </c>
       <c r="V125" s="17">
-        <v>1.752731e6</v>
+        <v>1752731</v>
       </c>
       <c r="W125" s="15" t="s">
         <v>312</v>
@@ -13204,7 +13674,7 @@
         <v>50500</v>
       </c>
     </row>
-    <row r="126" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="126" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>321</v>
       </c>
@@ -13233,7 +13703,7 @@
         <v>37</v>
       </c>
       <c r="J126" s="7">
-        <v>9.24571e6</v>
+        <v>9245710</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>323</v>
@@ -13267,7 +13737,7 @@
         <v>33</v>
       </c>
       <c r="V126" s="7">
-        <v>1.734423e6</v>
+        <v>1734423</v>
       </c>
       <c r="W126" s="5" t="s">
         <v>326</v>
@@ -13300,7 +13770,7 @@
         <v>175680</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="127" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>328</v>
       </c>
@@ -13329,7 +13799,7 @@
         <v>37</v>
       </c>
       <c r="J127" s="17">
-        <v>9.245712e6</v>
+        <v>9245712</v>
       </c>
       <c r="K127" s="15" t="s">
         <v>330</v>
@@ -13390,13 +13860,13 @@
         <v>15.01</v>
       </c>
       <c r="AE127" s="23">
-        <v>11.2575e6</v>
+        <v>11257500</v>
       </c>
       <c r="AF127" s="23">
-        <v>11.2575e6</v>
+        <v>11257500</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="128" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>332</v>
       </c>
@@ -13425,7 +13895,7 @@
         <v>37</v>
       </c>
       <c r="J128" s="7">
-        <v>9.245714e6</v>
+        <v>9245714</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>334</v>
@@ -13459,7 +13929,7 @@
         <v>33</v>
       </c>
       <c r="V128" s="7">
-        <v>1.734423e6</v>
+        <v>1734423</v>
       </c>
       <c r="W128" s="5" t="s">
         <v>326</v>
@@ -13492,7 +13962,7 @@
         <v>472395</v>
       </c>
     </row>
-    <row r="129" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="129" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>337</v>
       </c>
@@ -13543,7 +14013,7 @@
         <v>33</v>
       </c>
       <c r="V129" s="17">
-        <v>1.672584e6</v>
+        <v>1672584</v>
       </c>
       <c r="W129" s="15" t="s">
         <v>287</v>
@@ -13576,7 +14046,7 @@
         <v>230300</v>
       </c>
     </row>
-    <row r="130" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="130" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>337</v>
       </c>
@@ -13627,7 +14097,7 @@
         <v>33</v>
       </c>
       <c r="V130" s="7">
-        <v>1.672592e6</v>
+        <v>1672592</v>
       </c>
       <c r="W130" s="5" t="s">
         <v>288</v>
@@ -13660,7 +14130,7 @@
         <v>822500</v>
       </c>
     </row>
-    <row r="131" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="131" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>339</v>
       </c>
@@ -13689,7 +14159,7 @@
         <v>37</v>
       </c>
       <c r="J131" s="17">
-        <v>9.24576e6</v>
+        <v>9245760</v>
       </c>
       <c r="K131" s="15" t="s">
         <v>341</v>
@@ -13723,7 +14193,7 @@
         <v>33</v>
       </c>
       <c r="V131" s="17">
-        <v>1.649256e6</v>
+        <v>1649256</v>
       </c>
       <c r="W131" s="15" t="s">
         <v>344</v>
@@ -13750,13 +14220,13 @@
         <v>23610</v>
       </c>
       <c r="AE131" s="23">
-        <v>1.4166e6</v>
+        <v>1416600</v>
       </c>
       <c r="AF131" s="23">
-        <v>1.4166e6</v>
+        <v>1416600</v>
       </c>
     </row>
-    <row r="132" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="132" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>345</v>
       </c>
@@ -13785,7 +14255,7 @@
         <v>37</v>
       </c>
       <c r="J132" s="7">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K132" s="5" t="s">
         <v>347</v>
@@ -13846,13 +14316,13 @@
         <v>3.8245</v>
       </c>
       <c r="AE132" s="12">
-        <v>2.4285575e6</v>
+        <v>2428557.5</v>
       </c>
       <c r="AF132" s="12">
-        <v>2.4285575e6</v>
+        <v>2428557.5</v>
       </c>
     </row>
-    <row r="133" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="133" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>345</v>
       </c>
@@ -13881,7 +14351,7 @@
         <v>37</v>
       </c>
       <c r="J133" s="17">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K133" s="15" t="s">
         <v>347</v>
@@ -13948,7 +14418,7 @@
         <v>750500</v>
       </c>
     </row>
-    <row r="134" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="134" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>345</v>
       </c>
@@ -13977,7 +14447,7 @@
         <v>37</v>
       </c>
       <c r="J134" s="7">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K134" s="5" t="s">
         <v>347</v>
@@ -14029,13 +14499,13 @@
         <v>44</v>
       </c>
       <c r="AB134" s="10">
-        <v>1e6</v>
+        <v>1000000</v>
       </c>
       <c r="AC134" s="11">
-        <v>224500e-6</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="AD134" s="11">
-        <v>224500e-6</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="AE134" s="12">
         <v>224500</v>
@@ -14044,7 +14514,7 @@
         <v>224500</v>
       </c>
     </row>
-    <row r="135" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="135" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>345</v>
       </c>
@@ -14073,7 +14543,7 @@
         <v>37</v>
       </c>
       <c r="J135" s="17">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K135" s="15" t="s">
         <v>347</v>
@@ -14140,7 +14610,7 @@
         <v>793500</v>
       </c>
     </row>
-    <row r="136" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="136" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>345</v>
       </c>
@@ -14169,7 +14639,7 @@
         <v>37</v>
       </c>
       <c r="J136" s="7">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>347</v>
@@ -14203,7 +14673,7 @@
         <v>33</v>
       </c>
       <c r="V136" s="7">
-        <v>1.672584e6</v>
+        <v>1672584</v>
       </c>
       <c r="W136" s="5" t="s">
         <v>287</v>
@@ -14236,7 +14706,7 @@
         <v>317500</v>
       </c>
     </row>
-    <row r="137" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="137" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>345</v>
       </c>
@@ -14265,7 +14735,7 @@
         <v>37</v>
       </c>
       <c r="J137" s="17">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K137" s="15" t="s">
         <v>347</v>
@@ -14299,7 +14769,7 @@
         <v>33</v>
       </c>
       <c r="V137" s="17">
-        <v>1.672592e6</v>
+        <v>1672592</v>
       </c>
       <c r="W137" s="15" t="s">
         <v>288</v>
@@ -14332,7 +14802,7 @@
         <v>317500</v>
       </c>
     </row>
-    <row r="138" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="138" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>345</v>
       </c>
@@ -14361,7 +14831,7 @@
         <v>37</v>
       </c>
       <c r="J138" s="7">
-        <v>9.245764e6</v>
+        <v>9245764</v>
       </c>
       <c r="K138" s="5" t="s">
         <v>347</v>
@@ -14395,7 +14865,7 @@
         <v>33</v>
       </c>
       <c r="V138" s="7">
-        <v>1.672606e6</v>
+        <v>1672606</v>
       </c>
       <c r="W138" s="5" t="s">
         <v>289</v>
@@ -14428,7 +14898,7 @@
         <v>317500</v>
       </c>
     </row>
-    <row r="139" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="139" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>349</v>
       </c>
@@ -14457,7 +14927,7 @@
         <v>37</v>
       </c>
       <c r="J139" s="17">
-        <v>9.245766e6</v>
+        <v>9245766</v>
       </c>
       <c r="K139" s="15" t="s">
         <v>351</v>
@@ -14491,7 +14961,7 @@
         <v>33</v>
       </c>
       <c r="V139" s="17">
-        <v>1.649256e6</v>
+        <v>1649256</v>
       </c>
       <c r="W139" s="15" t="s">
         <v>344</v>
@@ -14518,13 +14988,13 @@
         <v>21274</v>
       </c>
       <c r="AE139" s="23">
-        <v>2.1274e6</v>
+        <v>2127400</v>
       </c>
       <c r="AF139" s="23">
-        <v>2.1274e6</v>
+        <v>2127400</v>
       </c>
     </row>
-    <row r="140" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="140" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>354</v>
       </c>
@@ -14553,7 +15023,7 @@
         <v>37</v>
       </c>
       <c r="J140" s="7">
-        <v>9.245781e6</v>
+        <v>9245781</v>
       </c>
       <c r="K140" s="5" t="s">
         <v>356</v>
@@ -14587,7 +15057,7 @@
         <v>33</v>
       </c>
       <c r="V140" s="7">
-        <v>1.734423e6</v>
+        <v>1734423</v>
       </c>
       <c r="W140" s="5" t="s">
         <v>326</v>
@@ -14614,13 +15084,13 @@
         <v>20406.25</v>
       </c>
       <c r="AE140" s="12">
-        <v>3.265e6</v>
+        <v>3265000</v>
       </c>
       <c r="AF140" s="12">
-        <v>3.265e6</v>
+        <v>3265000</v>
       </c>
     </row>
-    <row r="141" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="141" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>359</v>
       </c>
@@ -14698,13 +15168,13 @@
         <v>14.9</v>
       </c>
       <c r="AE141" s="23">
-        <v>6.3109397e6</v>
+        <v>6310939.7000000002</v>
       </c>
       <c r="AF141" s="23">
-        <v>6.3109397e6</v>
+        <v>6310939.7000000002</v>
       </c>
     </row>
-    <row r="142" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="142" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>363</v>
       </c>
@@ -14755,7 +15225,7 @@
         <v>33</v>
       </c>
       <c r="V142" s="7">
-        <v>1.672584e6</v>
+        <v>1672584</v>
       </c>
       <c r="W142" s="5" t="s">
         <v>287</v>
@@ -14776,10 +15246,10 @@
         <v>4500</v>
       </c>
       <c r="AC142" s="11">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AD142" s="11">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AE142" s="12">
         <v>156150</v>
@@ -14788,7 +15258,7 @@
         <v>156150</v>
       </c>
     </row>
-    <row r="143" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="143" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>363</v>
       </c>
@@ -14839,7 +15309,7 @@
         <v>33</v>
       </c>
       <c r="V143" s="17">
-        <v>1.672592e6</v>
+        <v>1672592</v>
       </c>
       <c r="W143" s="15" t="s">
         <v>288</v>
@@ -14860,10 +15330,10 @@
         <v>10000</v>
       </c>
       <c r="AC143" s="22">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AD143" s="22">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AE143" s="23">
         <v>347000</v>
@@ -14872,7 +15342,7 @@
         <v>347000</v>
       </c>
     </row>
-    <row r="144" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="144" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>363</v>
       </c>
@@ -14923,7 +15393,7 @@
         <v>33</v>
       </c>
       <c r="V144" s="7">
-        <v>1.672606e6</v>
+        <v>1672606</v>
       </c>
       <c r="W144" s="5" t="s">
         <v>289</v>
@@ -14944,10 +15414,10 @@
         <v>2000</v>
       </c>
       <c r="AC144" s="11">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AD144" s="11">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AE144" s="12">
         <v>69400</v>
@@ -14956,7 +15426,7 @@
         <v>69400</v>
       </c>
     </row>
-    <row r="145" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="145" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>365</v>
       </c>
@@ -14985,7 +15455,7 @@
         <v>37</v>
       </c>
       <c r="J145" s="17">
-        <v>9.246004e6</v>
+        <v>9246004</v>
       </c>
       <c r="K145" s="15" t="s">
         <v>367</v>
@@ -15046,13 +15516,13 @@
         <v>14.7</v>
       </c>
       <c r="AE145" s="23">
-        <v>7.35e6</v>
+        <v>7350000</v>
       </c>
       <c r="AF145" s="23">
-        <v>7.35e6</v>
+        <v>7350000</v>
       </c>
     </row>
-    <row r="146" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="146" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>368</v>
       </c>
@@ -15081,7 +15551,7 @@
         <v>37</v>
       </c>
       <c r="J146" s="7">
-        <v>9.246005e6</v>
+        <v>9246005</v>
       </c>
       <c r="K146" s="5" t="s">
         <v>370</v>
@@ -15133,7 +15603,7 @@
         <v>44</v>
       </c>
       <c r="AB146" s="10">
-        <v>3e6</v>
+        <v>3000000</v>
       </c>
       <c r="AC146" s="11">
         <v>2.74</v>
@@ -15142,13 +15612,13 @@
         <v>2.74</v>
       </c>
       <c r="AE146" s="12">
-        <v>8.22e6</v>
+        <v>8220000</v>
       </c>
       <c r="AF146" s="12">
-        <v>8.22e6</v>
+        <v>8220000</v>
       </c>
     </row>
-    <row r="147" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="147" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>368</v>
       </c>
@@ -15177,7 +15647,7 @@
         <v>37</v>
       </c>
       <c r="J147" s="17">
-        <v>9.246005e6</v>
+        <v>9246005</v>
       </c>
       <c r="K147" s="15" t="s">
         <v>370</v>
@@ -15244,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="148" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>372</v>
       </c>
@@ -15322,13 +15792,13 @@
         <v>2.74</v>
       </c>
       <c r="AE148" s="12">
-        <v>2.33451288e6</v>
+        <v>2334512.88</v>
       </c>
       <c r="AF148" s="12">
-        <v>2.33451288e6</v>
+        <v>2334512.88</v>
       </c>
     </row>
-    <row r="149" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="149" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>374</v>
       </c>
@@ -15357,7 +15827,7 @@
         <v>37</v>
       </c>
       <c r="J149" s="17">
-        <v>9.247074e6</v>
+        <v>9247074</v>
       </c>
       <c r="K149" s="15" t="s">
         <v>376</v>
@@ -15391,7 +15861,7 @@
         <v>33</v>
       </c>
       <c r="V149" s="17">
-        <v>1.753681e6</v>
+        <v>1753681</v>
       </c>
       <c r="W149" s="15" t="s">
         <v>379</v>
@@ -15418,13 +15888,13 @@
         <v>70000</v>
       </c>
       <c r="AE149" s="23">
-        <v>39.34e6</v>
+        <v>39340000</v>
       </c>
       <c r="AF149" s="23">
-        <v>39.34e6</v>
+        <v>39340000</v>
       </c>
     </row>
-    <row r="150" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="150" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>374</v>
       </c>
@@ -15453,7 +15923,7 @@
         <v>37</v>
       </c>
       <c r="J150" s="7">
-        <v>9.247074e6</v>
+        <v>9247074</v>
       </c>
       <c r="K150" s="5" t="s">
         <v>376</v>
@@ -15487,7 +15957,7 @@
         <v>33</v>
       </c>
       <c r="V150" s="7">
-        <v>1.756877e6</v>
+        <v>1756877</v>
       </c>
       <c r="W150" s="5" t="s">
         <v>380</v>
@@ -15514,13 +15984,13 @@
         <v>25000</v>
       </c>
       <c r="AE150" s="12">
-        <v>4.625e6</v>
+        <v>4625000</v>
       </c>
       <c r="AF150" s="12">
-        <v>4.625e6</v>
+        <v>4625000</v>
       </c>
     </row>
-    <row r="151" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="151" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>381</v>
       </c>
@@ -15549,7 +16019,7 @@
         <v>37</v>
       </c>
       <c r="J151" s="17">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K151" s="15" t="s">
         <v>383</v>
@@ -15583,7 +16053,7 @@
         <v>33</v>
       </c>
       <c r="V151" s="17">
-        <v>1.747983e6</v>
+        <v>1747983</v>
       </c>
       <c r="W151" s="15" t="s">
         <v>386</v>
@@ -15616,7 +16086,7 @@
         <v>939658</v>
       </c>
     </row>
-    <row r="152" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="152" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>381</v>
       </c>
@@ -15645,7 +16115,7 @@
         <v>37</v>
       </c>
       <c r="J152" s="7">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K152" s="5" t="s">
         <v>383</v>
@@ -15679,7 +16149,7 @@
         <v>33</v>
       </c>
       <c r="V152" s="7">
-        <v>1.75307e6</v>
+        <v>1753070</v>
       </c>
       <c r="W152" s="5" t="s">
         <v>388</v>
@@ -15700,19 +16170,19 @@
         <v>900</v>
       </c>
       <c r="AC152" s="11">
-        <v>3995.6207</v>
+        <v>3995.6207000000004</v>
       </c>
       <c r="AD152" s="11">
-        <v>3995.6207</v>
+        <v>3995.6207000000004</v>
       </c>
       <c r="AE152" s="12">
-        <v>3.59605863e6</v>
+        <v>3596058.63</v>
       </c>
       <c r="AF152" s="12">
-        <v>3.59605863e6</v>
+        <v>3596058.63</v>
       </c>
     </row>
-    <row r="153" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="153" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>381</v>
       </c>
@@ -15741,7 +16211,7 @@
         <v>37</v>
       </c>
       <c r="J153" s="17">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K153" s="15" t="s">
         <v>383</v>
@@ -15775,7 +16245,7 @@
         <v>33</v>
       </c>
       <c r="V153" s="17">
-        <v>1.753088e6</v>
+        <v>1753088</v>
       </c>
       <c r="W153" s="15" t="s">
         <v>389</v>
@@ -15808,7 +16278,7 @@
         <v>599400</v>
       </c>
     </row>
-    <row r="154" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="154" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>381</v>
       </c>
@@ -15837,7 +16307,7 @@
         <v>37</v>
       </c>
       <c r="J154" s="7">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K154" s="5" t="s">
         <v>383</v>
@@ -15871,7 +16341,7 @@
         <v>33</v>
       </c>
       <c r="V154" s="7">
-        <v>1.753924e6</v>
+        <v>1753924</v>
       </c>
       <c r="W154" s="5" t="s">
         <v>390</v>
@@ -15904,7 +16374,7 @@
         <v>11682</v>
       </c>
     </row>
-    <row r="155" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="155" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>381</v>
       </c>
@@ -15933,7 +16403,7 @@
         <v>37</v>
       </c>
       <c r="J155" s="17">
-        <v>9.24709e6</v>
+        <v>9247090</v>
       </c>
       <c r="K155" s="15" t="s">
         <v>383</v>
@@ -15967,7 +16437,7 @@
         <v>33</v>
       </c>
       <c r="V155" s="17">
-        <v>1.75663e6</v>
+        <v>1756630</v>
       </c>
       <c r="W155" s="15" t="s">
         <v>391</v>
@@ -16000,7 +16470,7 @@
         <v>8982</v>
       </c>
     </row>
-    <row r="156" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="156" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>392</v>
       </c>
@@ -16029,7 +16499,7 @@
         <v>37</v>
       </c>
       <c r="J156" s="7">
-        <v>9.247154e6</v>
+        <v>9247154</v>
       </c>
       <c r="K156" s="5" t="s">
         <v>394</v>
@@ -16063,7 +16533,7 @@
         <v>33</v>
       </c>
       <c r="V156" s="7">
-        <v>1.755366e6</v>
+        <v>1755366</v>
       </c>
       <c r="W156" s="5" t="s">
         <v>397</v>
@@ -16090,13 +16560,13 @@
         <v>12.29</v>
       </c>
       <c r="AE156" s="12">
-        <v>6.145e6</v>
+        <v>6145000</v>
       </c>
       <c r="AF156" s="12">
-        <v>6.145e6</v>
+        <v>6145000</v>
       </c>
     </row>
-    <row r="157" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="157" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
         <v>398</v>
       </c>
@@ -16125,7 +16595,7 @@
         <v>37</v>
       </c>
       <c r="J157" s="17">
-        <v>9.247151e6</v>
+        <v>9247151</v>
       </c>
       <c r="K157" s="15" t="s">
         <v>400</v>
@@ -16159,7 +16629,7 @@
         <v>33</v>
       </c>
       <c r="V157" s="17">
-        <v>1.758063e6</v>
+        <v>1758063</v>
       </c>
       <c r="W157" s="15" t="s">
         <v>403</v>
@@ -16186,13 +16656,13 @@
         <v>24359.2562</v>
       </c>
       <c r="AE157" s="23">
-        <v>7.30777686e6</v>
+        <v>7307776.8600000003</v>
       </c>
       <c r="AF157" s="23">
-        <v>7.30777686e6</v>
+        <v>7307776.8600000003</v>
       </c>
     </row>
-    <row r="158" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="158" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>404</v>
       </c>
@@ -16221,7 +16691,7 @@
         <v>37</v>
       </c>
       <c r="J158" s="7">
-        <v>9.247179e6</v>
+        <v>9247179</v>
       </c>
       <c r="K158" s="5" t="s">
         <v>406</v>
@@ -16255,7 +16725,7 @@
         <v>33</v>
       </c>
       <c r="V158" s="7">
-        <v>1.755366e6</v>
+        <v>1755366</v>
       </c>
       <c r="W158" s="5" t="s">
         <v>397</v>
@@ -16282,13 +16752,13 @@
         <v>12.29</v>
       </c>
       <c r="AE158" s="12">
-        <v>6.145e6</v>
+        <v>6145000</v>
       </c>
       <c r="AF158" s="12">
-        <v>6.145e6</v>
+        <v>6145000</v>
       </c>
     </row>
-    <row r="159" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="159" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>407</v>
       </c>
@@ -16372,7 +16842,7 @@
         <v>77400</v>
       </c>
     </row>
-    <row r="160" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="160" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>413</v>
       </c>
@@ -16401,7 +16871,7 @@
         <v>37</v>
       </c>
       <c r="J160" s="7">
-        <v>9.247172e6</v>
+        <v>9247172</v>
       </c>
       <c r="K160" s="5" t="s">
         <v>415</v>
@@ -16468,7 +16938,7 @@
         <v>27653.11</v>
       </c>
     </row>
-    <row r="161" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="161" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>420</v>
       </c>
@@ -16552,7 +17022,7 @@
         <v>453600</v>
       </c>
     </row>
-    <row r="162" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="162" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>422</v>
       </c>
@@ -16581,7 +17051,7 @@
         <v>37</v>
       </c>
       <c r="J162" s="7">
-        <v>9.250254e6</v>
+        <v>9250254</v>
       </c>
       <c r="K162" s="5" t="s">
         <v>424</v>
@@ -16648,7 +17118,7 @@
         <v>236250</v>
       </c>
     </row>
-    <row r="163" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="163" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>422</v>
       </c>
@@ -16677,7 +17147,7 @@
         <v>37</v>
       </c>
       <c r="J163" s="17">
-        <v>9.250254e6</v>
+        <v>9250254</v>
       </c>
       <c r="K163" s="15" t="s">
         <v>424</v>
@@ -16711,7 +17181,7 @@
         <v>33</v>
       </c>
       <c r="V163" s="17">
-        <v>1.27189e6</v>
+        <v>1271890</v>
       </c>
       <c r="W163" s="15" t="s">
         <v>428</v>
@@ -16744,7 +17214,7 @@
         <v>365508</v>
       </c>
     </row>
-    <row r="164" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="164" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>422</v>
       </c>
@@ -16773,7 +17243,7 @@
         <v>37</v>
       </c>
       <c r="J164" s="7">
-        <v>9.250315e6</v>
+        <v>9250315</v>
       </c>
       <c r="K164" s="5" t="s">
         <v>429</v>
@@ -16840,7 +17310,7 @@
         <v>302016</v>
       </c>
     </row>
-    <row r="165" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="165" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>433</v>
       </c>
@@ -16869,7 +17339,7 @@
         <v>37</v>
       </c>
       <c r="J165" s="17">
-        <v>9.251266e6</v>
+        <v>9251266</v>
       </c>
       <c r="K165" s="15" t="s">
         <v>435</v>
@@ -16903,7 +17373,7 @@
         <v>33</v>
       </c>
       <c r="V165" s="17">
-        <v>1.758276e6</v>
+        <v>1758276</v>
       </c>
       <c r="W165" s="15" t="s">
         <v>438</v>
@@ -16924,10 +17394,10 @@
         <v>3000</v>
       </c>
       <c r="AC165" s="22">
-        <v>40.27</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="AD165" s="22">
-        <v>40.27</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="AE165" s="23">
         <v>120810</v>
@@ -16936,7 +17406,7 @@
         <v>120810</v>
       </c>
     </row>
-    <row r="166" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="166" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>439</v>
       </c>
@@ -16987,7 +17457,7 @@
         <v>33</v>
       </c>
       <c r="V166" s="7">
-        <v>1.669486e6</v>
+        <v>1669486</v>
       </c>
       <c r="W166" s="5" t="s">
         <v>442</v>
@@ -17020,7 +17490,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="167" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="167" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>439</v>
       </c>
@@ -17071,7 +17541,7 @@
         <v>33</v>
       </c>
       <c r="V167" s="17">
-        <v>1.696041e6</v>
+        <v>1696041</v>
       </c>
       <c r="W167" s="15" t="s">
         <v>445</v>
@@ -17104,7 +17574,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="168" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="168" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>446</v>
       </c>
@@ -17133,7 +17603,7 @@
         <v>448</v>
       </c>
       <c r="J168" s="7">
-        <v>9.246044e6</v>
+        <v>9246044</v>
       </c>
       <c r="K168" s="5" t="s">
         <v>449</v>
@@ -17167,7 +17637,7 @@
         <v>33</v>
       </c>
       <c r="V168" s="7">
-        <v>1.66937e6</v>
+        <v>1669370</v>
       </c>
       <c r="W168" s="5" t="s">
         <v>193</v>
@@ -17200,7 +17670,7 @@
         <v>4606</v>
       </c>
     </row>
-    <row r="169" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="169" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>446</v>
       </c>
@@ -17229,7 +17699,7 @@
         <v>448</v>
       </c>
       <c r="J169" s="17">
-        <v>9.246044e6</v>
+        <v>9246044</v>
       </c>
       <c r="K169" s="15" t="s">
         <v>449</v>
@@ -17263,7 +17733,7 @@
         <v>33</v>
       </c>
       <c r="V169" s="17">
-        <v>1.669397e6</v>
+        <v>1669397</v>
       </c>
       <c r="W169" s="15" t="s">
         <v>452</v>
@@ -17296,7 +17766,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="170" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>446</v>
       </c>
@@ -17325,7 +17795,7 @@
         <v>448</v>
       </c>
       <c r="J170" s="7">
-        <v>9.246044e6</v>
+        <v>9246044</v>
       </c>
       <c r="K170" s="5" t="s">
         <v>449</v>
@@ -17359,7 +17829,7 @@
         <v>33</v>
       </c>
       <c r="V170" s="7">
-        <v>1.669486e6</v>
+        <v>1669486</v>
       </c>
       <c r="W170" s="5" t="s">
         <v>442</v>
@@ -17392,7 +17862,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="171" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="171" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>453</v>
       </c>
@@ -17476,7 +17946,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="172" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="172" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>457</v>
       </c>
@@ -17527,7 +17997,7 @@
         <v>33</v>
       </c>
       <c r="V172" s="7">
-        <v>1.69216e6</v>
+        <v>1692160</v>
       </c>
       <c r="W172" s="5" t="s">
         <v>459</v>
@@ -17560,7 +18030,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="173" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="173" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
         <v>460</v>
       </c>
@@ -17589,7 +18059,7 @@
         <v>37</v>
       </c>
       <c r="J173" s="17">
-        <v>9.246007e6</v>
+        <v>9246007</v>
       </c>
       <c r="K173" s="15" t="s">
         <v>462</v>
@@ -17623,7 +18093,7 @@
         <v>33</v>
       </c>
       <c r="V173" s="17">
-        <v>1.71894e6</v>
+        <v>1718940</v>
       </c>
       <c r="W173" s="15" t="s">
         <v>465</v>
@@ -17644,7 +18114,7 @@
         <v>84000</v>
       </c>
       <c r="AC173" s="22">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AD173" s="22">
         <v>1.71</v>
@@ -17656,7 +18126,7 @@
         <v>143640</v>
       </c>
     </row>
-    <row r="174" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="174" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>466</v>
       </c>
@@ -17740,7 +18210,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="175" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="175" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
         <v>466</v>
       </c>
@@ -17815,7 +18285,7 @@
         <v>24</v>
       </c>
       <c r="AD175" s="22">
-        <v>32.87</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="AE175" s="23">
         <v>720</v>
@@ -17824,7 +18294,7 @@
         <v>986.1</v>
       </c>
     </row>
-    <row r="176" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="176" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>472</v>
       </c>
@@ -17896,10 +18366,10 @@
         <v>10000</v>
       </c>
       <c r="AC176" s="11">
-        <v>676000e-6</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="AD176" s="11">
-        <v>676000e-6</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="AE176" s="12">
         <v>6760</v>
@@ -17908,7 +18378,7 @@
         <v>6760</v>
       </c>
     </row>
-    <row r="177" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="177" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
         <v>472</v>
       </c>
@@ -17959,7 +18429,7 @@
         <v>33</v>
       </c>
       <c r="V177" s="17">
-        <v>1.670891e6</v>
+        <v>1670891</v>
       </c>
       <c r="W177" s="15" t="s">
         <v>478</v>
@@ -17992,7 +18462,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="178" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="178" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>472</v>
       </c>
@@ -18043,7 +18513,7 @@
         <v>33</v>
       </c>
       <c r="V178" s="7">
-        <v>1.69773e6</v>
+        <v>1697730</v>
       </c>
       <c r="W178" s="5" t="s">
         <v>481</v>
@@ -18076,7 +18546,7 @@
         <v>248600</v>
       </c>
     </row>
-    <row r="179" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="179" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
         <v>472</v>
       </c>
@@ -18160,7 +18630,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="180" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="180" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>472</v>
       </c>
@@ -18211,7 +18681,7 @@
         <v>33</v>
       </c>
       <c r="V180" s="7">
-        <v>1.368818e6</v>
+        <v>1368818</v>
       </c>
       <c r="W180" s="5" t="s">
         <v>483</v>
@@ -18232,10 +18702,10 @@
         <v>10</v>
       </c>
       <c r="AC180" s="11">
-        <v>293.6</v>
+        <v>293.60000000000002</v>
       </c>
       <c r="AD180" s="11">
-        <v>293.6</v>
+        <v>293.60000000000002</v>
       </c>
       <c r="AE180" s="12">
         <v>2936</v>
@@ -18244,7 +18714,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="181" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="181" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>472</v>
       </c>
@@ -18295,7 +18765,7 @@
         <v>33</v>
       </c>
       <c r="V181" s="17">
-        <v>1.497391e6</v>
+        <v>1497391</v>
       </c>
       <c r="W181" s="15" t="s">
         <v>484</v>
@@ -18328,7 +18798,7 @@
         <v>51300</v>
       </c>
     </row>
-    <row r="182" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="182" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>472</v>
       </c>
@@ -18379,7 +18849,7 @@
         <v>33</v>
       </c>
       <c r="V182" s="7">
-        <v>1.669613e6</v>
+        <v>1669613</v>
       </c>
       <c r="W182" s="5" t="s">
         <v>487</v>
@@ -18406,13 +18876,13 @@
         <v>31.96</v>
       </c>
       <c r="AE182" s="12">
-        <v>319.6</v>
+        <v>319.60000000000002</v>
       </c>
       <c r="AF182" s="12">
-        <v>319.6</v>
+        <v>319.60000000000002</v>
       </c>
     </row>
-    <row r="183" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="183" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
         <v>472</v>
       </c>
@@ -18496,7 +18966,7 @@
         <v>1675.6</v>
       </c>
     </row>
-    <row r="184" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="184" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>472</v>
       </c>
@@ -18547,7 +19017,7 @@
         <v>33</v>
       </c>
       <c r="V184" s="7">
-        <v>1.151746e6</v>
+        <v>1151746</v>
       </c>
       <c r="W184" s="5" t="s">
         <v>493</v>
@@ -18580,7 +19050,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="185" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="185" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
         <v>472</v>
       </c>
@@ -18609,7 +19079,7 @@
         <v>37</v>
       </c>
       <c r="J185" s="17">
-        <v>9.245762e6</v>
+        <v>9245762</v>
       </c>
       <c r="K185" s="15" t="s">
         <v>494</v>
@@ -18664,10 +19134,10 @@
         <v>30000</v>
       </c>
       <c r="AC185" s="22">
-        <v>900000e-6</v>
+        <v>0.9</v>
       </c>
       <c r="AD185" s="22">
-        <v>900000e-6</v>
+        <v>0.9</v>
       </c>
       <c r="AE185" s="23">
         <v>27000</v>
@@ -18676,7 +19146,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="186" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="186" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>472</v>
       </c>
@@ -18705,7 +19175,7 @@
         <v>37</v>
       </c>
       <c r="J186" s="7">
-        <v>9.245763e6</v>
+        <v>9245763</v>
       </c>
       <c r="K186" s="5" t="s">
         <v>498</v>
@@ -18760,10 +19230,10 @@
         <v>30000</v>
       </c>
       <c r="AC186" s="11">
-        <v>550000e-6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD186" s="11">
-        <v>550000e-6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AE186" s="12">
         <v>16500</v>
@@ -18772,7 +19242,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="187" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="187" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
         <v>472</v>
       </c>
@@ -18801,7 +19271,7 @@
         <v>37</v>
       </c>
       <c r="J187" s="17">
-        <v>9.245763e6</v>
+        <v>9245763</v>
       </c>
       <c r="K187" s="15" t="s">
         <v>498</v>
@@ -18835,7 +19305,7 @@
         <v>33</v>
       </c>
       <c r="V187" s="17">
-        <v>1.651595e6</v>
+        <v>1651595</v>
       </c>
       <c r="W187" s="15" t="s">
         <v>502</v>
@@ -18868,7 +19338,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="188" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="188" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>503</v>
       </c>
@@ -18897,7 +19367,7 @@
         <v>37</v>
       </c>
       <c r="J188" s="7">
-        <v>9.245674e6</v>
+        <v>9245674</v>
       </c>
       <c r="K188" s="5" t="s">
         <v>506</v>
@@ -18954,19 +19424,19 @@
         <v>0</v>
       </c>
       <c r="AC188" s="11">
-        <v>4.35942886e6</v>
+        <v>4359428.8600000003</v>
       </c>
       <c r="AD188" s="11">
-        <v>4.35942886e6</v>
+        <v>4359428.8600000003</v>
       </c>
       <c r="AE188" s="12">
-        <v>4.35942886e6</v>
+        <v>4359428.8600000003</v>
       </c>
       <c r="AF188" s="12">
-        <v>4.35942886e6</v>
+        <v>4359428.8600000003</v>
       </c>
     </row>
-    <row r="189" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="189" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
         <v>510</v>
       </c>
@@ -18995,7 +19465,7 @@
         <v>37</v>
       </c>
       <c r="J189" s="17">
-        <v>9.24595e6</v>
+        <v>9245950</v>
       </c>
       <c r="K189" s="15" t="s">
         <v>512</v>
@@ -19052,19 +19522,19 @@
         <v>0</v>
       </c>
       <c r="AC189" s="22">
-        <v>1.04162557e6</v>
+        <v>1041625.57</v>
       </c>
       <c r="AD189" s="22">
-        <v>1.04162557e6</v>
+        <v>1041625.57</v>
       </c>
       <c r="AE189" s="23">
-        <v>1.04162557e6</v>
+        <v>1041625.57</v>
       </c>
       <c r="AF189" s="23">
-        <v>1.04162557e6</v>
+        <v>1041625.57</v>
       </c>
     </row>
-    <row r="190" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="190" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>515</v>
       </c>
@@ -19093,7 +19563,7 @@
         <v>37</v>
       </c>
       <c r="J190" s="7">
-        <v>9.247198e6</v>
+        <v>9247198</v>
       </c>
       <c r="K190" s="5" t="s">
         <v>517</v>
@@ -19150,19 +19620,19 @@
         <v>0</v>
       </c>
       <c r="AC190" s="11">
-        <v>7.11634326e6</v>
+        <v>7116343.2599999998</v>
       </c>
       <c r="AD190" s="11">
-        <v>7.11634326e6</v>
+        <v>7116343.2599999998</v>
       </c>
       <c r="AE190" s="12">
-        <v>7.11634326e6</v>
+        <v>7116343.2599999998</v>
       </c>
       <c r="AF190" s="12">
-        <v>7.11634326e6</v>
+        <v>7116343.2599999998</v>
       </c>
     </row>
-    <row r="191" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="191" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
         <v>520</v>
       </c>
@@ -19191,7 +19661,7 @@
         <v>37</v>
       </c>
       <c r="J191" s="17">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K191" s="15" t="s">
         <v>523</v>
@@ -19260,7 +19730,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="192" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="192" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>520</v>
       </c>
@@ -19289,7 +19759,7 @@
         <v>37</v>
       </c>
       <c r="J192" s="7">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K192" s="5" t="s">
         <v>523</v>
@@ -19358,7 +19828,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="193" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="193" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
         <v>520</v>
       </c>
@@ -19387,7 +19857,7 @@
         <v>37</v>
       </c>
       <c r="J193" s="17">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K193" s="15" t="s">
         <v>523</v>
@@ -19456,7 +19926,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="194" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="194" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>520</v>
       </c>
@@ -19485,7 +19955,7 @@
         <v>37</v>
       </c>
       <c r="J194" s="7">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K194" s="5" t="s">
         <v>523</v>
@@ -19554,7 +20024,7 @@
         <v>7650</v>
       </c>
     </row>
-    <row r="195" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="195" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
         <v>520</v>
       </c>
@@ -19583,7 +20053,7 @@
         <v>37</v>
       </c>
       <c r="J195" s="17">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K195" s="15" t="s">
         <v>523</v>
@@ -19619,7 +20089,7 @@
         <v>33</v>
       </c>
       <c r="V195" s="17">
-        <v>1.129139e6</v>
+        <v>1129139</v>
       </c>
       <c r="W195" s="15" t="s">
         <v>527</v>
@@ -19652,7 +20122,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="196" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="196" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>520</v>
       </c>
@@ -19681,7 +20151,7 @@
         <v>37</v>
       </c>
       <c r="J196" s="7">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K196" s="5" t="s">
         <v>523</v>
@@ -19717,7 +20187,7 @@
         <v>33</v>
       </c>
       <c r="V196" s="7">
-        <v>1.152823e6</v>
+        <v>1152823</v>
       </c>
       <c r="W196" s="5" t="s">
         <v>528</v>
@@ -19750,7 +20220,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="197" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="197" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
         <v>520</v>
       </c>
@@ -19779,7 +20249,7 @@
         <v>37</v>
       </c>
       <c r="J197" s="17">
-        <v>9.245982e6</v>
+        <v>9245982</v>
       </c>
       <c r="K197" s="15" t="s">
         <v>523</v>
@@ -19815,7 +20285,7 @@
         <v>33</v>
       </c>
       <c r="V197" s="17">
-        <v>1.152831e6</v>
+        <v>1152831</v>
       </c>
       <c r="W197" s="15" t="s">
         <v>529</v>
@@ -19848,7 +20318,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="198" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="198" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>530</v>
       </c>
@@ -19856,19 +20326,19 @@
         <v>33</v>
       </c>
       <c r="C198" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D198" s="26" t="s">
+        <v>43955</v>
+      </c>
+      <c r="D198" s="5" t="s">
         <v>531</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F198" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>36</v>
@@ -19887,54 +20357,54 @@
       <c r="P198" s="9"/>
       <c r="Q198" s="8"/>
       <c r="R198" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="S198" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="S198" s="5" t="s">
+      <c r="T198" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U198" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V198" s="7">
+        <v>1755897</v>
+      </c>
+      <c r="W198" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="T198" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U198" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V198" s="7">
-        <v>1.692143e6</v>
-      </c>
-      <c r="W198" s="5" t="s">
+      <c r="X198" s="7">
+        <v>2311</v>
+      </c>
+      <c r="Y198" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z198" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA198" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="AB198" s="10">
+        <v>300</v>
+      </c>
+      <c r="AC198" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="AD198" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="AE198" s="12">
+        <v>285</v>
+      </c>
+      <c r="AF198" s="12">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="199" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="13" t="s">
         <v>535</v>
-      </c>
-      <c r="X198" s="7">
-        <v>2321</v>
-      </c>
-      <c r="Y198" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="Z198" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA198" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB198" s="10">
-        <v>3000</v>
-      </c>
-      <c r="AC198" s="11">
-        <v>8.2</v>
-      </c>
-      <c r="AD198" s="11">
-        <v>8.2</v>
-      </c>
-      <c r="AE198" s="12">
-        <v>24600</v>
-      </c>
-      <c r="AF198" s="12">
-        <v>24600</v>
-      </c>
-    </row>
-    <row r="199" s="1" customFormat="1" ht="18.1322" customHeight="1">
-      <c r="A199" s="13" t="s">
-        <v>530</v>
       </c>
       <c r="B199" s="13" t="s">
         <v>33</v>
@@ -19943,7 +20413,7 @@
         <v>43944</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E199" s="15" t="s">
         <v>33</v>
@@ -19952,7 +20422,7 @@
         <v>2320</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H199" s="13" t="s">
         <v>36</v>
@@ -19971,10 +20441,10 @@
       <c r="P199" s="19"/>
       <c r="Q199" s="18"/>
       <c r="R199" s="15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="S199" s="15" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="T199" s="13" t="s">
         <v>33</v>
@@ -19983,42 +20453,42 @@
         <v>33</v>
       </c>
       <c r="V199" s="17">
-        <v>1.143883e6</v>
+        <v>1692143</v>
       </c>
       <c r="W199" s="15" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="X199" s="17">
         <v>2321</v>
       </c>
       <c r="Y199" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z199" s="15" t="s">
-        <v>444</v>
+        <v>135</v>
       </c>
       <c r="AA199" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB199" s="21">
-        <v>200000</v>
+        <v>3000</v>
       </c>
       <c r="AC199" s="22">
-        <v>600000e-6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD199" s="22">
-        <v>600000e-6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AE199" s="23">
-        <v>120000</v>
+        <v>24600</v>
       </c>
       <c r="AF199" s="23">
-        <v>120000</v>
+        <v>24600</v>
       </c>
     </row>
-    <row r="200" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="200" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>33</v>
@@ -20027,7 +20497,7 @@
         <v>43944</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>33</v>
@@ -20036,7 +20506,7 @@
         <v>2320</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>36</v>
@@ -20055,10 +20525,10 @@
       <c r="P200" s="9"/>
       <c r="Q200" s="8"/>
       <c r="R200" s="5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="S200" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="T200" s="3" t="s">
         <v>33</v>
@@ -20067,16 +20537,16 @@
         <v>33</v>
       </c>
       <c r="V200" s="7">
-        <v>1.244515e6</v>
+        <v>1143883</v>
       </c>
       <c r="W200" s="5" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="X200" s="7">
         <v>2321</v>
       </c>
       <c r="Y200" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z200" s="5" t="s">
         <v>444</v>
@@ -20085,24 +20555,24 @@
         <v>327</v>
       </c>
       <c r="AB200" s="10">
-        <v>50</v>
+        <v>200000</v>
       </c>
       <c r="AC200" s="11">
-        <v>20.1</v>
+        <v>0.6</v>
       </c>
       <c r="AD200" s="11">
-        <v>20.1</v>
+        <v>0.6</v>
       </c>
       <c r="AE200" s="12">
-        <v>1005</v>
+        <v>120000</v>
       </c>
       <c r="AF200" s="12">
-        <v>1005</v>
+        <v>120000</v>
       </c>
     </row>
-    <row r="201" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="201" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B201" s="13" t="s">
         <v>33</v>
@@ -20111,7 +20581,7 @@
         <v>43944</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E201" s="15" t="s">
         <v>33</v>
@@ -20120,7 +20590,7 @@
         <v>2320</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H201" s="13" t="s">
         <v>36</v>
@@ -20139,10 +20609,10 @@
       <c r="P201" s="19"/>
       <c r="Q201" s="18"/>
       <c r="R201" s="15" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="S201" s="15" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="T201" s="13" t="s">
         <v>33</v>
@@ -20151,16 +20621,16 @@
         <v>33</v>
       </c>
       <c r="V201" s="17">
-        <v>1.244108e6</v>
+        <v>1244515</v>
       </c>
       <c r="W201" s="15" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="X201" s="17">
         <v>2321</v>
       </c>
       <c r="Y201" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z201" s="15" t="s">
         <v>444</v>
@@ -20169,24 +20639,24 @@
         <v>327</v>
       </c>
       <c r="AB201" s="21">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AC201" s="22">
-        <v>358.24</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="AD201" s="22">
-        <v>358.24</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="AE201" s="23">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
       <c r="AF201" s="23">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
     </row>
-    <row r="202" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="202" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>33</v>
@@ -20195,7 +20665,7 @@
         <v>43944</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>33</v>
@@ -20204,7 +20674,7 @@
         <v>2320</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>36</v>
@@ -20223,10 +20693,10 @@
       <c r="P202" s="9"/>
       <c r="Q202" s="8"/>
       <c r="R202" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S202" s="5" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T202" s="3" t="s">
         <v>33</v>
@@ -20235,16 +20705,16 @@
         <v>33</v>
       </c>
       <c r="V202" s="7">
-        <v>1.244507e6</v>
+        <v>1244108</v>
       </c>
       <c r="W202" s="5" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="X202" s="7">
         <v>2321</v>
       </c>
       <c r="Y202" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z202" s="5" t="s">
         <v>444</v>
@@ -20253,24 +20723,24 @@
         <v>327</v>
       </c>
       <c r="AB202" s="10">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AC202" s="11">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AD202" s="11">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AE202" s="12">
-        <v>1745</v>
+        <v>32241.599999999999</v>
       </c>
       <c r="AF202" s="12">
-        <v>1745</v>
+        <v>32241.599999999999</v>
       </c>
     </row>
-    <row r="203" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="203" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B203" s="13" t="s">
         <v>33</v>
@@ -20279,7 +20749,7 @@
         <v>43944</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E203" s="15" t="s">
         <v>33</v>
@@ -20288,7 +20758,7 @@
         <v>2320</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H203" s="13" t="s">
         <v>36</v>
@@ -20307,10 +20777,10 @@
       <c r="P203" s="19"/>
       <c r="Q203" s="18"/>
       <c r="R203" s="15" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S203" s="15" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T203" s="13" t="s">
         <v>33</v>
@@ -20319,16 +20789,16 @@
         <v>33</v>
       </c>
       <c r="V203" s="17">
-        <v>1.257587e6</v>
+        <v>1244507</v>
       </c>
       <c r="W203" s="15" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="X203" s="17">
         <v>2321</v>
       </c>
       <c r="Y203" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z203" s="15" t="s">
         <v>444</v>
@@ -20337,24 +20807,24 @@
         <v>327</v>
       </c>
       <c r="AB203" s="21">
-        <v>80000</v>
+        <v>50</v>
       </c>
       <c r="AC203" s="22">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AD203" s="22">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AE203" s="23">
-        <v>31200</v>
+        <v>1745</v>
       </c>
       <c r="AF203" s="23">
-        <v>31200</v>
+        <v>1745</v>
       </c>
     </row>
-    <row r="204" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="204" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>33</v>
@@ -20363,7 +20833,7 @@
         <v>43944</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>33</v>
@@ -20372,7 +20842,7 @@
         <v>2320</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>36</v>
@@ -20391,10 +20861,10 @@
       <c r="P204" s="9"/>
       <c r="Q204" s="8"/>
       <c r="R204" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S204" s="5" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T204" s="3" t="s">
         <v>33</v>
@@ -20403,42 +20873,42 @@
         <v>33</v>
       </c>
       <c r="V204" s="7">
-        <v>1.257625e6</v>
+        <v>1257587</v>
       </c>
       <c r="W204" s="5" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="X204" s="7">
         <v>2321</v>
       </c>
       <c r="Y204" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z204" s="5" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="AA204" s="3" t="s">
         <v>327</v>
       </c>
       <c r="AB204" s="10">
-        <v>90</v>
+        <v>80000</v>
       </c>
       <c r="AC204" s="11">
-        <v>351</v>
+        <v>0.39</v>
       </c>
       <c r="AD204" s="11">
-        <v>351</v>
+        <v>0.39</v>
       </c>
       <c r="AE204" s="12">
-        <v>31590</v>
+        <v>31200</v>
       </c>
       <c r="AF204" s="12">
-        <v>31590</v>
+        <v>31200</v>
       </c>
     </row>
-    <row r="205" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="205" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B205" s="13" t="s">
         <v>33</v>
@@ -20447,7 +20917,7 @@
         <v>43944</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E205" s="15" t="s">
         <v>33</v>
@@ -20456,7 +20926,7 @@
         <v>2320</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H205" s="13" t="s">
         <v>36</v>
@@ -20475,10 +20945,10 @@
       <c r="P205" s="19"/>
       <c r="Q205" s="18"/>
       <c r="R205" s="15" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S205" s="15" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T205" s="13" t="s">
         <v>33</v>
@@ -20487,42 +20957,42 @@
         <v>33</v>
       </c>
       <c r="V205" s="17">
-        <v>1.258699e6</v>
+        <v>1257625</v>
       </c>
       <c r="W205" s="15" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="X205" s="17">
         <v>2321</v>
       </c>
       <c r="Y205" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z205" s="15" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="AA205" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AB205" s="21">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="AC205" s="22">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AD205" s="22">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AE205" s="23">
-        <v>2780</v>
+        <v>31590</v>
       </c>
       <c r="AF205" s="23">
-        <v>2780</v>
+        <v>31590</v>
       </c>
     </row>
-    <row r="206" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="206" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>33</v>
@@ -20531,7 +21001,7 @@
         <v>43944</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>33</v>
@@ -20540,7 +21010,7 @@
         <v>2320</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>36</v>
@@ -20559,10 +21029,10 @@
       <c r="P206" s="9"/>
       <c r="Q206" s="8"/>
       <c r="R206" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S206" s="5" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T206" s="3" t="s">
         <v>33</v>
@@ -20571,16 +21041,16 @@
         <v>33</v>
       </c>
       <c r="V206" s="7">
-        <v>1.259784e6</v>
+        <v>1258699</v>
       </c>
       <c r="W206" s="5" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="X206" s="7">
         <v>2321</v>
       </c>
       <c r="Y206" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z206" s="5" t="s">
         <v>444</v>
@@ -20589,24 +21059,24 @@
         <v>327</v>
       </c>
       <c r="AB206" s="10">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AC206" s="11">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AD206" s="11">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AE206" s="12">
-        <v>1800</v>
+        <v>2780</v>
       </c>
       <c r="AF206" s="12">
-        <v>1800</v>
+        <v>2780</v>
       </c>
     </row>
-    <row r="207" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="207" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B207" s="13" t="s">
         <v>33</v>
@@ -20615,7 +21085,7 @@
         <v>43944</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E207" s="15" t="s">
         <v>33</v>
@@ -20624,7 +21094,7 @@
         <v>2320</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H207" s="13" t="s">
         <v>36</v>
@@ -20643,10 +21113,10 @@
       <c r="P207" s="19"/>
       <c r="Q207" s="18"/>
       <c r="R207" s="15" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S207" s="15" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T207" s="13" t="s">
         <v>33</v>
@@ -20655,16 +21125,16 @@
         <v>33</v>
       </c>
       <c r="V207" s="17">
-        <v>1.259792e6</v>
+        <v>1259784</v>
       </c>
       <c r="W207" s="15" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="X207" s="17">
         <v>2321</v>
       </c>
       <c r="Y207" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z207" s="15" t="s">
         <v>444</v>
@@ -20673,24 +21143,24 @@
         <v>327</v>
       </c>
       <c r="AB207" s="21">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="AC207" s="22">
-        <v>15.35</v>
+        <v>0.6</v>
       </c>
       <c r="AD207" s="22">
-        <v>15.35</v>
+        <v>0.6</v>
       </c>
       <c r="AE207" s="23">
-        <v>1228</v>
+        <v>1800</v>
       </c>
       <c r="AF207" s="23">
-        <v>1228</v>
+        <v>1800</v>
       </c>
     </row>
-    <row r="208" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="208" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>33</v>
@@ -20699,7 +21169,7 @@
         <v>43944</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>33</v>
@@ -20708,7 +21178,7 @@
         <v>2320</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>36</v>
@@ -20727,10 +21197,10 @@
       <c r="P208" s="9"/>
       <c r="Q208" s="8"/>
       <c r="R208" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S208" s="5" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T208" s="3" t="s">
         <v>33</v>
@@ -20739,16 +21209,16 @@
         <v>33</v>
       </c>
       <c r="V208" s="7">
-        <v>1.260669e6</v>
+        <v>1259792</v>
       </c>
       <c r="W208" s="5" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="X208" s="7">
         <v>2321</v>
       </c>
       <c r="Y208" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z208" s="5" t="s">
         <v>444</v>
@@ -20757,24 +21227,24 @@
         <v>327</v>
       </c>
       <c r="AB208" s="10">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC208" s="11">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AD208" s="11">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AE208" s="12">
-        <v>1490</v>
+        <v>1228</v>
       </c>
       <c r="AF208" s="12">
-        <v>1490</v>
+        <v>1228</v>
       </c>
     </row>
-    <row r="209" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="209" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B209" s="13" t="s">
         <v>33</v>
@@ -20783,7 +21253,7 @@
         <v>43944</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E209" s="15" t="s">
         <v>33</v>
@@ -20792,7 +21262,7 @@
         <v>2320</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H209" s="13" t="s">
         <v>36</v>
@@ -20811,10 +21281,10 @@
       <c r="P209" s="19"/>
       <c r="Q209" s="18"/>
       <c r="R209" s="15" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S209" s="15" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T209" s="13" t="s">
         <v>33</v>
@@ -20823,16 +21293,16 @@
         <v>33</v>
       </c>
       <c r="V209" s="17">
-        <v>1.260677e6</v>
+        <v>1260669</v>
       </c>
       <c r="W209" s="15" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="X209" s="17">
         <v>2321</v>
       </c>
       <c r="Y209" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z209" s="15" t="s">
         <v>444</v>
@@ -20841,24 +21311,24 @@
         <v>327</v>
       </c>
       <c r="AB209" s="21">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AC209" s="22">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AD209" s="22">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AE209" s="23">
-        <v>4770</v>
+        <v>1490</v>
       </c>
       <c r="AF209" s="23">
-        <v>4770</v>
+        <v>1490</v>
       </c>
     </row>
-    <row r="210" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="210" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>33</v>
@@ -20867,7 +21337,7 @@
         <v>43944</v>
       </c>
       <c r="D210" s="26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>33</v>
@@ -20876,7 +21346,7 @@
         <v>2320</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>36</v>
@@ -20895,10 +21365,10 @@
       <c r="P210" s="9"/>
       <c r="Q210" s="8"/>
       <c r="R210" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S210" s="5" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T210" s="3" t="s">
         <v>33</v>
@@ -20907,16 +21377,16 @@
         <v>33</v>
       </c>
       <c r="V210" s="7">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W210" s="24" t="s">
-        <v>554</v>
+        <v>1260677</v>
+      </c>
+      <c r="W210" s="5" t="s">
+        <v>558</v>
       </c>
       <c r="X210" s="7">
         <v>2321</v>
       </c>
       <c r="Y210" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z210" s="5" t="s">
         <v>444</v>
@@ -20925,24 +21395,24 @@
         <v>327</v>
       </c>
       <c r="AB210" s="10">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="AC210" s="11">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AD210" s="11">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AE210" s="12">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
       <c r="AF210" s="12">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
     </row>
-    <row r="211" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="211" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B211" s="13" t="s">
         <v>33</v>
@@ -20951,7 +21421,7 @@
         <v>43944</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E211" s="15" t="s">
         <v>33</v>
@@ -20960,7 +21430,7 @@
         <v>2320</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H211" s="13" t="s">
         <v>36</v>
@@ -20979,10 +21449,10 @@
       <c r="P211" s="19"/>
       <c r="Q211" s="18"/>
       <c r="R211" s="15" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="S211" s="15" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="T211" s="13" t="s">
         <v>33</v>
@@ -20991,16 +21461,16 @@
         <v>33</v>
       </c>
       <c r="V211" s="17">
-        <v>1.687115e6</v>
-      </c>
-      <c r="W211" s="15" t="s">
-        <v>555</v>
+        <v>1260731</v>
+      </c>
+      <c r="W211" s="20" t="s">
+        <v>559</v>
       </c>
       <c r="X211" s="17">
         <v>2321</v>
       </c>
       <c r="Y211" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z211" s="15" t="s">
         <v>444</v>
@@ -21012,21 +21482,21 @@
         <v>60</v>
       </c>
       <c r="AC211" s="22">
-        <v>16.65</v>
+        <v>271.97000000000003</v>
       </c>
       <c r="AD211" s="22">
-        <v>16.65</v>
+        <v>271.97000000000003</v>
       </c>
       <c r="AE211" s="23">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
       <c r="AF211" s="23">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
     </row>
-    <row r="212" s="1" customFormat="1" ht="18.1322" customHeight="1">
+    <row r="212" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>33</v>
@@ -21035,7 +21505,7 @@
         <v>43944</v>
       </c>
       <c r="D212" s="26" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>33</v>
@@ -21044,7 +21514,7 @@
         <v>2320</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>36</v>
@@ -21063,10 +21533,10 @@
       <c r="P212" s="9"/>
       <c r="Q212" s="8"/>
       <c r="R212" s="5" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="S212" s="5" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="T212" s="3" t="s">
         <v>33</v>
@@ -21075,16 +21545,16 @@
         <v>33</v>
       </c>
       <c r="V212" s="7">
-        <v>1.257463e6</v>
+        <v>1687115</v>
       </c>
       <c r="W212" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="X212" s="7">
         <v>2321</v>
       </c>
       <c r="Y212" s="5" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Z212" s="5" t="s">
         <v>444</v>
@@ -21093,24 +21563,108 @@
         <v>327</v>
       </c>
       <c r="AB212" s="10">
+        <v>60</v>
+      </c>
+      <c r="AC212" s="11">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="AD212" s="11">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="AE212" s="12">
+        <v>999</v>
+      </c>
+      <c r="AF212" s="12">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C213" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D213" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="E213" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F213" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G213" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="H213" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I213" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J213" s="17">
+        <v>0</v>
+      </c>
+      <c r="K213" s="15"/>
+      <c r="L213" s="17"/>
+      <c r="M213" s="15"/>
+      <c r="N213" s="18"/>
+      <c r="O213" s="18"/>
+      <c r="P213" s="19"/>
+      <c r="Q213" s="18"/>
+      <c r="R213" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="S213" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="T213" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U213" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V213" s="17">
+        <v>1257463</v>
+      </c>
+      <c r="W213" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="X213" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y213" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z213" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA213" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB213" s="21">
         <v>200</v>
       </c>
-      <c r="AC212" s="11">
-        <v>34.2</v>
-      </c>
-      <c r="AD212" s="11">
-        <v>34.2</v>
-      </c>
-      <c r="AE212" s="12">
+      <c r="AC213" s="22">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AD213" s="22">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AE213" s="23">
         <v>6840</v>
       </c>
-      <c r="AF212" s="12">
+      <c r="AF213" s="23">
         <v>6840</v>
       </c>
     </row>
-    <row r="213" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.78431372549019618" right="0.78431372549019618" top="0.98039215686274517" bottom="0.98039215686274517" header="0.50980392156862753" footer="0.50980392156862753"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/data-raw/compras-coronavirus.xlsx
+++ b/data-raw/compras-coronavirus.xlsx
@@ -1,26 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glauc\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79E0A2B3-B5F2-4916-AA53-E664AA96C7C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-20610" yWindow="0" windowWidth="20730" windowHeight="11160"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheets>
     <sheet name="contratacoes-emergenciais" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="80000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="571">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -793,7 +781,7 @@
     <t>1401608 000009/2020</t>
   </si>
   <si>
-    <t>Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança_x000D_
+    <t xml:space="preserve">Compra emergencial de materiais para enfrentamento ao COVID-19. Materiais de Prevenção e Segurança
 contra Pânico e Incêndio e material para orientações de segurança.</t>
   </si>
   <si>
@@ -1619,6 +1607,9 @@
     <t>MEDICAMENTO</t>
   </si>
   <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=163606</t>
+  </si>
+  <si>
     <t>75.014.167/0001-00</t>
   </si>
   <si>
@@ -1631,7 +1622,7 @@
     <t>2320310 000127/2020</t>
   </si>
   <si>
-    <t>Material de limpeza _x000D_
+    <t xml:space="preserve">Material de limpeza 
 SEI 2320.01.0004287/2020-78</t>
   </si>
   <si>
@@ -1714,37 +1705,58 @@
   </si>
   <si>
     <t>REFIL PARA LIMPEZA - IDENTIFICACAO: REFIL PARA O SUPORTE DO SISTEMA DE LIMPEZA UMIDA; MATERIA-PRIMA: POLIESTER OU MICROFIBRA (COR AZUL); MEDIDAS: APROXIMADAS 45CM X 10CM;</t>
+  </si>
+  <si>
+    <t>2320310 000201/2020</t>
+  </si>
+  <si>
+    <t>aquisição de painéis de proteção de acrílico para instalação nas Recepções e Cadastros das unidades</t>
+  </si>
+  <si>
+    <t>19.173.186/0001-09</t>
+  </si>
+  <si>
+    <t>ACRILDAM INDUSTRIA E COMERCIO ARTEFATOS DE ACRILICO LTDA -EPP</t>
+  </si>
+  <si>
+    <t>SERVICOS DE CONFECCAO DE PECAS E ACESSORIOS DE ACRILICO EM GERAL.</t>
+  </si>
+  <si>
+    <t>SERVICOS DE CONFECCAO DE ARTEFATOS DE ACRILICO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="172" formatCode="d\/m\/yyyy"/>
-    <numFmt numFmtId="173" formatCode="###,###,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="##,###,###,###,###,##0.0000"/>
-    <numFmt numFmtId="175" formatCode="##,###,###,###,###,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="172" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="173" formatCode="0"/>
+    <numFmt numFmtId="174" formatCode="d\/m\/yyyy"/>
+    <numFmt numFmtId="175" formatCode="###,###,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="##,###,###,###,###,##0.0000"/>
+    <numFmt numFmtId="177" formatCode="##,###,###,###,###,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="6"/>
-      <color indexed="8"/>
+      <color rgb="00000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="9"/>
+      <color rgb="00FFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="8"/>
+      <color rgb="00000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1753,28 +1765,31 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="9"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="00000000"/>
+        <bgColor rgb="00000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="9"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="33"/>
-        <bgColor indexed="9"/>
+        <fgColor rgb="FF5175B9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1784,16 +1799,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="31"/>
+        <color rgb="00CACAD9"/>
       </left>
       <right style="thin">
-        <color indexed="31"/>
+        <color rgb="00CACAD9"/>
       </right>
       <top style="thin">
-        <color indexed="31"/>
+        <color rgb="00CACAD9"/>
       </top>
       <bottom style="thin">
-        <color indexed="31"/>
+        <color rgb="00CACAD9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CAC9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="00CAC9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CAC9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CAC9D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1802,589 +1832,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="172" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="173" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="173" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="174" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="172" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="175" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="172" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="173" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="173" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="174" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="172" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="175" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00E3E3E3"/>
-      <rgbColor rgb="00F8FBFC"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF213"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF215"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="5" width="34.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" customWidth="1"/>
-    <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" customWidth="1"/>
-    <col min="16" max="16" width="26.7109375" customWidth="1"/>
-    <col min="17" max="17" width="28.42578125" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" customWidth="1"/>
-    <col min="19" max="19" width="39.7109375" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="39.7109375" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" customWidth="1"/>
-    <col min="23" max="24" width="10.7109375" customWidth="1"/>
-    <col min="25" max="25" width="83.85546875" customWidth="1"/>
-    <col min="26" max="26" width="54.140625" customWidth="1"/>
-    <col min="27" max="27" width="26.42578125" customWidth="1"/>
-    <col min="28" max="28" width="22.28515625" customWidth="1"/>
-    <col min="29" max="29" width="35.42578125" customWidth="1"/>
-    <col min="30" max="30" width="37.140625" customWidth="1"/>
-    <col min="31" max="31" width="33" customWidth="1"/>
-    <col min="32" max="32" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.8093" customWidth="1"/>
+    <col min="2" max="2" width="23.8165" customWidth="1"/>
+    <col min="3" max="3" width="20.5842333333333" customWidth="1"/>
+    <col min="4" max="5" width="34.6541" customWidth="1"/>
+    <col min="6" max="6" width="23.8165" customWidth="1"/>
+    <col min="7" max="7" width="14.9753" customWidth="1"/>
+    <col min="8" max="8" width="23.8165" customWidth="1"/>
+    <col min="9" max="11" width="17.5421" customWidth="1"/>
+    <col min="12" max="12" width="18.5383986666667" customWidth="1"/>
+    <col min="13" max="13" width="31.0871986666667" customWidth="1"/>
+    <col min="14" max="14" width="23.0559666666667" customWidth="1"/>
+    <col min="15" max="15" width="31.0871986666667" customWidth="1"/>
+    <col min="16" max="16" width="26.6685" customWidth="1"/>
+    <col min="17" max="17" width="28.3797" customWidth="1"/>
+    <col min="18" max="18" width="31.2317" customWidth="1"/>
+    <col min="19" max="19" width="39.7877" customWidth="1"/>
+    <col min="20" max="20" width="14.2603986666667" customWidth="1"/>
+    <col min="21" max="21" width="39.7877" customWidth="1"/>
+    <col min="22" max="22" width="8.7009" customWidth="1"/>
+    <col min="23" max="24" width="10.7163133333333" customWidth="1"/>
+    <col min="25" max="25" width="83.8986333333333" customWidth="1"/>
+    <col min="26" max="26" width="54.1883986666667" customWidth="1"/>
+    <col min="27" max="27" width="26.4783666666667" customWidth="1"/>
+    <col min="28" max="28" width="22.2954333333333" customWidth="1"/>
+    <col min="29" max="29" width="35.4146333333333" customWidth="1"/>
+    <col min="30" max="30" width="37.1258333333333" customWidth="1"/>
+    <col min="31" max="31" width="32.9429" customWidth="1"/>
+    <col min="32" max="32" width="21.9151666666667" customWidth="1"/>
+    <col min="33" max="33" width="4.67767866666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="13.3325" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2482,7 +2048,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -2511,7 +2077,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="7">
-        <v>9245761</v>
+        <v>9.245761e6</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>38</v>
@@ -2578,7 +2144,7 @@
         <v>780098.1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>45</v>
       </c>
@@ -2607,7 +2173,7 @@
         <v>37</v>
       </c>
       <c r="J3" s="17">
-        <v>9245765</v>
+        <v>9.245765e6</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>47</v>
@@ -2643,7 +2209,7 @@
         <v>33</v>
       </c>
       <c r="V3" s="17">
-        <v>1083678</v>
+        <v>1.083678e6</v>
       </c>
       <c r="W3" s="20" t="s">
         <v>48</v>
@@ -2676,7 +2242,7 @@
         <v>159840</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -2705,7 +2271,7 @@
         <v>37</v>
       </c>
       <c r="J4" s="7">
-        <v>9245765</v>
+        <v>9.245765e6</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>47</v>
@@ -2741,7 +2307,7 @@
         <v>33</v>
       </c>
       <c r="V4" s="7">
-        <v>1235680</v>
+        <v>1.23568e6</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>50</v>
@@ -2774,7 +2340,7 @@
         <v>67680</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
@@ -2858,7 +2424,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -2942,7 +2508,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>57</v>
       </c>
@@ -2971,7 +2537,7 @@
         <v>37</v>
       </c>
       <c r="J7" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>59</v>
@@ -3026,10 +2592,10 @@
         <v>40</v>
       </c>
       <c r="AC7" s="22">
-        <v>0.45</v>
+        <v>450000e-6</v>
       </c>
       <c r="AD7" s="22">
-        <v>0.45</v>
+        <v>450000e-6</v>
       </c>
       <c r="AE7" s="23">
         <v>18</v>
@@ -3038,7 +2604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
@@ -3067,7 +2633,7 @@
         <v>37</v>
       </c>
       <c r="J8" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>59</v>
@@ -3122,19 +2688,19 @@
         <v>1</v>
       </c>
       <c r="AC8" s="11">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AD8" s="11">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AE8" s="12">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AF8" s="12">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>57</v>
       </c>
@@ -3163,7 +2729,7 @@
         <v>37</v>
       </c>
       <c r="J9" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>59</v>
@@ -3230,7 +2796,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
@@ -3259,7 +2825,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>59</v>
@@ -3326,7 +2892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -3355,7 +2921,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>59</v>
@@ -3410,19 +2976,19 @@
         <v>1</v>
       </c>
       <c r="AC11" s="22">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AD11" s="22">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AE11" s="23">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AF11" s="23">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
@@ -3451,7 +3017,7 @@
         <v>37</v>
       </c>
       <c r="J12" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>59</v>
@@ -3518,7 +3084,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>57</v>
       </c>
@@ -3547,7 +3113,7 @@
         <v>37</v>
       </c>
       <c r="J13" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>59</v>
@@ -3602,10 +3168,10 @@
         <v>50</v>
       </c>
       <c r="AC13" s="22">
-        <v>0.18</v>
+        <v>180000e-6</v>
       </c>
       <c r="AD13" s="22">
-        <v>0.18</v>
+        <v>180000e-6</v>
       </c>
       <c r="AE13" s="23">
         <v>9</v>
@@ -3614,7 +3180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
@@ -3643,7 +3209,7 @@
         <v>37</v>
       </c>
       <c r="J14" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>59</v>
@@ -3710,7 +3276,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>57</v>
       </c>
@@ -3739,7 +3305,7 @@
         <v>37</v>
       </c>
       <c r="J15" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>59</v>
@@ -3806,7 +3372,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
@@ -3835,7 +3401,7 @@
         <v>37</v>
       </c>
       <c r="J16" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>59</v>
@@ -3902,7 +3468,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>57</v>
       </c>
@@ -3931,7 +3497,7 @@
         <v>37</v>
       </c>
       <c r="J17" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>59</v>
@@ -3998,7 +3564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
@@ -4027,7 +3593,7 @@
         <v>37</v>
       </c>
       <c r="J18" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>59</v>
@@ -4082,10 +3648,10 @@
         <v>3</v>
       </c>
       <c r="AC18" s="11">
-        <v>0.8</v>
+        <v>800000e-6</v>
       </c>
       <c r="AD18" s="11">
-        <v>0.8</v>
+        <v>800000e-6</v>
       </c>
       <c r="AE18" s="12">
         <v>2.4</v>
@@ -4094,7 +3660,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="19" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>57</v>
       </c>
@@ -4123,7 +3689,7 @@
         <v>37</v>
       </c>
       <c r="J19" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>59</v>
@@ -4190,7 +3756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -4219,7 +3785,7 @@
         <v>37</v>
       </c>
       <c r="J20" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>59</v>
@@ -4274,10 +3840,10 @@
         <v>30</v>
       </c>
       <c r="AC20" s="11">
-        <v>0.88</v>
+        <v>880000e-6</v>
       </c>
       <c r="AD20" s="11">
-        <v>0.88</v>
+        <v>880000e-6</v>
       </c>
       <c r="AE20" s="12">
         <v>26.4</v>
@@ -4286,7 +3852,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>57</v>
       </c>
@@ -4315,7 +3881,7 @@
         <v>37</v>
       </c>
       <c r="J21" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>59</v>
@@ -4382,7 +3948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -4411,7 +3977,7 @@
         <v>37</v>
       </c>
       <c r="J22" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>59</v>
@@ -4466,10 +4032,10 @@
         <v>30</v>
       </c>
       <c r="AC22" s="11">
-        <v>0.99</v>
+        <v>990000e-6</v>
       </c>
       <c r="AD22" s="11">
-        <v>0.99</v>
+        <v>990000e-6</v>
       </c>
       <c r="AE22" s="12">
         <v>29.7</v>
@@ -4478,7 +4044,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="23" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>57</v>
       </c>
@@ -4507,7 +4073,7 @@
         <v>37</v>
       </c>
       <c r="J23" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>59</v>
@@ -4574,7 +4140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
@@ -4603,7 +4169,7 @@
         <v>37</v>
       </c>
       <c r="J24" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>59</v>
@@ -4670,7 +4236,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A25" s="13" t="s">
         <v>57</v>
       </c>
@@ -4699,7 +4265,7 @@
         <v>37</v>
       </c>
       <c r="J25" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>59</v>
@@ -4766,7 +4332,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -4795,7 +4361,7 @@
         <v>37</v>
       </c>
       <c r="J26" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>59</v>
@@ -4862,7 +4428,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="27" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>57</v>
       </c>
@@ -4891,7 +4457,7 @@
         <v>37</v>
       </c>
       <c r="J27" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>59</v>
@@ -4925,7 +4491,7 @@
         <v>33</v>
       </c>
       <c r="V27" s="17">
-        <v>1035142</v>
+        <v>1.035142e6</v>
       </c>
       <c r="W27" s="15" t="s">
         <v>86</v>
@@ -4958,7 +4524,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -4987,7 +4553,7 @@
         <v>37</v>
       </c>
       <c r="J28" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>59</v>
@@ -5021,7 +4587,7 @@
         <v>33</v>
       </c>
       <c r="V28" s="7">
-        <v>1046390</v>
+        <v>1.04639e6</v>
       </c>
       <c r="W28" s="5" t="s">
         <v>87</v>
@@ -5054,7 +4620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A29" s="13" t="s">
         <v>57</v>
       </c>
@@ -5083,7 +4649,7 @@
         <v>37</v>
       </c>
       <c r="J29" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>59</v>
@@ -5117,7 +4683,7 @@
         <v>33</v>
       </c>
       <c r="V29" s="17">
-        <v>1151371</v>
+        <v>1.151371e6</v>
       </c>
       <c r="W29" s="15" t="s">
         <v>88</v>
@@ -5144,13 +4710,13 @@
         <v>1.89</v>
       </c>
       <c r="AE29" s="23">
-        <v>75.600000000000009</v>
+        <v>75.6</v>
       </c>
       <c r="AF29" s="23">
-        <v>75.600000000000009</v>
+        <v>75.6</v>
       </c>
     </row>
-    <row r="30" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
@@ -5179,7 +4745,7 @@
         <v>37</v>
       </c>
       <c r="J30" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>59</v>
@@ -5213,7 +4779,7 @@
         <v>33</v>
       </c>
       <c r="V30" s="7">
-        <v>1252305</v>
+        <v>1.252305e6</v>
       </c>
       <c r="W30" s="5" t="s">
         <v>89</v>
@@ -5234,10 +4800,10 @@
         <v>40</v>
       </c>
       <c r="AC30" s="11">
-        <v>0.57999999999999996</v>
+        <v>580000e-6</v>
       </c>
       <c r="AD30" s="11">
-        <v>0.57999999999999996</v>
+        <v>580000e-6</v>
       </c>
       <c r="AE30" s="12">
         <v>23.2</v>
@@ -5246,7 +4812,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="31" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A31" s="13" t="s">
         <v>57</v>
       </c>
@@ -5275,7 +4841,7 @@
         <v>37</v>
       </c>
       <c r="J31" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>59</v>
@@ -5309,7 +4875,7 @@
         <v>33</v>
       </c>
       <c r="V31" s="17">
-        <v>1275860</v>
+        <v>1.27586e6</v>
       </c>
       <c r="W31" s="15" t="s">
         <v>90</v>
@@ -5342,7 +4908,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
@@ -5371,7 +4937,7 @@
         <v>37</v>
       </c>
       <c r="J32" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>59</v>
@@ -5405,7 +4971,7 @@
         <v>33</v>
       </c>
       <c r="V32" s="7">
-        <v>1396595</v>
+        <v>1.396595e6</v>
       </c>
       <c r="W32" s="5" t="s">
         <v>91</v>
@@ -5426,10 +4992,10 @@
         <v>30</v>
       </c>
       <c r="AC32" s="11">
-        <v>0.33</v>
+        <v>330000e-6</v>
       </c>
       <c r="AD32" s="11">
-        <v>0.33</v>
+        <v>330000e-6</v>
       </c>
       <c r="AE32" s="12">
         <v>9.9</v>
@@ -5438,7 +5004,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A33" s="13" t="s">
         <v>57</v>
       </c>
@@ -5467,7 +5033,7 @@
         <v>37</v>
       </c>
       <c r="J33" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>59</v>
@@ -5501,7 +5067,7 @@
         <v>33</v>
       </c>
       <c r="V33" s="17">
-        <v>1532073</v>
+        <v>1.532073e6</v>
       </c>
       <c r="W33" s="15" t="s">
         <v>92</v>
@@ -5522,10 +5088,10 @@
         <v>30</v>
       </c>
       <c r="AC33" s="22">
-        <v>0.36</v>
+        <v>360000e-6</v>
       </c>
       <c r="AD33" s="22">
-        <v>0.36</v>
+        <v>360000e-6</v>
       </c>
       <c r="AE33" s="23">
         <v>10.8</v>
@@ -5534,7 +5100,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="34" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>57</v>
       </c>
@@ -5563,7 +5129,7 @@
         <v>37</v>
       </c>
       <c r="J34" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>59</v>
@@ -5597,7 +5163,7 @@
         <v>33</v>
       </c>
       <c r="V34" s="7">
-        <v>1555782</v>
+        <v>1.555782e6</v>
       </c>
       <c r="W34" s="5" t="s">
         <v>93</v>
@@ -5630,7 +5196,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="35" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>57</v>
       </c>
@@ -5659,7 +5225,7 @@
         <v>37</v>
       </c>
       <c r="J35" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>59</v>
@@ -5693,7 +5259,7 @@
         <v>33</v>
       </c>
       <c r="V35" s="17">
-        <v>1593250</v>
+        <v>1.59325e6</v>
       </c>
       <c r="W35" s="15" t="s">
         <v>94</v>
@@ -5726,7 +5292,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
@@ -5755,7 +5321,7 @@
         <v>37</v>
       </c>
       <c r="J36" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>59</v>
@@ -5789,7 +5355,7 @@
         <v>33</v>
       </c>
       <c r="V36" s="7">
-        <v>1603329</v>
+        <v>1.603329e6</v>
       </c>
       <c r="W36" s="5" t="s">
         <v>95</v>
@@ -5810,19 +5376,19 @@
         <v>1</v>
       </c>
       <c r="AC36" s="11">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AD36" s="11">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AE36" s="12">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AF36" s="12">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A37" s="13" t="s">
         <v>57</v>
       </c>
@@ -5851,7 +5417,7 @@
         <v>37</v>
       </c>
       <c r="J37" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>59</v>
@@ -5885,7 +5451,7 @@
         <v>33</v>
       </c>
       <c r="V37" s="17">
-        <v>1689274</v>
+        <v>1.689274e6</v>
       </c>
       <c r="W37" s="20" t="s">
         <v>97</v>
@@ -5918,7 +5484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -5947,7 +5513,7 @@
         <v>37</v>
       </c>
       <c r="J38" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>59</v>
@@ -5981,7 +5547,7 @@
         <v>33</v>
       </c>
       <c r="V38" s="7">
-        <v>1734989</v>
+        <v>1.734989e6</v>
       </c>
       <c r="W38" s="5" t="s">
         <v>99</v>
@@ -6014,7 +5580,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="39" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>57</v>
       </c>
@@ -6043,7 +5609,7 @@
         <v>37</v>
       </c>
       <c r="J39" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>59</v>
@@ -6077,7 +5643,7 @@
         <v>33</v>
       </c>
       <c r="V39" s="17">
-        <v>1754416</v>
+        <v>1.754416e6</v>
       </c>
       <c r="W39" s="15" t="s">
         <v>100</v>
@@ -6110,7 +5676,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="40" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
@@ -6139,7 +5705,7 @@
         <v>37</v>
       </c>
       <c r="J40" s="7">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>59</v>
@@ -6173,7 +5739,7 @@
         <v>33</v>
       </c>
       <c r="V40" s="7">
-        <v>1754831</v>
+        <v>1.754831e6</v>
       </c>
       <c r="W40" s="5" t="s">
         <v>101</v>
@@ -6194,19 +5760,19 @@
         <v>1</v>
       </c>
       <c r="AC40" s="11">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="AD40" s="11">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="AE40" s="12">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="AF40" s="12">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
     </row>
-    <row r="41" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A41" s="13" t="s">
         <v>57</v>
       </c>
@@ -6235,7 +5801,7 @@
         <v>37</v>
       </c>
       <c r="J41" s="17">
-        <v>9246002</v>
+        <v>9.246002e6</v>
       </c>
       <c r="K41" s="15" t="s">
         <v>59</v>
@@ -6269,7 +5835,7 @@
         <v>33</v>
       </c>
       <c r="V41" s="17">
-        <v>1754840</v>
+        <v>1.75484e6</v>
       </c>
       <c r="W41" s="15" t="s">
         <v>102</v>
@@ -6302,7 +5868,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="42" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>103</v>
       </c>
@@ -6386,7 +5952,7 @@
         <v>155057.31</v>
       </c>
     </row>
-    <row r="43" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A43" s="13" t="s">
         <v>109</v>
       </c>
@@ -6415,7 +5981,7 @@
         <v>37</v>
       </c>
       <c r="J43" s="17">
-        <v>9247068</v>
+        <v>9.247068e6</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>111</v>
@@ -6472,10 +6038,10 @@
         <v>264850</v>
       </c>
       <c r="AC43" s="22">
-        <v>0.57000000000000006</v>
+        <v>570000e-6</v>
       </c>
       <c r="AD43" s="22">
-        <v>0.38</v>
+        <v>380000e-6</v>
       </c>
       <c r="AE43" s="23">
         <v>150964.5</v>
@@ -6484,7 +6050,7 @@
         <v>100643</v>
       </c>
     </row>
-    <row r="44" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>116</v>
       </c>
@@ -6535,7 +6101,7 @@
         <v>33</v>
       </c>
       <c r="V44" s="7">
-        <v>1746723</v>
+        <v>1.746723e6</v>
       </c>
       <c r="W44" s="5" t="s">
         <v>121</v>
@@ -6568,7 +6134,7 @@
         <v>55120</v>
       </c>
     </row>
-    <row r="45" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A45" s="13" t="s">
         <v>124</v>
       </c>
@@ -6619,7 +6185,7 @@
         <v>33</v>
       </c>
       <c r="V45" s="17">
-        <v>1487353</v>
+        <v>1.487353e6</v>
       </c>
       <c r="W45" s="15" t="s">
         <v>128</v>
@@ -6652,7 +6218,7 @@
         <v>264000</v>
       </c>
     </row>
-    <row r="46" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>130</v>
       </c>
@@ -6703,7 +6269,7 @@
         <v>33</v>
       </c>
       <c r="V46" s="7">
-        <v>1686372</v>
+        <v>1.686372e6</v>
       </c>
       <c r="W46" s="5" t="s">
         <v>134</v>
@@ -6736,7 +6302,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A47" s="13" t="s">
         <v>136</v>
       </c>
@@ -6787,7 +6353,7 @@
         <v>33</v>
       </c>
       <c r="V47" s="17">
-        <v>1758136</v>
+        <v>1.758136e6</v>
       </c>
       <c r="W47" s="15" t="s">
         <v>141</v>
@@ -6808,7 +6374,7 @@
         <v>6</v>
       </c>
       <c r="AC47" s="22">
-        <v>259.41500000000002</v>
+        <v>259.415</v>
       </c>
       <c r="AD47" s="22">
         <v>200</v>
@@ -6820,7 +6386,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="48" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>142</v>
       </c>
@@ -6871,7 +6437,7 @@
         <v>33</v>
       </c>
       <c r="V48" s="7">
-        <v>1759833</v>
+        <v>1.759833e6</v>
       </c>
       <c r="W48" s="5" t="s">
         <v>146</v>
@@ -6904,7 +6470,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="49" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A49" s="13" t="s">
         <v>142</v>
       </c>
@@ -6955,7 +6521,7 @@
         <v>33</v>
       </c>
       <c r="V49" s="17">
-        <v>1759841</v>
+        <v>1.759841e6</v>
       </c>
       <c r="W49" s="15" t="s">
         <v>147</v>
@@ -6988,7 +6554,7 @@
         <v>839.7</v>
       </c>
     </row>
-    <row r="50" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>148</v>
       </c>
@@ -7072,7 +6638,7 @@
         <v>13110</v>
       </c>
     </row>
-    <row r="51" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A51" s="13" t="s">
         <v>148</v>
       </c>
@@ -7144,19 +6710,19 @@
         <v>1</v>
       </c>
       <c r="AC51" s="22">
-        <v>8929.8000000000011</v>
+        <v>8929.8</v>
       </c>
       <c r="AD51" s="22">
-        <v>8929.8000000000011</v>
+        <v>8929.8</v>
       </c>
       <c r="AE51" s="23">
-        <v>8929.8000000000011</v>
+        <v>8929.8</v>
       </c>
       <c r="AF51" s="23">
-        <v>8929.8000000000011</v>
+        <v>8929.8</v>
       </c>
     </row>
-    <row r="52" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>148</v>
       </c>
@@ -7240,7 +6806,7 @@
         <v>15006</v>
       </c>
     </row>
-    <row r="53" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A53" s="13" t="s">
         <v>148</v>
       </c>
@@ -7291,7 +6857,7 @@
         <v>33</v>
       </c>
       <c r="V53" s="17">
-        <v>1139886</v>
+        <v>1.139886e6</v>
       </c>
       <c r="W53" s="15" t="s">
         <v>156</v>
@@ -7318,13 +6884,13 @@
         <v>1631.8</v>
       </c>
       <c r="AE53" s="23">
-        <v>4895.4000000000005</v>
+        <v>4895.4</v>
       </c>
       <c r="AF53" s="23">
-        <v>4895.4000000000005</v>
+        <v>4895.4</v>
       </c>
     </row>
-    <row r="54" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>148</v>
       </c>
@@ -7375,7 +6941,7 @@
         <v>33</v>
       </c>
       <c r="V54" s="7">
-        <v>1145800</v>
+        <v>1.1458e6</v>
       </c>
       <c r="W54" s="5" t="s">
         <v>157</v>
@@ -7396,19 +6962,19 @@
         <v>4</v>
       </c>
       <c r="AC54" s="11">
-        <v>4198.3999999999996</v>
+        <v>4198.4</v>
       </c>
       <c r="AD54" s="11">
-        <v>4198.3999999999996</v>
+        <v>4198.4</v>
       </c>
       <c r="AE54" s="12">
-        <v>16793.599999999999</v>
+        <v>16793.6</v>
       </c>
       <c r="AF54" s="12">
-        <v>16793.599999999999</v>
+        <v>16793.6</v>
       </c>
     </row>
-    <row r="55" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A55" s="13" t="s">
         <v>148</v>
       </c>
@@ -7459,7 +7025,7 @@
         <v>33</v>
       </c>
       <c r="V55" s="17">
-        <v>1145860</v>
+        <v>1.14586e6</v>
       </c>
       <c r="W55" s="15" t="s">
         <v>158</v>
@@ -7492,7 +7058,7 @@
         <v>12570.6</v>
       </c>
     </row>
-    <row r="56" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>148</v>
       </c>
@@ -7543,7 +7109,7 @@
         <v>33</v>
       </c>
       <c r="V56" s="7">
-        <v>1145908</v>
+        <v>1.145908e6</v>
       </c>
       <c r="W56" s="5" t="s">
         <v>159</v>
@@ -7576,7 +7142,7 @@
         <v>2517.4</v>
       </c>
     </row>
-    <row r="57" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A57" s="13" t="s">
         <v>148</v>
       </c>
@@ -7627,7 +7193,7 @@
         <v>33</v>
       </c>
       <c r="V57" s="17">
-        <v>1176641</v>
+        <v>1.176641e6</v>
       </c>
       <c r="W57" s="15" t="s">
         <v>160</v>
@@ -7660,7 +7226,7 @@
         <v>31955.4</v>
       </c>
     </row>
-    <row r="58" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>148</v>
       </c>
@@ -7711,7 +7277,7 @@
         <v>33</v>
       </c>
       <c r="V58" s="7">
-        <v>1207334</v>
+        <v>1.207334e6</v>
       </c>
       <c r="W58" s="5" t="s">
         <v>161</v>
@@ -7744,7 +7310,7 @@
         <v>762.6</v>
       </c>
     </row>
-    <row r="59" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A59" s="13" t="s">
         <v>148</v>
       </c>
@@ -7795,7 +7361,7 @@
         <v>33</v>
       </c>
       <c r="V59" s="17">
-        <v>1266446</v>
+        <v>1.266446e6</v>
       </c>
       <c r="W59" s="15" t="s">
         <v>162</v>
@@ -7828,7 +7394,7 @@
         <v>639.6</v>
       </c>
     </row>
-    <row r="60" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>148</v>
       </c>
@@ -7879,7 +7445,7 @@
         <v>33</v>
       </c>
       <c r="V60" s="7">
-        <v>1337009</v>
+        <v>1.337009e6</v>
       </c>
       <c r="W60" s="5" t="s">
         <v>163</v>
@@ -7912,7 +7478,7 @@
         <v>3230.8</v>
       </c>
     </row>
-    <row r="61" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A61" s="13" t="s">
         <v>148</v>
       </c>
@@ -7963,7 +7529,7 @@
         <v>33</v>
       </c>
       <c r="V61" s="17">
-        <v>1344072</v>
+        <v>1.344072e6</v>
       </c>
       <c r="W61" s="15" t="s">
         <v>164</v>
@@ -7984,19 +7550,19 @@
         <v>1</v>
       </c>
       <c r="AC61" s="22">
-        <v>4370.6000000000004</v>
+        <v>4370.6</v>
       </c>
       <c r="AD61" s="22">
-        <v>4370.6000000000004</v>
+        <v>4370.6</v>
       </c>
       <c r="AE61" s="23">
-        <v>4370.6000000000004</v>
+        <v>4370.6</v>
       </c>
       <c r="AF61" s="23">
-        <v>4370.6000000000004</v>
+        <v>4370.6</v>
       </c>
     </row>
-    <row r="62" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>148</v>
       </c>
@@ -8047,7 +7613,7 @@
         <v>33</v>
       </c>
       <c r="V62" s="7">
-        <v>1559222</v>
+        <v>1.559222e6</v>
       </c>
       <c r="W62" s="5" t="s">
         <v>165</v>
@@ -8080,7 +7646,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="63" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A63" s="13" t="s">
         <v>166</v>
       </c>
@@ -8131,7 +7697,7 @@
         <v>33</v>
       </c>
       <c r="V63" s="17">
-        <v>1456741</v>
+        <v>1.456741e6</v>
       </c>
       <c r="W63" s="15" t="s">
         <v>170</v>
@@ -8164,7 +7730,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="64" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>166</v>
       </c>
@@ -8215,7 +7781,7 @@
         <v>33</v>
       </c>
       <c r="V64" s="7">
-        <v>1456750</v>
+        <v>1.45675e6</v>
       </c>
       <c r="W64" s="24" t="s">
         <v>171</v>
@@ -8248,7 +7814,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="65" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A65" s="13" t="s">
         <v>166</v>
       </c>
@@ -8330,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>175</v>
       </c>
@@ -8402,7 +7968,7 @@
         <v>5</v>
       </c>
       <c r="AC66" s="11">
-        <v>38.800000000000004</v>
+        <v>38.8</v>
       </c>
       <c r="AD66" s="11">
         <v>37.6</v>
@@ -8414,7 +7980,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A67" s="13" t="s">
         <v>182</v>
       </c>
@@ -8443,7 +8009,7 @@
         <v>37</v>
       </c>
       <c r="J67" s="17">
-        <v>9245786</v>
+        <v>9.245786e6</v>
       </c>
       <c r="K67" s="15" t="s">
         <v>184</v>
@@ -8479,7 +8045,7 @@
         <v>33</v>
       </c>
       <c r="V67" s="17">
-        <v>1754467</v>
+        <v>1.754467e6</v>
       </c>
       <c r="W67" s="15" t="s">
         <v>187</v>
@@ -8512,7 +8078,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="68" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>189</v>
       </c>
@@ -8563,7 +8129,7 @@
         <v>33</v>
       </c>
       <c r="V68" s="7">
-        <v>1669370</v>
+        <v>1.66937e6</v>
       </c>
       <c r="W68" s="5" t="s">
         <v>193</v>
@@ -8596,7 +8162,7 @@
         <v>421545.6</v>
       </c>
     </row>
-    <row r="69" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A69" s="13" t="s">
         <v>194</v>
       </c>
@@ -8647,7 +8213,7 @@
         <v>33</v>
       </c>
       <c r="V69" s="17">
-        <v>1114174</v>
+        <v>1.114174e6</v>
       </c>
       <c r="W69" s="15" t="s">
         <v>198</v>
@@ -8680,7 +8246,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="70" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>200</v>
       </c>
@@ -8731,7 +8297,7 @@
         <v>33</v>
       </c>
       <c r="V70" s="7">
-        <v>1669370</v>
+        <v>1.66937e6</v>
       </c>
       <c r="W70" s="5" t="s">
         <v>193</v>
@@ -8764,7 +8330,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="71" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A71" s="13" t="s">
         <v>207</v>
       </c>
@@ -8848,7 +8414,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="72" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>207</v>
       </c>
@@ -8899,7 +8465,7 @@
         <v>33</v>
       </c>
       <c r="V72" s="7">
-        <v>1647385</v>
+        <v>1.647385e6</v>
       </c>
       <c r="W72" s="5" t="s">
         <v>214</v>
@@ -8920,10 +8486,10 @@
         <v>1000</v>
       </c>
       <c r="AC72" s="11">
-        <v>19.900000000000002</v>
+        <v>19.9</v>
       </c>
       <c r="AD72" s="11">
-        <v>19.900000000000002</v>
+        <v>19.9</v>
       </c>
       <c r="AE72" s="12">
         <v>19900</v>
@@ -8932,7 +8498,7 @@
         <v>19900</v>
       </c>
     </row>
-    <row r="73" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A73" s="13" t="s">
         <v>207</v>
       </c>
@@ -9016,7 +8582,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="74" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>207</v>
       </c>
@@ -9067,7 +8633,7 @@
         <v>33</v>
       </c>
       <c r="V74" s="7">
-        <v>1576690</v>
+        <v>1.57669e6</v>
       </c>
       <c r="W74" s="24" t="s">
         <v>218</v>
@@ -9100,7 +8666,7 @@
         <v>117600</v>
       </c>
     </row>
-    <row r="75" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A75" s="13" t="s">
         <v>207</v>
       </c>
@@ -9151,7 +8717,7 @@
         <v>33</v>
       </c>
       <c r="V75" s="17">
-        <v>1647385</v>
+        <v>1.647385e6</v>
       </c>
       <c r="W75" s="15" t="s">
         <v>214</v>
@@ -9184,7 +8750,7 @@
         <v>217500</v>
       </c>
     </row>
-    <row r="76" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>207</v>
       </c>
@@ -9268,7 +8834,7 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="77" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A77" s="13" t="s">
         <v>207</v>
       </c>
@@ -9319,7 +8885,7 @@
         <v>33</v>
       </c>
       <c r="V77" s="17">
-        <v>1672711</v>
+        <v>1.672711e6</v>
       </c>
       <c r="W77" s="15" t="s">
         <v>223</v>
@@ -9340,19 +8906,19 @@
         <v>70</v>
       </c>
       <c r="AC77" s="22">
-        <v>37.410000000000004</v>
+        <v>37.41</v>
       </c>
       <c r="AD77" s="22">
         <v>37.14</v>
       </c>
       <c r="AE77" s="23">
-        <v>2618.7000000000003</v>
+        <v>2618.7</v>
       </c>
       <c r="AF77" s="23">
-        <v>2599.8000000000002</v>
+        <v>2599.8</v>
       </c>
     </row>
-    <row r="78" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>207</v>
       </c>
@@ -9403,7 +8969,7 @@
         <v>33</v>
       </c>
       <c r="V78" s="7">
-        <v>1672720</v>
+        <v>1.67272e6</v>
       </c>
       <c r="W78" s="5" t="s">
         <v>224</v>
@@ -9424,7 +8990,7 @@
         <v>360</v>
       </c>
       <c r="AC78" s="11">
-        <v>37.410000000000004</v>
+        <v>37.41</v>
       </c>
       <c r="AD78" s="11">
         <v>37.14</v>
@@ -9436,7 +9002,7 @@
         <v>13370.4</v>
       </c>
     </row>
-    <row r="79" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A79" s="13" t="s">
         <v>207</v>
       </c>
@@ -9487,7 +9053,7 @@
         <v>33</v>
       </c>
       <c r="V79" s="17">
-        <v>1672738</v>
+        <v>1.672738e6</v>
       </c>
       <c r="W79" s="15" t="s">
         <v>225</v>
@@ -9508,7 +9074,7 @@
         <v>570</v>
       </c>
       <c r="AC79" s="22">
-        <v>37.410000000000004</v>
+        <v>37.41</v>
       </c>
       <c r="AD79" s="22">
         <v>37.14</v>
@@ -9520,7 +9086,7 @@
         <v>21169.8</v>
       </c>
     </row>
-    <row r="80" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>207</v>
       </c>
@@ -9571,7 +9137,7 @@
         <v>33</v>
       </c>
       <c r="V80" s="7">
-        <v>1470957</v>
+        <v>1.470957e6</v>
       </c>
       <c r="W80" s="5" t="s">
         <v>228</v>
@@ -9604,7 +9170,7 @@
         <v>10890</v>
       </c>
     </row>
-    <row r="81" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A81" s="13" t="s">
         <v>207</v>
       </c>
@@ -9688,7 +9254,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="82" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>232</v>
       </c>
@@ -9739,7 +9305,7 @@
         <v>33</v>
       </c>
       <c r="V82" s="7">
-        <v>1149741</v>
+        <v>1.149741e6</v>
       </c>
       <c r="W82" s="5" t="s">
         <v>236</v>
@@ -9772,7 +9338,7 @@
         <v>8670</v>
       </c>
     </row>
-    <row r="83" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A83" s="13" t="s">
         <v>232</v>
       </c>
@@ -9823,7 +9389,7 @@
         <v>33</v>
       </c>
       <c r="V83" s="17">
-        <v>1576690</v>
+        <v>1.57669e6</v>
       </c>
       <c r="W83" s="20" t="s">
         <v>218</v>
@@ -9856,7 +9422,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="84" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>232</v>
       </c>
@@ -9907,7 +9473,7 @@
         <v>33</v>
       </c>
       <c r="V84" s="7">
-        <v>1698745</v>
+        <v>1.698745e6</v>
       </c>
       <c r="W84" s="24" t="s">
         <v>237</v>
@@ -9928,19 +9494,19 @@
         <v>60</v>
       </c>
       <c r="AC84" s="11">
-        <v>20.440000000000001</v>
+        <v>20.44</v>
       </c>
       <c r="AD84" s="11">
-        <v>20.440000000000001</v>
+        <v>20.44</v>
       </c>
       <c r="AE84" s="12">
-        <v>1226.4000000000001</v>
+        <v>1226.4</v>
       </c>
       <c r="AF84" s="12">
-        <v>1226.4000000000001</v>
+        <v>1226.4</v>
       </c>
     </row>
-    <row r="85" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A85" s="13" t="s">
         <v>232</v>
       </c>
@@ -10024,7 +9590,7 @@
         <v>502500</v>
       </c>
     </row>
-    <row r="86" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>232</v>
       </c>
@@ -10096,10 +9662,10 @@
         <v>1000</v>
       </c>
       <c r="AC86" s="11">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="AD86" s="11">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="AE86" s="12">
         <v>19600</v>
@@ -10108,7 +9674,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="87" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A87" s="13" t="s">
         <v>232</v>
       </c>
@@ -10180,10 +9746,10 @@
         <v>1000</v>
       </c>
       <c r="AC87" s="22">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="AD87" s="22">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="AE87" s="23">
         <v>19600</v>
@@ -10192,7 +9758,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="88" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>232</v>
       </c>
@@ -10276,7 +9842,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="89" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A89" s="13" t="s">
         <v>232</v>
       </c>
@@ -10327,7 +9893,7 @@
         <v>33</v>
       </c>
       <c r="V89" s="17">
-        <v>1042750</v>
+        <v>1.04275e6</v>
       </c>
       <c r="W89" s="15" t="s">
         <v>241</v>
@@ -10360,7 +9926,7 @@
         <v>870000</v>
       </c>
     </row>
-    <row r="90" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>232</v>
       </c>
@@ -10411,7 +9977,7 @@
         <v>33</v>
       </c>
       <c r="V90" s="7">
-        <v>1213598</v>
+        <v>1.213598e6</v>
       </c>
       <c r="W90" s="5" t="s">
         <v>242</v>
@@ -10438,13 +10004,13 @@
         <v>3550</v>
       </c>
       <c r="AE90" s="12">
-        <v>2059000</v>
+        <v>2.059e6</v>
       </c>
       <c r="AF90" s="12">
-        <v>2059000</v>
+        <v>2.059e6</v>
       </c>
     </row>
-    <row r="91" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A91" s="13" t="s">
         <v>232</v>
       </c>
@@ -10495,7 +10061,7 @@
         <v>33</v>
       </c>
       <c r="V91" s="17">
-        <v>1313533</v>
+        <v>1.313533e6</v>
       </c>
       <c r="W91" s="15" t="s">
         <v>243</v>
@@ -10528,7 +10094,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="92" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>232</v>
       </c>
@@ -10612,7 +10178,7 @@
         <v>50600</v>
       </c>
     </row>
-    <row r="93" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A93" s="13" t="s">
         <v>232</v>
       </c>
@@ -10696,7 +10262,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="94" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>232</v>
       </c>
@@ -10780,7 +10346,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="95" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A95" s="13" t="s">
         <v>232</v>
       </c>
@@ -10864,7 +10430,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="96" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>232</v>
       </c>
@@ -10915,7 +10481,7 @@
         <v>33</v>
       </c>
       <c r="V96" s="7">
-        <v>1604821</v>
+        <v>1.604821e6</v>
       </c>
       <c r="W96" s="5" t="s">
         <v>254</v>
@@ -10948,7 +10514,7 @@
         <v>41544</v>
       </c>
     </row>
-    <row r="97" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A97" s="13" t="s">
         <v>256</v>
       </c>
@@ -10977,7 +10543,7 @@
         <v>37</v>
       </c>
       <c r="J97" s="17">
-        <v>9250224</v>
+        <v>9.250224e6</v>
       </c>
       <c r="K97" s="15" t="s">
         <v>258</v>
@@ -11044,7 +10610,7 @@
         <v>6357</v>
       </c>
     </row>
-    <row r="98" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>256</v>
       </c>
@@ -11073,7 +10639,7 @@
         <v>37</v>
       </c>
       <c r="J98" s="7">
-        <v>9250224</v>
+        <v>9.250224e6</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>258</v>
@@ -11107,7 +10673,7 @@
         <v>33</v>
       </c>
       <c r="V98" s="7">
-        <v>1391542</v>
+        <v>1.391542e6</v>
       </c>
       <c r="W98" s="5" t="s">
         <v>263</v>
@@ -11140,7 +10706,7 @@
         <v>386.1</v>
       </c>
     </row>
-    <row r="99" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A99" s="13" t="s">
         <v>256</v>
       </c>
@@ -11169,7 +10735,7 @@
         <v>37</v>
       </c>
       <c r="J99" s="17">
-        <v>9250224</v>
+        <v>9.250224e6</v>
       </c>
       <c r="K99" s="15" t="s">
         <v>258</v>
@@ -11203,7 +10769,7 @@
         <v>33</v>
       </c>
       <c r="V99" s="17">
-        <v>1414160</v>
+        <v>1.41416e6</v>
       </c>
       <c r="W99" s="15" t="s">
         <v>264</v>
@@ -11230,13 +10796,13 @@
         <v>4.95</v>
       </c>
       <c r="AE99" s="23">
-        <v>516.79999999999995</v>
+        <v>516.8</v>
       </c>
       <c r="AF99" s="23">
         <v>376.2</v>
       </c>
     </row>
-    <row r="100" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>256</v>
       </c>
@@ -11265,7 +10831,7 @@
         <v>37</v>
       </c>
       <c r="J100" s="7">
-        <v>9250224</v>
+        <v>9.250224e6</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>258</v>
@@ -11299,7 +10865,7 @@
         <v>33</v>
       </c>
       <c r="V100" s="7">
-        <v>1451006</v>
+        <v>1.451006e6</v>
       </c>
       <c r="W100" s="5" t="s">
         <v>265</v>
@@ -11332,7 +10898,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="101" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A101" s="13" t="s">
         <v>256</v>
       </c>
@@ -11361,7 +10927,7 @@
         <v>37</v>
       </c>
       <c r="J101" s="17">
-        <v>9250224</v>
+        <v>9.250224e6</v>
       </c>
       <c r="K101" s="15" t="s">
         <v>258</v>
@@ -11395,7 +10961,7 @@
         <v>33</v>
       </c>
       <c r="V101" s="17">
-        <v>1600125</v>
+        <v>1.600125e6</v>
       </c>
       <c r="W101" s="15" t="s">
         <v>266</v>
@@ -11428,7 +10994,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="102" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>256</v>
       </c>
@@ -11457,7 +11023,7 @@
         <v>37</v>
       </c>
       <c r="J102" s="7">
-        <v>9250233</v>
+        <v>9.250233e6</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>267</v>
@@ -11524,7 +11090,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="103" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A103" s="13" t="s">
         <v>272</v>
       </c>
@@ -11553,7 +11119,7 @@
         <v>37</v>
       </c>
       <c r="J103" s="17">
-        <v>9251225</v>
+        <v>9.251225e6</v>
       </c>
       <c r="K103" s="15" t="s">
         <v>274</v>
@@ -11622,7 +11188,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="104" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>276</v>
       </c>
@@ -11651,7 +11217,7 @@
         <v>37</v>
       </c>
       <c r="J104" s="7">
-        <v>9245572</v>
+        <v>9.245572e6</v>
       </c>
       <c r="K104" s="5" t="s">
         <v>279</v>
@@ -11718,7 +11284,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="105" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A105" s="13" t="s">
         <v>276</v>
       </c>
@@ -11747,7 +11313,7 @@
         <v>37</v>
       </c>
       <c r="J105" s="17">
-        <v>9245572</v>
+        <v>9.245572e6</v>
       </c>
       <c r="K105" s="15" t="s">
         <v>279</v>
@@ -11799,13 +11365,13 @@
         <v>44</v>
       </c>
       <c r="AB105" s="21">
-        <v>5587405</v>
+        <v>5.587405e6</v>
       </c>
       <c r="AC105" s="22">
-        <v>0.08</v>
+        <v>80000e-6</v>
       </c>
       <c r="AD105" s="22">
-        <v>7.4999999999999997E-2</v>
+        <v>75000e-6</v>
       </c>
       <c r="AE105" s="23">
         <v>446992.4</v>
@@ -11814,7 +11380,7 @@
         <v>419055.37</v>
       </c>
     </row>
-    <row r="106" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>276</v>
       </c>
@@ -11843,7 +11409,7 @@
         <v>37</v>
       </c>
       <c r="J106" s="7">
-        <v>9245572</v>
+        <v>9.245572e6</v>
       </c>
       <c r="K106" s="5" t="s">
         <v>279</v>
@@ -11910,7 +11476,7 @@
         <v>106640</v>
       </c>
     </row>
-    <row r="107" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A107" s="13" t="s">
         <v>276</v>
       </c>
@@ -11939,7 +11505,7 @@
         <v>37</v>
       </c>
       <c r="J107" s="17">
-        <v>9245572</v>
+        <v>9.245572e6</v>
       </c>
       <c r="K107" s="15" t="s">
         <v>279</v>
@@ -11973,7 +11539,7 @@
         <v>33</v>
       </c>
       <c r="V107" s="17">
-        <v>1647385</v>
+        <v>1.647385e6</v>
       </c>
       <c r="W107" s="15" t="s">
         <v>214</v>
@@ -11994,10 +11560,10 @@
         <v>5000</v>
       </c>
       <c r="AC107" s="22">
-        <v>18.170000000000002</v>
+        <v>18.17</v>
       </c>
       <c r="AD107" s="22">
-        <v>18.170000000000002</v>
+        <v>18.17</v>
       </c>
       <c r="AE107" s="23">
         <v>90850</v>
@@ -12006,7 +11572,7 @@
         <v>90850</v>
       </c>
     </row>
-    <row r="108" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>276</v>
       </c>
@@ -12035,7 +11601,7 @@
         <v>37</v>
       </c>
       <c r="J108" s="7">
-        <v>9245572</v>
+        <v>9.245572e6</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>279</v>
@@ -12069,7 +11635,7 @@
         <v>33</v>
       </c>
       <c r="V108" s="7">
-        <v>1672525</v>
+        <v>1.672525e6</v>
       </c>
       <c r="W108" s="5" t="s">
         <v>283</v>
@@ -12102,7 +11668,7 @@
         <v>262080</v>
       </c>
     </row>
-    <row r="109" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A109" s="13" t="s">
         <v>276</v>
       </c>
@@ -12131,7 +11697,7 @@
         <v>37</v>
       </c>
       <c r="J109" s="17">
-        <v>9245572</v>
+        <v>9.245572e6</v>
       </c>
       <c r="K109" s="15" t="s">
         <v>279</v>
@@ -12165,7 +11731,7 @@
         <v>33</v>
       </c>
       <c r="V109" s="17">
-        <v>1672533</v>
+        <v>1.672533e6</v>
       </c>
       <c r="W109" s="15" t="s">
         <v>285</v>
@@ -12198,7 +11764,7 @@
         <v>356460</v>
       </c>
     </row>
-    <row r="110" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>276</v>
       </c>
@@ -12227,7 +11793,7 @@
         <v>37</v>
       </c>
       <c r="J110" s="7">
-        <v>9245572</v>
+        <v>9.245572e6</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>279</v>
@@ -12261,7 +11827,7 @@
         <v>33</v>
       </c>
       <c r="V110" s="7">
-        <v>1672541</v>
+        <v>1.672541e6</v>
       </c>
       <c r="W110" s="5" t="s">
         <v>286</v>
@@ -12294,7 +11860,7 @@
         <v>24710</v>
       </c>
     </row>
-    <row r="111" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A111" s="13" t="s">
         <v>276</v>
       </c>
@@ -12323,7 +11889,7 @@
         <v>37</v>
       </c>
       <c r="J111" s="17">
-        <v>9245572</v>
+        <v>9.245572e6</v>
       </c>
       <c r="K111" s="15" t="s">
         <v>279</v>
@@ -12357,7 +11923,7 @@
         <v>33</v>
       </c>
       <c r="V111" s="17">
-        <v>1672584</v>
+        <v>1.672584e6</v>
       </c>
       <c r="W111" s="15" t="s">
         <v>287</v>
@@ -12384,13 +11950,13 @@
         <v>28.47</v>
       </c>
       <c r="AE111" s="23">
-        <v>1050201.3600000001</v>
+        <v>1.05020136e6</v>
       </c>
       <c r="AF111" s="23">
-        <v>1050201.3600000001</v>
+        <v>1.05020136e6</v>
       </c>
     </row>
-    <row r="112" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>276</v>
       </c>
@@ -12419,7 +11985,7 @@
         <v>37</v>
       </c>
       <c r="J112" s="7">
-        <v>9245572</v>
+        <v>9.245572e6</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>279</v>
@@ -12453,7 +12019,7 @@
         <v>33</v>
       </c>
       <c r="V112" s="7">
-        <v>1672592</v>
+        <v>1.672592e6</v>
       </c>
       <c r="W112" s="5" t="s">
         <v>288</v>
@@ -12480,13 +12046,13 @@
         <v>28.47</v>
       </c>
       <c r="AE112" s="12">
-        <v>1940572.14</v>
+        <v>1.94057214e6</v>
       </c>
       <c r="AF112" s="12">
-        <v>1940572.14</v>
+        <v>1.94057214e6</v>
       </c>
     </row>
-    <row r="113" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A113" s="13" t="s">
         <v>276</v>
       </c>
@@ -12515,7 +12081,7 @@
         <v>37</v>
       </c>
       <c r="J113" s="17">
-        <v>9245572</v>
+        <v>9.245572e6</v>
       </c>
       <c r="K113" s="15" t="s">
         <v>279</v>
@@ -12549,7 +12115,7 @@
         <v>33</v>
       </c>
       <c r="V113" s="17">
-        <v>1672606</v>
+        <v>1.672606e6</v>
       </c>
       <c r="W113" s="15" t="s">
         <v>289</v>
@@ -12582,7 +12148,7 @@
         <v>993261.36</v>
       </c>
     </row>
-    <row r="114" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>276</v>
       </c>
@@ -12611,7 +12177,7 @@
         <v>37</v>
       </c>
       <c r="J114" s="7">
-        <v>9245572</v>
+        <v>9.245572e6</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>279</v>
@@ -12645,7 +12211,7 @@
         <v>33</v>
       </c>
       <c r="V114" s="7">
-        <v>1672738</v>
+        <v>1.672738e6</v>
       </c>
       <c r="W114" s="5" t="s">
         <v>225</v>
@@ -12678,7 +12244,7 @@
         <v>60450</v>
       </c>
     </row>
-    <row r="115" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A115" s="13" t="s">
         <v>276</v>
       </c>
@@ -12707,7 +12273,7 @@
         <v>37</v>
       </c>
       <c r="J115" s="17">
-        <v>9245572</v>
+        <v>9.245572e6</v>
       </c>
       <c r="K115" s="15" t="s">
         <v>279</v>
@@ -12741,7 +12307,7 @@
         <v>33</v>
       </c>
       <c r="V115" s="17">
-        <v>1672762</v>
+        <v>1.672762e6</v>
       </c>
       <c r="W115" s="15" t="s">
         <v>290</v>
@@ -12774,7 +12340,7 @@
         <v>72540</v>
       </c>
     </row>
-    <row r="116" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>276</v>
       </c>
@@ -12803,7 +12369,7 @@
         <v>37</v>
       </c>
       <c r="J116" s="7">
-        <v>9245572</v>
+        <v>9.245572e6</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>279</v>
@@ -12837,7 +12403,7 @@
         <v>33</v>
       </c>
       <c r="V116" s="7">
-        <v>1672770</v>
+        <v>1.67277e6</v>
       </c>
       <c r="W116" s="5" t="s">
         <v>291</v>
@@ -12870,7 +12436,7 @@
         <v>145080</v>
       </c>
     </row>
-    <row r="117" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A117" s="13" t="s">
         <v>276</v>
       </c>
@@ -12899,7 +12465,7 @@
         <v>37</v>
       </c>
       <c r="J117" s="17">
-        <v>9245572</v>
+        <v>9.245572e6</v>
       </c>
       <c r="K117" s="15" t="s">
         <v>279</v>
@@ -12933,7 +12499,7 @@
         <v>33</v>
       </c>
       <c r="V117" s="17">
-        <v>1710273</v>
+        <v>1.710273e6</v>
       </c>
       <c r="W117" s="15" t="s">
         <v>292</v>
@@ -12951,7 +12517,7 @@
         <v>44</v>
       </c>
       <c r="AB117" s="21">
-        <v>5746855</v>
+        <v>5.746855e6</v>
       </c>
       <c r="AC117" s="22">
         <v>3.84</v>
@@ -12960,13 +12526,13 @@
         <v>3.8245</v>
       </c>
       <c r="AE117" s="23">
-        <v>22067923.199999999</v>
+        <v>22.0679232e6</v>
       </c>
       <c r="AF117" s="23">
-        <v>21978846.940000001</v>
+        <v>21.97884694e6</v>
       </c>
     </row>
-    <row r="118" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>293</v>
       </c>
@@ -12995,7 +12561,7 @@
         <v>37</v>
       </c>
       <c r="J118" s="7">
-        <v>9245606</v>
+        <v>9.245606e6</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>295</v>
@@ -13029,7 +12595,7 @@
         <v>33</v>
       </c>
       <c r="V118" s="7">
-        <v>1647385</v>
+        <v>1.647385e6</v>
       </c>
       <c r="W118" s="5" t="s">
         <v>214</v>
@@ -13056,13 +12622,13 @@
         <v>9.98</v>
       </c>
       <c r="AE118" s="12">
-        <v>1497000</v>
+        <v>1.497e6</v>
       </c>
       <c r="AF118" s="12">
-        <v>1497000</v>
+        <v>1.497e6</v>
       </c>
     </row>
-    <row r="119" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A119" s="13" t="s">
         <v>299</v>
       </c>
@@ -13091,7 +12657,7 @@
         <v>37</v>
       </c>
       <c r="J119" s="17">
-        <v>9245644</v>
+        <v>9.245644e6</v>
       </c>
       <c r="K119" s="15" t="s">
         <v>301</v>
@@ -13158,7 +12724,7 @@
         <v>99800</v>
       </c>
     </row>
-    <row r="120" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>303</v>
       </c>
@@ -13187,7 +12753,7 @@
         <v>37</v>
       </c>
       <c r="J120" s="7">
-        <v>9245631</v>
+        <v>9.245631e6</v>
       </c>
       <c r="K120" s="5" t="s">
         <v>306</v>
@@ -13221,7 +12787,7 @@
         <v>33</v>
       </c>
       <c r="V120" s="7">
-        <v>1647385</v>
+        <v>1.647385e6</v>
       </c>
       <c r="W120" s="5" t="s">
         <v>214</v>
@@ -13254,7 +12820,7 @@
         <v>648700</v>
       </c>
     </row>
-    <row r="121" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A121" s="13" t="s">
         <v>308</v>
       </c>
@@ -13305,7 +12871,7 @@
         <v>33</v>
       </c>
       <c r="V121" s="17">
-        <v>1752731</v>
+        <v>1.752731e6</v>
       </c>
       <c r="W121" s="15" t="s">
         <v>312</v>
@@ -13338,7 +12904,7 @@
         <v>252500</v>
       </c>
     </row>
-    <row r="122" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>314</v>
       </c>
@@ -13389,7 +12955,7 @@
         <v>33</v>
       </c>
       <c r="V122" s="7">
-        <v>1752731</v>
+        <v>1.752731e6</v>
       </c>
       <c r="W122" s="5" t="s">
         <v>312</v>
@@ -13422,7 +12988,7 @@
         <v>80800</v>
       </c>
     </row>
-    <row r="123" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A123" s="13" t="s">
         <v>317</v>
       </c>
@@ -13473,7 +13039,7 @@
         <v>33</v>
       </c>
       <c r="V123" s="17">
-        <v>1752731</v>
+        <v>1.752731e6</v>
       </c>
       <c r="W123" s="15" t="s">
         <v>312</v>
@@ -13500,13 +13066,13 @@
         <v>2.02</v>
       </c>
       <c r="AE123" s="23">
-        <v>286167.34000000003</v>
+        <v>286167.34</v>
       </c>
       <c r="AF123" s="23">
-        <v>286167.34000000003</v>
+        <v>286167.34</v>
       </c>
     </row>
-    <row r="124" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>319</v>
       </c>
@@ -13557,7 +13123,7 @@
         <v>33</v>
       </c>
       <c r="V124" s="7">
-        <v>1752731</v>
+        <v>1.752731e6</v>
       </c>
       <c r="W124" s="5" t="s">
         <v>312</v>
@@ -13590,7 +13156,7 @@
         <v>202000</v>
       </c>
     </row>
-    <row r="125" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A125" s="13" t="s">
         <v>319</v>
       </c>
@@ -13641,7 +13207,7 @@
         <v>33</v>
       </c>
       <c r="V125" s="17">
-        <v>1752731</v>
+        <v>1.752731e6</v>
       </c>
       <c r="W125" s="15" t="s">
         <v>312</v>
@@ -13674,7 +13240,7 @@
         <v>50500</v>
       </c>
     </row>
-    <row r="126" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>321</v>
       </c>
@@ -13703,7 +13269,7 @@
         <v>37</v>
       </c>
       <c r="J126" s="7">
-        <v>9245710</v>
+        <v>9.24571e6</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>323</v>
@@ -13737,7 +13303,7 @@
         <v>33</v>
       </c>
       <c r="V126" s="7">
-        <v>1734423</v>
+        <v>1.734423e6</v>
       </c>
       <c r="W126" s="5" t="s">
         <v>326</v>
@@ -13770,7 +13336,7 @@
         <v>175680</v>
       </c>
     </row>
-    <row r="127" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A127" s="13" t="s">
         <v>328</v>
       </c>
@@ -13799,7 +13365,7 @@
         <v>37</v>
       </c>
       <c r="J127" s="17">
-        <v>9245712</v>
+        <v>9.245712e6</v>
       </c>
       <c r="K127" s="15" t="s">
         <v>330</v>
@@ -13860,13 +13426,13 @@
         <v>15.01</v>
       </c>
       <c r="AE127" s="23">
-        <v>11257500</v>
+        <v>11.2575e6</v>
       </c>
       <c r="AF127" s="23">
-        <v>11257500</v>
+        <v>11.2575e6</v>
       </c>
     </row>
-    <row r="128" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>332</v>
       </c>
@@ -13895,7 +13461,7 @@
         <v>37</v>
       </c>
       <c r="J128" s="7">
-        <v>9245714</v>
+        <v>9.245714e6</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>334</v>
@@ -13929,7 +13495,7 @@
         <v>33</v>
       </c>
       <c r="V128" s="7">
-        <v>1734423</v>
+        <v>1.734423e6</v>
       </c>
       <c r="W128" s="5" t="s">
         <v>326</v>
@@ -13962,7 +13528,7 @@
         <v>472395</v>
       </c>
     </row>
-    <row r="129" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A129" s="13" t="s">
         <v>337</v>
       </c>
@@ -14013,7 +13579,7 @@
         <v>33</v>
       </c>
       <c r="V129" s="17">
-        <v>1672584</v>
+        <v>1.672584e6</v>
       </c>
       <c r="W129" s="15" t="s">
         <v>287</v>
@@ -14046,7 +13612,7 @@
         <v>230300</v>
       </c>
     </row>
-    <row r="130" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>337</v>
       </c>
@@ -14097,7 +13663,7 @@
         <v>33</v>
       </c>
       <c r="V130" s="7">
-        <v>1672592</v>
+        <v>1.672592e6</v>
       </c>
       <c r="W130" s="5" t="s">
         <v>288</v>
@@ -14130,7 +13696,7 @@
         <v>822500</v>
       </c>
     </row>
-    <row r="131" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A131" s="13" t="s">
         <v>339</v>
       </c>
@@ -14159,7 +13725,7 @@
         <v>37</v>
       </c>
       <c r="J131" s="17">
-        <v>9245760</v>
+        <v>9.24576e6</v>
       </c>
       <c r="K131" s="15" t="s">
         <v>341</v>
@@ -14193,7 +13759,7 @@
         <v>33</v>
       </c>
       <c r="V131" s="17">
-        <v>1649256</v>
+        <v>1.649256e6</v>
       </c>
       <c r="W131" s="15" t="s">
         <v>344</v>
@@ -14220,13 +13786,13 @@
         <v>23610</v>
       </c>
       <c r="AE131" s="23">
-        <v>1416600</v>
+        <v>1.4166e6</v>
       </c>
       <c r="AF131" s="23">
-        <v>1416600</v>
+        <v>1.4166e6</v>
       </c>
     </row>
-    <row r="132" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>345</v>
       </c>
@@ -14255,7 +13821,7 @@
         <v>37</v>
       </c>
       <c r="J132" s="7">
-        <v>9245764</v>
+        <v>9.245764e6</v>
       </c>
       <c r="K132" s="5" t="s">
         <v>347</v>
@@ -14316,13 +13882,13 @@
         <v>3.8245</v>
       </c>
       <c r="AE132" s="12">
-        <v>2428557.5</v>
+        <v>2.4285575e6</v>
       </c>
       <c r="AF132" s="12">
-        <v>2428557.5</v>
+        <v>2.4285575e6</v>
       </c>
     </row>
-    <row r="133" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A133" s="13" t="s">
         <v>345</v>
       </c>
@@ -14351,7 +13917,7 @@
         <v>37</v>
       </c>
       <c r="J133" s="17">
-        <v>9245764</v>
+        <v>9.245764e6</v>
       </c>
       <c r="K133" s="15" t="s">
         <v>347</v>
@@ -14418,7 +13984,7 @@
         <v>750500</v>
       </c>
     </row>
-    <row r="134" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>345</v>
       </c>
@@ -14447,7 +14013,7 @@
         <v>37</v>
       </c>
       <c r="J134" s="7">
-        <v>9245764</v>
+        <v>9.245764e6</v>
       </c>
       <c r="K134" s="5" t="s">
         <v>347</v>
@@ -14499,13 +14065,13 @@
         <v>44</v>
       </c>
       <c r="AB134" s="10">
-        <v>1000000</v>
+        <v>1e6</v>
       </c>
       <c r="AC134" s="11">
-        <v>0.22450000000000001</v>
+        <v>224500e-6</v>
       </c>
       <c r="AD134" s="11">
-        <v>0.22450000000000001</v>
+        <v>224500e-6</v>
       </c>
       <c r="AE134" s="12">
         <v>224500</v>
@@ -14514,7 +14080,7 @@
         <v>224500</v>
       </c>
     </row>
-    <row r="135" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A135" s="13" t="s">
         <v>345</v>
       </c>
@@ -14543,7 +14109,7 @@
         <v>37</v>
       </c>
       <c r="J135" s="17">
-        <v>9245764</v>
+        <v>9.245764e6</v>
       </c>
       <c r="K135" s="15" t="s">
         <v>347</v>
@@ -14610,7 +14176,7 @@
         <v>793500</v>
       </c>
     </row>
-    <row r="136" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>345</v>
       </c>
@@ -14639,7 +14205,7 @@
         <v>37</v>
       </c>
       <c r="J136" s="7">
-        <v>9245764</v>
+        <v>9.245764e6</v>
       </c>
       <c r="K136" s="5" t="s">
         <v>347</v>
@@ -14673,7 +14239,7 @@
         <v>33</v>
       </c>
       <c r="V136" s="7">
-        <v>1672584</v>
+        <v>1.672584e6</v>
       </c>
       <c r="W136" s="5" t="s">
         <v>287</v>
@@ -14706,7 +14272,7 @@
         <v>317500</v>
       </c>
     </row>
-    <row r="137" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A137" s="13" t="s">
         <v>345</v>
       </c>
@@ -14735,7 +14301,7 @@
         <v>37</v>
       </c>
       <c r="J137" s="17">
-        <v>9245764</v>
+        <v>9.245764e6</v>
       </c>
       <c r="K137" s="15" t="s">
         <v>347</v>
@@ -14769,7 +14335,7 @@
         <v>33</v>
       </c>
       <c r="V137" s="17">
-        <v>1672592</v>
+        <v>1.672592e6</v>
       </c>
       <c r="W137" s="15" t="s">
         <v>288</v>
@@ -14802,7 +14368,7 @@
         <v>317500</v>
       </c>
     </row>
-    <row r="138" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>345</v>
       </c>
@@ -14831,7 +14397,7 @@
         <v>37</v>
       </c>
       <c r="J138" s="7">
-        <v>9245764</v>
+        <v>9.245764e6</v>
       </c>
       <c r="K138" s="5" t="s">
         <v>347</v>
@@ -14865,7 +14431,7 @@
         <v>33</v>
       </c>
       <c r="V138" s="7">
-        <v>1672606</v>
+        <v>1.672606e6</v>
       </c>
       <c r="W138" s="5" t="s">
         <v>289</v>
@@ -14898,7 +14464,7 @@
         <v>317500</v>
       </c>
     </row>
-    <row r="139" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A139" s="13" t="s">
         <v>349</v>
       </c>
@@ -14927,7 +14493,7 @@
         <v>37</v>
       </c>
       <c r="J139" s="17">
-        <v>9245766</v>
+        <v>9.245766e6</v>
       </c>
       <c r="K139" s="15" t="s">
         <v>351</v>
@@ -14961,7 +14527,7 @@
         <v>33</v>
       </c>
       <c r="V139" s="17">
-        <v>1649256</v>
+        <v>1.649256e6</v>
       </c>
       <c r="W139" s="15" t="s">
         <v>344</v>
@@ -14988,13 +14554,13 @@
         <v>21274</v>
       </c>
       <c r="AE139" s="23">
-        <v>2127400</v>
+        <v>2.1274e6</v>
       </c>
       <c r="AF139" s="23">
-        <v>2127400</v>
+        <v>2.1274e6</v>
       </c>
     </row>
-    <row r="140" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>354</v>
       </c>
@@ -15023,7 +14589,7 @@
         <v>37</v>
       </c>
       <c r="J140" s="7">
-        <v>9245781</v>
+        <v>9.245781e6</v>
       </c>
       <c r="K140" s="5" t="s">
         <v>356</v>
@@ -15057,7 +14623,7 @@
         <v>33</v>
       </c>
       <c r="V140" s="7">
-        <v>1734423</v>
+        <v>1.734423e6</v>
       </c>
       <c r="W140" s="5" t="s">
         <v>326</v>
@@ -15084,13 +14650,13 @@
         <v>20406.25</v>
       </c>
       <c r="AE140" s="12">
-        <v>3265000</v>
+        <v>3.265e6</v>
       </c>
       <c r="AF140" s="12">
-        <v>3265000</v>
+        <v>3.265e6</v>
       </c>
     </row>
-    <row r="141" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A141" s="13" t="s">
         <v>359</v>
       </c>
@@ -15168,13 +14734,13 @@
         <v>14.9</v>
       </c>
       <c r="AE141" s="23">
-        <v>6310939.7000000002</v>
+        <v>6.3109397e6</v>
       </c>
       <c r="AF141" s="23">
-        <v>6310939.7000000002</v>
+        <v>6.3109397e6</v>
       </c>
     </row>
-    <row r="142" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>363</v>
       </c>
@@ -15225,7 +14791,7 @@
         <v>33</v>
       </c>
       <c r="V142" s="7">
-        <v>1672584</v>
+        <v>1.672584e6</v>
       </c>
       <c r="W142" s="5" t="s">
         <v>287</v>
@@ -15246,10 +14812,10 @@
         <v>4500</v>
       </c>
       <c r="AC142" s="11">
-        <v>34.700000000000003</v>
+        <v>34.7</v>
       </c>
       <c r="AD142" s="11">
-        <v>34.700000000000003</v>
+        <v>34.7</v>
       </c>
       <c r="AE142" s="12">
         <v>156150</v>
@@ -15258,7 +14824,7 @@
         <v>156150</v>
       </c>
     </row>
-    <row r="143" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A143" s="13" t="s">
         <v>363</v>
       </c>
@@ -15309,7 +14875,7 @@
         <v>33</v>
       </c>
       <c r="V143" s="17">
-        <v>1672592</v>
+        <v>1.672592e6</v>
       </c>
       <c r="W143" s="15" t="s">
         <v>288</v>
@@ -15330,10 +14896,10 @@
         <v>10000</v>
       </c>
       <c r="AC143" s="22">
-        <v>34.700000000000003</v>
+        <v>34.7</v>
       </c>
       <c r="AD143" s="22">
-        <v>34.700000000000003</v>
+        <v>34.7</v>
       </c>
       <c r="AE143" s="23">
         <v>347000</v>
@@ -15342,7 +14908,7 @@
         <v>347000</v>
       </c>
     </row>
-    <row r="144" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>363</v>
       </c>
@@ -15393,7 +14959,7 @@
         <v>33</v>
       </c>
       <c r="V144" s="7">
-        <v>1672606</v>
+        <v>1.672606e6</v>
       </c>
       <c r="W144" s="5" t="s">
         <v>289</v>
@@ -15414,10 +14980,10 @@
         <v>2000</v>
       </c>
       <c r="AC144" s="11">
-        <v>34.700000000000003</v>
+        <v>34.7</v>
       </c>
       <c r="AD144" s="11">
-        <v>34.700000000000003</v>
+        <v>34.7</v>
       </c>
       <c r="AE144" s="12">
         <v>69400</v>
@@ -15426,7 +14992,7 @@
         <v>69400</v>
       </c>
     </row>
-    <row r="145" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A145" s="13" t="s">
         <v>365</v>
       </c>
@@ -15455,7 +15021,7 @@
         <v>37</v>
       </c>
       <c r="J145" s="17">
-        <v>9246004</v>
+        <v>9.246004e6</v>
       </c>
       <c r="K145" s="15" t="s">
         <v>367</v>
@@ -15516,13 +15082,13 @@
         <v>14.7</v>
       </c>
       <c r="AE145" s="23">
-        <v>7350000</v>
+        <v>7.35e6</v>
       </c>
       <c r="AF145" s="23">
-        <v>7350000</v>
+        <v>7.35e6</v>
       </c>
     </row>
-    <row r="146" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>368</v>
       </c>
@@ -15551,7 +15117,7 @@
         <v>37</v>
       </c>
       <c r="J146" s="7">
-        <v>9246005</v>
+        <v>9.246005e6</v>
       </c>
       <c r="K146" s="5" t="s">
         <v>370</v>
@@ -15603,7 +15169,7 @@
         <v>44</v>
       </c>
       <c r="AB146" s="10">
-        <v>3000000</v>
+        <v>3e6</v>
       </c>
       <c r="AC146" s="11">
         <v>2.74</v>
@@ -15612,13 +15178,13 @@
         <v>2.74</v>
       </c>
       <c r="AE146" s="12">
-        <v>8220000</v>
+        <v>8.22e6</v>
       </c>
       <c r="AF146" s="12">
-        <v>8220000</v>
+        <v>8.22e6</v>
       </c>
     </row>
-    <row r="147" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A147" s="13" t="s">
         <v>368</v>
       </c>
@@ -15647,7 +15213,7 @@
         <v>37</v>
       </c>
       <c r="J147" s="17">
-        <v>9246005</v>
+        <v>9.246005e6</v>
       </c>
       <c r="K147" s="15" t="s">
         <v>370</v>
@@ -15714,7 +15280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A148" s="3" t="s">
         <v>372</v>
       </c>
@@ -15792,13 +15358,13 @@
         <v>2.74</v>
       </c>
       <c r="AE148" s="12">
-        <v>2334512.88</v>
+        <v>2.33451288e6</v>
       </c>
       <c r="AF148" s="12">
-        <v>2334512.88</v>
+        <v>2.33451288e6</v>
       </c>
     </row>
-    <row r="149" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A149" s="13" t="s">
         <v>374</v>
       </c>
@@ -15827,7 +15393,7 @@
         <v>37</v>
       </c>
       <c r="J149" s="17">
-        <v>9247074</v>
+        <v>9.247074e6</v>
       </c>
       <c r="K149" s="15" t="s">
         <v>376</v>
@@ -15861,7 +15427,7 @@
         <v>33</v>
       </c>
       <c r="V149" s="17">
-        <v>1753681</v>
+        <v>1.753681e6</v>
       </c>
       <c r="W149" s="15" t="s">
         <v>379</v>
@@ -15888,13 +15454,13 @@
         <v>70000</v>
       </c>
       <c r="AE149" s="23">
-        <v>39340000</v>
+        <v>39.34e6</v>
       </c>
       <c r="AF149" s="23">
-        <v>39340000</v>
+        <v>39.34e6</v>
       </c>
     </row>
-    <row r="150" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A150" s="3" t="s">
         <v>374</v>
       </c>
@@ -15923,7 +15489,7 @@
         <v>37</v>
       </c>
       <c r="J150" s="7">
-        <v>9247074</v>
+        <v>9.247074e6</v>
       </c>
       <c r="K150" s="5" t="s">
         <v>376</v>
@@ -15957,7 +15523,7 @@
         <v>33</v>
       </c>
       <c r="V150" s="7">
-        <v>1756877</v>
+        <v>1.756877e6</v>
       </c>
       <c r="W150" s="5" t="s">
         <v>380</v>
@@ -15984,13 +15550,13 @@
         <v>25000</v>
       </c>
       <c r="AE150" s="12">
-        <v>4625000</v>
+        <v>4.625e6</v>
       </c>
       <c r="AF150" s="12">
-        <v>4625000</v>
+        <v>4.625e6</v>
       </c>
     </row>
-    <row r="151" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A151" s="13" t="s">
         <v>381</v>
       </c>
@@ -16019,7 +15585,7 @@
         <v>37</v>
       </c>
       <c r="J151" s="17">
-        <v>9247090</v>
+        <v>9.24709e6</v>
       </c>
       <c r="K151" s="15" t="s">
         <v>383</v>
@@ -16053,7 +15619,7 @@
         <v>33</v>
       </c>
       <c r="V151" s="17">
-        <v>1747983</v>
+        <v>1.747983e6</v>
       </c>
       <c r="W151" s="15" t="s">
         <v>386</v>
@@ -16086,7 +15652,7 @@
         <v>939658</v>
       </c>
     </row>
-    <row r="152" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A152" s="3" t="s">
         <v>381</v>
       </c>
@@ -16115,7 +15681,7 @@
         <v>37</v>
       </c>
       <c r="J152" s="7">
-        <v>9247090</v>
+        <v>9.24709e6</v>
       </c>
       <c r="K152" s="5" t="s">
         <v>383</v>
@@ -16149,7 +15715,7 @@
         <v>33</v>
       </c>
       <c r="V152" s="7">
-        <v>1753070</v>
+        <v>1.75307e6</v>
       </c>
       <c r="W152" s="5" t="s">
         <v>388</v>
@@ -16170,19 +15736,19 @@
         <v>900</v>
       </c>
       <c r="AC152" s="11">
-        <v>3995.6207000000004</v>
+        <v>3995.6207</v>
       </c>
       <c r="AD152" s="11">
-        <v>3995.6207000000004</v>
+        <v>3995.6207</v>
       </c>
       <c r="AE152" s="12">
-        <v>3596058.63</v>
+        <v>3.59605863e6</v>
       </c>
       <c r="AF152" s="12">
-        <v>3596058.63</v>
+        <v>3.59605863e6</v>
       </c>
     </row>
-    <row r="153" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A153" s="13" t="s">
         <v>381</v>
       </c>
@@ -16211,7 +15777,7 @@
         <v>37</v>
       </c>
       <c r="J153" s="17">
-        <v>9247090</v>
+        <v>9.24709e6</v>
       </c>
       <c r="K153" s="15" t="s">
         <v>383</v>
@@ -16245,7 +15811,7 @@
         <v>33</v>
       </c>
       <c r="V153" s="17">
-        <v>1753088</v>
+        <v>1.753088e6</v>
       </c>
       <c r="W153" s="15" t="s">
         <v>389</v>
@@ -16278,7 +15844,7 @@
         <v>599400</v>
       </c>
     </row>
-    <row r="154" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A154" s="3" t="s">
         <v>381</v>
       </c>
@@ -16307,7 +15873,7 @@
         <v>37</v>
       </c>
       <c r="J154" s="7">
-        <v>9247090</v>
+        <v>9.24709e6</v>
       </c>
       <c r="K154" s="5" t="s">
         <v>383</v>
@@ -16341,7 +15907,7 @@
         <v>33</v>
       </c>
       <c r="V154" s="7">
-        <v>1753924</v>
+        <v>1.753924e6</v>
       </c>
       <c r="W154" s="5" t="s">
         <v>390</v>
@@ -16374,7 +15940,7 @@
         <v>11682</v>
       </c>
     </row>
-    <row r="155" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A155" s="13" t="s">
         <v>381</v>
       </c>
@@ -16403,7 +15969,7 @@
         <v>37</v>
       </c>
       <c r="J155" s="17">
-        <v>9247090</v>
+        <v>9.24709e6</v>
       </c>
       <c r="K155" s="15" t="s">
         <v>383</v>
@@ -16437,7 +16003,7 @@
         <v>33</v>
       </c>
       <c r="V155" s="17">
-        <v>1756630</v>
+        <v>1.75663e6</v>
       </c>
       <c r="W155" s="15" t="s">
         <v>391</v>
@@ -16470,7 +16036,7 @@
         <v>8982</v>
       </c>
     </row>
-    <row r="156" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A156" s="3" t="s">
         <v>392</v>
       </c>
@@ -16499,7 +16065,7 @@
         <v>37</v>
       </c>
       <c r="J156" s="7">
-        <v>9247154</v>
+        <v>9.247154e6</v>
       </c>
       <c r="K156" s="5" t="s">
         <v>394</v>
@@ -16533,7 +16099,7 @@
         <v>33</v>
       </c>
       <c r="V156" s="7">
-        <v>1755366</v>
+        <v>1.755366e6</v>
       </c>
       <c r="W156" s="5" t="s">
         <v>397</v>
@@ -16560,13 +16126,13 @@
         <v>12.29</v>
       </c>
       <c r="AE156" s="12">
-        <v>6145000</v>
+        <v>6.145e6</v>
       </c>
       <c r="AF156" s="12">
-        <v>6145000</v>
+        <v>6.145e6</v>
       </c>
     </row>
-    <row r="157" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A157" s="13" t="s">
         <v>398</v>
       </c>
@@ -16595,7 +16161,7 @@
         <v>37</v>
       </c>
       <c r="J157" s="17">
-        <v>9247151</v>
+        <v>9.247151e6</v>
       </c>
       <c r="K157" s="15" t="s">
         <v>400</v>
@@ -16629,7 +16195,7 @@
         <v>33</v>
       </c>
       <c r="V157" s="17">
-        <v>1758063</v>
+        <v>1.758063e6</v>
       </c>
       <c r="W157" s="15" t="s">
         <v>403</v>
@@ -16656,13 +16222,13 @@
         <v>24359.2562</v>
       </c>
       <c r="AE157" s="23">
-        <v>7307776.8600000003</v>
+        <v>7.30777686e6</v>
       </c>
       <c r="AF157" s="23">
-        <v>7307776.8600000003</v>
+        <v>7.30777686e6</v>
       </c>
     </row>
-    <row r="158" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A158" s="3" t="s">
         <v>404</v>
       </c>
@@ -16691,7 +16257,7 @@
         <v>37</v>
       </c>
       <c r="J158" s="7">
-        <v>9247179</v>
+        <v>9.247179e6</v>
       </c>
       <c r="K158" s="5" t="s">
         <v>406</v>
@@ -16725,7 +16291,7 @@
         <v>33</v>
       </c>
       <c r="V158" s="7">
-        <v>1755366</v>
+        <v>1.755366e6</v>
       </c>
       <c r="W158" s="5" t="s">
         <v>397</v>
@@ -16752,13 +16318,13 @@
         <v>12.29</v>
       </c>
       <c r="AE158" s="12">
-        <v>6145000</v>
+        <v>6.145e6</v>
       </c>
       <c r="AF158" s="12">
-        <v>6145000</v>
+        <v>6.145e6</v>
       </c>
     </row>
-    <row r="159" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A159" s="13" t="s">
         <v>407</v>
       </c>
@@ -16842,7 +16408,7 @@
         <v>77400</v>
       </c>
     </row>
-    <row r="160" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A160" s="3" t="s">
         <v>413</v>
       </c>
@@ -16871,7 +16437,7 @@
         <v>37</v>
       </c>
       <c r="J160" s="7">
-        <v>9247172</v>
+        <v>9.247172e6</v>
       </c>
       <c r="K160" s="5" t="s">
         <v>415</v>
@@ -16938,7 +16504,7 @@
         <v>27653.11</v>
       </c>
     </row>
-    <row r="161" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A161" s="13" t="s">
         <v>420</v>
       </c>
@@ -17022,7 +16588,7 @@
         <v>453600</v>
       </c>
     </row>
-    <row r="162" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A162" s="3" t="s">
         <v>422</v>
       </c>
@@ -17051,7 +16617,7 @@
         <v>37</v>
       </c>
       <c r="J162" s="7">
-        <v>9250254</v>
+        <v>9.250254e6</v>
       </c>
       <c r="K162" s="5" t="s">
         <v>424</v>
@@ -17118,7 +16684,7 @@
         <v>236250</v>
       </c>
     </row>
-    <row r="163" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A163" s="13" t="s">
         <v>422</v>
       </c>
@@ -17147,7 +16713,7 @@
         <v>37</v>
       </c>
       <c r="J163" s="17">
-        <v>9250254</v>
+        <v>9.250254e6</v>
       </c>
       <c r="K163" s="15" t="s">
         <v>424</v>
@@ -17181,7 +16747,7 @@
         <v>33</v>
       </c>
       <c r="V163" s="17">
-        <v>1271890</v>
+        <v>1.27189e6</v>
       </c>
       <c r="W163" s="15" t="s">
         <v>428</v>
@@ -17214,7 +16780,7 @@
         <v>365508</v>
       </c>
     </row>
-    <row r="164" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A164" s="3" t="s">
         <v>422</v>
       </c>
@@ -17243,7 +16809,7 @@
         <v>37</v>
       </c>
       <c r="J164" s="7">
-        <v>9250315</v>
+        <v>9.250315e6</v>
       </c>
       <c r="K164" s="5" t="s">
         <v>429</v>
@@ -17310,7 +16876,7 @@
         <v>302016</v>
       </c>
     </row>
-    <row r="165" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A165" s="13" t="s">
         <v>433</v>
       </c>
@@ -17339,7 +16905,7 @@
         <v>37</v>
       </c>
       <c r="J165" s="17">
-        <v>9251266</v>
+        <v>9.251266e6</v>
       </c>
       <c r="K165" s="15" t="s">
         <v>435</v>
@@ -17373,7 +16939,7 @@
         <v>33</v>
       </c>
       <c r="V165" s="17">
-        <v>1758276</v>
+        <v>1.758276e6</v>
       </c>
       <c r="W165" s="15" t="s">
         <v>438</v>
@@ -17394,10 +16960,10 @@
         <v>3000</v>
       </c>
       <c r="AC165" s="22">
-        <v>40.270000000000003</v>
+        <v>40.27</v>
       </c>
       <c r="AD165" s="22">
-        <v>40.270000000000003</v>
+        <v>40.27</v>
       </c>
       <c r="AE165" s="23">
         <v>120810</v>
@@ -17406,7 +16972,7 @@
         <v>120810</v>
       </c>
     </row>
-    <row r="166" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A166" s="3" t="s">
         <v>439</v>
       </c>
@@ -17457,7 +17023,7 @@
         <v>33</v>
       </c>
       <c r="V166" s="7">
-        <v>1669486</v>
+        <v>1.669486e6</v>
       </c>
       <c r="W166" s="5" t="s">
         <v>442</v>
@@ -17490,7 +17056,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="167" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A167" s="13" t="s">
         <v>439</v>
       </c>
@@ -17541,7 +17107,7 @@
         <v>33</v>
       </c>
       <c r="V167" s="17">
-        <v>1696041</v>
+        <v>1.696041e6</v>
       </c>
       <c r="W167" s="15" t="s">
         <v>445</v>
@@ -17574,7 +17140,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="168" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A168" s="3" t="s">
         <v>446</v>
       </c>
@@ -17603,7 +17169,7 @@
         <v>448</v>
       </c>
       <c r="J168" s="7">
-        <v>9246044</v>
+        <v>9.246044e6</v>
       </c>
       <c r="K168" s="5" t="s">
         <v>449</v>
@@ -17637,7 +17203,7 @@
         <v>33</v>
       </c>
       <c r="V168" s="7">
-        <v>1669370</v>
+        <v>1.66937e6</v>
       </c>
       <c r="W168" s="5" t="s">
         <v>193</v>
@@ -17670,7 +17236,7 @@
         <v>4606</v>
       </c>
     </row>
-    <row r="169" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A169" s="13" t="s">
         <v>446</v>
       </c>
@@ -17699,7 +17265,7 @@
         <v>448</v>
       </c>
       <c r="J169" s="17">
-        <v>9246044</v>
+        <v>9.246044e6</v>
       </c>
       <c r="K169" s="15" t="s">
         <v>449</v>
@@ -17733,7 +17299,7 @@
         <v>33</v>
       </c>
       <c r="V169" s="17">
-        <v>1669397</v>
+        <v>1.669397e6</v>
       </c>
       <c r="W169" s="15" t="s">
         <v>452</v>
@@ -17766,7 +17332,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="170" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A170" s="3" t="s">
         <v>446</v>
       </c>
@@ -17795,7 +17361,7 @@
         <v>448</v>
       </c>
       <c r="J170" s="7">
-        <v>9246044</v>
+        <v>9.246044e6</v>
       </c>
       <c r="K170" s="5" t="s">
         <v>449</v>
@@ -17829,7 +17395,7 @@
         <v>33</v>
       </c>
       <c r="V170" s="7">
-        <v>1669486</v>
+        <v>1.669486e6</v>
       </c>
       <c r="W170" s="5" t="s">
         <v>442</v>
@@ -17862,7 +17428,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="171" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A171" s="13" t="s">
         <v>453</v>
       </c>
@@ -17946,7 +17512,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="172" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A172" s="3" t="s">
         <v>457</v>
       </c>
@@ -17997,7 +17563,7 @@
         <v>33</v>
       </c>
       <c r="V172" s="7">
-        <v>1692160</v>
+        <v>1.69216e6</v>
       </c>
       <c r="W172" s="5" t="s">
         <v>459</v>
@@ -18030,7 +17596,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="173" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A173" s="13" t="s">
         <v>460</v>
       </c>
@@ -18059,7 +17625,7 @@
         <v>37</v>
       </c>
       <c r="J173" s="17">
-        <v>9246007</v>
+        <v>9.246007e6</v>
       </c>
       <c r="K173" s="15" t="s">
         <v>462</v>
@@ -18093,7 +17659,7 @@
         <v>33</v>
       </c>
       <c r="V173" s="17">
-        <v>1718940</v>
+        <v>1.71894e6</v>
       </c>
       <c r="W173" s="15" t="s">
         <v>465</v>
@@ -18114,7 +17680,7 @@
         <v>84000</v>
       </c>
       <c r="AC173" s="22">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AD173" s="22">
         <v>1.71</v>
@@ -18126,7 +17692,7 @@
         <v>143640</v>
       </c>
     </row>
-    <row r="174" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A174" s="3" t="s">
         <v>466</v>
       </c>
@@ -18210,7 +17776,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="175" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A175" s="13" t="s">
         <v>466</v>
       </c>
@@ -18285,7 +17851,7 @@
         <v>24</v>
       </c>
       <c r="AD175" s="22">
-        <v>32.869999999999997</v>
+        <v>32.87</v>
       </c>
       <c r="AE175" s="23">
         <v>720</v>
@@ -18294,7 +17860,7 @@
         <v>986.1</v>
       </c>
     </row>
-    <row r="176" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A176" s="3" t="s">
         <v>472</v>
       </c>
@@ -18366,10 +17932,10 @@
         <v>10000</v>
       </c>
       <c r="AC176" s="11">
-        <v>0.67600000000000005</v>
+        <v>676000e-6</v>
       </c>
       <c r="AD176" s="11">
-        <v>0.67600000000000005</v>
+        <v>676000e-6</v>
       </c>
       <c r="AE176" s="12">
         <v>6760</v>
@@ -18378,7 +17944,7 @@
         <v>6760</v>
       </c>
     </row>
-    <row r="177" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A177" s="13" t="s">
         <v>472</v>
       </c>
@@ -18429,7 +17995,7 @@
         <v>33</v>
       </c>
       <c r="V177" s="17">
-        <v>1670891</v>
+        <v>1.670891e6</v>
       </c>
       <c r="W177" s="15" t="s">
         <v>478</v>
@@ -18462,7 +18028,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="178" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A178" s="3" t="s">
         <v>472</v>
       </c>
@@ -18513,7 +18079,7 @@
         <v>33</v>
       </c>
       <c r="V178" s="7">
-        <v>1697730</v>
+        <v>1.69773e6</v>
       </c>
       <c r="W178" s="5" t="s">
         <v>481</v>
@@ -18546,7 +18112,7 @@
         <v>248600</v>
       </c>
     </row>
-    <row r="179" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A179" s="13" t="s">
         <v>472</v>
       </c>
@@ -18630,7 +18196,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="180" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A180" s="3" t="s">
         <v>472</v>
       </c>
@@ -18681,7 +18247,7 @@
         <v>33</v>
       </c>
       <c r="V180" s="7">
-        <v>1368818</v>
+        <v>1.368818e6</v>
       </c>
       <c r="W180" s="5" t="s">
         <v>483</v>
@@ -18702,10 +18268,10 @@
         <v>10</v>
       </c>
       <c r="AC180" s="11">
-        <v>293.60000000000002</v>
+        <v>293.6</v>
       </c>
       <c r="AD180" s="11">
-        <v>293.60000000000002</v>
+        <v>293.6</v>
       </c>
       <c r="AE180" s="12">
         <v>2936</v>
@@ -18714,7 +18280,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="181" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A181" s="13" t="s">
         <v>472</v>
       </c>
@@ -18765,7 +18331,7 @@
         <v>33</v>
       </c>
       <c r="V181" s="17">
-        <v>1497391</v>
+        <v>1.497391e6</v>
       </c>
       <c r="W181" s="15" t="s">
         <v>484</v>
@@ -18798,7 +18364,7 @@
         <v>51300</v>
       </c>
     </row>
-    <row r="182" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A182" s="3" t="s">
         <v>472</v>
       </c>
@@ -18849,7 +18415,7 @@
         <v>33</v>
       </c>
       <c r="V182" s="7">
-        <v>1669613</v>
+        <v>1.669613e6</v>
       </c>
       <c r="W182" s="5" t="s">
         <v>487</v>
@@ -18876,13 +18442,13 @@
         <v>31.96</v>
       </c>
       <c r="AE182" s="12">
-        <v>319.60000000000002</v>
+        <v>319.6</v>
       </c>
       <c r="AF182" s="12">
-        <v>319.60000000000002</v>
+        <v>319.6</v>
       </c>
     </row>
-    <row r="183" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A183" s="13" t="s">
         <v>472</v>
       </c>
@@ -18966,7 +18532,7 @@
         <v>1675.6</v>
       </c>
     </row>
-    <row r="184" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A184" s="3" t="s">
         <v>472</v>
       </c>
@@ -19017,7 +18583,7 @@
         <v>33</v>
       </c>
       <c r="V184" s="7">
-        <v>1151746</v>
+        <v>1.151746e6</v>
       </c>
       <c r="W184" s="5" t="s">
         <v>493</v>
@@ -19050,7 +18616,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="185" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A185" s="13" t="s">
         <v>472</v>
       </c>
@@ -19079,7 +18645,7 @@
         <v>37</v>
       </c>
       <c r="J185" s="17">
-        <v>9245762</v>
+        <v>9.245762e6</v>
       </c>
       <c r="K185" s="15" t="s">
         <v>494</v>
@@ -19134,10 +18700,10 @@
         <v>30000</v>
       </c>
       <c r="AC185" s="22">
-        <v>0.9</v>
+        <v>900000e-6</v>
       </c>
       <c r="AD185" s="22">
-        <v>0.9</v>
+        <v>900000e-6</v>
       </c>
       <c r="AE185" s="23">
         <v>27000</v>
@@ -19146,7 +18712,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="186" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A186" s="3" t="s">
         <v>472</v>
       </c>
@@ -19175,7 +18741,7 @@
         <v>37</v>
       </c>
       <c r="J186" s="7">
-        <v>9245763</v>
+        <v>9.245763e6</v>
       </c>
       <c r="K186" s="5" t="s">
         <v>498</v>
@@ -19230,10 +18796,10 @@
         <v>30000</v>
       </c>
       <c r="AC186" s="11">
-        <v>0.55000000000000004</v>
+        <v>550000e-6</v>
       </c>
       <c r="AD186" s="11">
-        <v>0.55000000000000004</v>
+        <v>550000e-6</v>
       </c>
       <c r="AE186" s="12">
         <v>16500</v>
@@ -19242,7 +18808,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="187" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A187" s="13" t="s">
         <v>472</v>
       </c>
@@ -19271,7 +18837,7 @@
         <v>37</v>
       </c>
       <c r="J187" s="17">
-        <v>9245763</v>
+        <v>9.245763e6</v>
       </c>
       <c r="K187" s="15" t="s">
         <v>498</v>
@@ -19305,7 +18871,7 @@
         <v>33</v>
       </c>
       <c r="V187" s="17">
-        <v>1651595</v>
+        <v>1.651595e6</v>
       </c>
       <c r="W187" s="15" t="s">
         <v>502</v>
@@ -19338,7 +18904,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="188" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A188" s="3" t="s">
         <v>503</v>
       </c>
@@ -19367,7 +18933,7 @@
         <v>37</v>
       </c>
       <c r="J188" s="7">
-        <v>9245674</v>
+        <v>9.245674e6</v>
       </c>
       <c r="K188" s="5" t="s">
         <v>506</v>
@@ -19424,19 +18990,19 @@
         <v>0</v>
       </c>
       <c r="AC188" s="11">
-        <v>4359428.8600000003</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AD188" s="11">
-        <v>4359428.8600000003</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AE188" s="12">
-        <v>4359428.8600000003</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AF188" s="12">
-        <v>4359428.8600000003</v>
+        <v>4.35942886e6</v>
       </c>
     </row>
-    <row r="189" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A189" s="13" t="s">
         <v>510</v>
       </c>
@@ -19465,7 +19031,7 @@
         <v>37</v>
       </c>
       <c r="J189" s="17">
-        <v>9245950</v>
+        <v>9.24595e6</v>
       </c>
       <c r="K189" s="15" t="s">
         <v>512</v>
@@ -19522,19 +19088,19 @@
         <v>0</v>
       </c>
       <c r="AC189" s="22">
-        <v>1041625.57</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AD189" s="22">
-        <v>1041625.57</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AE189" s="23">
-        <v>1041625.57</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AF189" s="23">
-        <v>1041625.57</v>
+        <v>1.04162557e6</v>
       </c>
     </row>
-    <row r="190" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A190" s="3" t="s">
         <v>515</v>
       </c>
@@ -19563,7 +19129,7 @@
         <v>37</v>
       </c>
       <c r="J190" s="7">
-        <v>9247198</v>
+        <v>9.247198e6</v>
       </c>
       <c r="K190" s="5" t="s">
         <v>517</v>
@@ -19620,19 +19186,19 @@
         <v>0</v>
       </c>
       <c r="AC190" s="11">
-        <v>7116343.2599999998</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AD190" s="11">
-        <v>7116343.2599999998</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AE190" s="12">
-        <v>7116343.2599999998</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AF190" s="12">
-        <v>7116343.2599999998</v>
+        <v>7.11634326e6</v>
       </c>
     </row>
-    <row r="191" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A191" s="13" t="s">
         <v>520</v>
       </c>
@@ -19661,7 +19227,7 @@
         <v>37</v>
       </c>
       <c r="J191" s="17">
-        <v>9245982</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K191" s="15" t="s">
         <v>523</v>
@@ -19730,7 +19296,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="192" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A192" s="3" t="s">
         <v>520</v>
       </c>
@@ -19759,7 +19325,7 @@
         <v>37</v>
       </c>
       <c r="J192" s="7">
-        <v>9245982</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K192" s="5" t="s">
         <v>523</v>
@@ -19828,7 +19394,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="193" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A193" s="13" t="s">
         <v>520</v>
       </c>
@@ -19857,7 +19423,7 @@
         <v>37</v>
       </c>
       <c r="J193" s="17">
-        <v>9245982</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K193" s="15" t="s">
         <v>523</v>
@@ -19926,7 +19492,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="194" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A194" s="3" t="s">
         <v>520</v>
       </c>
@@ -19955,7 +19521,7 @@
         <v>37</v>
       </c>
       <c r="J194" s="7">
-        <v>9245982</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K194" s="5" t="s">
         <v>523</v>
@@ -20024,7 +19590,7 @@
         <v>7650</v>
       </c>
     </row>
-    <row r="195" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A195" s="13" t="s">
         <v>520</v>
       </c>
@@ -20053,7 +19619,7 @@
         <v>37</v>
       </c>
       <c r="J195" s="17">
-        <v>9245982</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K195" s="15" t="s">
         <v>523</v>
@@ -20089,7 +19655,7 @@
         <v>33</v>
       </c>
       <c r="V195" s="17">
-        <v>1129139</v>
+        <v>1.129139e6</v>
       </c>
       <c r="W195" s="15" t="s">
         <v>527</v>
@@ -20122,7 +19688,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="196" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A196" s="3" t="s">
         <v>520</v>
       </c>
@@ -20151,7 +19717,7 @@
         <v>37</v>
       </c>
       <c r="J196" s="7">
-        <v>9245982</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K196" s="5" t="s">
         <v>523</v>
@@ -20187,7 +19753,7 @@
         <v>33</v>
       </c>
       <c r="V196" s="7">
-        <v>1152823</v>
+        <v>1.152823e6</v>
       </c>
       <c r="W196" s="5" t="s">
         <v>528</v>
@@ -20220,7 +19786,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="197" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A197" s="13" t="s">
         <v>520</v>
       </c>
@@ -20249,7 +19815,7 @@
         <v>37</v>
       </c>
       <c r="J197" s="17">
-        <v>9245982</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K197" s="15" t="s">
         <v>523</v>
@@ -20285,7 +19851,7 @@
         <v>33</v>
       </c>
       <c r="V197" s="17">
-        <v>1152831</v>
+        <v>1.152831e6</v>
       </c>
       <c r="W197" s="15" t="s">
         <v>529</v>
@@ -20318,7 +19884,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="198" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A198" s="3" t="s">
         <v>530</v>
       </c>
@@ -20347,20 +19913,34 @@
         <v>37</v>
       </c>
       <c r="J198" s="7">
-        <v>0</v>
-      </c>
-      <c r="K198" s="5"/>
-      <c r="L198" s="7"/>
-      <c r="M198" s="5"/>
-      <c r="N198" s="8"/>
-      <c r="O198" s="8"/>
-      <c r="P198" s="9"/>
-      <c r="Q198" s="8"/>
+        <v>9.251383e6</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="L198" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M198" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="N198" s="8">
+        <v>44014</v>
+      </c>
+      <c r="O198" s="8">
+        <v>44013</v>
+      </c>
+      <c r="P198" s="9">
+        <v>44557</v>
+      </c>
+      <c r="Q198" s="8">
+        <v>44192</v>
+      </c>
       <c r="R198" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="S198" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="T198" s="3" t="s">
         <v>33</v>
@@ -20369,10 +19949,10 @@
         <v>33</v>
       </c>
       <c r="V198" s="7">
-        <v>1755897</v>
+        <v>1.755897e6</v>
       </c>
       <c r="W198" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="X198" s="7">
         <v>2311</v>
@@ -20390,10 +19970,10 @@
         <v>300</v>
       </c>
       <c r="AC198" s="11">
-        <v>0.95</v>
+        <v>950000e-6</v>
       </c>
       <c r="AD198" s="11">
-        <v>0.95</v>
+        <v>950000e-6</v>
       </c>
       <c r="AE198" s="12">
         <v>285</v>
@@ -20402,9 +19982,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="199" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A199" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B199" s="13" t="s">
         <v>33</v>
@@ -20413,7 +19993,7 @@
         <v>43944</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E199" s="15" t="s">
         <v>33</v>
@@ -20422,7 +20002,7 @@
         <v>2320</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H199" s="13" t="s">
         <v>36</v>
@@ -20441,10 +20021,10 @@
       <c r="P199" s="19"/>
       <c r="Q199" s="18"/>
       <c r="R199" s="15" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="S199" s="15" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T199" s="13" t="s">
         <v>33</v>
@@ -20453,16 +20033,16 @@
         <v>33</v>
       </c>
       <c r="V199" s="17">
-        <v>1692143</v>
+        <v>1.692143e6</v>
       </c>
       <c r="W199" s="15" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="X199" s="17">
         <v>2321</v>
       </c>
       <c r="Y199" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z199" s="15" t="s">
         <v>135</v>
@@ -20474,10 +20054,10 @@
         <v>3000</v>
       </c>
       <c r="AC199" s="22">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="AD199" s="22">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="AE199" s="23">
         <v>24600</v>
@@ -20486,9 +20066,9 @@
         <v>24600</v>
       </c>
     </row>
-    <row r="200" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>33</v>
@@ -20497,7 +20077,7 @@
         <v>43944</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>33</v>
@@ -20506,7 +20086,7 @@
         <v>2320</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>36</v>
@@ -20525,10 +20105,10 @@
       <c r="P200" s="9"/>
       <c r="Q200" s="8"/>
       <c r="R200" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="S200" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T200" s="3" t="s">
         <v>33</v>
@@ -20537,16 +20117,16 @@
         <v>33</v>
       </c>
       <c r="V200" s="7">
-        <v>1143883</v>
+        <v>1.143883e6</v>
       </c>
       <c r="W200" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="X200" s="7">
         <v>2321</v>
       </c>
       <c r="Y200" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z200" s="5" t="s">
         <v>444</v>
@@ -20558,10 +20138,10 @@
         <v>200000</v>
       </c>
       <c r="AC200" s="11">
-        <v>0.6</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD200" s="11">
-        <v>0.6</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE200" s="12">
         <v>120000</v>
@@ -20570,9 +20150,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="201" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A201" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B201" s="13" t="s">
         <v>33</v>
@@ -20581,7 +20161,7 @@
         <v>43944</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E201" s="15" t="s">
         <v>33</v>
@@ -20590,7 +20170,7 @@
         <v>2320</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H201" s="13" t="s">
         <v>36</v>
@@ -20609,10 +20189,10 @@
       <c r="P201" s="19"/>
       <c r="Q201" s="18"/>
       <c r="R201" s="15" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="S201" s="15" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="T201" s="13" t="s">
         <v>33</v>
@@ -20621,16 +20201,16 @@
         <v>33</v>
       </c>
       <c r="V201" s="17">
-        <v>1244515</v>
+        <v>1.244515e6</v>
       </c>
       <c r="W201" s="15" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="X201" s="17">
         <v>2321</v>
       </c>
       <c r="Y201" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z201" s="15" t="s">
         <v>444</v>
@@ -20642,10 +20222,10 @@
         <v>50</v>
       </c>
       <c r="AC201" s="22">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="AD201" s="22">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="AE201" s="23">
         <v>1005</v>
@@ -20654,9 +20234,9 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="202" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A202" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>33</v>
@@ -20665,7 +20245,7 @@
         <v>43944</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>33</v>
@@ -20674,7 +20254,7 @@
         <v>2320</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>36</v>
@@ -20693,10 +20273,10 @@
       <c r="P202" s="9"/>
       <c r="Q202" s="8"/>
       <c r="R202" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S202" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T202" s="3" t="s">
         <v>33</v>
@@ -20705,16 +20285,16 @@
         <v>33</v>
       </c>
       <c r="V202" s="7">
-        <v>1244108</v>
+        <v>1.244108e6</v>
       </c>
       <c r="W202" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="X202" s="7">
         <v>2321</v>
       </c>
       <c r="Y202" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z202" s="5" t="s">
         <v>444</v>
@@ -20732,15 +20312,15 @@
         <v>358.24</v>
       </c>
       <c r="AE202" s="12">
-        <v>32241.599999999999</v>
+        <v>32241.6</v>
       </c>
       <c r="AF202" s="12">
-        <v>32241.599999999999</v>
+        <v>32241.6</v>
       </c>
     </row>
-    <row r="203" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A203" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B203" s="13" t="s">
         <v>33</v>
@@ -20749,7 +20329,7 @@
         <v>43944</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E203" s="15" t="s">
         <v>33</v>
@@ -20758,7 +20338,7 @@
         <v>2320</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H203" s="13" t="s">
         <v>36</v>
@@ -20777,10 +20357,10 @@
       <c r="P203" s="19"/>
       <c r="Q203" s="18"/>
       <c r="R203" s="15" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S203" s="15" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T203" s="13" t="s">
         <v>33</v>
@@ -20789,16 +20369,16 @@
         <v>33</v>
       </c>
       <c r="V203" s="17">
-        <v>1244507</v>
+        <v>1.244507e6</v>
       </c>
       <c r="W203" s="15" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="X203" s="17">
         <v>2321</v>
       </c>
       <c r="Y203" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z203" s="15" t="s">
         <v>444</v>
@@ -20822,9 +20402,9 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="204" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>33</v>
@@ -20833,7 +20413,7 @@
         <v>43944</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>33</v>
@@ -20842,7 +20422,7 @@
         <v>2320</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>36</v>
@@ -20861,10 +20441,10 @@
       <c r="P204" s="9"/>
       <c r="Q204" s="8"/>
       <c r="R204" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S204" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T204" s="3" t="s">
         <v>33</v>
@@ -20873,16 +20453,16 @@
         <v>33</v>
       </c>
       <c r="V204" s="7">
-        <v>1257587</v>
+        <v>1.257587e6</v>
       </c>
       <c r="W204" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="X204" s="7">
         <v>2321</v>
       </c>
       <c r="Y204" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z204" s="5" t="s">
         <v>444</v>
@@ -20894,10 +20474,10 @@
         <v>80000</v>
       </c>
       <c r="AC204" s="11">
-        <v>0.39</v>
+        <v>390000e-6</v>
       </c>
       <c r="AD204" s="11">
-        <v>0.39</v>
+        <v>390000e-6</v>
       </c>
       <c r="AE204" s="12">
         <v>31200</v>
@@ -20906,9 +20486,9 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="205" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A205" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B205" s="13" t="s">
         <v>33</v>
@@ -20917,7 +20497,7 @@
         <v>43944</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E205" s="15" t="s">
         <v>33</v>
@@ -20926,7 +20506,7 @@
         <v>2320</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H205" s="13" t="s">
         <v>36</v>
@@ -20945,10 +20525,10 @@
       <c r="P205" s="19"/>
       <c r="Q205" s="18"/>
       <c r="R205" s="15" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S205" s="15" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T205" s="13" t="s">
         <v>33</v>
@@ -20957,16 +20537,16 @@
         <v>33</v>
       </c>
       <c r="V205" s="17">
-        <v>1257625</v>
+        <v>1.257625e6</v>
       </c>
       <c r="W205" s="15" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="X205" s="17">
         <v>2321</v>
       </c>
       <c r="Y205" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z205" s="15" t="s">
         <v>387</v>
@@ -20990,9 +20570,9 @@
         <v>31590</v>
       </c>
     </row>
-    <row r="206" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A206" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>33</v>
@@ -21001,7 +20581,7 @@
         <v>43944</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>33</v>
@@ -21010,7 +20590,7 @@
         <v>2320</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>36</v>
@@ -21029,10 +20609,10 @@
       <c r="P206" s="9"/>
       <c r="Q206" s="8"/>
       <c r="R206" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S206" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T206" s="3" t="s">
         <v>33</v>
@@ -21041,16 +20621,16 @@
         <v>33</v>
       </c>
       <c r="V206" s="7">
-        <v>1258699</v>
+        <v>1.258699e6</v>
       </c>
       <c r="W206" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="X206" s="7">
         <v>2321</v>
       </c>
       <c r="Y206" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z206" s="5" t="s">
         <v>444</v>
@@ -21074,9 +20654,9 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="207" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A207" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B207" s="13" t="s">
         <v>33</v>
@@ -21085,7 +20665,7 @@
         <v>43944</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E207" s="15" t="s">
         <v>33</v>
@@ -21094,7 +20674,7 @@
         <v>2320</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H207" s="13" t="s">
         <v>36</v>
@@ -21113,10 +20693,10 @@
       <c r="P207" s="19"/>
       <c r="Q207" s="18"/>
       <c r="R207" s="15" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S207" s="15" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T207" s="13" t="s">
         <v>33</v>
@@ -21125,16 +20705,16 @@
         <v>33</v>
       </c>
       <c r="V207" s="17">
-        <v>1259784</v>
+        <v>1.259784e6</v>
       </c>
       <c r="W207" s="15" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="X207" s="17">
         <v>2321</v>
       </c>
       <c r="Y207" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z207" s="15" t="s">
         <v>444</v>
@@ -21146,10 +20726,10 @@
         <v>3000</v>
       </c>
       <c r="AC207" s="22">
-        <v>0.6</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD207" s="22">
-        <v>0.6</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE207" s="23">
         <v>1800</v>
@@ -21158,9 +20738,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="208" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A208" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>33</v>
@@ -21169,7 +20749,7 @@
         <v>43944</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>33</v>
@@ -21178,7 +20758,7 @@
         <v>2320</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>36</v>
@@ -21197,10 +20777,10 @@
       <c r="P208" s="9"/>
       <c r="Q208" s="8"/>
       <c r="R208" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S208" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T208" s="3" t="s">
         <v>33</v>
@@ -21209,16 +20789,16 @@
         <v>33</v>
       </c>
       <c r="V208" s="7">
-        <v>1259792</v>
+        <v>1.259792e6</v>
       </c>
       <c r="W208" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="X208" s="7">
         <v>2321</v>
       </c>
       <c r="Y208" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z208" s="5" t="s">
         <v>444</v>
@@ -21242,9 +20822,9 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="209" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A209" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B209" s="13" t="s">
         <v>33</v>
@@ -21253,7 +20833,7 @@
         <v>43944</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E209" s="15" t="s">
         <v>33</v>
@@ -21262,7 +20842,7 @@
         <v>2320</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H209" s="13" t="s">
         <v>36</v>
@@ -21281,10 +20861,10 @@
       <c r="P209" s="19"/>
       <c r="Q209" s="18"/>
       <c r="R209" s="15" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S209" s="15" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T209" s="13" t="s">
         <v>33</v>
@@ -21293,16 +20873,16 @@
         <v>33</v>
       </c>
       <c r="V209" s="17">
-        <v>1260669</v>
+        <v>1.260669e6</v>
       </c>
       <c r="W209" s="15" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="X209" s="17">
         <v>2321</v>
       </c>
       <c r="Y209" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z209" s="15" t="s">
         <v>444</v>
@@ -21326,9 +20906,9 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="210" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>33</v>
@@ -21337,7 +20917,7 @@
         <v>43944</v>
       </c>
       <c r="D210" s="26" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>33</v>
@@ -21346,7 +20926,7 @@
         <v>2320</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>36</v>
@@ -21365,10 +20945,10 @@
       <c r="P210" s="9"/>
       <c r="Q210" s="8"/>
       <c r="R210" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S210" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T210" s="3" t="s">
         <v>33</v>
@@ -21377,16 +20957,16 @@
         <v>33</v>
       </c>
       <c r="V210" s="7">
-        <v>1260677</v>
+        <v>1.260677e6</v>
       </c>
       <c r="W210" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="X210" s="7">
         <v>2321</v>
       </c>
       <c r="Y210" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z210" s="5" t="s">
         <v>444</v>
@@ -21410,9 +20990,9 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="211" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A211" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B211" s="13" t="s">
         <v>33</v>
@@ -21421,7 +21001,7 @@
         <v>43944</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E211" s="15" t="s">
         <v>33</v>
@@ -21430,7 +21010,7 @@
         <v>2320</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H211" s="13" t="s">
         <v>36</v>
@@ -21449,10 +21029,10 @@
       <c r="P211" s="19"/>
       <c r="Q211" s="18"/>
       <c r="R211" s="15" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S211" s="15" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T211" s="13" t="s">
         <v>33</v>
@@ -21461,16 +21041,16 @@
         <v>33</v>
       </c>
       <c r="V211" s="17">
-        <v>1260731</v>
+        <v>1.260731e6</v>
       </c>
       <c r="W211" s="20" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="X211" s="17">
         <v>2321</v>
       </c>
       <c r="Y211" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z211" s="15" t="s">
         <v>444</v>
@@ -21482,10 +21062,10 @@
         <v>60</v>
       </c>
       <c r="AC211" s="22">
-        <v>271.97000000000003</v>
+        <v>271.97</v>
       </c>
       <c r="AD211" s="22">
-        <v>271.97000000000003</v>
+        <v>271.97</v>
       </c>
       <c r="AE211" s="23">
         <v>16318.2</v>
@@ -21494,9 +21074,9 @@
         <v>16318.2</v>
       </c>
     </row>
-    <row r="212" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A212" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>33</v>
@@ -21505,7 +21085,7 @@
         <v>43944</v>
       </c>
       <c r="D212" s="26" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>33</v>
@@ -21514,7 +21094,7 @@
         <v>2320</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>36</v>
@@ -21533,10 +21113,10 @@
       <c r="P212" s="9"/>
       <c r="Q212" s="8"/>
       <c r="R212" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S212" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T212" s="3" t="s">
         <v>33</v>
@@ -21545,16 +21125,16 @@
         <v>33</v>
       </c>
       <c r="V212" s="7">
-        <v>1687115</v>
+        <v>1.687115e6</v>
       </c>
       <c r="W212" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X212" s="7">
         <v>2321</v>
       </c>
       <c r="Y212" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z212" s="5" t="s">
         <v>444</v>
@@ -21566,10 +21146,10 @@
         <v>60</v>
       </c>
       <c r="AC212" s="11">
-        <v>16.649999999999999</v>
+        <v>16.65</v>
       </c>
       <c r="AD212" s="11">
-        <v>16.649999999999999</v>
+        <v>16.65</v>
       </c>
       <c r="AE212" s="12">
         <v>999</v>
@@ -21578,9 +21158,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="213" spans="1:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A213" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B213" s="13" t="s">
         <v>33</v>
@@ -21589,7 +21169,7 @@
         <v>43944</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E213" s="15" t="s">
         <v>33</v>
@@ -21598,7 +21178,7 @@
         <v>2320</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H213" s="13" t="s">
         <v>36</v>
@@ -21617,10 +21197,10 @@
       <c r="P213" s="19"/>
       <c r="Q213" s="18"/>
       <c r="R213" s="15" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="S213" s="15" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="T213" s="13" t="s">
         <v>33</v>
@@ -21629,16 +21209,16 @@
         <v>33</v>
       </c>
       <c r="V213" s="17">
-        <v>1257463</v>
+        <v>1.257463e6</v>
       </c>
       <c r="W213" s="15" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="X213" s="17">
         <v>2321</v>
       </c>
       <c r="Y213" s="15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z213" s="15" t="s">
         <v>444</v>
@@ -21650,10 +21230,10 @@
         <v>200</v>
       </c>
       <c r="AC213" s="22">
-        <v>34.200000000000003</v>
+        <v>34.2</v>
       </c>
       <c r="AD213" s="22">
-        <v>34.200000000000003</v>
+        <v>34.2</v>
       </c>
       <c r="AE213" s="23">
         <v>6840</v>
@@ -21662,9 +21242,93 @@
         <v>6840</v>
       </c>
     </row>
+    <row r="214" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A214" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C214" s="4">
+        <v>44007</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F214" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J214" s="7">
+        <v>0</v>
+      </c>
+      <c r="K214" s="5"/>
+      <c r="L214" s="7"/>
+      <c r="M214" s="5"/>
+      <c r="N214" s="8"/>
+      <c r="O214" s="8"/>
+      <c r="P214" s="9"/>
+      <c r="Q214" s="8"/>
+      <c r="R214" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="S214" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="T214" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U214" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V214" s="7">
+        <v>6297</v>
+      </c>
+      <c r="W214" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="X214" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y214" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z214" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="AA214" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB214" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC214" s="11">
+        <v>9972</v>
+      </c>
+      <c r="AD214" s="11">
+        <v>8496</v>
+      </c>
+      <c r="AE214" s="12">
+        <v>9972</v>
+      </c>
+      <c r="AF214" s="12">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="215" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.78431372549019618" right="0.78431372549019618" top="0.98039215686274517" bottom="0.98039215686274517" header="0.50980392156862753" footer="0.50980392156862753"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>